--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5316A325-B8F2-42D7-A0A6-68198A93B0A5}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FDBA8AE-277B-4C2D-ABA1-F2D53CB5A8F4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
@@ -16,15 +16,6 @@
     <sheet name="Identical VS Compatible" sheetId="3" r:id="rId1"/>
     <sheet name="Compatible VS Incompatible" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Compatible VS Incompatible'!$D$3:$D$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Compatible VS Incompatible'!$E$3:$E$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Compatible VS Incompatible'!$D$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Compatible VS Incompatible'!$D$3:$D$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Compatible VS Incompatible'!$E$3:$E$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Compatible VS Incompatible'!$F$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Compatible VS Incompatible'!$F$3:$F$10</definedName>
-  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="45">
   <si>
     <t>Average number of patients in the activation center</t>
   </si>
@@ -170,6 +161,18 @@
   <si>
     <t>Average number of patients activated</t>
   </si>
+  <si>
+    <t>Average number of transplants</t>
+  </si>
+  <si>
+    <t>Average number of successful transplants</t>
+  </si>
+  <si>
+    <t>Average number of rejected transplants</t>
+  </si>
+  <si>
+    <t>Average number of organ outdatings</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -353,6 +362,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -365,43 +380,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,13 +422,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -743,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BCF3B6-51B1-48FA-984F-EC30D107B6D0}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD122"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -758,34 +796,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1866,41 +1904,41 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="21"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="27" t="s">
+      <c r="C92" s="17"/>
+      <c r="D92" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="28"/>
-      <c r="F92" s="29" t="s">
+      <c r="E92" s="27"/>
+      <c r="F92" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G92" s="30"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="16"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="7"/>
       <c r="E93" s="6"/>
       <c r="F93" s="7"/>
@@ -1908,10 +1946,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="11"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="3"/>
       <c r="E94" s="5"/>
       <c r="F94" s="3"/>
@@ -1919,10 +1957,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="11"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="3"/>
       <c r="E95" s="5"/>
       <c r="F95" s="3"/>
@@ -1930,10 +1968,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="11"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="3"/>
       <c r="E96" s="5"/>
       <c r="F96" s="3"/>
@@ -1943,10 +1981,10 @@
       <c r="A97" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="11"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="3"/>
       <c r="E97" s="5"/>
       <c r="F97" s="3"/>
@@ -1954,10 +1992,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="11"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="3"/>
       <c r="E98" s="5"/>
       <c r="F98" s="3"/>
@@ -1965,10 +2003,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="11"/>
+      <c r="C99" s="13"/>
       <c r="D99" s="3"/>
       <c r="E99" s="5"/>
       <c r="F99" s="3"/>
@@ -1976,10 +2014,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="11"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="3"/>
       <c r="E100" s="5"/>
       <c r="F100" s="3"/>
@@ -1987,12 +2025,12 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="11"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="3"/>
       <c r="E101" s="5"/>
       <c r="F101" s="3"/>
@@ -2000,10 +2038,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="11"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="3"/>
       <c r="E102" s="5"/>
       <c r="F102" s="3"/>
@@ -2011,10 +2049,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="11"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="3"/>
       <c r="E103" s="5"/>
       <c r="F103" s="3"/>
@@ -2022,10 +2060,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="11"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="3"/>
       <c r="E104" s="5"/>
       <c r="F104" s="3"/>
@@ -2035,10 +2073,10 @@
       <c r="A105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="11"/>
+      <c r="C105" s="13"/>
       <c r="D105" s="3"/>
       <c r="E105" s="5"/>
       <c r="F105" s="3"/>
@@ -2046,10 +2084,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="11"/>
+      <c r="C106" s="13"/>
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
       <c r="F106" s="3"/>
@@ -2057,10 +2095,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="11"/>
+      <c r="C107" s="13"/>
       <c r="D107" s="3"/>
       <c r="E107" s="5"/>
       <c r="F107" s="3"/>
@@ -2068,10 +2106,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="11"/>
+      <c r="C108" s="13"/>
       <c r="D108" s="3"/>
       <c r="E108" s="5"/>
       <c r="F108" s="3"/>
@@ -2081,10 +2119,10 @@
       <c r="A109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="11"/>
+      <c r="C109" s="13"/>
       <c r="D109" s="3"/>
       <c r="E109" s="5"/>
       <c r="F109" s="3"/>
@@ -2092,10 +2130,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="11"/>
+      <c r="C110" s="13"/>
       <c r="D110" s="3"/>
       <c r="E110" s="5"/>
       <c r="F110" s="3"/>
@@ -2103,10 +2141,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="11"/>
+      <c r="C111" s="13"/>
       <c r="D111" s="3"/>
       <c r="E111" s="5"/>
       <c r="F111" s="3"/>
@@ -2114,44 +2152,44 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="2"/>
       <c r="E112" s="4"/>
       <c r="F112" s="2"/>
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="21"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="25"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E114" s="28"/>
-      <c r="F114" s="29" t="s">
+      <c r="E114" s="27"/>
+      <c r="F114" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G114" s="30"/>
+      <c r="G114" s="29"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -2557,41 +2595,41 @@
       <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="21"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="25"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C149" s="32"/>
-      <c r="D149" s="29" t="s">
+      <c r="C149" s="17"/>
+      <c r="D149" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="29" t="s">
+      <c r="E149" s="29"/>
+      <c r="F149" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G149" s="30"/>
+      <c r="G149" s="29"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="17"/>
+      <c r="C150" s="20"/>
       <c r="D150" s="7"/>
       <c r="E150" s="6"/>
       <c r="F150" s="7"/>
@@ -2599,10 +2637,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="14"/>
+      <c r="C151" s="18"/>
       <c r="D151" s="3"/>
       <c r="E151" s="5"/>
       <c r="F151" s="3"/>
@@ -2610,10 +2648,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="14"/>
+      <c r="C152" s="18"/>
       <c r="D152" s="3"/>
       <c r="E152" s="5"/>
       <c r="F152" s="3"/>
@@ -2621,10 +2659,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="14"/>
+      <c r="C153" s="18"/>
       <c r="D153" s="3"/>
       <c r="E153" s="5"/>
       <c r="F153" s="3"/>
@@ -2634,10 +2672,10 @@
       <c r="A154" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="14"/>
+      <c r="C154" s="18"/>
       <c r="D154" s="3"/>
       <c r="E154" s="5"/>
       <c r="F154" s="3"/>
@@ -2645,10 +2683,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="14"/>
+      <c r="C155" s="18"/>
       <c r="D155" s="3"/>
       <c r="E155" s="5"/>
       <c r="F155" s="3"/>
@@ -2656,10 +2694,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C156" s="14"/>
+      <c r="C156" s="18"/>
       <c r="D156" s="3"/>
       <c r="E156" s="5"/>
       <c r="F156" s="3"/>
@@ -2667,10 +2705,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="14"/>
+      <c r="C157" s="18"/>
       <c r="D157" s="3"/>
       <c r="E157" s="5"/>
       <c r="F157" s="3"/>
@@ -2680,10 +2718,10 @@
       <c r="A158" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="14"/>
+      <c r="C158" s="18"/>
       <c r="D158" s="3"/>
       <c r="E158" s="5"/>
       <c r="F158" s="3"/>
@@ -2691,10 +2729,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="14"/>
+      <c r="C159" s="18"/>
       <c r="D159" s="3"/>
       <c r="E159" s="5"/>
       <c r="F159" s="3"/>
@@ -2702,10 +2740,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="14"/>
+      <c r="C160" s="18"/>
       <c r="D160" s="3"/>
       <c r="E160" s="5"/>
       <c r="F160" s="3"/>
@@ -2713,10 +2751,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="14"/>
+      <c r="C161" s="18"/>
       <c r="D161" s="3"/>
       <c r="E161" s="5"/>
       <c r="F161" s="3"/>
@@ -2726,10 +2764,10 @@
       <c r="A162" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="14"/>
+      <c r="C162" s="18"/>
       <c r="D162" s="3"/>
       <c r="E162" s="5"/>
       <c r="F162" s="3"/>
@@ -2737,10 +2775,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="14"/>
+      <c r="C163" s="18"/>
       <c r="D163" s="3"/>
       <c r="E163" s="5"/>
       <c r="F163" s="3"/>
@@ -2748,10 +2786,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="14"/>
+      <c r="C164" s="18"/>
       <c r="D164" s="3"/>
       <c r="E164" s="5"/>
       <c r="F164" s="3"/>
@@ -2759,10 +2797,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="14"/>
+      <c r="C165" s="18"/>
       <c r="D165" s="3"/>
       <c r="E165" s="5"/>
       <c r="F165" s="3"/>
@@ -2787,34 +2825,34 @@
     <mergeCell ref="A91:G91"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B159:C159"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="D114:E114"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="A148:G148"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B149:C149"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
     <mergeCell ref="B152:C152"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
@@ -2840,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2317ED-57BA-4FAE-A3A8-363C38207229}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2855,34 +2893,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2895,16 +2933,16 @@
         <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>16.412697999999999</v>
+        <v>16.603175</v>
       </c>
       <c r="E3" s="5">
-        <v>1.236802</v>
+        <v>1.137626</v>
       </c>
       <c r="F3" s="3">
-        <v>19.174603000000001</v>
+        <v>17.761904999999999</v>
       </c>
       <c r="G3" s="5">
-        <v>1.5033019999999999</v>
+        <v>1.3851309999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2914,16 +2952,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>12448.730159000001</v>
+        <v>12453.269840999999</v>
       </c>
       <c r="E4" s="5">
-        <v>22.895330999999999</v>
+        <v>24.070218000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>12906.571429</v>
+        <v>12912.714286</v>
       </c>
       <c r="G4" s="5">
-        <v>24.189416000000001</v>
+        <v>22.892257000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2935,16 +2973,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>8.8253970000000006</v>
+        <v>9.6031750000000002</v>
       </c>
       <c r="E5" s="5">
-        <v>0.77892700000000004</v>
+        <v>0.86244500000000002</v>
       </c>
       <c r="F5" s="3">
-        <v>9.9206350000000008</v>
+        <v>9.7619050000000005</v>
       </c>
       <c r="G5" s="5">
-        <v>1.018799</v>
+        <v>0.83247700000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2954,16 +2992,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>8190.1587300000001</v>
+        <v>8195.793651</v>
       </c>
       <c r="E6" s="5">
-        <v>20.989345</v>
+        <v>20.996456999999999</v>
       </c>
       <c r="F6" s="3">
-        <v>8506.5873019999999</v>
+        <v>8503.5555559999993</v>
       </c>
       <c r="G6" s="5">
-        <v>24.276123999999999</v>
+        <v>22.007697</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2975,16 +3013,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>5.0634920000000001</v>
+        <v>5.4444439999999998</v>
       </c>
       <c r="E7" s="5">
-        <v>0.73616400000000004</v>
+        <v>0.64570499999999997</v>
       </c>
       <c r="F7" s="3">
-        <v>5.6666670000000003</v>
+        <v>5.5873020000000002</v>
       </c>
       <c r="G7" s="5">
-        <v>0.65078999999999998</v>
+        <v>0.62943000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2994,16 +3032,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3779.9841270000002</v>
+        <v>3782</v>
       </c>
       <c r="E8" s="5">
-        <v>17.619723</v>
+        <v>18.983803999999999</v>
       </c>
       <c r="F8" s="3">
-        <v>3925.666667</v>
+        <v>3927.1428569999998</v>
       </c>
       <c r="G8" s="5">
-        <v>18.133133999999998</v>
+        <v>17.599875999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3018,13 +3056,13 @@
         <v>1.730159</v>
       </c>
       <c r="E9" s="5">
-        <v>0.39226800000000001</v>
+        <v>0.387017</v>
       </c>
       <c r="F9" s="3">
-        <v>1.730159</v>
+        <v>1.9206350000000001</v>
       </c>
       <c r="G9" s="5">
-        <v>0.35387800000000003</v>
+        <v>0.39511400000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3034,16 +3072,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>989.031746</v>
+        <v>985.65079400000002</v>
       </c>
       <c r="E10" s="5">
-        <v>8.6341710000000003</v>
+        <v>6.6886999999999999</v>
       </c>
       <c r="F10" s="3">
-        <v>992.31745999999998</v>
+        <v>988.36507900000004</v>
       </c>
       <c r="G10" s="5">
-        <v>8.0721380000000007</v>
+        <v>8.7080649999999995</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3076,16 +3114,16 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>935.38095199999998</v>
+        <v>932.88888899999995</v>
       </c>
       <c r="E12" s="5">
-        <v>7.8287649999999998</v>
+        <v>7.2597379999999996</v>
       </c>
       <c r="F12" s="3">
-        <v>933.66666699999996</v>
+        <v>938.77777800000001</v>
       </c>
       <c r="G12" s="5">
-        <v>7.0582339999999997</v>
+        <v>8.6933849999999993</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3116,16 +3154,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="3">
-        <v>472.79365100000001</v>
+        <v>469.39682499999998</v>
       </c>
       <c r="E14" s="5">
-        <v>5.4340190000000002</v>
+        <v>5.6524140000000003</v>
       </c>
       <c r="F14" s="3">
-        <v>475.63492100000002</v>
+        <v>468.76190500000001</v>
       </c>
       <c r="G14" s="5">
-        <v>5.4106509999999997</v>
+        <v>6.031396</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3156,16 +3194,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>285.80952400000001</v>
+        <v>285.22222199999999</v>
       </c>
       <c r="E16" s="5">
-        <v>4.2342680000000001</v>
+        <v>4.7695509999999999</v>
       </c>
       <c r="F16" s="3">
-        <v>282.60317500000002</v>
+        <v>282.33333299999998</v>
       </c>
       <c r="G16" s="5">
-        <v>3.9169119999999999</v>
+        <v>4.1849699999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3196,16 +3234,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>40.952381000000003</v>
+        <v>42.507936999999998</v>
       </c>
       <c r="E18" s="5">
-        <v>1.643664</v>
+        <v>1.5727</v>
       </c>
       <c r="F18" s="3">
-        <v>41.666666999999997</v>
+        <v>41.809524000000003</v>
       </c>
       <c r="G18" s="5">
-        <v>1.757115</v>
+        <v>1.725897</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3219,10 +3257,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>4.7619000000000002E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>5.4064000000000001E-2</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3238,16 +3276,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>1441.1111109999999</v>
+        <v>1439.68254</v>
       </c>
       <c r="E20" s="5">
-        <v>9.3669589999999996</v>
+        <v>9.047034</v>
       </c>
       <c r="F20" s="3">
-        <v>1440.31746</v>
+        <v>1442.126984</v>
       </c>
       <c r="G20" s="5">
-        <v>10.086131999999999</v>
+        <v>9.5331709999999994</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3278,16 +3316,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>817.39682500000004</v>
+        <v>819.936508</v>
       </c>
       <c r="E22" s="5">
-        <v>8.8717299999999994</v>
+        <v>7.9165359999999998</v>
       </c>
       <c r="F22" s="3">
-        <v>819.41269799999998</v>
+        <v>815.04761900000005</v>
       </c>
       <c r="G22" s="5">
-        <v>7.3093849999999998</v>
+        <v>7.1377100000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3318,16 +3356,16 @@
         <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>429.23809499999999</v>
+        <v>429.90476200000001</v>
       </c>
       <c r="E24" s="5">
-        <v>4.718502</v>
+        <v>4.5977110000000003</v>
       </c>
       <c r="F24" s="3">
-        <v>430.936508</v>
+        <v>430.23809499999999</v>
       </c>
       <c r="G24" s="5">
-        <v>5.8811390000000001</v>
+        <v>4.8430410000000004</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3358,16 +3396,16 @@
         <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>72.412698000000006</v>
+        <v>74.444444000000004</v>
       </c>
       <c r="E26" s="5">
-        <v>2.352827</v>
+        <v>2.133051</v>
       </c>
       <c r="F26" s="3">
-        <v>75.317459999999997</v>
+        <v>76.460317000000003</v>
       </c>
       <c r="G26" s="5">
-        <v>2.0323799999999999</v>
+        <v>2.0464250000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3396,11 +3434,11 @@
         <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>211479</v>
+        <v>210532</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3">
-        <v>231804</v>
+        <v>231842</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -3428,11 +3466,11 @@
         <v>4</v>
       </c>
       <c r="D30" s="3">
-        <v>140313</v>
+        <v>139715</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="3">
-        <v>154090</v>
+        <v>154187</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -3460,11 +3498,11 @@
         <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>64061</v>
+        <v>63917</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="3">
-        <v>70311</v>
+        <v>70534</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -3492,11 +3530,11 @@
         <v>4</v>
       </c>
       <c r="D34" s="3">
-        <v>15</v>
+        <v>1572</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="3">
-        <v>18034</v>
+        <v>17994</v>
       </c>
       <c r="G34" s="5"/>
     </row>
@@ -3511,16 +3549,16 @@
         <v>5</v>
       </c>
       <c r="D35" s="3">
-        <v>21.881888</v>
+        <v>21.603562</v>
       </c>
       <c r="E35" s="5">
-        <v>0.27078600000000003</v>
+        <v>0.25826100000000002</v>
       </c>
       <c r="F35" s="3">
-        <v>18.437573</v>
+        <v>20.263798999999999</v>
       </c>
       <c r="G35" s="5">
-        <v>0.27803800000000001</v>
+        <v>0.22117300000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3530,16 +3568,16 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>2.9335E-2</v>
+        <v>2.9323999999999999E-2</v>
       </c>
       <c r="E36" s="5">
-        <v>5.0000000000000004E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="F36" s="3">
-        <v>2.8317999999999999E-2</v>
+        <v>2.8302999999999998E-2</v>
       </c>
       <c r="G36" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3551,16 +3589,16 @@
         <v>5</v>
       </c>
       <c r="D37" s="3">
-        <v>41.860581000000003</v>
+        <v>39.742883999999997</v>
       </c>
       <c r="E37" s="5">
-        <v>0.47930200000000001</v>
+        <v>0.54322199999999998</v>
       </c>
       <c r="F37" s="3">
-        <v>37.069198999999998</v>
+        <v>36.118878000000002</v>
       </c>
       <c r="G37" s="5">
-        <v>0.40981400000000001</v>
+        <v>0.49256</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3570,16 +3608,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>4.4631999999999998E-2</v>
+        <v>4.4595000000000003E-2</v>
       </c>
       <c r="E38" s="5">
-        <v>3.8000000000000002E-5</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="F38" s="3">
-        <v>4.3043999999999999E-2</v>
+        <v>4.3024E-2</v>
       </c>
       <c r="G38" s="5">
-        <v>6.6000000000000005E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3591,16 +3629,16 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>83.786254</v>
+        <v>80.481656999999998</v>
       </c>
       <c r="E39" s="5">
-        <v>10.334777000000001</v>
+        <v>10.729193</v>
       </c>
       <c r="F39" s="3">
-        <v>62.942321</v>
+        <v>72.993915999999999</v>
       </c>
       <c r="G39" s="5">
-        <v>1.541863</v>
+        <v>10.319675</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3610,16 +3648,16 @@
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>9.6096000000000001E-2</v>
+        <v>9.6160999999999996E-2</v>
       </c>
       <c r="E40" s="5">
-        <v>1.36E-4</v>
+        <v>1.03E-4</v>
       </c>
       <c r="F40" s="3">
-        <v>9.2629000000000003E-2</v>
+        <v>9.2627000000000001E-2</v>
       </c>
       <c r="G40" s="5">
-        <v>9.5000000000000005E-5</v>
+        <v>8.7000000000000001E-5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3631,16 +3669,16 @@
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>184.104806</v>
+        <v>188.720493</v>
       </c>
       <c r="E41" s="5">
-        <v>9.3703710000000004</v>
+        <v>7.8930550000000004</v>
       </c>
       <c r="F41" s="3">
-        <v>191.97196400000001</v>
+        <v>173.91171800000001</v>
       </c>
       <c r="G41" s="5">
-        <v>7.5397020000000001</v>
+        <v>5.3002500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3650,16 +3688,16 @@
         <v>4</v>
       </c>
       <c r="D42" s="3">
-        <v>0.37067800000000001</v>
+        <v>0.37013000000000001</v>
       </c>
       <c r="E42" s="5">
-        <v>8.2600000000000002E-4</v>
+        <v>5.2400000000000005E-4</v>
       </c>
       <c r="F42" s="3">
-        <v>0.36716500000000002</v>
+        <v>0.37127399999999999</v>
       </c>
       <c r="G42" s="5">
-        <v>4.3899999999999999E-4</v>
+        <v>6.8900000000000005E-4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3673,16 +3711,16 @@
         <v>5</v>
       </c>
       <c r="D43" s="3">
-        <v>2.32E-4</v>
+        <v>4.6799999999999999E-4</v>
       </c>
       <c r="E43" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="F43" s="3">
-        <v>7.3999999999999996E-5</v>
+        <v>6.3E-5</v>
       </c>
       <c r="G43" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3692,16 +3730,16 @@
         <v>4</v>
       </c>
       <c r="D44" s="3">
-        <v>2841.4266389999998</v>
+        <v>2823.3028920000002</v>
       </c>
       <c r="E44" s="5">
-        <v>409.66005699999999</v>
+        <v>406.83753200000001</v>
       </c>
       <c r="F44" s="3">
-        <v>3033.5626229999998</v>
+        <v>3036.0826240000001</v>
       </c>
       <c r="G44" s="5">
-        <v>439.16756600000002</v>
+        <v>439.83436899999998</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3713,16 +3751,16 @@
         <v>5</v>
       </c>
       <c r="D45" s="3">
-        <v>1.01E-4</v>
+        <v>2.32E-4</v>
       </c>
       <c r="E45" s="5">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="G45" s="5">
         <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="G45" s="5">
-        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3732,16 +3770,16 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <v>2702.4383670000002</v>
+        <v>2696.1794329999998</v>
       </c>
       <c r="E46" s="5">
-        <v>391.28761300000002</v>
+        <v>389.06897800000002</v>
       </c>
       <c r="F46" s="3">
-        <v>2911.4701909999999</v>
+        <v>2901.333905</v>
       </c>
       <c r="G46" s="5">
-        <v>420.69536099999999</v>
+        <v>420.20657899999998</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3753,16 +3791,16 @@
         <v>5</v>
       </c>
       <c r="D47" s="3">
-        <v>1.7699999999999999E-4</v>
+        <v>3.3799999999999998E-4</v>
       </c>
       <c r="E47" s="5">
-        <v>7.9999999999999996E-6</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="F47" s="3">
-        <v>6.7999999999999999E-5</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="G47" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>3.0000000000000001E-6</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3772,16 +3810,16 @@
         <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>2803.8567109999999</v>
+        <v>2799.533144</v>
       </c>
       <c r="E48" s="5">
-        <v>405.61908099999999</v>
+        <v>403.90964300000002</v>
       </c>
       <c r="F48" s="3">
-        <v>3001.8789299999999</v>
+        <v>3002.307742</v>
       </c>
       <c r="G48" s="5">
-        <v>435.380357</v>
+        <v>434.755246</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3793,16 +3831,16 @@
         <v>5</v>
       </c>
       <c r="D49" s="3">
-        <v>1.08E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="E49" s="5">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="G49" s="5">
         <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F49" s="3">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="G49" s="5">
-        <v>3.9999999999999998E-6</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3812,16 +3850,16 @@
         <v>4</v>
       </c>
       <c r="D50" s="3">
-        <v>7.0227339999999998</v>
+        <v>124.16471199999999</v>
       </c>
       <c r="E50" s="5">
-        <v>0.52674799999999999</v>
+        <v>26.469477999999999</v>
       </c>
       <c r="F50" s="3">
-        <v>2777.407811</v>
+        <v>2803.30294</v>
       </c>
       <c r="G50" s="5">
-        <v>405.49374799999998</v>
+        <v>408.62409100000002</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3835,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="3">
-        <v>9.9999999999999995E-7</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -3854,16 +3892,16 @@
         <v>4</v>
       </c>
       <c r="D52" s="3">
-        <v>2841.3727509999999</v>
+        <v>2823.2492350000002</v>
       </c>
       <c r="E52" s="5">
-        <v>409.66006700000003</v>
+        <v>406.83753200000001</v>
       </c>
       <c r="F52" s="3">
-        <v>3033.5100109999998</v>
+        <v>3036.0300050000001</v>
       </c>
       <c r="G52" s="5">
-        <v>439.16754700000001</v>
+        <v>439.83434199999999</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3875,7 +3913,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="3">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -3894,16 +3932,16 @@
         <v>4</v>
       </c>
       <c r="D54" s="3">
-        <v>2702.361081</v>
+        <v>2696.1022630000002</v>
       </c>
       <c r="E54" s="5">
-        <v>391.2876</v>
+        <v>389.06899099999998</v>
       </c>
       <c r="F54" s="3">
-        <v>2911.3941690000001</v>
+        <v>2901.2581759999998</v>
       </c>
       <c r="G54" s="5">
-        <v>420.69542999999999</v>
+        <v>420.20660400000003</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3934,16 +3972,16 @@
         <v>4</v>
       </c>
       <c r="D56" s="3">
-        <v>2803.6823370000002</v>
+        <v>2799.358577</v>
       </c>
       <c r="E56" s="5">
-        <v>405.61871300000001</v>
+        <v>403.90938699999998</v>
       </c>
       <c r="F56" s="3">
-        <v>3001.708537</v>
+        <v>3002.136904</v>
       </c>
       <c r="G56" s="5">
-        <v>435.38002299999999</v>
+        <v>434.75509199999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3974,16 +4012,16 @@
         <v>4</v>
       </c>
       <c r="D58" s="3">
-        <v>6.6198899999999998</v>
+        <v>123.736752</v>
       </c>
       <c r="E58" s="5">
-        <v>0.52680000000000005</v>
+        <v>26.468942999999999</v>
       </c>
       <c r="F58" s="3">
-        <v>2776.7977230000001</v>
+        <v>2802.6805410000002</v>
       </c>
       <c r="G58" s="5">
-        <v>405.492501</v>
+        <v>408.62439799999999</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3997,16 +4035,16 @@
         <v>5</v>
       </c>
       <c r="D59" s="3">
-        <v>2.31E-4</v>
+        <v>4.6299999999999998E-4</v>
       </c>
       <c r="E59" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="F59" s="3">
-        <v>7.2999999999999999E-5</v>
+        <v>6.3E-5</v>
       </c>
       <c r="G59" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -4016,16 +4054,16 @@
         <v>4</v>
       </c>
       <c r="D60" s="3">
-        <v>5.3887999999999998E-2</v>
+        <v>5.3657000000000003E-2</v>
       </c>
       <c r="E60" s="5">
-        <v>2.4000000000000001E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="F60" s="3">
-        <v>5.2610999999999998E-2</v>
+        <v>5.2618999999999999E-2</v>
       </c>
       <c r="G60" s="5">
-        <v>3.6999999999999998E-5</v>
+        <v>5.5000000000000002E-5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4037,16 +4075,16 @@
         <v>5</v>
       </c>
       <c r="D61" s="3">
-        <v>9.8999999999999994E-5</v>
+        <v>2.31E-4</v>
       </c>
       <c r="E61" s="5">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="G61" s="5">
         <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="G61" s="5">
-        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -4056,16 +4094,16 @@
         <v>4</v>
       </c>
       <c r="D62" s="3">
-        <v>7.7285999999999994E-2</v>
+        <v>7.7171000000000003E-2</v>
       </c>
       <c r="E62" s="5">
-        <v>4.5000000000000003E-5</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="F62" s="3">
-        <v>7.6022000000000006E-2</v>
+        <v>7.5729000000000005E-2</v>
       </c>
       <c r="G62" s="5">
-        <v>9.5000000000000005E-5</v>
+        <v>1.08E-4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -4077,16 +4115,16 @@
         <v>5</v>
       </c>
       <c r="D63" s="3">
-        <v>1.7699999999999999E-4</v>
+        <v>3.3799999999999998E-4</v>
       </c>
       <c r="E63" s="5">
-        <v>7.9999999999999996E-6</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="F63" s="3">
-        <v>6.7999999999999999E-5</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="G63" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>3.0000000000000001E-6</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4096,16 +4134,16 @@
         <v>4</v>
       </c>
       <c r="D64" s="3">
-        <v>0.174374</v>
+        <v>0.174567</v>
       </c>
       <c r="E64" s="5">
-        <v>4.75E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F64" s="3">
-        <v>0.17039299999999999</v>
+        <v>0.17083699999999999</v>
       </c>
       <c r="G64" s="5">
-        <v>3.6699999999999998E-4</v>
+        <v>2.8400000000000002E-4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -4117,16 +4155,16 @@
         <v>5</v>
       </c>
       <c r="D65" s="3">
-        <v>1.08E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="E65" s="5">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="G65" s="5">
         <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F65" s="3">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="G65" s="5">
-        <v>3.9999999999999998E-6</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -4136,16 +4174,16 @@
         <v>4</v>
       </c>
       <c r="D66" s="3">
-        <v>0.40284399999999998</v>
+        <v>0.42796000000000001</v>
       </c>
       <c r="E66" s="5">
-        <v>3.8499999999999998E-4</v>
+        <v>8.7600000000000004E-4</v>
       </c>
       <c r="F66" s="3">
-        <v>0.61008799999999996</v>
+        <v>0.62239900000000004</v>
       </c>
       <c r="G66" s="5">
-        <v>2.1909999999999998E-3</v>
+        <v>1.66E-3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4159,16 +4197,16 @@
         <v>5</v>
       </c>
       <c r="D67" s="3">
-        <v>4.3020000000000003E-3</v>
+        <v>8.7180000000000001E-3</v>
       </c>
       <c r="E67" s="5">
-        <v>4.3999999999999999E-5</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="F67" s="3">
-        <v>1.397E-3</v>
+        <v>1.191E-3</v>
       </c>
       <c r="G67" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4178,16 +4216,16 @@
         <v>4</v>
       </c>
       <c r="D68" s="3">
-        <v>52748.503445000002</v>
+        <v>52618.328254</v>
       </c>
       <c r="E68" s="5">
-        <v>7615.7066590000004</v>
+        <v>7592.2179109999997</v>
       </c>
       <c r="F68" s="3">
-        <v>57611.793489000003</v>
+        <v>57630.283911999999</v>
       </c>
       <c r="G68" s="5">
-        <v>8337.461464</v>
+        <v>8346.369788</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4199,16 +4237,16 @@
         <v>5</v>
       </c>
       <c r="D69" s="3">
-        <v>1.302E-3</v>
+        <v>3.0070000000000001E-3</v>
       </c>
       <c r="E69" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="F69" s="3">
-        <v>6.5099999999999999E-4</v>
+        <v>7.1199999999999996E-4</v>
       </c>
       <c r="G69" s="5">
-        <v>6.9999999999999999E-6</v>
+        <v>2.3E-5</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4218,16 +4256,16 @@
         <v>4</v>
       </c>
       <c r="D70" s="3">
-        <v>34953.479749999999</v>
+        <v>34950.766192000003</v>
       </c>
       <c r="E70" s="5">
-        <v>5056.1667660000003</v>
+        <v>5044.5809360000003</v>
       </c>
       <c r="F70" s="3">
-        <v>38375.066978000003</v>
+        <v>38340.915735000002</v>
       </c>
       <c r="G70" s="5">
-        <v>5555.1075510000001</v>
+        <v>5551.9700590000002</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4239,16 +4277,16 @@
         <v>5</v>
       </c>
       <c r="D71" s="3">
-        <v>1.0139999999999999E-3</v>
+        <v>1.9350000000000001E-3</v>
       </c>
       <c r="E71" s="5">
-        <v>4.6E-5</v>
+        <v>1.21E-4</v>
       </c>
       <c r="F71" s="3">
-        <v>3.9899999999999999E-4</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G71" s="5">
-        <v>1.4E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4258,16 +4296,16 @@
         <v>4</v>
       </c>
       <c r="D72" s="3">
-        <v>16003.439263</v>
+        <v>15984.410964000001</v>
       </c>
       <c r="E72" s="5">
-        <v>2296.6714830000001</v>
+        <v>2292.0878459999999</v>
       </c>
       <c r="F72" s="3">
-        <v>17539.091582000001</v>
+        <v>17537.59388</v>
       </c>
       <c r="G72" s="5">
-        <v>2525.5785609999998</v>
+        <v>2526.3970629999999</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4279,16 +4317,16 @@
         <v>5</v>
       </c>
       <c r="D73" s="3">
-        <v>2.5900000000000001E-4</v>
+        <v>6.1300000000000005E-4</v>
       </c>
       <c r="E73" s="5">
-        <v>1.2E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="F73" s="3">
-        <v>1.34E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="G73" s="5">
-        <v>6.9999999999999999E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4298,16 +4336,16 @@
         <v>4</v>
       </c>
       <c r="D74" s="3">
-        <v>16.822747</v>
+        <v>288.787553</v>
       </c>
       <c r="E74" s="5">
-        <v>1.285174</v>
+        <v>61.354892999999997</v>
       </c>
       <c r="F74" s="3">
-        <v>4530.884814</v>
+        <v>4508.3483759999999</v>
       </c>
       <c r="G74" s="5">
-        <v>660.33826399999998</v>
+        <v>661.37694599999998</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4321,16 +4359,16 @@
         <v>5</v>
       </c>
       <c r="D75" s="3">
-        <v>2.0000000000000002E-5</v>
+        <v>9.1000000000000003E-5</v>
       </c>
       <c r="E75" s="5">
-        <v>3.0000000000000001E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="F75" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="G75" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4340,16 +4378,16 @@
         <v>4</v>
       </c>
       <c r="D76" s="3">
-        <v>52747.503500999999</v>
+        <v>52617.328292999999</v>
       </c>
       <c r="E76" s="5">
-        <v>7615.7066439999999</v>
+        <v>7592.217901</v>
       </c>
       <c r="F76" s="3">
-        <v>57610.793550000002</v>
+        <v>57629.283971999997</v>
       </c>
       <c r="G76" s="5">
-        <v>8337.461448</v>
+        <v>8346.369772</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4361,10 +4399,10 @@
         <v>5</v>
       </c>
       <c r="D77" s="3">
-        <v>2.0999999999999999E-5</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="E77" s="5">
-        <v>3.9999999999999998E-6</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -4380,16 +4418,16 @@
         <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>34952.479776</v>
+        <v>34949.766215000003</v>
       </c>
       <c r="E78" s="5">
-        <v>5056.1667589999997</v>
+        <v>5044.5809300000001</v>
       </c>
       <c r="F78" s="3">
-        <v>38374.067015000001</v>
+        <v>38339.915772</v>
       </c>
       <c r="G78" s="5">
-        <v>5555.1075410000003</v>
+        <v>5551.9700499999999</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4420,16 +4458,16 @@
         <v>4</v>
       </c>
       <c r="D80" s="3">
-        <v>16002.439387</v>
+        <v>15983.411050999999</v>
       </c>
       <c r="E80" s="5">
-        <v>2296.6714499999998</v>
+        <v>2292.0878229999998</v>
       </c>
       <c r="F80" s="3">
-        <v>17538.091767000002</v>
+        <v>17536.594067999999</v>
       </c>
       <c r="G80" s="5">
-        <v>2525.5785129999999</v>
+        <v>2526.3970129999998</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4460,16 +4498,16 @@
         <v>4</v>
       </c>
       <c r="D82" s="3">
-        <v>15.860037</v>
+        <v>287.78862099999998</v>
       </c>
       <c r="E82" s="5">
-        <v>1.283331</v>
+        <v>61.354733000000003</v>
       </c>
       <c r="F82" s="3">
-        <v>4529.885233</v>
+        <v>4507.3488589999997</v>
       </c>
       <c r="G82" s="5">
-        <v>660.33815500000003</v>
+        <v>661.37682099999995</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4483,13 +4521,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="3">
-        <v>2.0929999999999998E-3</v>
+        <v>2.9710000000000001E-3</v>
       </c>
       <c r="E83" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>2.9E-5</v>
       </c>
       <c r="F83" s="3">
-        <v>1.194E-3</v>
+        <v>1.1039999999999999E-3</v>
       </c>
       <c r="G83" s="5">
         <v>9.9999999999999995E-7</v>
@@ -4505,7 +4543,7 @@
         <v>3.1983999999999999E-2</v>
       </c>
       <c r="E84" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="F84" s="3">
         <v>3.1983999999999999E-2</v>
@@ -4523,16 +4561,16 @@
         <v>5</v>
       </c>
       <c r="D85" s="3">
-        <v>1.145E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="E85" s="5">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F85" s="3">
+        <v>8.5300000000000003E-4</v>
+      </c>
+      <c r="G85" s="5">
         <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F85" s="3">
-        <v>8.1599999999999999E-4</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4563,13 +4601,13 @@
         <v>5</v>
       </c>
       <c r="D87" s="3">
-        <v>1.018E-3</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E87" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>1.4E-5</v>
       </c>
       <c r="F87" s="3">
-        <v>6.3900000000000003E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="G87" s="5">
         <v>0</v>
@@ -4585,7 +4623,7 @@
         <v>3.1982999999999998E-2</v>
       </c>
       <c r="E88" s="5">
-        <v>3.0000000000000001E-6</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F88" s="3">
         <v>3.1981999999999997E-2</v>
@@ -4603,13 +4641,13 @@
         <v>5</v>
       </c>
       <c r="D89" s="3">
-        <v>5.1400000000000003E-4</v>
+        <v>7.9199999999999995E-4</v>
       </c>
       <c r="E89" s="5">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F89" s="3">
-        <v>3.7100000000000002E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
@@ -4622,469 +4660,469 @@
         <v>4</v>
       </c>
       <c r="D90" s="2">
-        <v>3.1383000000000001E-2</v>
+        <v>3.1967000000000002E-2</v>
       </c>
       <c r="E90" s="4">
-        <v>4.3049999999999998E-3</v>
+        <v>9.2999999999999997E-5</v>
       </c>
       <c r="F90" s="2">
-        <v>3.1977999999999999E-2</v>
+        <v>3.1976999999999998E-2</v>
       </c>
       <c r="G90" s="4">
-        <v>4.0000000000000003E-5</v>
+        <v>5.3000000000000001E-5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="21"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="29" t="s">
+      <c r="C92" s="17"/>
+      <c r="D92" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="29" t="s">
+      <c r="E92" s="29"/>
+      <c r="F92" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="30"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="7">
+      <c r="C93" s="35"/>
+      <c r="D93" s="33">
         <v>4060.3968249999998</v>
       </c>
-      <c r="E93" s="6">
-        <v>14.253318</v>
-      </c>
-      <c r="F93" s="7">
+      <c r="E93" s="36">
+        <v>14.273114</v>
+      </c>
+      <c r="F93" s="33">
         <v>4060.3968249999998</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="36">
         <v>14.233064000000001</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="37"/>
+      <c r="B94" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="3">
+      <c r="C94" s="39"/>
+      <c r="D94" s="37">
         <v>3166.8412699999999</v>
       </c>
-      <c r="E94" s="5">
-        <v>14.355065</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="E94" s="40">
+        <v>14.345655000000001</v>
+      </c>
+      <c r="F94" s="37">
         <v>3166.8412699999999</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="40">
         <v>14.342587999999999</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="10" t="s">
+      <c r="A95" s="37"/>
+      <c r="B95" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="3">
+      <c r="C95" s="39"/>
+      <c r="D95" s="37">
         <v>1013.555556</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="40">
         <v>8.5249260000000007</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="37">
         <v>1013.555556</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="40">
         <v>8.5215650000000007</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="37"/>
+      <c r="B96" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="3">
+      <c r="C96" s="39"/>
+      <c r="D96" s="37">
         <v>289.79365100000001</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="40">
+        <v>4.1700710000000001</v>
+      </c>
+      <c r="F96" s="37">
+        <v>289.79365100000001</v>
+      </c>
+      <c r="G96" s="40">
         <v>4.1681080000000001</v>
       </c>
-      <c r="F96" s="3">
-        <v>289.79365100000001</v>
-      </c>
-      <c r="G96" s="5">
-        <v>4.1681080000000001</v>
-      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="3">
+      <c r="C97" s="39"/>
+      <c r="D97" s="37">
+        <v>3736.2698409999998</v>
+      </c>
+      <c r="E97" s="40">
+        <v>15.112171999999999</v>
+      </c>
+      <c r="F97" s="37">
         <v>3736.3492059999999</v>
       </c>
-      <c r="E97" s="5">
-        <v>15.062398999999999</v>
-      </c>
-      <c r="F97" s="3">
-        <v>3736.3492059999999</v>
-      </c>
-      <c r="G97" s="5">
+      <c r="G97" s="40">
         <v>15.009328999999999</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="10" t="s">
+      <c r="A98" s="37"/>
+      <c r="B98" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="3">
-        <v>1625.142857</v>
-      </c>
-      <c r="E98" s="5">
-        <v>10.135713000000001</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="C98" s="39"/>
+      <c r="D98" s="37">
         <v>1625.1746029999999</v>
       </c>
-      <c r="G98" s="5">
+      <c r="E98" s="40">
+        <v>10.130330000000001</v>
+      </c>
+      <c r="F98" s="37">
+        <v>1625.1746029999999</v>
+      </c>
+      <c r="G98" s="40">
         <v>10.212201</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="10" t="s">
+      <c r="A99" s="37"/>
+      <c r="B99" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="3">
+      <c r="C99" s="39"/>
+      <c r="D99" s="37">
         <v>490.25396799999999</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="40">
         <v>5.261431</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="37">
         <v>490.23809499999999</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="40">
         <v>5.2168609999999997</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="37"/>
+      <c r="B100" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="3">
-        <v>74.666667000000004</v>
-      </c>
-      <c r="E100" s="5">
-        <v>2.1451129999999998</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="C100" s="39"/>
+      <c r="D100" s="37">
+        <v>74.714286000000001</v>
+      </c>
+      <c r="E100" s="40">
+        <v>2.0154990000000002</v>
+      </c>
+      <c r="F100" s="37">
         <v>74.571428999999995</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="40">
         <v>1.824362</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="39"/>
+      <c r="D101" s="37">
+        <v>0</v>
+      </c>
+      <c r="E101" s="40">
+        <v>0</v>
+      </c>
+      <c r="F101" s="37">
+        <v>0</v>
+      </c>
+      <c r="G101" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="37"/>
+      <c r="B102" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="39"/>
+      <c r="D102" s="37">
+        <v>1.5873000000000002E-2</v>
+      </c>
+      <c r="E102" s="40">
+        <v>3.1730000000000001E-2</v>
+      </c>
+      <c r="F102" s="37">
+        <v>0</v>
+      </c>
+      <c r="G102" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="37"/>
+      <c r="B103" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="39"/>
+      <c r="D103" s="37">
+        <v>1.5873000000000002E-2</v>
+      </c>
+      <c r="E103" s="40">
+        <v>3.1730000000000001E-2</v>
+      </c>
+      <c r="F103" s="37">
+        <v>0</v>
+      </c>
+      <c r="G103" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="37"/>
+      <c r="B104" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="39"/>
+      <c r="D104" s="37">
+        <v>0.61904800000000004</v>
+      </c>
+      <c r="E104" s="40">
+        <v>0.45103599999999999</v>
+      </c>
+      <c r="F104" s="37">
+        <v>0</v>
+      </c>
+      <c r="G104" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B105" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="5">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="10" t="s">
+      <c r="C105" s="39"/>
+      <c r="D105" s="37">
+        <v>9.0015999999999999E-2</v>
+      </c>
+      <c r="E105" s="40">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="F105" s="37">
+        <v>9.0015999999999999E-2</v>
+      </c>
+      <c r="G105" s="40">
+        <v>4.8999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="37"/>
+      <c r="B106" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="10" t="s">
+      <c r="C106" s="39"/>
+      <c r="D106" s="37">
+        <v>0.114798</v>
+      </c>
+      <c r="E106" s="40">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="F106" s="37">
+        <v>0.114799</v>
+      </c>
+      <c r="G106" s="40">
+        <v>8.7000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="37"/>
+      <c r="B107" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="3">
-        <v>1.5873000000000002E-2</v>
-      </c>
-      <c r="E103" s="5">
-        <v>3.1730000000000001E-2</v>
-      </c>
-      <c r="F103" s="3">
-        <v>0</v>
-      </c>
-      <c r="G103" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="10" t="s">
+      <c r="C107" s="39"/>
+      <c r="D107" s="37">
+        <v>0.36002899999999999</v>
+      </c>
+      <c r="E107" s="40">
+        <v>3.2600000000000001E-4</v>
+      </c>
+      <c r="F107" s="37">
+        <v>0.36002699999999999</v>
+      </c>
+      <c r="G107" s="40">
+        <v>3.2600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="37"/>
+      <c r="B108" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="3">
-        <v>7.9682539999999999</v>
-      </c>
-      <c r="E104" s="5">
-        <v>1.5708089999999999</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-      <c r="G104" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="10" t="s">
+      <c r="C108" s="39"/>
+      <c r="D108" s="37">
+        <v>1.2583150000000001</v>
+      </c>
+      <c r="E108" s="40">
+        <v>2.5439999999999998E-3</v>
+      </c>
+      <c r="F108" s="37">
+        <v>1.2583150000000001</v>
+      </c>
+      <c r="G108" s="40">
+        <v>2.5430000000000001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="3">
-        <v>9.0015999999999999E-2</v>
-      </c>
-      <c r="E105" s="5">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="F105" s="3">
-        <v>9.0015999999999999E-2</v>
-      </c>
-      <c r="G105" s="5">
-        <v>4.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="10" t="s">
+      <c r="C109" s="39"/>
+      <c r="D109" s="37">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E109" s="40">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="F109" s="37">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G109" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="37"/>
+      <c r="B110" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="3">
-        <v>0.114798</v>
-      </c>
-      <c r="E106" s="5">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0.114799</v>
-      </c>
-      <c r="G106" s="5">
-        <v>8.7000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="10" t="s">
+      <c r="C110" s="39"/>
+      <c r="D110" s="37">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="E110" s="40">
+        <v>1.7E-5</v>
+      </c>
+      <c r="F110" s="37">
+        <v>0</v>
+      </c>
+      <c r="G110" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="37"/>
+      <c r="B111" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="3">
-        <v>0.36002800000000001</v>
-      </c>
-      <c r="E107" s="5">
-        <v>3.2499999999999999E-4</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0.36002699999999999</v>
-      </c>
-      <c r="G107" s="5">
-        <v>3.2600000000000001E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="10" t="s">
+      <c r="C111" s="39"/>
+      <c r="D111" s="37">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E111" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F111" s="37">
+        <v>0</v>
+      </c>
+      <c r="G111" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="41"/>
+      <c r="B112" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="3">
-        <v>1.258318</v>
-      </c>
-      <c r="E108" s="5">
-        <v>2.542E-3</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1.2583150000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>2.5430000000000001E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="3">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="E109" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F109" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G109" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="5">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="5">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="2">
-        <v>8.2439999999999996E-3</v>
-      </c>
-      <c r="E112" s="4">
-        <v>6.4099999999999997E-4</v>
-      </c>
-      <c r="F112" s="2">
-        <v>0</v>
-      </c>
-      <c r="G112" s="4">
+      <c r="C112" s="43"/>
+      <c r="D112" s="41">
+        <v>2.99E-4</v>
+      </c>
+      <c r="E112" s="44">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="F112" s="41">
+        <v>0</v>
+      </c>
+      <c r="G112" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="21"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="25"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="28"/>
-      <c r="F114" s="29" t="s">
+      <c r="E114" s="27"/>
+      <c r="F114" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G114" s="30"/>
+      <c r="G114" s="29"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>9</v>
@@ -5092,10 +5130,18 @@
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="6"/>
+      <c r="D115" s="7">
+        <v>16.539683</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1.138781</v>
+      </c>
+      <c r="F115" s="7">
+        <v>17.761904999999999</v>
+      </c>
+      <c r="G115" s="6">
+        <v>1.3851309999999999</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
@@ -5103,10 +5149,18 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="5"/>
+      <c r="D116" s="3">
+        <v>6789.4761900000003</v>
+      </c>
+      <c r="E116" s="5">
+        <v>21.879121000000001</v>
+      </c>
+      <c r="F116" s="3">
+        <v>6909.3968249999998</v>
+      </c>
+      <c r="G116" s="5">
+        <v>27.063161000000001</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -5116,10 +5170,18 @@
       <c r="C117" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="5"/>
+      <c r="D117" s="3">
+        <v>9.6031750000000002</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0.86244500000000002</v>
+      </c>
+      <c r="F117" s="3">
+        <v>9.7619050000000005</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.83247700000000002</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
@@ -5127,10 +5189,18 @@
       <c r="C118" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="5"/>
+      <c r="D118" s="3">
+        <v>4720.6349209999998</v>
+      </c>
+      <c r="E118" s="5">
+        <v>21.549402000000001</v>
+      </c>
+      <c r="F118" s="3">
+        <v>4810.7301589999997</v>
+      </c>
+      <c r="G118" s="5">
+        <v>21.257791999999998</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
@@ -5140,10 +5210,18 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="5"/>
+      <c r="D119" s="3">
+        <v>5.4444439999999998</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0.64570499999999997</v>
+      </c>
+      <c r="F119" s="3">
+        <v>5.5873020000000002</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.62943000000000005</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
@@ -5151,10 +5229,18 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="5"/>
+      <c r="D120" s="3">
+        <v>2067.3492059999999</v>
+      </c>
+      <c r="E120" s="5">
+        <v>17.082284000000001</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2112.7777780000001</v>
+      </c>
+      <c r="G120" s="5">
+        <v>16.910822</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -5164,10 +5250,18 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="5"/>
+      <c r="D121" s="3">
+        <v>1.730159</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0.387017</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1.9206350000000001</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0.39511400000000002</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
@@ -5175,14 +5269,22 @@
       <c r="C122" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="5"/>
+      <c r="D122" s="3">
+        <v>844.79365099999995</v>
+      </c>
+      <c r="E122">
+        <v>9.4963639999999998</v>
+      </c>
+      <c r="F122" s="3">
+        <v>589</v>
+      </c>
+      <c r="G122" s="5">
+        <v>14.561306</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>9</v>
@@ -5190,10 +5292,18 @@
       <c r="C123" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="5"/>
+      <c r="D123" s="3">
+        <v>14.460317</v>
+      </c>
+      <c r="E123">
+        <v>0.97731100000000004</v>
+      </c>
+      <c r="F123" s="3">
+        <v>14.222222</v>
+      </c>
+      <c r="G123" s="5">
+        <v>1.057374</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
@@ -5201,10 +5311,18 @@
       <c r="C124" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="5"/>
+      <c r="D124" s="3">
+        <v>5902.2222220000003</v>
+      </c>
+      <c r="E124" s="5">
+        <v>21.785903000000001</v>
+      </c>
+      <c r="F124" s="3">
+        <v>5554.0158730000003</v>
+      </c>
+      <c r="G124" s="5">
+        <v>32.496398999999997</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
@@ -5214,10 +5332,18 @@
       <c r="C125" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="5"/>
+      <c r="D125" s="3">
+        <v>8.0793649999999992</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0.70988700000000005</v>
+      </c>
+      <c r="F125" s="3">
+        <v>7.7777779999999996</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.59742600000000001</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
@@ -5225,10 +5351,18 @@
       <c r="C126" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="5"/>
+      <c r="D126" s="3">
+        <v>4100.9206350000004</v>
+      </c>
+      <c r="E126" s="5">
+        <v>21.169836</v>
+      </c>
+      <c r="F126" s="3">
+        <v>3864.8412699999999</v>
+      </c>
+      <c r="G126" s="5">
+        <v>28.320315000000001</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
@@ -5238,10 +5372,18 @@
       <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="5"/>
+      <c r="D127" s="3">
+        <v>4.6190480000000003</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0.47961599999999999</v>
+      </c>
+      <c r="F127" s="3">
+        <v>4.5238100000000001</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.48265400000000003</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
@@ -5249,10 +5391,18 @@
       <c r="C128" t="s">
         <v>4</v>
       </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="5"/>
+      <c r="D128" s="3">
+        <v>1797.619048</v>
+      </c>
+      <c r="E128" s="5">
+        <v>15.740595000000001</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1694.936508</v>
+      </c>
+      <c r="G128" s="5">
+        <v>17.414877000000001</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
@@ -5262,10 +5412,18 @@
       <c r="C129" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="5"/>
+      <c r="D129" s="3">
+        <v>1.5396829999999999</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0.334924</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1.6507940000000001</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0.29019299999999998</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
@@ -5273,14 +5431,22 @@
       <c r="C130" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="5"/>
+      <c r="D130" s="3">
+        <v>734.95238099999995</v>
+      </c>
+      <c r="E130" s="5">
+        <v>8.1207340000000006</v>
+      </c>
+      <c r="F130" s="3">
+        <v>474.15872999999999</v>
+      </c>
+      <c r="G130" s="5">
+        <v>10.807491000000001</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>9</v>
@@ -5288,10 +5454,18 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="5"/>
+      <c r="D131" s="3">
+        <v>2.0793650000000001</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0.47720600000000002</v>
+      </c>
+      <c r="F131" s="3">
+        <v>3.5396830000000001</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0.54246700000000003</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
@@ -5299,10 +5473,18 @@
       <c r="C132" t="s">
         <v>4</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="5"/>
+      <c r="D132" s="3">
+        <v>882.12698399999999</v>
+      </c>
+      <c r="E132" s="5">
+        <v>7.7088109999999999</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1339.8888890000001</v>
+      </c>
+      <c r="G132" s="5">
+        <v>9.4755450000000003</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
@@ -5312,10 +5494,18 @@
       <c r="C133" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="5"/>
+      <c r="D133" s="3">
+        <v>1.5079370000000001</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0.32578099999999999</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1.9523809999999999</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0.36587999999999998</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
@@ -5323,10 +5513,18 @@
       <c r="C134" t="s">
         <v>4</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="5"/>
+      <c r="D134" s="3">
+        <v>616.031746</v>
+      </c>
+      <c r="E134" s="5">
+        <v>7.0179660000000004</v>
+      </c>
+      <c r="F134" s="3">
+        <v>935.26984100000004</v>
+      </c>
+      <c r="G134" s="5">
+        <v>9.7993120000000005</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
@@ -5336,10 +5534,18 @@
       <c r="C135" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="5"/>
+      <c r="D135" s="3">
+        <v>0.80952400000000002</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0.24716099999999999</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1.0634920000000001</v>
+      </c>
+      <c r="G135" s="5">
+        <v>0.312969</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
@@ -5347,10 +5553,18 @@
       <c r="C136" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="5"/>
+      <c r="D136" s="3">
+        <v>268.23809499999999</v>
+      </c>
+      <c r="E136" s="5">
+        <v>4.1985669999999997</v>
+      </c>
+      <c r="F136" s="3">
+        <v>413.23809499999999</v>
+      </c>
+      <c r="G136" s="5">
+        <v>6.0887919999999998</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
@@ -5360,10 +5574,18 @@
       <c r="C137" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="5"/>
+      <c r="D137" s="3">
+        <v>0.19047600000000001</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0.118448</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0.269841</v>
+      </c>
+      <c r="G137" s="5">
+        <v>0.151422</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
@@ -5371,10 +5593,18 @@
       <c r="C138" t="s">
         <v>4</v>
       </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="5"/>
+      <c r="D138" s="3">
+        <v>109.269841</v>
+      </c>
+      <c r="E138" s="5">
+        <v>3.3073359999999998</v>
+      </c>
+      <c r="F138" s="3">
+        <v>113.825397</v>
+      </c>
+      <c r="G138" s="5">
+        <v>4.1907199999999998</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
@@ -5386,9 +5616,13 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="3">
+        <v>12.582781000000001</v>
+      </c>
       <c r="E139" s="5"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="3">
+        <v>19.699646999999999</v>
+      </c>
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5397,9 +5631,13 @@
       <c r="C140" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="3"/>
+      <c r="D140" s="3">
+        <v>13.009186</v>
+      </c>
       <c r="E140" s="5"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="3">
+        <v>19.445817000000002</v>
+      </c>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -5410,9 +5648,13 @@
       <c r="C141" t="s">
         <v>5</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="3">
+        <v>15.625</v>
+      </c>
       <c r="E141" s="5"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="3">
+        <v>20.255182999999999</v>
+      </c>
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -5421,9 +5663,13 @@
       <c r="C142" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="3"/>
+      <c r="D142" s="3">
+        <v>13.057131</v>
+      </c>
       <c r="E142" s="5"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="3">
+        <v>19.478238000000001</v>
+      </c>
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -5434,9 +5680,13 @@
       <c r="C143" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="3">
+        <v>14.782609000000001</v>
+      </c>
       <c r="E143" s="5"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="3">
+        <v>19.273743</v>
+      </c>
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5445,9 +5695,13 @@
       <c r="C144" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="3"/>
+      <c r="D144" s="3">
+        <v>12.975118999999999</v>
+      </c>
       <c r="E144" s="5"/>
-      <c r="F144" s="3"/>
+      <c r="F144" s="3">
+        <v>19.617785000000001</v>
+      </c>
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -5458,9 +5712,13 @@
       <c r="C145" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="3">
+        <v>10.810810999999999</v>
+      </c>
       <c r="E145" s="5"/>
-      <c r="F145" s="3"/>
+      <c r="F145" s="3">
+        <v>14.634145999999999</v>
+      </c>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -5469,9 +5727,13 @@
       <c r="C146" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="3">
+        <v>12.971253000000001</v>
+      </c>
       <c r="E146" s="5"/>
-      <c r="F146" s="3"/>
+      <c r="F146" s="3">
+        <v>19.343686999999999</v>
+      </c>
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -5480,233 +5742,377 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="4"/>
+      <c r="D147" s="2">
+        <v>712.61949700000002</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1.0740000000000001E-3</v>
+      </c>
+      <c r="F147" s="2">
+        <v>2051.7028180000002</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1.093E-3</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="21"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="25"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C149" s="32"/>
-      <c r="D149" s="29" t="s">
+      <c r="C149" s="17"/>
+      <c r="D149" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="29" t="s">
+      <c r="E149" s="29"/>
+      <c r="F149" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G149" s="30"/>
+      <c r="G149" s="29"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="6"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="33">
+        <v>4197.6031750000002</v>
+      </c>
+      <c r="E150" s="36">
+        <v>15.450535</v>
+      </c>
+      <c r="F150" s="33">
+        <v>4197.6031750000002</v>
+      </c>
+      <c r="G150" s="36">
+        <v>15.440269000000001</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
-      <c r="B151" s="10" t="s">
+      <c r="A151" s="37"/>
+      <c r="B151" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="5"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="37">
+        <v>2876.6507940000001</v>
+      </c>
+      <c r="E151" s="40">
+        <v>12.653053</v>
+      </c>
+      <c r="F151" s="37">
+        <v>2876.6507940000001</v>
+      </c>
+      <c r="G151" s="40">
+        <v>12.676155</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
-      <c r="B152" s="10" t="s">
+      <c r="A152" s="37"/>
+      <c r="B152" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="5"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="37">
+        <v>1290.619048</v>
+      </c>
+      <c r="E152" s="40">
+        <v>8.3028670000000009</v>
+      </c>
+      <c r="F152" s="37">
+        <v>1290.619048</v>
+      </c>
+      <c r="G152" s="40">
+        <v>8.3285789999999995</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
-      <c r="B153" s="10" t="s">
+      <c r="A153" s="37"/>
+      <c r="B153" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="5"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="37">
+        <v>345.69841300000002</v>
+      </c>
+      <c r="E153" s="40">
+        <v>5.0313739999999996</v>
+      </c>
+      <c r="F153" s="37">
+        <v>345.69841300000002</v>
+      </c>
+      <c r="G153" s="40">
+        <v>5.0334070000000004</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="5"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="37">
+        <v>0</v>
+      </c>
+      <c r="E154" s="40">
+        <v>0</v>
+      </c>
+      <c r="F154" s="37">
+        <v>0</v>
+      </c>
+      <c r="G154" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-      <c r="B155" s="10" t="s">
+      <c r="A155" s="37"/>
+      <c r="B155" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="5"/>
+      <c r="C155" s="46"/>
+      <c r="D155" s="37">
+        <v>0</v>
+      </c>
+      <c r="E155" s="40">
+        <v>0</v>
+      </c>
+      <c r="F155" s="37">
+        <v>0</v>
+      </c>
+      <c r="G155" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="10" t="s">
+      <c r="A156" s="37"/>
+      <c r="B156" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="5"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="37">
+        <v>0</v>
+      </c>
+      <c r="E156" s="40">
+        <v>0</v>
+      </c>
+      <c r="F156" s="37">
+        <v>0</v>
+      </c>
+      <c r="G156" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
-      <c r="B157" s="10" t="s">
+      <c r="A157" s="37"/>
+      <c r="B157" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="5"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="37">
+        <v>12.920635000000001</v>
+      </c>
+      <c r="E157" s="40">
+        <v>3.2192750000000001</v>
+      </c>
+      <c r="F157" s="37">
+        <v>12.698413</v>
+      </c>
+      <c r="G157" s="40">
+        <v>3.097267</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="14"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="5"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="37">
+        <v>1105.730159</v>
+      </c>
+      <c r="E158" s="40">
+        <v>7.3160400000000001</v>
+      </c>
+      <c r="F158" s="37">
+        <v>1105.730159</v>
+      </c>
+      <c r="G158" s="40">
+        <v>7.3145020000000001</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="10" t="s">
+      <c r="A159" s="37"/>
+      <c r="B159" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="5"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="37">
+        <v>752.84127000000001</v>
+      </c>
+      <c r="E159" s="40">
+        <v>6.5634959999999998</v>
+      </c>
+      <c r="F159" s="37">
+        <v>752.84127000000001</v>
+      </c>
+      <c r="G159" s="40">
+        <v>6.5619370000000004</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="10" t="s">
+      <c r="A160" s="37"/>
+      <c r="B160" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="5"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="37">
+        <v>338.49206299999997</v>
+      </c>
+      <c r="E160" s="40">
+        <v>4.4401849999999996</v>
+      </c>
+      <c r="F160" s="37">
+        <v>338.49206299999997</v>
+      </c>
+      <c r="G160" s="40">
+        <v>4.4408760000000003</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="10" t="s">
+      <c r="A161" s="37"/>
+      <c r="B161" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="5"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="37">
+        <v>86.380951999999994</v>
+      </c>
+      <c r="E161" s="40">
+        <v>2.7664080000000002</v>
+      </c>
+      <c r="F161" s="37">
+        <v>86.380951999999994</v>
+      </c>
+      <c r="G161" s="40">
+        <v>2.7664080000000002</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="5"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="37">
+        <v>3091.8412699999999</v>
+      </c>
+      <c r="E162" s="40">
+        <v>14.159535999999999</v>
+      </c>
+      <c r="F162" s="37">
+        <v>3091.8412699999999</v>
+      </c>
+      <c r="G162" s="40">
+        <v>14.190497000000001</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="10" t="s">
+      <c r="A163" s="37"/>
+      <c r="B163" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="5"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="37">
+        <v>2123.7619049999998</v>
+      </c>
+      <c r="E163" s="40">
+        <v>10.837126</v>
+      </c>
+      <c r="F163" s="37">
+        <v>2123.7619049999998</v>
+      </c>
+      <c r="G163" s="40">
+        <v>10.825414</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="B164" s="10" t="s">
+      <c r="A164" s="37"/>
+      <c r="B164" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="5"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="37">
+        <v>952.063492</v>
+      </c>
+      <c r="E164" s="40">
+        <v>8.0875900000000005</v>
+      </c>
+      <c r="F164" s="37">
+        <v>952.063492</v>
+      </c>
+      <c r="G164" s="40">
+        <v>8.0882229999999993</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
-      <c r="B165" s="10" t="s">
+      <c r="A165" s="37"/>
+      <c r="B165" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="14"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="5"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="37">
+        <v>239.12698399999999</v>
+      </c>
+      <c r="E165" s="40">
+        <v>3.8034729999999999</v>
+      </c>
+      <c r="F165" s="37">
+        <v>239.12698399999999</v>
+      </c>
+      <c r="G165" s="40">
+        <v>3.8034729999999999</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="4"/>
+      <c r="A166" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="41"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="41">
+        <v>249.18396799999999</v>
+      </c>
+      <c r="E166" s="44">
+        <v>31.213736000000001</v>
+      </c>
+      <c r="F166" s="41">
+        <v>249.31249199999999</v>
+      </c>
+      <c r="G166" s="44">
+        <v>31.124690000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -5720,6 +6126,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="A1:G1"/>
@@ -5736,12 +6148,6 @@
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="B150:C150"/>

--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="832" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1963A445-6FB1-481A-A660-D777565DEC7D}"/>
+  <xr:revisionPtr revIDLastSave="961" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12F871F-04F2-400C-8E94-CA6590AD487B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Identical VS Compatible" sheetId="3" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -399,6 +399,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -476,18 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,7 +488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -895,16 +885,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7290.9802533204829</c:v>
+                    <c:v>7868.5020065136532</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5085.2078404935883</c:v>
+                    <c:v>7098.4004498524528</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2313.5726638952597</c:v>
+                    <c:v>3361.4829168798046</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>605.01104741554025</c:v>
+                    <c:v>934.34500360626589</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -916,16 +906,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7290.9802533204829</c:v>
+                    <c:v>7868.5020065136532</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5085.2078404935883</c:v>
+                    <c:v>7098.4004498524528</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2313.5726638952597</c:v>
+                    <c:v>3361.4829168798046</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>605.01104741554025</c:v>
+                    <c:v>934.34500360626589</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -971,16 +961,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>53211.242763528324</c:v>
+                  <c:v>57374.141994532147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36377.733796313369</c:v>
+                  <c:v>50435.896195932219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16765.664500169823</c:v>
+                  <c:v>24083.651502009066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4388.3502655749462</c:v>
+                  <c:v>6607.5744041926873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,11 +1241,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Identical VS Compatible'!$D$2:$E$2</c:f>
+              <c:f>WL!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IDENTICAL</c:v>
+                  <c:v>ID</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1332,7 +1322,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Compatible VS Incompatible'!$B$3,'Compatible VS Incompatible'!$B$5,'Compatible VS Incompatible'!$B$7,'Compatible VS Incompatible'!$B$9)</c:f>
+              <c:f>WL!$A$23:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1373,7 +1363,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DAF-4D74-BFA4-50EAB7F42249}"/>
+              <c16:uniqueId val="{00000000-0D35-4560-A7B5-4C3C1D47615D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,11 +1372,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Identical VS Compatible'!$F$2:$G$2</c:f>
+              <c:f>WL!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COMPATIBLE</c:v>
+                  <c:v>COMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1463,7 +1453,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Compatible VS Incompatible'!$B$3,'Compatible VS Incompatible'!$B$5,'Compatible VS Incompatible'!$B$7,'Compatible VS Incompatible'!$B$9)</c:f>
+              <c:f>WL!$A$23:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1504,7 +1494,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DAF-4D74-BFA4-50EAB7F42249}"/>
+              <c16:uniqueId val="{00000001-0D35-4560-A7B5-4C3C1D47615D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1513,11 +1503,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compatible VS Incompatible'!$F$2:$G$2</c:f>
+              <c:f>WL!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INCOMPATIBLE</c:v>
+                  <c:v>INCOMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,16 +1533,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>391.75613130473954</c:v>
+                    <c:v>442.54237766580422</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>380.05910007539353</c:v>
+                    <c:v>521.84444679959631</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>389.60576146562704</c:v>
+                    <c:v>526.23655046168426</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>358.21041399968846</c:v>
+                    <c:v>505.77778159122801</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1564,16 +1554,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>391.75613130473954</c:v>
+                    <c:v>442.54237766580422</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>380.05910007539353</c:v>
+                    <c:v>521.84444679959631</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>389.60576146562704</c:v>
+                    <c:v>526.23655046168426</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>358.21041399968846</c:v>
+                    <c:v>505.77778159122801</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1594,7 +1584,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Compatible VS Incompatible'!$B$3,'Compatible VS Incompatible'!$B$5,'Compatible VS Incompatible'!$B$7,'Compatible VS Incompatible'!$B$9)</c:f>
+              <c:f>WL!$A$23:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1619,23 +1609,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2856.8970363321055</c:v>
+                  <c:v>3227.7138721996207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2719.8741284042667</c:v>
+                  <c:v>3714.2195815564719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2809.5880070064604</c:v>
+                  <c:v>3735.1323484223017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2614.1518368105562</c:v>
+                  <c:v>3585.1015070844855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6DAF-4D74-BFA4-50EAB7F42249}"/>
+              <c16:uniqueId val="{00000002-0D35-4560-A7B5-4C3C1D47615D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2013,7 +2003,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA67-4ECA-B07A-78387FDBA891}"/>
+              <c16:uniqueId val="{00000000-9EE1-43C8-94B8-2A667E8AB265}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2033,7 +2023,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2144,7 +2134,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EA67-4ECA-B07A-78387FDBA891}"/>
+              <c16:uniqueId val="{00000002-9EE1-43C8-94B8-2A667E8AB265}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2164,7 +2154,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2183,16 +2173,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.0966550876196646</c:v>
+                    <c:v>7.0675911889444096</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0762223107296398</c:v>
+                    <c:v>5.3965295818111212</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.9472087742335153</c:v>
+                    <c:v>4.2305619237503134</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7971576183137818</c:v>
+                    <c:v>1.6234341812147823</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2204,16 +2194,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.0966550876196646</c:v>
+                    <c:v>7.0675911889444096</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0762223107296398</c:v>
+                    <c:v>5.3965295818111212</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.9472087742335153</c:v>
+                    <c:v>4.2305619237503134</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7971576183137818</c:v>
+                    <c:v>1.6234341812147823</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2259,23 +2249,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>939.41030133800984</c:v>
+                  <c:v>936.23477952188659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>468.00563604319746</c:v>
+                  <c:v>469.89960315248118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>283.47976277497935</c:v>
+                  <c:v>280.51656501511553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.331585027273348</c:v>
+                  <c:v>41.344331358462959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EA67-4ECA-B07A-78387FDBA891}"/>
+              <c16:uniqueId val="{00000004-9EE1-43C8-94B8-2A667E8AB265}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2289,8 +2279,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="765823680"/>
-        <c:axId val="765824040"/>
+        <c:axId val="550264584"/>
+        <c:axId val="550262064"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2376,7 +2366,7 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-EA67-4ECA-B07A-78387FDBA891}"/>
+                    <c16:uniqueId val="{00000001-9EE1-43C8-94B8-2A667E8AB265}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2464,7 +2454,95 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-EA67-4ECA-B07A-78387FDBA891}"/>
+                    <c16:uniqueId val="{00000003-9EE1-43C8-94B8-2A667E8AB265}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>O</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>A</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>B</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$G$3:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>7.0675911889444096</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.3965295818111212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.2305619237503134</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.6234341812147823</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9EE1-43C8-94B8-2A667E8AB265}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2473,7 +2551,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="765823680"/>
+        <c:axId val="550264584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2594,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765824040"/>
+        <c:crossAx val="550262064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2524,7 +2602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="765824040"/>
+        <c:axId val="550262064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2653,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765823680"/>
+        <c:crossAx val="550264584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,40 +2914,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7767.1101111558282</c:v>
+                  <c:v>7762.4434085042112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5857.7307893032312</c:v>
+                  <c:v>5851.2874166420497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5870.6687112657182</c:v>
+                  <c:v>5599.5896938629594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4775.1713098486271</c:v>
+                  <c:v>4772.2861738764987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4074.9841356297593</c:v>
+                  <c:v>4071.5606868948071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4025.4226439531917</c:v>
+                  <c:v>3141.6429346078485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1496.1437149454298</c:v>
+                  <c:v>1493.4455990274168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1790.3579348767955</c:v>
+                  <c:v>1788.2899713166366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1752.5091173901094</c:v>
+                  <c:v>1286.9989362981667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>361.92492065401638</c:v>
+                  <c:v>361.02989268425119</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>784.46245689635043</c:v>
+                  <c:v>784.29673067751412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>490.77705473353069</c:v>
+                  <c:v>346.61672478254866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,37 +3052,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>876.38628694708245</c:v>
+                  <c:v>875.42220370955408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>881.20774500497612</c:v>
+                  <c:v>835.90142845875425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>611.7266534704371</c:v>
+                  <c:v>611.21288792567509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>831.37418277274173</c:v>
+                  <c:v>1781.9740657383581</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>265.57043402491183</c:v>
+                  <c:v>265.2636298662236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>399.8847037382987</c:v>
+                  <c:v>1030.4051826609191</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>118.05369080098116</c:v>
+                  <c:v>118.02875741010938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119.59675069805648</c:v>
+                  <c:v>319.57329517312292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,22 +5551,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Grafico 9">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE0FADB-5F39-3C14-BAD1-126E8B9A8707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D91329-95B5-305C-5FEC-EC4FA1FAE7B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5548,6 +5626,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5847,10 +5929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BCF3B6-51B1-48FA-984F-EC30D107B6D0}">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5863,18 +5945,18 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -5884,16 +5966,16 @@
       <c r="C2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -5915,8 +5997,14 @@
       <c r="G3" s="5">
         <v>1.098676</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>17.142856999999999</v>
+      </c>
+      <c r="I3">
+        <v>1.314762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -5934,8 +6022,14 @@
       <c r="G4" s="5">
         <v>25.255666000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>12451.015873</v>
+      </c>
+      <c r="I4">
+        <v>25.196877000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -5955,8 +6049,14 @@
       <c r="G5" s="5">
         <v>0.84103499999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>12.793651000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.1291580000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -5974,8 +6074,14 @@
       <c r="G6" s="5">
         <v>22.04101</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>9392.1587299999992</v>
+      </c>
+      <c r="I6">
+        <v>38.546810999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -5995,8 +6101,14 @@
       <c r="G7" s="5">
         <v>0.63118200000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>8.6349210000000003</v>
+      </c>
+      <c r="I7">
+        <v>1.1338079999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -6014,8 +6126,14 @@
       <c r="G8" s="5">
         <v>17.684505000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>4561.1904759999998</v>
+      </c>
+      <c r="I8">
+        <v>32.921362000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
@@ -6035,8 +6153,14 @@
       <c r="G9" s="5">
         <v>0.336086</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>2.9047619999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.61973199999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -6054,8 +6178,14 @@
       <c r="G10" s="5">
         <v>36.226958000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1199.603175</v>
+      </c>
+      <c r="I10">
+        <v>20.101050000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -6077,8 +6207,14 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -6096,8 +6232,14 @@
       <c r="G12" s="5">
         <v>7.9629149999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>937.52381000000003</v>
+      </c>
+      <c r="I12">
+        <v>7.436375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -6117,8 +6259,14 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -6136,8 +6284,14 @@
       <c r="G14" s="5">
         <v>5.9495469999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>470.53968300000003</v>
+      </c>
+      <c r="I14">
+        <v>5.5546110000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -6157,8 +6311,14 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -6176,8 +6336,14 @@
       <c r="G16" s="5">
         <v>3.6116250000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>281.047619</v>
+      </c>
+      <c r="I16">
+        <v>4.3762619999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
@@ -6197,8 +6363,14 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -6216,8 +6388,14 @@
       <c r="G18" s="5">
         <v>2.7796419999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>41.444443999999997</v>
+      </c>
+      <c r="I18">
+        <v>1.673486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -6240,7 +6418,7 @@
         <v>3.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -6259,7 +6437,7 @@
         <v>8.8431239999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -6280,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -6299,7 +6477,7 @@
         <v>7.6263870000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -6320,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -6339,7 +6517,7 @@
         <v>4.6770370000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -6360,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -6379,7 +6557,7 @@
         <v>3.460378</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -6398,7 +6576,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -6413,7 +6591,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>8</v>
@@ -6430,7 +6608,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -6445,7 +6623,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>7</v>
@@ -6462,7 +6640,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -6793,7 +6971,7 @@
         <v>414.77436799999998</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>6</v>
@@ -6814,7 +6992,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" t="s">
@@ -6833,7 +7011,7 @@
         <v>2.553267</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
@@ -6855,8 +7033,14 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
@@ -6874,8 +7058,14 @@
       <c r="G52" s="5">
         <v>419.06182000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>3232.157866</v>
+      </c>
+      <c r="I52">
+        <v>465.63404500000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>8</v>
@@ -6895,8 +7085,14 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -6914,8 +7110,14 @@
       <c r="G54" s="5">
         <v>400.278909</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>3719.2789539999999</v>
+      </c>
+      <c r="I54">
+        <v>537.13092099999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>7</v>
@@ -6935,8 +7137,14 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" t="s">
@@ -6954,8 +7162,14 @@
       <c r="G56" s="5">
         <v>414.77408400000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>3742.2034349999999</v>
+      </c>
+      <c r="I56">
+        <v>544.36007800000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
@@ -6975,8 +7189,14 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
@@ -6994,8 +7214,14 @@
       <c r="G58" s="5">
         <v>2.5520930000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>3593.7826</v>
+      </c>
+      <c r="I58">
+        <v>521.37132899999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -7018,7 +7244,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
@@ -7037,7 +7263,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>8</v>
@@ -7058,7 +7284,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" t="s">
@@ -7077,7 +7303,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>7</v>
@@ -7098,7 +7324,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
@@ -7117,7 +7343,7 @@
         <v>3.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>6</v>
@@ -7138,7 +7364,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" t="s">
@@ -7157,7 +7383,7 @@
         <v>1.323E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>18</v>
       </c>
@@ -7180,7 +7406,7 @@
         <v>3.6999999999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" t="s">
@@ -7199,7 +7425,7 @@
         <v>7764.3828270000004</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>8</v>
@@ -7220,7 +7446,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
@@ -7239,7 +7465,7 @@
         <v>5157.3307860000004</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>7</v>
@@ -7260,7 +7486,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" t="s">
@@ -7279,7 +7505,7 @@
         <v>2346.0454690000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>6</v>
@@ -7300,7 +7526,7 @@
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" t="s">
@@ -7319,7 +7545,7 @@
         <v>6.4456610000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -7341,8 +7567,14 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="I75">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
@@ -7360,8 +7592,14 @@
       <c r="G76" s="5">
         <v>7764.3828160000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>57453.136087999999</v>
+      </c>
+      <c r="I76">
+        <v>8279.0769930000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>8</v>
@@ -7381,8 +7619,14 @@
       <c r="G77" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" t="s">
@@ -7400,8 +7644,14 @@
       <c r="G78" s="5">
         <v>5157.3307830000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>50504.598106999998</v>
+      </c>
+      <c r="I78">
+        <v>7306.3350479999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>7</v>
@@ -7421,8 +7671,14 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" t="s">
@@ -7440,8 +7696,14 @@
       <c r="G80" s="5">
         <v>2346.0454300000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>24129.244955999999</v>
+      </c>
+      <c r="I80">
+        <v>3477.2520100000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>6</v>
@@ -7461,8 +7723,14 @@
       <c r="G81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
@@ -7480,8 +7748,14 @@
       <c r="G82" s="5">
         <v>6.4386219999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>6623.5742209999999</v>
+      </c>
+      <c r="I82">
+        <v>963.15163299999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>16</v>
       </c>
@@ -7504,7 +7778,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" t="s">
@@ -7523,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>8</v>
@@ -7544,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" t="s">
@@ -7563,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -7584,7 +7858,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
@@ -7603,7 +7877,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>6</v>
@@ -7624,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
@@ -7643,42 +7917,42 @@
         <v>5.3584E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="31"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="32" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="34" t="s">
+      <c r="E92" s="34"/>
+      <c r="F92" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G92" s="35"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="36"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="27"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -7692,12 +7966,12 @@
         <v>14.240249</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="21"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="13">
         <v>3166.8571430000002</v>
       </c>
@@ -7711,12 +7985,12 @@
         <v>14.345084</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="21"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -7730,12 +8004,12 @@
         <v>8.5266059999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="21"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -7753,10 +8027,10 @@
       <c r="A97" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="21"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="13">
         <v>3736.2698409999998</v>
       </c>
@@ -7772,10 +8046,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="21"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="13">
         <v>1625.1746029999999</v>
       </c>
@@ -7791,10 +8065,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="21"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="13">
         <v>490.31745999999998</v>
       </c>
@@ -7810,10 +8084,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="21"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="13">
         <v>74.539682999999997</v>
       </c>
@@ -7831,10 +8105,10 @@
       <c r="A101" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="21"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -7850,10 +8124,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="21"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -7869,10 +8143,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="21"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -7888,10 +8162,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="21"/>
+      <c r="C104" s="22"/>
       <c r="D104" s="13">
         <v>0</v>
       </c>
@@ -7909,10 +8183,10 @@
       <c r="A105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="21"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -7928,10 +8202,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="21"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="13">
         <v>0.114799</v>
       </c>
@@ -7947,10 +8221,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="21"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -7966,10 +8240,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="21"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="13">
         <v>1.258319</v>
       </c>
@@ -7987,10 +8261,10 @@
       <c r="A109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="21"/>
+      <c r="C109" s="22"/>
       <c r="D109" s="13">
         <v>4.1E-5</v>
       </c>
@@ -8006,10 +8280,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="21"/>
+      <c r="C110" s="22"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -8025,10 +8299,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="21"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -8044,10 +8318,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="15">
         <v>0</v>
       </c>
@@ -8061,18 +8335,18 @@
         <v>6.0700000000000001E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="28" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="31"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -8082,16 +8356,16 @@
       <c r="C114" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="32" t="s">
+      <c r="D114" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E114" s="33"/>
-      <c r="F114" s="32" t="s">
+      <c r="E114" s="34"/>
+      <c r="F114" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G114" s="33"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="34"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>39</v>
       </c>
@@ -8107,14 +8381,20 @@
       <c r="E115" s="6">
         <v>0.99661</v>
       </c>
-      <c r="F115" s="46">
+      <c r="F115" s="7">
         <v>16.238095000000001</v>
       </c>
-      <c r="G115" s="47">
+      <c r="G115" s="6">
         <v>1.0993710000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>17.142856999999999</v>
+      </c>
+      <c r="I115">
+        <v>1.314762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
@@ -8126,14 +8406,20 @@
       <c r="E116" s="5">
         <v>20.844837999999999</v>
       </c>
-      <c r="F116" s="48">
+      <c r="F116" s="3">
         <v>6748.1428569999998</v>
       </c>
-      <c r="G116" s="49">
+      <c r="G116" s="5">
         <v>23.454781000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>6465.8888889999998</v>
+      </c>
+      <c r="I116">
+        <v>85.516293000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>8</v>
@@ -8147,14 +8433,20 @@
       <c r="E117" s="5">
         <v>0.65682499999999999</v>
       </c>
-      <c r="F117" s="48">
+      <c r="F117" s="3">
         <v>9.2380949999999995</v>
       </c>
-      <c r="G117" s="49">
+      <c r="G117" s="5">
         <v>0.848302</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>12.793651000000001</v>
+      </c>
+      <c r="I117">
+        <v>1.1291580000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
@@ -8166,14 +8458,20 @@
       <c r="E118" s="5">
         <v>18.210270000000001</v>
       </c>
-      <c r="F118" s="48">
+      <c r="F118" s="3">
         <v>4695.6031750000002</v>
       </c>
-      <c r="G118" s="49">
+      <c r="G118" s="5">
         <v>24.314059</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>4946.9047620000001</v>
+      </c>
+      <c r="I118">
+        <v>68.787655000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>7</v>
@@ -8187,14 +8485,20 @@
       <c r="E119" s="5">
         <v>0.58489999999999998</v>
       </c>
-      <c r="F119" s="48">
+      <c r="F119" s="3">
         <v>5.2380950000000004</v>
       </c>
-      <c r="G119" s="49">
+      <c r="G119" s="5">
         <v>0.63118200000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>8.6349210000000003</v>
+      </c>
+      <c r="I119">
+        <v>1.1338079999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
@@ -8206,14 +8510,20 @@
       <c r="E120" s="5">
         <v>10.358641</v>
       </c>
-      <c r="F120" s="48">
+      <c r="F120" s="3">
         <v>2060.0317460000001</v>
       </c>
-      <c r="G120" s="49">
+      <c r="G120" s="5">
         <v>16.525158999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>2332.1746029999999</v>
+      </c>
+      <c r="I120">
+        <v>66.682868999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>6</v>
@@ -8227,14 +8537,20 @@
       <c r="E121" s="5">
         <v>0.28901500000000002</v>
       </c>
-      <c r="F121" s="48">
+      <c r="F121" s="3">
         <v>1.730159</v>
       </c>
-      <c r="G121" s="49">
+      <c r="G121" s="5">
         <v>0.336086</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>2.9047619999999998</v>
+      </c>
+      <c r="I121">
+        <v>0.61973199999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
@@ -8246,14 +8562,20 @@
       <c r="E122" s="5">
         <v>4.8384859999999996</v>
       </c>
-      <c r="F122" s="48">
+      <c r="F122" s="3">
         <v>904.79365099999995</v>
       </c>
-      <c r="G122" s="49">
+      <c r="G122" s="5">
         <v>18.173718000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>670.50793699999997</v>
+      </c>
+      <c r="I122">
+        <v>38.593429999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>11</v>
       </c>
@@ -8269,14 +8591,20 @@
       <c r="E123" s="5">
         <v>1.007838</v>
       </c>
-      <c r="F123" s="48">
+      <c r="F123" s="3">
         <v>14.15873</v>
       </c>
-      <c r="G123" s="49">
+      <c r="G123" s="5">
         <v>0.93163099999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>14.682539999999999</v>
+      </c>
+      <c r="I123">
+        <v>1.062567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
@@ -8288,14 +8616,20 @@
       <c r="E124" s="5">
         <v>23.258721000000001</v>
       </c>
-      <c r="F124" s="48">
+      <c r="F124" s="3">
         <v>5865.3333329999996</v>
       </c>
-      <c r="G124" s="49">
+      <c r="G124" s="5">
         <v>22.595371</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>5614.3968249999998</v>
+      </c>
+      <c r="I124">
+        <v>73.711911999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>8</v>
@@ -8309,14 +8643,20 @@
       <c r="E125" s="5">
         <v>0.65213600000000005</v>
       </c>
-      <c r="F125" s="48">
+      <c r="F125" s="3">
         <v>7.8730159999999998</v>
       </c>
-      <c r="G125" s="49">
+      <c r="G125" s="5">
         <v>0.72583399999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>8.4285709999999998</v>
+      </c>
+      <c r="I125">
+        <v>0.64876500000000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
@@ -8328,14 +8668,20 @@
       <c r="E126" s="5">
         <v>19.610890000000001</v>
       </c>
-      <c r="F126" s="48">
+      <c r="F126" s="3">
         <v>4079.5555559999998</v>
       </c>
-      <c r="G126" s="49">
+      <c r="G126" s="5">
         <v>22.285408</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>3149.746032</v>
+      </c>
+      <c r="I126">
+        <v>51.090497999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>7</v>
@@ -8349,14 +8695,20 @@
       <c r="E127" s="5">
         <v>0.55066700000000002</v>
       </c>
-      <c r="F127" s="48">
+      <c r="F127" s="3">
         <v>4.6031750000000002</v>
       </c>
-      <c r="G127" s="49">
+      <c r="G127" s="5">
         <v>0.51283100000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>4.8730159999999998</v>
+      </c>
+      <c r="I127">
+        <v>0.60769300000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
@@ -8368,14 +8720,20 @@
       <c r="E128" s="5">
         <v>10.469742</v>
       </c>
-      <c r="F128" s="48">
+      <c r="F128" s="3">
         <v>1792.8253970000001</v>
       </c>
-      <c r="G128" s="49">
+      <c r="G128" s="5">
         <v>13.490553999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>1291.746032</v>
+      </c>
+      <c r="I128">
+        <v>37.430990999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>6</v>
@@ -8389,14 +8747,20 @@
       <c r="E129" s="5">
         <v>0.31606600000000001</v>
       </c>
-      <c r="F129" s="48">
+      <c r="F129" s="3">
         <v>1.4761899999999999</v>
       </c>
-      <c r="G129" s="49">
+      <c r="G129" s="5">
         <v>0.27085900000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="I129">
+        <v>0.32302799999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
@@ -8408,14 +8772,20 @@
       <c r="E130" s="5">
         <v>4.5865869999999997</v>
       </c>
-      <c r="F130" s="48">
+      <c r="F130" s="3">
         <v>785.79365099999995</v>
       </c>
-      <c r="G130" s="49">
+      <c r="G130" s="5">
         <v>16.075111</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>348.11111099999999</v>
+      </c>
+      <c r="I130">
+        <v>20.614649</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>10</v>
       </c>
@@ -8431,14 +8801,20 @@
       <c r="E131" s="5">
         <v>0</v>
       </c>
-      <c r="F131" s="48">
+      <c r="F131" s="3">
         <v>2.0476190000000001</v>
       </c>
-      <c r="G131" s="49">
+      <c r="G131" s="5">
         <v>0.39544299999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>2.4603169999999999</v>
+      </c>
+      <c r="I131">
+        <v>0.416599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
@@ -8450,14 +8826,20 @@
       <c r="E132" s="5">
         <v>0</v>
       </c>
-      <c r="F132" s="48">
+      <c r="F132" s="3">
         <v>877.52381000000003</v>
       </c>
-      <c r="G132" s="49">
+      <c r="G132" s="5">
         <v>8.9333600000000004</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>838.11111100000005</v>
+      </c>
+      <c r="I132">
+        <v>14.008298999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>8</v>
@@ -8471,14 +8853,20 @@
       <c r="E133" s="5">
         <v>0</v>
       </c>
-      <c r="F133" s="48">
+      <c r="F133" s="3">
         <v>1.3650789999999999</v>
       </c>
-      <c r="G133" s="49">
+      <c r="G133" s="5">
         <v>0.30444700000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>4.3174599999999996</v>
+      </c>
+      <c r="I133">
+        <v>0.71207900000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
@@ -8490,14 +8878,20 @@
       <c r="E134" s="5">
         <v>0</v>
       </c>
-      <c r="F134" s="48">
+      <c r="F134" s="3">
         <v>612.41269799999998</v>
       </c>
-      <c r="G134" s="49">
+      <c r="G134" s="5">
         <v>6.7276610000000003</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>1786.5714290000001</v>
+      </c>
+      <c r="I134">
+        <v>28.305664</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>7</v>
@@ -8511,14 +8905,20 @@
       <c r="E135" s="5">
         <v>0</v>
       </c>
-      <c r="F135" s="48">
+      <c r="F135" s="3">
         <v>0.63492099999999996</v>
       </c>
-      <c r="G135" s="49">
+      <c r="G135" s="5">
         <v>0.23197799999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>3.7619050000000001</v>
+      </c>
+      <c r="I135">
+        <v>0.74286099999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
@@ -8530,14 +8930,20 @@
       <c r="E136" s="5">
         <v>0</v>
       </c>
-      <c r="F136" s="48">
+      <c r="F136" s="3">
         <v>265.936508</v>
       </c>
-      <c r="G136" s="49">
+      <c r="G136" s="5">
         <v>4.5024170000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>1034.206349</v>
+      </c>
+      <c r="I136">
+        <v>27.914527</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>6</v>
@@ -8551,14 +8957,20 @@
       <c r="E137" s="5">
         <v>0</v>
       </c>
-      <c r="F137" s="48">
+      <c r="F137" s="3">
         <v>0.25396800000000003</v>
       </c>
-      <c r="G137" s="49">
+      <c r="G137" s="5">
         <v>0.135459</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>1.2380949999999999</v>
+      </c>
+      <c r="I137">
+        <v>0.38305299999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
@@ -8570,14 +8982,20 @@
       <c r="E138" s="5">
         <v>0</v>
       </c>
-      <c r="F138" s="48">
+      <c r="F138" s="3">
         <v>118.253968</v>
       </c>
-      <c r="G138" s="49">
+      <c r="G138" s="5">
         <v>3.5602049999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>320.952381</v>
+      </c>
+      <c r="I138">
+        <v>19.846079</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>30</v>
       </c>
@@ -8591,12 +9009,12 @@
         <v>0</v>
       </c>
       <c r="E139" s="5"/>
-      <c r="F139" s="48">
+      <c r="F139" s="3">
         <v>12.657005</v>
       </c>
-      <c r="G139" s="49"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
@@ -8606,12 +9024,12 @@
         <v>0</v>
       </c>
       <c r="E140" s="5"/>
-      <c r="F140" s="48">
+      <c r="F140" s="3">
         <v>13.013605</v>
       </c>
-      <c r="G140" s="49"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>8</v>
@@ -8623,12 +9041,12 @@
         <v>0</v>
       </c>
       <c r="E141" s="5"/>
-      <c r="F141" s="48">
+      <c r="F141" s="3">
         <v>14.839798</v>
       </c>
-      <c r="G141" s="49"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
@@ -8638,12 +9056,12 @@
         <v>0</v>
       </c>
       <c r="E142" s="5"/>
-      <c r="F142" s="48">
+      <c r="F142" s="3">
         <v>13.050573999999999</v>
       </c>
-      <c r="G142" s="49"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>7</v>
@@ -8655,12 +9073,12 @@
         <v>0</v>
       </c>
       <c r="E143" s="5"/>
-      <c r="F143" s="48">
+      <c r="F143" s="3">
         <v>12.130178000000001</v>
       </c>
-      <c r="G143" s="49"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
@@ -8670,10 +9088,10 @@
         <v>0</v>
       </c>
       <c r="E144" s="5"/>
-      <c r="F144" s="48">
+      <c r="F144" s="3">
         <v>12.912236</v>
       </c>
-      <c r="G144" s="49"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
@@ -8687,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="E145" s="5"/>
-      <c r="F145" s="48">
+      <c r="F145" s="3">
         <v>14.678898999999999</v>
       </c>
-      <c r="G145" s="49"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
@@ -8702,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="E146" s="5"/>
-      <c r="F146" s="48">
+      <c r="F146" s="3">
         <v>13.118607000000001</v>
       </c>
-      <c r="G146" s="49"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
@@ -8719,49 +9137,49 @@
       <c r="E147" s="4">
         <v>1.073E-3</v>
       </c>
-      <c r="F147" s="50">
+      <c r="F147" s="2">
         <v>711.80767400000002</v>
       </c>
-      <c r="G147" s="51">
+      <c r="G147" s="4">
         <v>1.073E-3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="32"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C149" s="25"/>
-      <c r="D149" s="32" t="s">
+      <c r="C149" s="26"/>
+      <c r="D149" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="32" t="s">
+      <c r="E149" s="34"/>
+      <c r="F149" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G149" s="33"/>
+      <c r="G149" s="34"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="27"/>
+      <c r="C150" s="28"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -8777,10 +9195,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="45"/>
+      <c r="C151" s="22"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -8796,10 +9214,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="20" t="s">
+      <c r="B152" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="45"/>
+      <c r="C152" s="22"/>
       <c r="D152" s="13">
         <v>1290.6349210000001</v>
       </c>
@@ -8815,10 +9233,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="20" t="s">
+      <c r="B153" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="45"/>
+      <c r="C153" s="22"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -8836,10 +9254,10 @@
       <c r="A154" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="45"/>
+      <c r="C154" s="22"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -8855,10 +9273,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="45"/>
+      <c r="C155" s="22"/>
       <c r="D155" s="13">
         <v>33.063491999999997</v>
       </c>
@@ -8874,10 +9292,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C156" s="45"/>
+      <c r="C156" s="22"/>
       <c r="D156" s="13">
         <v>14.253968</v>
       </c>
@@ -8893,10 +9311,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="45"/>
+      <c r="C157" s="22"/>
       <c r="D157" s="13">
         <v>16.904762000000002</v>
       </c>
@@ -8914,10 +9332,10 @@
       <c r="A158" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B158" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="45"/>
+      <c r="C158" s="22"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -8933,10 +9351,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="45"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="13">
         <v>744.19047599999999</v>
       </c>
@@ -8952,10 +9370,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="45"/>
+      <c r="C160" s="22"/>
       <c r="D160" s="13">
         <v>334.47618999999997</v>
       </c>
@@ -8971,10 +9389,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="45"/>
+      <c r="C161" s="22"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -8992,10 +9410,10 @@
       <c r="A162" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B162" s="20" t="s">
+      <c r="B162" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="45"/>
+      <c r="C162" s="22"/>
       <c r="D162" s="13">
         <v>3057.3174600000002</v>
       </c>
@@ -9011,10 +9429,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="45"/>
+      <c r="C163" s="22"/>
       <c r="D163" s="13">
         <v>2099.333333</v>
       </c>
@@ -9030,10 +9448,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="45"/>
+      <c r="C164" s="22"/>
       <c r="D164" s="13">
         <v>941.88888899999995</v>
       </c>
@@ -9049,10 +9467,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="20" t="s">
+      <c r="B165" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="45"/>
+      <c r="C165" s="22"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -9146,7 +9564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2317ED-57BA-4FAE-A3A8-363C38207229}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -9161,15 +9579,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -9181,14 +9599,14 @@
       <c r="C2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -10941,41 +11359,41 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="34" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="35"/>
-      <c r="F92" s="34" t="s">
+      <c r="E92" s="36"/>
+      <c r="F92" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="35"/>
+      <c r="G92" s="36"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="44"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -10991,10 +11409,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="40"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="13">
         <v>3166.8412699999999</v>
       </c>
@@ -11010,10 +11428,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="40"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -11029,10 +11447,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="40"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -11050,10 +11468,10 @@
       <c r="A97" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="40"/>
+      <c r="C97" s="41"/>
       <c r="D97" s="13">
         <v>3736.3650790000002</v>
       </c>
@@ -11069,10 +11487,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="40"/>
+      <c r="C98" s="41"/>
       <c r="D98" s="13">
         <v>1625.1587300000001</v>
       </c>
@@ -11088,10 +11506,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
-      <c r="B99" s="39" t="s">
+      <c r="B99" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="40"/>
+      <c r="C99" s="41"/>
       <c r="D99" s="13">
         <v>490.26984099999999</v>
       </c>
@@ -11107,10 +11525,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="40"/>
+      <c r="C100" s="41"/>
       <c r="D100" s="13">
         <v>80.555555999999996</v>
       </c>
@@ -11128,10 +11546,10 @@
       <c r="A101" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="40"/>
+      <c r="C101" s="41"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -11147,10 +11565,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="40"/>
+      <c r="C102" s="41"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -11166,10 +11584,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="40"/>
+      <c r="C103" s="41"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -11185,10 +11603,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="40"/>
+      <c r="C104" s="41"/>
       <c r="D104" s="13">
         <v>10.857143000000001</v>
       </c>
@@ -11206,10 +11624,10 @@
       <c r="A105" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="40"/>
+      <c r="C105" s="41"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -11225,10 +11643,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="40"/>
+      <c r="C106" s="41"/>
       <c r="D106" s="13">
         <v>0.114798</v>
       </c>
@@ -11244,10 +11662,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="40"/>
+      <c r="C107" s="41"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -11263,10 +11681,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="40"/>
+      <c r="C108" s="41"/>
       <c r="D108" s="13">
         <v>1.258316</v>
       </c>
@@ -11284,10 +11702,10 @@
       <c r="A109" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="40"/>
+      <c r="C109" s="41"/>
       <c r="D109" s="13">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -11303,10 +11721,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="40"/>
+      <c r="C110" s="41"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -11322,10 +11740,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="40"/>
+      <c r="C111" s="41"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -11341,10 +11759,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="42"/>
+      <c r="C112" s="43"/>
       <c r="D112" s="15">
         <v>7.9509999999999997E-3</v>
       </c>
@@ -11359,15 +11777,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="31"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
@@ -11379,14 +11797,14 @@
       <c r="C114" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="32" t="s">
+      <c r="D114" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="33"/>
-      <c r="F114" s="34" t="s">
+      <c r="E114" s="34"/>
+      <c r="F114" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G114" s="35"/>
+      <c r="G114" s="36"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -11398,10 +11816,10 @@
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="46">
+      <c r="D115" s="7">
         <v>16.238095000000001</v>
       </c>
-      <c r="E115" s="47">
+      <c r="E115" s="6">
         <v>1.0993710000000001</v>
       </c>
       <c r="F115" s="7">
@@ -11417,10 +11835,10 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="48">
+      <c r="D116" s="3">
         <v>6748.1428569999998</v>
       </c>
-      <c r="E116" s="49">
+      <c r="E116" s="5">
         <v>23.454781000000001</v>
       </c>
       <c r="F116" s="3">
@@ -11438,10 +11856,10 @@
       <c r="C117" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="48">
+      <c r="D117" s="3">
         <v>9.2380949999999995</v>
       </c>
-      <c r="E117" s="49">
+      <c r="E117" s="5">
         <v>0.848302</v>
       </c>
       <c r="F117" s="3">
@@ -11457,10 +11875,10 @@
       <c r="C118" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="48">
+      <c r="D118" s="3">
         <v>4695.6031750000002</v>
       </c>
-      <c r="E118" s="49">
+      <c r="E118" s="5">
         <v>24.314059</v>
       </c>
       <c r="F118" s="3">
@@ -11478,10 +11896,10 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="48">
+      <c r="D119" s="3">
         <v>5.2380950000000004</v>
       </c>
-      <c r="E119" s="49">
+      <c r="E119" s="5">
         <v>0.63118200000000002</v>
       </c>
       <c r="F119" s="3">
@@ -11497,10 +11915,10 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="48">
+      <c r="D120" s="3">
         <v>2060.0317460000001</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="5">
         <v>16.525158999999999</v>
       </c>
       <c r="F120" s="3">
@@ -11518,10 +11936,10 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="48">
+      <c r="D121" s="3">
         <v>1.730159</v>
       </c>
-      <c r="E121" s="49">
+      <c r="E121" s="5">
         <v>0.336086</v>
       </c>
       <c r="F121" s="3">
@@ -11537,10 +11955,10 @@
       <c r="C122" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="48">
+      <c r="D122" s="3">
         <v>904.79365099999995</v>
       </c>
-      <c r="E122" s="49">
+      <c r="E122" s="5">
         <v>18.173718000000001</v>
       </c>
       <c r="F122" s="3">
@@ -11560,10 +11978,10 @@
       <c r="C123" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="48">
+      <c r="D123" s="3">
         <v>14.15873</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="5">
         <v>0.93163099999999999</v>
       </c>
       <c r="F123" s="3">
@@ -11579,10 +11997,10 @@
       <c r="C124" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="48">
+      <c r="D124" s="3">
         <v>5865.3333329999996</v>
       </c>
-      <c r="E124" s="49">
+      <c r="E124" s="5">
         <v>22.595371</v>
       </c>
       <c r="F124" s="3">
@@ -11600,10 +12018,10 @@
       <c r="C125" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="48">
+      <c r="D125" s="3">
         <v>7.8730159999999998</v>
       </c>
-      <c r="E125" s="49">
+      <c r="E125" s="5">
         <v>0.72583399999999998</v>
       </c>
       <c r="F125" s="3">
@@ -11619,10 +12037,10 @@
       <c r="C126" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="48">
+      <c r="D126" s="3">
         <v>4079.5555559999998</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E126" s="5">
         <v>22.285408</v>
       </c>
       <c r="F126" s="3">
@@ -11640,10 +12058,10 @@
       <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="48">
+      <c r="D127" s="3">
         <v>4.6031750000000002</v>
       </c>
-      <c r="E127" s="49">
+      <c r="E127" s="5">
         <v>0.51283100000000004</v>
       </c>
       <c r="F127" s="3">
@@ -11659,10 +12077,10 @@
       <c r="C128" t="s">
         <v>4</v>
       </c>
-      <c r="D128" s="48">
+      <c r="D128" s="3">
         <v>1792.8253970000001</v>
       </c>
-      <c r="E128" s="49">
+      <c r="E128" s="5">
         <v>13.490553999999999</v>
       </c>
       <c r="F128" s="3">
@@ -11680,10 +12098,10 @@
       <c r="C129" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="48">
+      <c r="D129" s="3">
         <v>1.4761899999999999</v>
       </c>
-      <c r="E129" s="49">
+      <c r="E129" s="5">
         <v>0.27085900000000002</v>
       </c>
       <c r="F129" s="3">
@@ -11699,10 +12117,10 @@
       <c r="C130" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="48">
+      <c r="D130" s="3">
         <v>785.79365099999995</v>
       </c>
-      <c r="E130" s="49">
+      <c r="E130" s="5">
         <v>16.075111</v>
       </c>
       <c r="F130" s="3">
@@ -11722,10 +12140,10 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="48">
+      <c r="D131" s="3">
         <v>2.0476190000000001</v>
       </c>
-      <c r="E131" s="49">
+      <c r="E131" s="5">
         <v>0.39544299999999999</v>
       </c>
       <c r="F131" s="3">
@@ -11741,10 +12159,10 @@
       <c r="C132" t="s">
         <v>4</v>
       </c>
-      <c r="D132" s="48">
+      <c r="D132" s="3">
         <v>877.52381000000003</v>
       </c>
-      <c r="E132" s="49">
+      <c r="E132" s="5">
         <v>8.9333600000000004</v>
       </c>
       <c r="F132" s="3">
@@ -11762,10 +12180,10 @@
       <c r="C133" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="48">
+      <c r="D133" s="3">
         <v>1.3650789999999999</v>
       </c>
-      <c r="E133" s="49">
+      <c r="E133" s="5">
         <v>0.30444700000000002</v>
       </c>
       <c r="F133" s="3">
@@ -11781,10 +12199,10 @@
       <c r="C134" t="s">
         <v>4</v>
       </c>
-      <c r="D134" s="48">
+      <c r="D134" s="3">
         <v>612.41269799999998</v>
       </c>
-      <c r="E134" s="49">
+      <c r="E134" s="5">
         <v>6.7276610000000003</v>
       </c>
       <c r="F134" s="3">
@@ -11802,10 +12220,10 @@
       <c r="C135" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="48">
+      <c r="D135" s="3">
         <v>0.63492099999999996</v>
       </c>
-      <c r="E135" s="49">
+      <c r="E135" s="5">
         <v>0.23197799999999999</v>
       </c>
       <c r="F135" s="3">
@@ -11821,10 +12239,10 @@
       <c r="C136" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="48">
+      <c r="D136" s="3">
         <v>265.936508</v>
       </c>
-      <c r="E136" s="49">
+      <c r="E136" s="5">
         <v>4.5024170000000003</v>
       </c>
       <c r="F136" s="3">
@@ -11842,10 +12260,10 @@
       <c r="C137" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="48">
+      <c r="D137" s="3">
         <v>0.25396800000000003</v>
       </c>
-      <c r="E137" s="49">
+      <c r="E137" s="5">
         <v>0.135459</v>
       </c>
       <c r="F137" s="3">
@@ -11861,10 +12279,10 @@
       <c r="C138" t="s">
         <v>4</v>
       </c>
-      <c r="D138" s="48">
+      <c r="D138" s="3">
         <v>118.253968</v>
       </c>
-      <c r="E138" s="49">
+      <c r="E138" s="5">
         <v>3.5602049999999998</v>
       </c>
       <c r="F138" s="3">
@@ -11884,10 +12302,10 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="48">
+      <c r="D139" s="3">
         <v>12.657005</v>
       </c>
-      <c r="E139" s="49"/>
+      <c r="E139" s="5"/>
       <c r="F139" s="3">
         <v>14.102563999999999</v>
       </c>
@@ -11899,10 +12317,10 @@
       <c r="C140" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="48">
+      <c r="D140" s="3">
         <v>13.013605</v>
       </c>
-      <c r="E140" s="49"/>
+      <c r="E140" s="5"/>
       <c r="F140" s="3">
         <v>13.052702999999999</v>
       </c>
@@ -11916,10 +12334,10 @@
       <c r="C141" t="s">
         <v>5</v>
       </c>
-      <c r="D141" s="48">
+      <c r="D141" s="3">
         <v>14.839798</v>
       </c>
-      <c r="E141" s="49"/>
+      <c r="E141" s="5"/>
       <c r="F141" s="3">
         <v>16.271722</v>
       </c>
@@ -11931,10 +12349,10 @@
       <c r="C142" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="48">
+      <c r="D142" s="3">
         <v>13.050573999999999</v>
       </c>
-      <c r="E142" s="49"/>
+      <c r="E142" s="5"/>
       <c r="F142" s="3">
         <v>17.128761000000001</v>
       </c>
@@ -11948,10 +12366,10 @@
       <c r="C143" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="48">
+      <c r="D143" s="3">
         <v>12.130178000000001</v>
       </c>
-      <c r="E143" s="49"/>
+      <c r="E143" s="5"/>
       <c r="F143" s="3">
         <v>18.384401</v>
       </c>
@@ -11963,10 +12381,10 @@
       <c r="C144" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="48">
+      <c r="D144" s="3">
         <v>12.912236</v>
       </c>
-      <c r="E144" s="49"/>
+      <c r="E144" s="5"/>
       <c r="F144" s="3">
         <v>18.586051999999999</v>
       </c>
@@ -11980,10 +12398,10 @@
       <c r="C145" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="48">
+      <c r="D145" s="3">
         <v>14.678898999999999</v>
       </c>
-      <c r="E145" s="49"/>
+      <c r="E145" s="5"/>
       <c r="F145" s="3">
         <v>14.634145999999999</v>
       </c>
@@ -11995,10 +12413,10 @@
       <c r="C146" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="48">
+      <c r="D146" s="3">
         <v>13.118607000000001</v>
       </c>
-      <c r="E146" s="49"/>
+      <c r="E146" s="5"/>
       <c r="F146" s="3">
         <v>19.563272000000001</v>
       </c>
@@ -12010,10 +12428,10 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="50">
+      <c r="D147" s="2">
         <v>711.80767400000002</v>
       </c>
-      <c r="E147" s="51">
+      <c r="E147" s="4">
         <v>1.073E-3</v>
       </c>
       <c r="F147" s="2">
@@ -12024,41 +12442,41 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="32"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C149" s="25"/>
-      <c r="D149" s="32" t="s">
+      <c r="C149" s="26"/>
+      <c r="D149" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="34" t="s">
+      <c r="E149" s="34"/>
+      <c r="F149" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G149" s="35"/>
+      <c r="G149" s="36"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="44"/>
+      <c r="C150" s="45"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -12074,10 +12492,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="40"/>
+      <c r="C151" s="41"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -12093,10 +12511,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="40"/>
+      <c r="C152" s="41"/>
       <c r="D152" s="13">
         <v>1290.619048</v>
       </c>
@@ -12112,10 +12530,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="40"/>
+      <c r="C153" s="41"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -12133,10 +12551,10 @@
       <c r="A154" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B154" s="39" t="s">
+      <c r="B154" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="40"/>
+      <c r="C154" s="41"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -12152,10 +12570,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="40"/>
+      <c r="C155" s="41"/>
       <c r="D155" s="13">
         <v>33.031745999999998</v>
       </c>
@@ -12171,10 +12589,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
-      <c r="B156" s="39" t="s">
+      <c r="B156" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C156" s="40"/>
+      <c r="C156" s="41"/>
       <c r="D156" s="13">
         <v>14.238095</v>
       </c>
@@ -12190,10 +12608,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
-      <c r="B157" s="39" t="s">
+      <c r="B157" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="40"/>
+      <c r="C157" s="41"/>
       <c r="D157" s="13">
         <v>17.015872999999999</v>
       </c>
@@ -12211,10 +12629,10 @@
       <c r="A158" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="39" t="s">
+      <c r="B158" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="40"/>
+      <c r="C158" s="41"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -12230,10 +12648,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="40"/>
+      <c r="C159" s="41"/>
       <c r="D159" s="13">
         <v>744.15872999999999</v>
       </c>
@@ -12249,10 +12667,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="40"/>
+      <c r="C160" s="41"/>
       <c r="D160" s="13">
         <v>334.46031699999997</v>
       </c>
@@ -12268,10 +12686,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
-      <c r="B161" s="39" t="s">
+      <c r="B161" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="40"/>
+      <c r="C161" s="41"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -12289,10 +12707,10 @@
       <c r="A162" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B162" s="39" t="s">
+      <c r="B162" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="40"/>
+      <c r="C162" s="41"/>
       <c r="D162" s="13">
         <v>3057.2857140000001</v>
       </c>
@@ -12308,10 +12726,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="40"/>
+      <c r="C163" s="41"/>
       <c r="D163" s="13">
         <v>2099.3968249999998</v>
       </c>
@@ -12327,10 +12745,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
-      <c r="B164" s="39" t="s">
+      <c r="B164" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="40"/>
+      <c r="C164" s="41"/>
       <c r="D164" s="13">
         <v>941.90476200000001</v>
       </c>
@@ -12346,10 +12764,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
-      <c r="B165" s="39" t="s">
+      <c r="B165" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="40"/>
+      <c r="C165" s="41"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -12443,8 +12861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9821191-4258-4FB4-B331-453D338A5B6C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12453,29 +12871,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -12494,10 +12912,10 @@
         <v>7.630952107489156</v>
       </c>
       <c r="F3">
-        <v>939.41030133800984</v>
+        <v>936.23477952188659</v>
       </c>
       <c r="G3">
-        <v>8.0966550876196646</v>
+        <v>7.0675911889444096</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -12517,10 +12935,10 @@
         <v>5.7308699865973507</v>
       </c>
       <c r="F4">
-        <v>468.00563604319746</v>
+        <v>469.89960315248118</v>
       </c>
       <c r="G4">
-        <v>5.0762223107296398</v>
+        <v>5.3965295818111212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -12540,10 +12958,10 @@
         <v>3.4871637831889681</v>
       </c>
       <c r="F5">
-        <v>283.47976277497935</v>
+        <v>280.51656501511553</v>
       </c>
       <c r="G5">
-        <v>3.9472087742335153</v>
+        <v>4.2305619237503134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -12563,36 +12981,36 @@
         <v>2.7540916448049564</v>
       </c>
       <c r="F6">
-        <v>42.331585027273348</v>
+        <v>41.344331358462959</v>
       </c>
       <c r="G6">
-        <v>1.7971576183137818</v>
+        <v>1.6234341812147823</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -12611,10 +13029,10 @@
         <v>401.59171339857852</v>
       </c>
       <c r="F23">
-        <v>2856.8970363321055</v>
+        <v>3227.7138721996207</v>
       </c>
       <c r="G23">
-        <v>391.75613130473954</v>
+        <v>442.54237766580422</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -12634,10 +13052,10 @@
         <v>385.56656260653665</v>
       </c>
       <c r="F24">
-        <v>2719.8741284042667</v>
+        <v>3714.2195815564719</v>
       </c>
       <c r="G24">
-        <v>380.05910007539353</v>
+        <v>521.84444679959631</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -12657,10 +13075,10 @@
         <v>400.48043856440773</v>
       </c>
       <c r="F25">
-        <v>2809.5880070064604</v>
+        <v>3735.1323484223017</v>
       </c>
       <c r="G25">
-        <v>389.60576146562704</v>
+        <v>526.23655046168426</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -12680,36 +13098,36 @@
         <v>2.5286342658749636</v>
       </c>
       <c r="F26">
-        <v>2614.1518368105562</v>
+        <v>3585.1015070844855</v>
       </c>
       <c r="G26">
-        <v>358.21041399968846</v>
+        <v>505.77778159122801</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="A40" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53" t="s">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="53"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -12728,10 +13146,10 @@
         <v>7440.6964551433484</v>
       </c>
       <c r="F42">
-        <v>53211.242763528324</v>
+        <v>57374.141994532147</v>
       </c>
       <c r="G42">
-        <v>7290.9802533204829</v>
+        <v>7868.5020065136532</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -12751,10 +13169,10 @@
         <v>4967.7718648945865</v>
       </c>
       <c r="F43">
-        <v>36377.733796313369</v>
+        <v>50435.896195932219</v>
       </c>
       <c r="G43">
-        <v>5085.2078404935883</v>
+        <v>7098.4004498524528</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -12774,10 +13192,10 @@
         <v>2265.1977038623859</v>
       </c>
       <c r="F44">
-        <v>16765.664500169823</v>
+        <v>24083.651502009066</v>
       </c>
       <c r="G44">
-        <v>2313.5726638952597</v>
+        <v>3361.4829168798046</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -12797,10 +13215,10 @@
         <v>6.3794384507995554</v>
       </c>
       <c r="F45">
-        <v>4388.3502655749462</v>
+        <v>6607.5744041926873</v>
       </c>
       <c r="G45">
-        <v>605.01104741554025</v>
+        <v>934.34500360626589</v>
       </c>
     </row>
   </sheetData>
@@ -12825,179 +13243,175 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB009BC-50CA-4201-85F6-EEF4C2C550C5}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="52" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3">
-        <v>7767.1101111558282</v>
+        <v>7762.4434085042112</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4">
-        <v>5857.7307893032312</v>
+        <v>5851.2874166420497</v>
       </c>
       <c r="D4">
-        <v>876.38628694708245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
+        <v>875.42220370955408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5">
-        <v>5870.6687112657182</v>
+        <v>5599.5896938629594</v>
       </c>
       <c r="D5">
-        <v>881.20774500497612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>835.90142845875425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6">
-        <v>4775.1713098486271</v>
+        <v>4772.2861738764987</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
       <c r="C7">
-        <v>4074.9841356297593</v>
+        <v>4071.5606868948071</v>
       </c>
       <c r="D7">
-        <v>611.7266534704371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+        <v>611.21288792567509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8">
-        <v>4025.4226439531917</v>
+        <v>3141.6429346078485</v>
       </c>
       <c r="D8">
-        <v>831.37418277274173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1781.9740657383581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9">
-        <v>1496.1437149454298</v>
+        <v>1493.4455990274168</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10">
-        <v>1790.3579348767955</v>
+        <v>1788.2899713166366</v>
       </c>
       <c r="D10">
-        <v>265.57043402491183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
+        <v>265.2636298662236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11">
-        <v>1752.5091173901094</v>
+        <v>1286.9989362981667</v>
       </c>
       <c r="D11">
-        <v>399.8847037382987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1030.4051826609191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12">
-        <v>361.92492065401638</v>
+        <v>361.02989268425119</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="56" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13">
-        <v>784.46245689635043</v>
+        <v>784.29673067751412</v>
       </c>
       <c r="D13">
-        <v>118.05369080098116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
+        <v>118.02875741010938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14">
-        <v>490.77705473353069</v>
+        <v>346.61672478254866</v>
       </c>
       <c r="D14">
-        <v>119.59675069805648</v>
+        <v>319.57329517312292</v>
       </c>
     </row>
   </sheetData>

--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="961" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12F871F-04F2-400C-8E94-CA6590AD487B}"/>
+  <xr:revisionPtr revIDLastSave="965" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425A97EE-2CCE-431F-9909-F39577237803}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Identical VS Compatible" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Identical VS Compatible'!$A$1:$G$166</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,88 +44,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="51">
   <si>
-    <t>Average number of patients in the activation center</t>
+    <t>Waiting list</t>
   </si>
   <si>
     <t>Statistic</t>
   </si>
   <si>
-    <t>Activation</t>
+    <t>Blood Type</t>
   </si>
   <si>
-    <t>Average number of 'in transplant' jobs</t>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>IDENTICAL</t>
+  </si>
+  <si>
+    <t>COMPATIBLE</t>
+  </si>
+  <si>
+    <t>Average number of arrivals in the waiting list</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>Critical</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>AB</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Average number of deaths in the waiting list</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Average number of reneges in the waiting list</t>
   </si>
   <si>
-    <t>O</t>
+    <t>Number of patients still in the waiting list</t>
   </si>
   <si>
-    <t>Number of rejected transplants</t>
+    <t>Average inter-arrival times in the waiting list</t>
   </si>
   <si>
-    <t>Number of successful transplants</t>
+    <t>Average waiting time in the waiting list</t>
   </si>
   <si>
-    <t>Transplant</t>
+    <t>Average delay in the waiting list</t>
   </si>
   <si>
-    <t>Average number of organs in the organ bank</t>
+    <t>Average service time in the waiting list</t>
   </si>
   <si>
-    <t>Average inter-arrival times in the organ bank</t>
+    <t>Average number of patients in the waiting center</t>
   </si>
   <si>
-    <t>Organ bank</t>
+    <t>Average number of patients in the waiting list</t>
   </si>
   <si>
     <t>Utilization in the waiting list</t>
   </si>
   <si>
-    <t>Average number of patients in the waiting list</t>
-  </si>
-  <si>
-    <t>Average number of patients in the waiting center</t>
-  </si>
-  <si>
-    <t>Average service time in the waiting list</t>
-  </si>
-  <si>
-    <t>Average delay in the waiting list</t>
-  </si>
-  <si>
-    <t>Average waiting time in the waiting list</t>
-  </si>
-  <si>
-    <t>Average inter-arrival times in the waiting list</t>
-  </si>
-  <si>
-    <t>Waiting list</t>
-  </si>
-  <si>
-    <t>Number of patients still in the waiting list</t>
-  </si>
-  <si>
-    <t>Average number of reneges in the waiting list</t>
-  </si>
-  <si>
-    <t>Average number of deaths in the waiting list</t>
-  </si>
-  <si>
-    <t>Average number of arrivals in the waiting list</t>
+    <t>Organ bank</t>
   </si>
   <si>
     <t>Average number of deceased donor organ arrivals</t>
@@ -134,10 +122,40 @@
     <t>Average number of living donor organ arrivals</t>
   </si>
   <si>
+    <t>Average number of organ outdatings</t>
+  </si>
+  <si>
+    <t>Average inter-arrival times in the organ bank</t>
+  </si>
+  <si>
+    <t>Average number of organs in the organ bank</t>
+  </si>
+  <si>
+    <t>Transplant</t>
+  </si>
+  <si>
+    <t>Number of transplants</t>
+  </si>
+  <si>
+    <t>Number of successful transplants</t>
+  </si>
+  <si>
+    <t>Number of rejected transplants</t>
+  </si>
+  <si>
     <t>Rejection percentage</t>
   </si>
   <si>
+    <t>Average number of 'in transplant' jobs</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
     <t>Average number of arrivals in the activation center</t>
+  </si>
+  <si>
+    <t>Average number of patients activated</t>
   </si>
   <si>
     <t>Average number of deaths in the activation center</t>
@@ -146,25 +164,10 @@
     <t>Average number of reneges in the activation center</t>
   </si>
   <si>
-    <t>IDENTICAL</t>
-  </si>
-  <si>
-    <t>COMPATIBLE</t>
+    <t>Average number of patients in the activation center</t>
   </si>
   <si>
     <t>INCOMPATIBLE</t>
-  </si>
-  <si>
-    <t>Blood Type</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Number of transplants</t>
-  </si>
-  <si>
-    <t>Average number of patients activated</t>
   </si>
   <si>
     <t>Average number of transplants</t>
@@ -174,9 +177,6 @@
   </si>
   <si>
     <t>Average number of rejected transplants</t>
-  </si>
-  <si>
-    <t>Average number of organ outdatings</t>
   </si>
   <si>
     <t>ID</t>
@@ -201,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -404,48 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,10 +419,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,19 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,7 +574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -592,15 +589,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Identical VS Compatible'!$D$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IDENTICAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ID</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -723,15 +712,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Identical VS Compatible'!$F$2:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>COMPATIBLE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>COMP</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -854,15 +835,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Compatible VS Incompatible'!$F$2:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>INCOMPATIBLE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>INCOMP</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1035,7 +1008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614094760"/>
@@ -1094,7 +1067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614089000"/>
@@ -1109,6 +1082,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1142,7 +1146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1225,7 +1229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1682,7 +1686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614094760"/>
@@ -1713,6 +1717,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1741,7 +1800,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614089000"/>
@@ -1756,6 +1815,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1789,7 +1879,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1865,7 +1955,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2377,7 +2467,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>WL!$E$2</c15:sqref>
@@ -2401,7 +2491,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>WL!$A$3:$A$6</c15:sqref>
@@ -2427,7 +2517,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>WL!$E$3:$E$6</c15:sqref>
@@ -2452,7 +2542,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-9EE1-43C8-94B8-2A667E8AB265}"/>
                   </c:ext>
@@ -2465,7 +2555,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>WL!$G$2</c15:sqref>
@@ -2489,7 +2579,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>WL!$A$3:$A$6</c15:sqref>
@@ -2515,7 +2605,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>WL!$G$3:$G$6</c15:sqref>
@@ -2540,7 +2630,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-9EE1-43C8-94B8-2A667E8AB265}"/>
                   </c:ext>
@@ -2591,7 +2681,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="550262064"/>
@@ -2650,7 +2740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="550264584"/>
@@ -2692,7 +2782,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2729,7 +2819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2812,7 +2902,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3147,7 +3237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720129200"/>
@@ -3206,7 +3296,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720128840"/>
@@ -3248,7 +3338,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3285,7 +3375,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5530,6 +5620,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038F12B2-A7C6-4855-B53F-36B14731959D}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A872275-59C5-41D4-858E-D14280C14E7A}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -5551,13 +5644,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -5567,6 +5660,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D91329-95B5-305C-5FEC-EC4FA1FAE7B2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038F12B2-A7C6-4855-B53F-36B14731959D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5628,12 +5724,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5935,7 +6027,7 @@
       <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
@@ -5945,45 +6037,45 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
         <v>14.222222</v>
@@ -6004,11 +6096,11 @@
         <v>1.314762</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>11615.142857000001</v>
@@ -6029,13 +6121,13 @@
         <v>25.196877000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="3">
         <v>7.8095239999999997</v>
@@ -6056,11 +6148,11 @@
         <v>1.1291580000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>7610.2698410000003</v>
@@ -6081,13 +6173,13 @@
         <v>38.546810999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>4.7301589999999996</v>
@@ -6108,11 +6200,11 @@
         <v>1.1338079999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>3528.8253970000001</v>
@@ -6133,13 +6225,13 @@
         <v>32.921362000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3">
         <v>1.5396829999999999</v>
@@ -6160,11 +6252,11 @@
         <v>0.61973199999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>879.87301600000001</v>
@@ -6185,15 +6277,15 @@
         <v>20.101050000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -6214,11 +6306,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>940.95238099999995</v>
@@ -6239,14 +6331,14 @@
         <v>7.436375</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
@@ -6266,11 +6358,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>470.984127</v>
@@ -6291,13 +6383,13 @@
         <v>5.5546110000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -6318,11 +6410,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
         <v>285.15872999999999</v>
@@ -6343,13 +6435,13 @@
         <v>4.3762619999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -6370,11 +6462,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>41.095238000000002</v>
@@ -6395,15 +6487,15 @@
         <v>1.673486</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -6418,11 +6510,11 @@
         <v>3.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
         <v>1443.3650789999999</v>
@@ -6437,14 +6529,14 @@
         <v>8.8431239999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
@@ -6458,11 +6550,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
         <v>814.90476200000001</v>
@@ -6477,13 +6569,13 @@
         <v>7.6263870000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -6498,11 +6590,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
         <v>426.25396799999999</v>
@@ -6517,13 +6609,13 @@
         <v>4.6770370000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -6538,11 +6630,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3">
         <v>75.571428999999995</v>
@@ -6557,15 +6649,15 @@
         <v>3.460378</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -6576,11 +6668,11 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3">
         <v>92593</v>
@@ -6591,13 +6683,13 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
         <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -6608,11 +6700,11 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
         <v>98463</v>
@@ -6623,13 +6715,13 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -6640,11 +6732,11 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
         <v>84410</v>
@@ -6655,13 +6747,13 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -6672,11 +6764,11 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
         <v>25603</v>
@@ -6687,15 +6779,15 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3">
         <v>24.743123000000001</v>
@@ -6710,11 +6802,11 @@
         <v>0.28105599999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3">
         <v>3.1433000000000003E-2</v>
@@ -6729,13 +6821,13 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
         <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
       </c>
       <c r="D37" s="3">
         <v>46.030110999999998</v>
@@ -6750,11 +6842,11 @@
         <v>0.67637599999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3">
         <v>4.8056000000000001E-2</v>
@@ -6769,13 +6861,13 @@
         <v>3.6999999999999998E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3">
         <v>89.265499000000005</v>
@@ -6790,11 +6882,11 @@
         <v>10.008226000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3">
         <v>0.103063</v>
@@ -6809,13 +6901,13 @@
         <v>9.7E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3">
         <v>211.768946</v>
@@ -6830,11 +6922,11 @@
         <v>9.2234680000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3">
         <v>0.41450999999999999</v>
@@ -6849,15 +6941,15 @@
         <v>1.8710000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D43" s="3">
         <v>9.1000000000000003E-5</v>
@@ -6872,11 +6964,11 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3">
         <v>1078.072357</v>
@@ -6891,13 +6983,13 @@
         <v>419.06182200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
         <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
       </c>
       <c r="D45" s="3">
         <v>1.2999999999999999E-4</v>
@@ -6912,11 +7004,11 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3">
         <v>1844.9648790000001</v>
@@ -6931,13 +7023,13 @@
         <v>400.27894199999997</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D47" s="3">
         <v>7.4899999999999999E-4</v>
@@ -6952,11 +7044,11 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D48" s="3">
         <v>5178.6554079999996</v>
@@ -6971,13 +7063,13 @@
         <v>414.77436799999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3">
         <v>4.4130000000000003E-3</v>
@@ -6992,11 +7084,11 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D50" s="3">
         <v>6359.7242079999996</v>
@@ -7011,15 +7103,15 @@
         <v>2.553267</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -7040,11 +7132,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3">
         <v>1078.0255629999999</v>
@@ -7065,14 +7157,14 @@
         <v>465.63404500000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
@@ -7092,11 +7184,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D54" s="3">
         <v>1844.88897</v>
@@ -7117,13 +7209,13 @@
         <v>537.13092099999994</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3">
         <v>9.9999999999999995E-7</v>
@@ -7144,11 +7236,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3">
         <v>5178.4127509999998</v>
@@ -7169,13 +7261,13 @@
         <v>544.36007800000004</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3">
         <v>1.4E-5</v>
@@ -7196,11 +7288,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D58" s="3">
         <v>6358.727151</v>
@@ -7221,15 +7313,15 @@
         <v>521.37132899999995</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D59" s="3">
         <v>9.1000000000000003E-5</v>
@@ -7244,11 +7336,11 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3">
         <v>4.6794000000000002E-2</v>
@@ -7263,13 +7355,13 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
         <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
       </c>
       <c r="D61" s="3">
         <v>1.2899999999999999E-4</v>
@@ -7284,11 +7376,11 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D62" s="3">
         <v>7.5909000000000004E-2</v>
@@ -7303,13 +7395,13 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63" s="3">
         <v>7.4799999999999997E-4</v>
@@ -7324,11 +7416,11 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3">
         <v>0.24265700000000001</v>
@@ -7343,13 +7435,13 @@
         <v>3.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D65" s="3">
         <v>4.3990000000000001E-3</v>
@@ -7364,11 +7456,11 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3">
         <v>0.99705699999999997</v>
@@ -7383,15 +7475,15 @@
         <v>1.323E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" s="3">
         <v>1.9530000000000001E-3</v>
@@ -7406,11 +7498,11 @@
         <v>3.6999999999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3">
         <v>23038.314152999999</v>
@@ -7425,13 +7517,13 @@
         <v>7764.3828270000004</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
         <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
       </c>
       <c r="D69" s="3">
         <v>1.7099999999999999E-3</v>
@@ -7446,11 +7538,11 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3">
         <v>24268.480825999999</v>
@@ -7465,13 +7557,13 @@
         <v>5157.3307860000004</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D71" s="3">
         <v>3.088E-3</v>
@@ -7486,11 +7578,11 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D72" s="3">
         <v>21345.869673000001</v>
@@ -7505,13 +7597,13 @@
         <v>2346.0454690000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D73" s="3">
         <v>4.4260000000000002E-3</v>
@@ -7526,11 +7618,11 @@
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3">
         <v>6356.7148530000004</v>
@@ -7545,15 +7637,15 @@
         <v>6.4456610000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D75" s="3">
         <v>3.0000000000000001E-6</v>
@@ -7574,11 +7666,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3">
         <v>23037.314248999999</v>
@@ -7599,13 +7691,13 @@
         <v>8279.0769930000006</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
         <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
       </c>
       <c r="D77" s="3">
         <v>5.0000000000000004E-6</v>
@@ -7626,11 +7718,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D78" s="3">
         <v>24267.480897000001</v>
@@ -7651,13 +7743,13 @@
         <v>7306.3350479999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D79" s="3">
         <v>5.0000000000000004E-6</v>
@@ -7678,11 +7770,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D80" s="3">
         <v>21344.869675000002</v>
@@ -7703,13 +7795,13 @@
         <v>3477.2520100000002</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D81" s="3">
         <v>1.4E-5</v>
@@ -7730,11 +7822,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D82" s="3">
         <v>6355.7149909999998</v>
@@ -7755,15 +7847,15 @@
         <v>963.15163299999995</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D83" s="3">
         <v>1.413E-3</v>
@@ -7778,11 +7870,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3">
         <v>3.1982999999999998E-2</v>
@@ -7797,13 +7889,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
         <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
       </c>
       <c r="D85" s="3">
         <v>1.3209999999999999E-3</v>
@@ -7818,11 +7910,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D86" s="3">
         <v>3.1982999999999998E-2</v>
@@ -7837,13 +7929,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D87" s="3">
         <v>1.776E-3</v>
@@ -7858,11 +7950,11 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D88" s="3">
         <v>3.1985E-2</v>
@@ -7877,13 +7969,13 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D89" s="3">
         <v>2.1250000000000002E-3</v>
@@ -7898,11 +7990,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2">
         <v>3.1981999999999997E-2</v>
@@ -7917,42 +8009,42 @@
         <v>5.3584E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
+      <c r="A91" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="29"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G92" s="36"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="33"/>
+      <c r="D92" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="31"/>
+      <c r="F92" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="22"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="35"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -7966,12 +8058,12 @@
         <v>14.240249</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="3"/>
-      <c r="B94" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="22"/>
+      <c r="B94" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="37"/>
       <c r="D94" s="13">
         <v>3166.8571430000002</v>
       </c>
@@ -7985,12 +8077,12 @@
         <v>14.345084</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="3"/>
-      <c r="B95" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="22"/>
+      <c r="B95" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="37"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -8004,12 +8096,12 @@
         <v>8.5266059999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="3"/>
-      <c r="B96" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="22"/>
+      <c r="B96" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="37"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -8023,14 +8115,14 @@
         <v>4.1681080000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="37"/>
       <c r="D97" s="13">
         <v>3736.2698409999998</v>
       </c>
@@ -8044,12 +8136,12 @@
         <v>15.109741</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="3"/>
-      <c r="B98" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="22"/>
+      <c r="B98" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="37"/>
       <c r="D98" s="13">
         <v>1625.1746029999999</v>
       </c>
@@ -8063,12 +8155,12 @@
         <v>10.192213000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="3"/>
-      <c r="B99" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="22"/>
+      <c r="B99" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="37"/>
       <c r="D99" s="13">
         <v>490.31745999999998</v>
       </c>
@@ -8082,12 +8174,12 @@
         <v>5.2870799999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="3"/>
-      <c r="B100" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="22"/>
+      <c r="B100" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="37"/>
       <c r="D100" s="13">
         <v>74.539682999999997</v>
       </c>
@@ -8101,14 +8193,14 @@
         <v>5.2207939999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="37"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -8122,12 +8214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="3"/>
-      <c r="B102" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="22"/>
+      <c r="B102" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="37"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -8141,12 +8233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="3"/>
-      <c r="B103" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="22"/>
+      <c r="B103" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="37"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -8160,12 +8252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="3"/>
-      <c r="B104" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="22"/>
+      <c r="B104" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="37"/>
       <c r="D104" s="13">
         <v>0</v>
       </c>
@@ -8179,14 +8271,14 @@
         <v>1.7276739999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="37"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -8200,12 +8292,12 @@
         <v>4.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="3"/>
-      <c r="B106" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="22"/>
+      <c r="B106" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="37"/>
       <c r="D106" s="13">
         <v>0.114799</v>
       </c>
@@ -8219,12 +8311,12 @@
         <v>8.7000000000000001E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="3"/>
-      <c r="B107" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="22"/>
+      <c r="B107" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="37"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -8238,12 +8330,12 @@
         <v>3.2600000000000001E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="3"/>
-      <c r="B108" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="22"/>
+      <c r="B108" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="37"/>
       <c r="D108" s="13">
         <v>1.258319</v>
       </c>
@@ -8257,14 +8349,14 @@
         <v>2.545E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="37"/>
       <c r="D109" s="13">
         <v>4.1E-5</v>
       </c>
@@ -8278,12 +8370,12 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="3"/>
-      <c r="B110" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="22"/>
+      <c r="B110" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="37"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -8297,12 +8389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="3"/>
-      <c r="B111" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="22"/>
+      <c r="B111" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="37"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -8316,12 +8408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
-      <c r="B112" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="24"/>
+      <c r="B112" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="39"/>
       <c r="D112" s="15">
         <v>0</v>
       </c>
@@ -8335,45 +8427,45 @@
         <v>6.0700000000000001E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="32"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
+      <c r="A113" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="29"/>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114" s="34"/>
-      <c r="F114" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G114" s="34"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="31"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D115" s="7">
         <v>14.222222</v>
@@ -8394,11 +8486,11 @@
         <v>1.314762</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D116" s="3">
         <v>7782.3968249999998</v>
@@ -8419,13 +8511,13 @@
         <v>85.516293000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
         <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
       </c>
       <c r="D117" s="3">
         <v>7.8095239999999997</v>
@@ -8446,11 +8538,11 @@
         <v>1.1291580000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D118" s="3">
         <v>4784.206349</v>
@@ -8471,13 +8563,13 @@
         <v>68.787655000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D119" s="3">
         <v>4.7301589999999996</v>
@@ -8498,11 +8590,11 @@
         <v>1.1338079999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3">
         <v>1499.142857</v>
@@ -8523,13 +8615,13 @@
         <v>66.682868999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D121" s="3">
         <v>1.5396829999999999</v>
@@ -8550,11 +8642,11 @@
         <v>0.61973199999999995</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D122" s="3">
         <v>362.79365100000001</v>
@@ -8575,15 +8667,15 @@
         <v>38.593429999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D123" s="3">
         <v>14.222222</v>
@@ -8604,11 +8696,11 @@
         <v>1.062567</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D124" s="3">
         <v>7776.6031750000002</v>
@@ -8629,13 +8721,13 @@
         <v>73.711911999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
         <v>8</v>
-      </c>
-      <c r="C125" t="s">
-        <v>5</v>
       </c>
       <c r="D125" s="3">
         <v>7.8095239999999997</v>
@@ -8656,11 +8748,11 @@
         <v>0.64876500000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D126" s="3">
         <v>4780.0634920000002</v>
@@ -8681,13 +8773,13 @@
         <v>51.090497999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D127" s="3">
         <v>4.7301589999999996</v>
@@ -8708,11 +8800,11 @@
         <v>0.60769300000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D128" s="3">
         <v>1498.142857</v>
@@ -8733,13 +8825,13 @@
         <v>37.430990999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D129" s="3">
         <v>1.5396829999999999</v>
@@ -8760,11 +8852,11 @@
         <v>0.32302799999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D130" s="3">
         <v>362.55555600000002</v>
@@ -8785,15 +8877,15 @@
         <v>20.614649</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D131" s="3">
         <v>0</v>
@@ -8814,11 +8906,11 @@
         <v>0.416599</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D132" s="3">
         <v>0</v>
@@ -8839,13 +8931,13 @@
         <v>14.008298999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
         <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>5</v>
       </c>
       <c r="D133" s="3">
         <v>0</v>
@@ -8866,11 +8958,11 @@
         <v>0.71207900000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D134" s="3">
         <v>0</v>
@@ -8891,13 +8983,13 @@
         <v>28.305664</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D135" s="3">
         <v>0</v>
@@ -8918,11 +9010,11 @@
         <v>0.74286099999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D136" s="3">
         <v>0</v>
@@ -8943,13 +9035,13 @@
         <v>27.914527</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D137" s="3">
         <v>0</v>
@@ -8970,11 +9062,11 @@
         <v>0.38305299999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D138" s="3">
         <v>0</v>
@@ -8995,15 +9087,15 @@
         <v>19.846079</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D139" s="3">
         <v>0</v>
@@ -9014,11 +9106,11 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D140" s="3">
         <v>0</v>
@@ -9029,13 +9121,13 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
         <v>8</v>
-      </c>
-      <c r="C141" t="s">
-        <v>5</v>
       </c>
       <c r="D141" s="3">
         <v>0</v>
@@ -9046,11 +9138,11 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D142" s="3">
         <v>0</v>
@@ -9061,13 +9153,13 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D143" s="3">
         <v>0</v>
@@ -9078,11 +9170,11 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D144" s="3">
         <v>0</v>
@@ -9093,13 +9185,13 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D145" s="3">
         <v>0</v>
@@ -9110,11 +9202,11 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D146" s="3">
         <v>0</v>
@@ -9125,9 +9217,9 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -9144,42 +9236,42 @@
         <v>1.073E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="32"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
+      <c r="A148" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="29"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C149" s="26"/>
-      <c r="D149" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E149" s="34"/>
-      <c r="F149" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149" s="34"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="33"/>
+      <c r="D149" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="31"/>
+      <c r="F149" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="31"/>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="35"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -9193,12 +9285,12 @@
         <v>15.422171000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="3"/>
-      <c r="B151" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="22"/>
+      <c r="B151" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="37"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -9212,12 +9304,12 @@
         <v>12.650304</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="3"/>
-      <c r="B152" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="22"/>
+      <c r="B152" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="37"/>
       <c r="D152" s="13">
         <v>1290.6349210000001</v>
       </c>
@@ -9231,12 +9323,12 @@
         <v>8.2907840000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="3"/>
-      <c r="B153" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="22"/>
+      <c r="B153" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="37"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -9250,14 +9342,14 @@
         <v>5.0334070000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="37"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -9271,12 +9363,12 @@
         <v>1.4758960000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="3"/>
-      <c r="B155" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="22"/>
+      <c r="B155" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="37"/>
       <c r="D155" s="13">
         <v>33.063491999999997</v>
       </c>
@@ -9290,12 +9382,12 @@
         <v>1.4253549999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="3"/>
-      <c r="B156" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="22"/>
+      <c r="B156" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="37"/>
       <c r="D156" s="13">
         <v>14.253968</v>
       </c>
@@ -9309,12 +9401,12 @@
         <v>0.966669</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="3"/>
-      <c r="B157" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" s="22"/>
+      <c r="B157" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="37"/>
       <c r="D157" s="13">
         <v>16.904762000000002</v>
       </c>
@@ -9328,14 +9420,14 @@
         <v>2.2115619999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B158" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="37"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -9349,12 +9441,12 @@
         <v>7.8952650000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="3"/>
-      <c r="B159" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="22"/>
+      <c r="B159" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="37"/>
       <c r="D159" s="13">
         <v>744.19047599999999</v>
       </c>
@@ -9368,12 +9460,12 @@
         <v>6.4114829999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="3"/>
-      <c r="B160" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="22"/>
+      <c r="B160" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="37"/>
       <c r="D160" s="13">
         <v>334.47618999999997</v>
       </c>
@@ -9387,12 +9479,12 @@
         <v>4.0701729999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="3"/>
-      <c r="B161" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="22"/>
+      <c r="B161" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="37"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -9406,14 +9498,14 @@
         <v>2.844706</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="37"/>
       <c r="D162" s="13">
         <v>3057.3174600000002</v>
       </c>
@@ -9427,12 +9519,12 @@
         <v>14.326404</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="3"/>
-      <c r="B163" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="22"/>
+      <c r="B163" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="37"/>
       <c r="D163" s="13">
         <v>2099.333333</v>
       </c>
@@ -9446,12 +9538,12 @@
         <v>10.583126999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="3"/>
-      <c r="B164" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="22"/>
+      <c r="B164" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="37"/>
       <c r="D164" s="13">
         <v>941.88888899999995</v>
       </c>
@@ -9465,12 +9557,12 @@
         <v>8.4051539999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="3"/>
-      <c r="B165" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="22"/>
+      <c r="B165" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="37"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -9484,9 +9576,9 @@
         <v>4.0803339999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="17"/>
@@ -9505,24 +9597,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
@@ -9539,22 +9629,24 @@
     <mergeCell ref="B155:C155"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9568,7 +9660,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -9578,45 +9670,45 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>16.253968</v>
@@ -9631,11 +9723,11 @@
         <v>1.328694</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>12493.349206000001</v>
@@ -9650,13 +9742,13 @@
         <v>22.561171999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="3">
         <v>9.2380949999999995</v>
@@ -9671,11 +9763,11 @@
         <v>0.82579899999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>8218.9682539999994</v>
@@ -9690,13 +9782,13 @@
         <v>22.149958999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>5.2380950000000004</v>
@@ -9711,11 +9803,11 @@
         <v>0.76227999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>3790.9206349999999</v>
@@ -9730,13 +9822,13 @@
         <v>16.606826000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3">
         <v>1.730159</v>
@@ -9751,11 +9843,11 @@
         <v>0.39511400000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>1017.650794</v>
@@ -9770,15 +9862,15 @@
         <v>6.7894969999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -9793,11 +9885,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>936.53968299999997</v>
@@ -9812,14 +9904,14 @@
         <v>8.5734910000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
@@ -9833,11 +9925,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>475.047619</v>
@@ -9852,13 +9944,13 @@
         <v>5.2654750000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -9873,11 +9965,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
         <v>283.26984099999999</v>
@@ -9892,13 +9984,13 @@
         <v>4.1283919999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -9913,11 +10005,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>41.079365000000003</v>
@@ -9932,15 +10024,15 @@
         <v>1.901743</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
         <v>1.5873000000000002E-2</v>
@@ -9955,11 +10047,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
         <v>1437.857143</v>
@@ -9974,14 +10066,14 @@
         <v>7.2928819999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
@@ -9995,11 +10087,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
         <v>815.42857100000003</v>
@@ -10014,13 +10106,13 @@
         <v>7.307785</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -10035,11 +10127,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
         <v>428.63492100000002</v>
@@ -10054,13 +10146,13 @@
         <v>4.9594040000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -10075,11 +10167,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3">
         <v>71.714286000000001</v>
@@ -10094,15 +10186,15 @@
         <v>2.410771</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -10113,11 +10205,11 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3">
         <v>215562</v>
@@ -10128,13 +10220,13 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -10145,11 +10237,11 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
         <v>142826</v>
@@ -10160,13 +10252,13 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -10177,11 +10269,11 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
         <v>65214</v>
@@ -10192,13 +10284,13 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -10209,11 +10301,11 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
@@ -10224,15 +10316,15 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3">
         <v>22.074968999999999</v>
@@ -10247,11 +10339,11 @@
         <v>0.20802499999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3">
         <v>2.9214E-2</v>
@@ -10266,13 +10358,13 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D37" s="3">
         <v>38.738025999999998</v>
@@ -10287,11 +10379,11 @@
         <v>0.57607299999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3">
         <v>4.4496000000000001E-2</v>
@@ -10306,13 +10398,13 @@
         <v>5.1E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3">
         <v>80.436313999999996</v>
@@ -10327,11 +10419,11 @@
         <v>10.378797</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3">
         <v>9.5898999999999998E-2</v>
@@ -10346,13 +10438,13 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3">
         <v>172.28045800000001</v>
@@ -10367,11 +10459,11 @@
         <v>5.3002200000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3">
         <v>0.36122799999999999</v>
@@ -10386,15 +10478,15 @@
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D43" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10409,11 +10501,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3">
         <v>2909.976635</v>
@@ -10428,13 +10520,13 @@
         <v>414.82783699999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D45" s="3">
         <v>8.2999999999999998E-5</v>
@@ -10449,11 +10541,11 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3">
         <v>2756.1185869999999</v>
@@ -10468,13 +10560,13 @@
         <v>394.22851300000002</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D47" s="3">
         <v>1.37E-4</v>
@@ -10489,11 +10581,11 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D48" s="3">
         <v>2861.9792870000001</v>
@@ -10508,13 +10600,13 @@
         <v>407.48945400000002</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3">
         <v>8.7000000000000001E-5</v>
@@ -10529,11 +10621,11 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D50" s="3">
         <v>14.443859</v>
@@ -10548,15 +10640,15 @@
         <v>379.05545899999998</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -10571,11 +10663,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3">
         <v>2909.9226760000001</v>
@@ -10590,14 +10682,14 @@
         <v>414.82780600000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
@@ -10611,11 +10703,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D54" s="3">
         <v>2756.0411020000001</v>
@@ -10630,13 +10722,13 @@
         <v>394.22853600000002</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -10651,11 +10743,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3">
         <v>2861.8041229999999</v>
@@ -10670,13 +10762,13 @@
         <v>407.48929199999998</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -10691,11 +10783,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D58" s="3">
         <v>14.068934</v>
@@ -10710,15 +10802,15 @@
         <v>379.05642799999998</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D59" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10733,11 +10825,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3">
         <v>5.3959E-2</v>
@@ -10752,13 +10844,13 @@
         <v>5.7000000000000003E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D61" s="3">
         <v>8.2999999999999998E-5</v>
@@ -10773,11 +10865,11 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D62" s="3">
         <v>7.7485999999999999E-2</v>
@@ -10792,13 +10884,13 @@
         <v>7.3999999999999996E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63" s="3">
         <v>1.37E-4</v>
@@ -10813,11 +10905,11 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3">
         <v>0.17516399999999999</v>
@@ -10832,13 +10924,13 @@
         <v>2.23E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D65" s="3">
         <v>8.7000000000000001E-5</v>
@@ -10853,11 +10945,11 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3">
         <v>0.37492500000000001</v>
@@ -10872,15 +10964,15 @@
         <v>1.3550000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" s="3">
         <v>3.7079999999999999E-3</v>
@@ -10895,11 +10987,11 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3">
         <v>53923.001916000001</v>
@@ -10914,13 +11006,13 @@
         <v>7720.3676130000003</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D69" s="3">
         <v>1.0740000000000001E-3</v>
@@ -10935,11 +11027,11 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3">
         <v>35535.419758000004</v>
@@ -10954,13 +11046,13 @@
         <v>5274.7955389999997</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D71" s="3">
         <v>7.7899999999999996E-4</v>
@@ -10975,11 +11067,11 @@
         <v>2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D72" s="3">
         <v>16278.679206999999</v>
@@ -10994,13 +11086,13 @@
         <v>2419.7694160000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D73" s="3">
         <v>2.13E-4</v>
@@ -11015,11 +11107,11 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3">
         <v>36.049675999999998</v>
@@ -11034,15 +11126,15 @@
         <v>640.21970899999997</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D75" s="3">
         <v>9.9999999999999995E-7</v>
@@ -11057,11 +11149,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3">
         <v>53922.001957</v>
@@ -11076,13 +11168,13 @@
         <v>7720.3675970000004</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D77" s="3">
         <v>6.0000000000000002E-6</v>
@@ -11097,11 +11189,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D78" s="3">
         <v>35534.41977</v>
@@ -11116,13 +11208,13 @@
         <v>5274.7955300000003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -11137,11 +11229,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D80" s="3">
         <v>16277.679357000001</v>
@@ -11156,13 +11248,13 @@
         <v>2419.7693669999999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -11177,11 +11269,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D82" s="3">
         <v>35.125132000000001</v>
@@ -11196,15 +11288,15 @@
         <v>640.21959600000002</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D83" s="3">
         <v>1.9469999999999999E-3</v>
@@ -11219,11 +11311,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3">
         <v>3.1983999999999999E-2</v>
@@ -11238,13 +11330,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D85" s="3">
         <v>1.0449999999999999E-3</v>
@@ -11259,11 +11351,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D86" s="3">
         <v>3.1983999999999999E-2</v>
@@ -11278,13 +11370,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D87" s="3">
         <v>8.9300000000000002E-4</v>
@@ -11299,11 +11391,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D88" s="3">
         <v>3.1981999999999997E-2</v>
@@ -11318,13 +11410,13 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D89" s="3">
         <v>4.6700000000000002E-4</v>
@@ -11339,11 +11431,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2">
         <v>3.0754E-2</v>
@@ -11358,42 +11450,42 @@
         <v>4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
+      <c r="A91" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="29"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" s="36"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="33"/>
+      <c r="D92" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G92" s="22"/>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="45"/>
+        <v>24</v>
+      </c>
+      <c r="B93" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="43"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -11407,10 +11499,10 @@
         <v>14.233064000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="13"/>
       <c r="B94" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C94" s="41"/>
       <c r="D94" s="13">
@@ -11426,10 +11518,10 @@
         <v>14.342587999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="13"/>
       <c r="B95" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C95" s="41"/>
       <c r="D95" s="13">
@@ -11445,10 +11537,10 @@
         <v>8.5215650000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="13"/>
       <c r="B96" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C96" s="41"/>
       <c r="D96" s="13">
@@ -11464,12 +11556,12 @@
         <v>4.1681080000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C97" s="41"/>
       <c r="D97" s="13">
@@ -11485,10 +11577,10 @@
         <v>15.009328999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="13"/>
       <c r="B98" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C98" s="41"/>
       <c r="D98" s="13">
@@ -11504,10 +11596,10 @@
         <v>10.212201</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="13"/>
       <c r="B99" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C99" s="41"/>
       <c r="D99" s="13">
@@ -11523,10 +11615,10 @@
         <v>5.2168609999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="13"/>
       <c r="B100" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C100" s="41"/>
       <c r="D100" s="13">
@@ -11542,12 +11634,12 @@
         <v>1.824362</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" s="41"/>
       <c r="D101" s="13">
@@ -11563,10 +11655,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="13"/>
       <c r="B102" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102" s="41"/>
       <c r="D102" s="13">
@@ -11582,10 +11674,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="13"/>
       <c r="B103" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C103" s="41"/>
       <c r="D103" s="13">
@@ -11601,10 +11693,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="13"/>
       <c r="B104" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C104" s="41"/>
       <c r="D104" s="13">
@@ -11620,12 +11712,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C105" s="41"/>
       <c r="D105" s="13">
@@ -11641,10 +11733,10 @@
         <v>4.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="13"/>
       <c r="B106" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C106" s="41"/>
       <c r="D106" s="13">
@@ -11660,10 +11752,10 @@
         <v>8.7000000000000001E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="13"/>
       <c r="B107" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="13">
@@ -11679,10 +11771,10 @@
         <v>3.2600000000000001E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="13"/>
       <c r="B108" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="13">
@@ -11698,12 +11790,12 @@
         <v>2.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C109" s="41"/>
       <c r="D109" s="13">
@@ -11719,10 +11811,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="13"/>
       <c r="B110" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C110" s="41"/>
       <c r="D110" s="13">
@@ -11738,10 +11830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="13"/>
       <c r="B111" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C111" s="41"/>
       <c r="D111" s="13">
@@ -11757,12 +11849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="15"/>
-      <c r="B112" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="43"/>
+      <c r="B112" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="45"/>
       <c r="D112" s="15">
         <v>7.9509999999999997E-3</v>
       </c>
@@ -11776,45 +11868,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="32"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
+      <c r="A113" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="29"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" s="34"/>
-      <c r="F114" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G114" s="36"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" s="22"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D115" s="7">
         <v>16.238095000000001</v>
@@ -11829,11 +11921,11 @@
         <v>1.328694</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D116" s="3">
         <v>6748.1428569999998</v>
@@ -11848,13 +11940,13 @@
         <v>22.902685000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
         <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
       </c>
       <c r="D117" s="3">
         <v>9.2380949999999995</v>
@@ -11869,11 +11961,11 @@
         <v>0.82579899999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D118" s="3">
         <v>4695.6031750000002</v>
@@ -11888,13 +11980,13 @@
         <v>22.30499</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D119" s="3">
         <v>5.2380950000000004</v>
@@ -11909,11 +12001,11 @@
         <v>0.76227999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3">
         <v>2060.0317460000001</v>
@@ -11928,13 +12020,13 @@
         <v>16.241876000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D121" s="3">
         <v>1.730159</v>
@@ -11949,11 +12041,11 @@
         <v>0.39511400000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D122" s="3">
         <v>904.79365099999995</v>
@@ -11968,15 +12060,15 @@
         <v>19.312753000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D123" s="3">
         <v>14.15873</v>
@@ -11991,11 +12083,11 @@
         <v>1.0569440000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D124" s="3">
         <v>5865.3333329999996</v>
@@ -12010,13 +12102,13 @@
         <v>32.346682999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
         <v>8</v>
-      </c>
-      <c r="C125" t="s">
-        <v>5</v>
       </c>
       <c r="D125" s="3">
         <v>7.8730159999999998</v>
@@ -12031,11 +12123,11 @@
         <v>0.62320699999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D126" s="3">
         <v>4079.5555559999998</v>
@@ -12050,13 +12142,13 @@
         <v>28.684286</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D127" s="3">
         <v>4.6031750000000002</v>
@@ -12071,11 +12163,11 @@
         <v>0.54381199999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D128" s="3">
         <v>1792.8253970000001</v>
@@ -12090,13 +12182,13 @@
         <v>15.617444000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D129" s="3">
         <v>1.4761899999999999</v>
@@ -12111,11 +12203,11 @@
         <v>0.29019299999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D130" s="3">
         <v>785.79365099999995</v>
@@ -12130,15 +12222,15 @@
         <v>13.306381999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D131" s="3">
         <v>2.0476190000000001</v>
@@ -12153,11 +12245,11 @@
         <v>0.42378700000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D132" s="3">
         <v>877.52381000000003</v>
@@ -12172,13 +12264,13 @@
         <v>9.0580879999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
         <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>5</v>
       </c>
       <c r="D133" s="3">
         <v>1.3650789999999999</v>
@@ -12193,11 +12285,11 @@
         <v>0.33738800000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D134" s="3">
         <v>612.41269799999998</v>
@@ -12212,13 +12304,13 @@
         <v>9.6735380000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D135" s="3">
         <v>0.63492099999999996</v>
@@ -12233,11 +12325,11 @@
         <v>0.32438299999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D136" s="3">
         <v>265.936508</v>
@@ -12252,13 +12344,13 @@
         <v>4.6547879999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D137" s="3">
         <v>0.25396800000000003</v>
@@ -12273,11 +12365,11 @@
         <v>0.151422</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D138" s="3">
         <v>118.253968</v>
@@ -12292,15 +12384,15 @@
         <v>4.2264530000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D139" s="3">
         <v>12.657005</v>
@@ -12311,11 +12403,11 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D140" s="3">
         <v>13.013605</v>
@@ -12326,13 +12418,13 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
         <v>8</v>
-      </c>
-      <c r="C141" t="s">
-        <v>5</v>
       </c>
       <c r="D141" s="3">
         <v>14.839798</v>
@@ -12343,11 +12435,11 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D142" s="3">
         <v>13.050573999999999</v>
@@ -12358,13 +12450,13 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D143" s="3">
         <v>12.130178000000001</v>
@@ -12375,11 +12467,11 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D144" s="3">
         <v>12.912236</v>
@@ -12390,13 +12482,13 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D145" s="3">
         <v>14.678898999999999</v>
@@ -12407,11 +12499,11 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D146" s="3">
         <v>13.118607000000001</v>
@@ -12422,9 +12514,9 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -12441,42 +12533,42 @@
         <v>1.093E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="32"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
+      <c r="A148" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="29"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C149" s="26"/>
-      <c r="D149" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="34"/>
-      <c r="F149" s="35" t="s">
+      <c r="B149" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="33"/>
+      <c r="D149" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="31"/>
+      <c r="F149" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G149" s="22"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G149" s="36"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="45"/>
+      <c r="B150" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="43"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -12490,10 +12582,10 @@
         <v>15.413743999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="13"/>
       <c r="B151" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C151" s="41"/>
       <c r="D151" s="13">
@@ -12509,10 +12601,10 @@
         <v>12.653134</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="13"/>
       <c r="B152" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C152" s="41"/>
       <c r="D152" s="13">
@@ -12528,10 +12620,10 @@
         <v>8.2955939999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="13"/>
       <c r="B153" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C153" s="41"/>
       <c r="D153" s="13">
@@ -12547,12 +12639,12 @@
         <v>5.0334070000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C154" s="41"/>
       <c r="D154" s="13">
@@ -12568,10 +12660,10 @@
         <v>1.471732</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="13"/>
       <c r="B155" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C155" s="41"/>
       <c r="D155" s="13">
@@ -12587,10 +12679,10 @@
         <v>1.4248769999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="13"/>
       <c r="B156" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C156" s="41"/>
       <c r="D156" s="13">
@@ -12606,10 +12698,10 @@
         <v>0.96849799999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="13"/>
       <c r="B157" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C157" s="41"/>
       <c r="D157" s="13">
@@ -12625,12 +12717,12 @@
         <v>2.1031439999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C158" s="41"/>
       <c r="D158" s="13">
@@ -12646,10 +12738,10 @@
         <v>7.9043299999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="13"/>
       <c r="B159" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C159" s="41"/>
       <c r="D159" s="13">
@@ -12665,10 +12757,10 @@
         <v>6.4115289999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="13"/>
       <c r="B160" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C160" s="41"/>
       <c r="D160" s="13">
@@ -12684,10 +12776,10 @@
         <v>4.0734389999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="13"/>
       <c r="B161" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C161" s="41"/>
       <c r="D161" s="13">
@@ -12703,12 +12795,12 @@
         <v>2.844706</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B162" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C162" s="41"/>
       <c r="D162" s="13">
@@ -12724,10 +12816,10 @@
         <v>14.329601</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="13"/>
       <c r="B163" s="40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C163" s="41"/>
       <c r="D163" s="13">
@@ -12743,10 +12835,10 @@
         <v>10.615931</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="13"/>
       <c r="B164" s="40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C164" s="41"/>
       <c r="D164" s="13">
@@ -12762,10 +12854,10 @@
         <v>8.4254060000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="13"/>
       <c r="B165" s="40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C165" s="41"/>
       <c r="D165" s="13">
@@ -12781,9 +12873,9 @@
         <v>4.0875979999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="15" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="18"/>
@@ -12802,6 +12894,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="F92:G92"/>
     <mergeCell ref="D114:E114"/>
@@ -12818,40 +12944,6 @@
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12862,17 +12954,17 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D64"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="46" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -12881,7 +12973,7 @@
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="B2" s="46" t="s">
         <v>45</v>
       </c>
@@ -12895,9 +12987,9 @@
       </c>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>939.80163600548804</v>
@@ -12918,9 +13010,9 @@
         <v>7.0675911889444096</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>470.50130689965761</v>
@@ -12941,9 +13033,9 @@
         <v>5.3965295818111212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>284.77700510229806</v>
@@ -12964,9 +13056,9 @@
         <v>4.2305619237503134</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>41.023451379043287</v>
@@ -12987,18 +13079,18 @@
         <v>1.6234341812147823</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" s="46" t="s">
         <v>45</v>
       </c>
@@ -13012,9 +13104,9 @@
       </c>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>1076.7071832970232</v>
@@ -13035,9 +13127,9 @@
         <v>442.54237766580422</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>1842.9977184130521</v>
@@ -13058,9 +13150,9 @@
         <v>521.84444679959631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>5171.480720277139</v>
@@ -13081,9 +13173,9 @@
         <v>526.23655046168426</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>6347.6195006500739</v>
@@ -13104,9 +13196,9 @@
         <v>505.77778159122801</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -13115,7 +13207,7 @@
       <c r="F40" s="46"/>
       <c r="G40" s="46"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="B41" s="46" t="s">
         <v>45</v>
       </c>
@@ -13129,9 +13221,9 @@
       </c>
       <c r="G41" s="46"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>23009.140587302678</v>
@@ -13152,9 +13244,9 @@
         <v>7868.5020065136532</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43">
         <v>24242.603566984733</v>
@@ -13175,9 +13267,9 @@
         <v>7098.4004498524528</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>21316.296577514113</v>
@@ -13198,9 +13290,9 @@
         <v>3361.4829168798046</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>6344.6126023981169</v>
@@ -13223,6 +13315,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -13230,11 +13327,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13249,12 +13341,12 @@
       <selection activeCell="D3" sqref="D3:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
@@ -13262,7 +13354,7 @@
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
@@ -13270,9 +13362,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -13284,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -13295,7 +13387,7 @@
         <v>875.42220370955408</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -13306,9 +13398,9 @@
         <v>835.90142845875425</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -13320,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -13331,7 +13423,7 @@
         <v>611.21288792567509</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -13342,9 +13434,9 @@
         <v>1781.9740657383581</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -13356,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -13367,7 +13459,7 @@
         <v>265.2636298662236</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -13378,9 +13470,9 @@
         <v>1030.4051826609191</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -13392,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -13403,7 +13495,7 @@
         <v>118.02875741010938</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>47</v>
       </c>

--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="965" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425A97EE-2CCE-431F-9909-F39577237803}"/>
+  <xr:revisionPtr revIDLastSave="1065" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3090908-D658-402E-B829-B45002E73708}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Identical VS Compatible" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Identical VS Compatible'!$A$1:$G$166</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="52">
   <si>
     <t>Waiting list</t>
   </si>
@@ -196,12 +196,15 @@
   <si>
     <t>Rejected</t>
   </si>
+  <si>
+    <t>Percentage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -404,6 +407,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,52 +464,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,18 +482,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -574,7 +578,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -716,7 +720,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -839,7 +843,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1008,685 +1012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="614094760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="614094760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="614089000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average delay in the waiting list</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WL!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>WL!$C$23:$C$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>148.59237692274394</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>260.41029072814138</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>716.10680790004506</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>903.70974967351322</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>WL!$C$23:$C$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>148.59237692274394</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>260.41029072814138</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>716.10680790004506</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>903.70974967351322</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>WL!$A$23:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>WL!$B$23:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1076.7071832970232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1842.9977184130521</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5171.480720277139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6347.6195006500739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D35-4560-A7B5-4C3C1D47615D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WL!$D$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>COMP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>WL!$E$23:$E$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>401.59171339857852</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>385.56656260653665</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>400.48043856440773</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.5286342658749636</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>WL!$E$23:$E$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>401.59171339857852</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>385.56656260653665</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>400.48043856440773</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.5286342658749636</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>WL!$A$23:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>WL!$D$23:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2906.1417575008036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2752.9467982788406</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2857.8552886825091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.04505529919745</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D35-4560-A7B5-4C3C1D47615D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WL!$F$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>INCOMP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>WL!$G$23:$G$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>442.54237766580422</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>521.84444679959631</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>526.23655046168426</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>505.77778159122801</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>WL!$G$23:$G$26</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>442.54237766580422</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>521.84444679959631</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>526.23655046168426</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>505.77778159122801</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>WL!$A$23:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>WL!$F$23:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3227.7138721996207</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3714.2195815564719</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3735.1323484223017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3585.1015070844855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D35-4560-A7B5-4C3C1D47615D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="614089000"/>
-        <c:axId val="614094760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="614089000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614094760"/>
@@ -1737,8 +1063,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>days</a:t>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> of patients</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1768,7 +1098,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1800,7 +1130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614089000"/>
@@ -1842,7 +1172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1879,7 +1209,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1890,7 +1220,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1955,7 +1285,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2113,7 +1443,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2244,7 +1574,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2393,7 +1725,7 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent3"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -2481,7 +1813,9 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent4"/>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -2569,7 +1903,9 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -2681,7 +2017,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="550262064"/>
@@ -2712,6 +2048,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> of deaths</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2740,7 +2135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="550264584"/>
@@ -2782,7 +2177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2819,7 +2214,1012 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Average delay in the waiting list</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WL!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>WL!$C$23:$C$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>148.59237692274394</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>260.41029072814138</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>716.10680790004506</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>903.70974967351322</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>WL!$C$23:$C$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>148.59237692274394</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>260.41029072814138</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>716.10680790004506</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>903.70974967351322</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>WL!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WL!$B$23:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1076.7071832970232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1842.9977184130521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5171.480720277139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6347.6195006500739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E7E-4325-ACC8-EC071993DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WL!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>WL!$E$23:$E$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>401.59171339857852</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>385.56656260653665</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>400.48043856440773</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5286342658749636</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>WL!$E$23:$E$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>401.59171339857852</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>385.56656260653665</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>400.48043856440773</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5286342658749636</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>WL!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WL!$D$23:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2906.1417575008036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2752.9467982788406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2857.8552886825091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.04505529919745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E7E-4325-ACC8-EC071993DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WL!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INCOMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>WL!$G$23:$G$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>442.54237766580422</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>521.84444679959631</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>526.23655046168426</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>505.77778159122801</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>WL!$G$23:$G$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>442.54237766580422</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>521.84444679959631</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>526.23655046168426</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>505.77778159122801</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>WL!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WL!$F$23:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3227.7138721996207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3714.2195815564719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3735.1323484223017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3585.1015070844855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E7E-4325-ACC8-EC071993DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="550264584"/>
+        <c:axId val="550262064"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>O</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>A</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>B</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$C$3:$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>8.0105582707369329</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.3684716861451385</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.1226977839983494</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.4054103919591296</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-9E7E-4325-ACC8-EC071993DAEE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>O</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>A</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>B</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$E$3:$E$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>7.630952107489156</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.7308699865973507</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4871637831889681</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.7540916448049564</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-9E7E-4325-ACC8-EC071993DAEE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>O</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>A</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>B</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>WL!$G$3:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>7.0675911889444096</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.3965295818111212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.2305619237503134</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.6234341812147823</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9E7E-4325-ACC8-EC071993DAEE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="550264584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550262064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550262064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> of days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550264584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2902,7 +3302,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2929,7 +3329,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2937,6 +3337,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>TC!$A$3:$B$14</c:f>
@@ -3064,7 +3467,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3072,6 +3478,494 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9A516283-78CD-4CB2-934E-AF06E018B122}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4914243102162564E-3"/>
+                  <c:y val="-7.667731392066561E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FFD702F4-A554-47D2-8A10-EBCA27F2520E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7342463158163744E-17"/>
+                  <c:y val="-6.2460258505422729E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1D4134E3-FBFA-45E2-AFF5-00D7738D4427}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{566E9CD7-5C75-4B48-B3B8-498AD622D242}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-5.5299856385876353E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF4DC238-0A71-44DA-8B5B-9D07B6A1688A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0936985263265498E-16"/>
+                  <c:y val="-9.5588322686079336E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D7828858-94EA-40F8-BCFD-BB0985E02FC8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C7999A54-033F-47E7-BD69-C49A0594963B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.7037092061605506E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2F197F32-1992-46DC-A84E-1D1119C3BFEF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.0205269152676673E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{66918E7F-14E3-488E-9300-FAB0A2272730}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{89792137-A602-4D85-83B8-5CAE60652030}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{533E2A92-4248-44BB-9555-367F882768BB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.1822908928836727E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{42AE4E71-4CDA-453A-A838-03A2E8DEDD21}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-FECA-48F4-96C4-B73B044E3B2C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>TC!$A$3:$B$14</c:f>
@@ -3178,6 +4072,50 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>TC!$E$3:$E$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.01%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12.99%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13.05%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36.19%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.92%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>44.46%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>13.08%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>47.97%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-57D4-4600-BC85-F3E38AFA7A7C}"/>
             </c:ext>
@@ -3185,13 +4123,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="720128840"/>
         <c:axId val="720129200"/>
@@ -3237,7 +4175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720129200"/>
@@ -3268,6 +4206,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> of transplants</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3296,7 +4294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720128840"/>
@@ -3338,7 +4336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3375,7 +4373,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3387,13 +4385,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3427,13 +4422,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3467,13 +4459,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3507,13 +4496,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5566,14 +6552,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5595,47 +6581,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038F12B2-A7C6-4855-B53F-36B14731959D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A872275-59C5-41D4-858E-D14280C14E7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5674,6 +6619,47 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DC0BE7-8352-4AD7-849C-C5855EF41AF7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038F12B2-A7C6-4855-B53F-36B14731959D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -5687,14 +6673,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -5725,7 +6711,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6021,13 +7007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BCF3B6-51B1-48FA-984F-EC30D107B6D0}">
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
@@ -6037,18 +7023,18 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6058,16 +7044,16 @@
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -6089,14 +7075,8 @@
       <c r="G3" s="5">
         <v>1.098676</v>
       </c>
-      <c r="H3">
-        <v>17.142856999999999</v>
-      </c>
-      <c r="I3">
-        <v>1.314762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -6114,14 +7094,8 @@
       <c r="G4" s="5">
         <v>25.255666000000002</v>
       </c>
-      <c r="H4">
-        <v>12451.015873</v>
-      </c>
-      <c r="I4">
-        <v>25.196877000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -6141,14 +7115,8 @@
       <c r="G5" s="5">
         <v>0.84103499999999998</v>
       </c>
-      <c r="H5">
-        <v>12.793651000000001</v>
-      </c>
-      <c r="I5">
-        <v>1.1291580000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -6166,14 +7134,8 @@
       <c r="G6" s="5">
         <v>22.04101</v>
       </c>
-      <c r="H6">
-        <v>9392.1587299999992</v>
-      </c>
-      <c r="I6">
-        <v>38.546810999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -6193,14 +7155,8 @@
       <c r="G7" s="5">
         <v>0.63118200000000002</v>
       </c>
-      <c r="H7">
-        <v>8.6349210000000003</v>
-      </c>
-      <c r="I7">
-        <v>1.1338079999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -6218,14 +7174,8 @@
       <c r="G8" s="5">
         <v>17.684505000000001</v>
       </c>
-      <c r="H8">
-        <v>4561.1904759999998</v>
-      </c>
-      <c r="I8">
-        <v>32.921362000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -6245,14 +7195,8 @@
       <c r="G9" s="5">
         <v>0.336086</v>
       </c>
-      <c r="H9">
-        <v>2.9047619999999998</v>
-      </c>
-      <c r="I9">
-        <v>0.61973199999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -6270,14 +7214,8 @@
       <c r="G10" s="5">
         <v>36.226958000000003</v>
       </c>
-      <c r="H10">
-        <v>1199.603175</v>
-      </c>
-      <c r="I10">
-        <v>20.101050000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -6299,14 +7237,8 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -6324,14 +7256,8 @@
       <c r="G12" s="5">
         <v>7.9629149999999997</v>
       </c>
-      <c r="H12">
-        <v>937.52381000000003</v>
-      </c>
-      <c r="I12">
-        <v>7.436375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -6351,14 +7277,8 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -6376,14 +7296,8 @@
       <c r="G14" s="5">
         <v>5.9495469999999999</v>
       </c>
-      <c r="H14">
-        <v>470.53968300000003</v>
-      </c>
-      <c r="I14">
-        <v>5.5546110000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -6403,14 +7317,8 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -6428,14 +7336,8 @@
       <c r="G16" s="5">
         <v>3.6116250000000001</v>
       </c>
-      <c r="H16">
-        <v>281.047619</v>
-      </c>
-      <c r="I16">
-        <v>4.3762619999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -6455,14 +7357,8 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -6480,14 +7376,8 @@
       <c r="G18" s="5">
         <v>2.7796419999999999</v>
       </c>
-      <c r="H18">
-        <v>41.444443999999997</v>
-      </c>
-      <c r="I18">
-        <v>1.673486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -6510,7 +7400,7 @@
         <v>3.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -6529,7 +7419,7 @@
         <v>8.8431239999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -6550,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -6569,7 +7459,7 @@
         <v>7.6263870000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -6590,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -6609,7 +7499,7 @@
         <v>4.6770370000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -6630,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -6649,7 +7539,7 @@
         <v>3.460378</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -6668,7 +7558,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -6683,7 +7573,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -6700,7 +7590,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -6715,7 +7605,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -6732,7 +7622,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -6747,7 +7637,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -6764,7 +7654,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -6779,7 +7669,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -6802,7 +7692,7 @@
         <v>0.28105599999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" t="s">
@@ -6821,7 +7711,7 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -6842,7 +7732,7 @@
         <v>0.67637599999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" t="s">
@@ -6861,7 +7751,7 @@
         <v>3.6999999999999998E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>11</v>
@@ -6882,7 +7772,7 @@
         <v>10.008226000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
@@ -6901,7 +7791,7 @@
         <v>9.7E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -6922,7 +7812,7 @@
         <v>9.2234680000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" t="s">
@@ -6941,7 +7831,7 @@
         <v>1.8710000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -6964,7 +7854,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" t="s">
@@ -6983,7 +7873,7 @@
         <v>419.06182200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -7004,7 +7894,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
@@ -7023,7 +7913,7 @@
         <v>400.27894199999997</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>11</v>
@@ -7044,7 +7934,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" t="s">
@@ -7063,7 +7953,7 @@
         <v>414.77436799999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -7084,7 +7974,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" t="s">
@@ -7103,7 +7993,7 @@
         <v>2.553267</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -7125,14 +8015,8 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
@@ -7150,14 +8034,8 @@
       <c r="G52" s="5">
         <v>419.06182000000001</v>
       </c>
-      <c r="H52">
-        <v>3232.157866</v>
-      </c>
-      <c r="I52">
-        <v>465.63404500000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -7177,14 +8055,8 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -7202,14 +8074,8 @@
       <c r="G54" s="5">
         <v>400.278909</v>
       </c>
-      <c r="H54">
-        <v>3719.2789539999999</v>
-      </c>
-      <c r="I54">
-        <v>537.13092099999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -7229,14 +8095,8 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" t="s">
@@ -7254,14 +8114,8 @@
       <c r="G56" s="5">
         <v>414.77408400000002</v>
       </c>
-      <c r="H56">
-        <v>3742.2034349999999</v>
-      </c>
-      <c r="I56">
-        <v>544.36007800000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -7281,14 +8135,8 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
@@ -7306,14 +8154,8 @@
       <c r="G58" s="5">
         <v>2.5520930000000002</v>
       </c>
-      <c r="H58">
-        <v>3593.7826</v>
-      </c>
-      <c r="I58">
-        <v>521.37132899999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -7336,7 +8178,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
@@ -7355,7 +8197,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>10</v>
@@ -7376,7 +8218,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" t="s">
@@ -7395,7 +8237,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>11</v>
@@ -7416,7 +8258,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
@@ -7435,7 +8277,7 @@
         <v>3.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -7456,7 +8298,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" t="s">
@@ -7475,7 +8317,7 @@
         <v>1.323E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
@@ -7498,7 +8340,7 @@
         <v>3.6999999999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" t="s">
@@ -7517,7 +8359,7 @@
         <v>7764.3828270000004</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>10</v>
@@ -7538,7 +8380,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
@@ -7557,7 +8399,7 @@
         <v>5157.3307860000004</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>11</v>
@@ -7578,7 +8420,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" t="s">
@@ -7597,7 +8439,7 @@
         <v>2346.0454690000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -7618,7 +8460,7 @@
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" t="s">
@@ -7637,7 +8479,7 @@
         <v>6.4456610000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -7659,14 +8501,8 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="I75">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
@@ -7684,14 +8520,8 @@
       <c r="G76" s="5">
         <v>7764.3828160000003</v>
       </c>
-      <c r="H76">
-        <v>57453.136087999999</v>
-      </c>
-      <c r="I76">
-        <v>8279.0769930000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>10</v>
@@ -7711,14 +8541,8 @@
       <c r="G77" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" t="s">
@@ -7736,14 +8560,8 @@
       <c r="G78" s="5">
         <v>5157.3307830000003</v>
       </c>
-      <c r="H78">
-        <v>50504.598106999998</v>
-      </c>
-      <c r="I78">
-        <v>7306.3350479999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>11</v>
@@ -7763,14 +8581,8 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" t="s">
@@ -7788,14 +8600,8 @@
       <c r="G80" s="5">
         <v>2346.0454300000001</v>
       </c>
-      <c r="H80">
-        <v>24129.244955999999</v>
-      </c>
-      <c r="I80">
-        <v>3477.2520100000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -7815,14 +8621,8 @@
       <c r="G81" s="5">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
@@ -7840,14 +8640,8 @@
       <c r="G82" s="5">
         <v>6.4386219999999996</v>
       </c>
-      <c r="H82">
-        <v>6623.5742209999999</v>
-      </c>
-      <c r="I82">
-        <v>963.15163299999995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
@@ -7870,7 +8664,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" t="s">
@@ -7889,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>10</v>
@@ -7910,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" t="s">
@@ -7929,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>11</v>
@@ -7950,7 +8744,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
@@ -7969,7 +8763,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -7990,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
@@ -8009,42 +8803,42 @@
         <v>5.3584E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="26" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="29"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="30" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="21" t="s">
+      <c r="E92" s="34"/>
+      <c r="F92" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="22"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="G92" s="36"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="35"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -8058,12 +8852,12 @@
         <v>14.240249</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="37"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="13">
         <v>3166.8571430000002</v>
       </c>
@@ -8077,12 +8871,12 @@
         <v>14.345084</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="37"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -8096,12 +8890,12 @@
         <v>8.5266059999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="37"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -8115,14 +8909,14 @@
         <v>4.1681080000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="37"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="13">
         <v>3736.2698409999998</v>
       </c>
@@ -8136,12 +8930,12 @@
         <v>15.109741</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="37"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="13">
         <v>1625.1746029999999</v>
       </c>
@@ -8155,12 +8949,12 @@
         <v>10.192213000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="37"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="13">
         <v>490.31745999999998</v>
       </c>
@@ -8174,12 +8968,12 @@
         <v>5.2870799999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="37"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="13">
         <v>74.539682999999997</v>
       </c>
@@ -8193,14 +8987,14 @@
         <v>5.2207939999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="37"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -8214,12 +9008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="37"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -8233,12 +9027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="37"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -8252,12 +9046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="37"/>
+      <c r="C104" s="22"/>
       <c r="D104" s="13">
         <v>0</v>
       </c>
@@ -8271,14 +9065,14 @@
         <v>1.7276739999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="37"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -8292,12 +9086,12 @@
         <v>4.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="37"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="13">
         <v>0.114799</v>
       </c>
@@ -8311,12 +9105,12 @@
         <v>8.7000000000000001E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="37"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -8330,12 +9124,12 @@
         <v>3.2600000000000001E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="37"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="13">
         <v>1.258319</v>
       </c>
@@ -8349,14 +9143,14 @@
         <v>2.545E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="37"/>
+      <c r="C109" s="22"/>
       <c r="D109" s="13">
         <v>4.1E-5</v>
       </c>
@@ -8370,12 +9164,12 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="37"/>
+      <c r="C110" s="22"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -8389,12 +9183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="37"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -8408,12 +9202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="39"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="15">
         <v>0</v>
       </c>
@@ -8427,18 +9221,18 @@
         <v>6.0700000000000001E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="26" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="29"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -8448,16 +9242,16 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="30" t="s">
+      <c r="E114" s="34"/>
+      <c r="F114" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="31"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="G114" s="34"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
@@ -8479,14 +9273,8 @@
       <c r="G115" s="6">
         <v>1.0993710000000001</v>
       </c>
-      <c r="H115">
-        <v>17.142856999999999</v>
-      </c>
-      <c r="I115">
-        <v>1.314762</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
@@ -8504,14 +9292,8 @@
       <c r="G116" s="5">
         <v>23.454781000000001</v>
       </c>
-      <c r="H116">
-        <v>6465.8888889999998</v>
-      </c>
-      <c r="I116">
-        <v>85.516293000000005</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
@@ -8531,14 +9313,8 @@
       <c r="G117" s="5">
         <v>0.848302</v>
       </c>
-      <c r="H117">
-        <v>12.793651000000001</v>
-      </c>
-      <c r="I117">
-        <v>1.1291580000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
@@ -8556,14 +9332,8 @@
       <c r="G118" s="5">
         <v>24.314059</v>
       </c>
-      <c r="H118">
-        <v>4946.9047620000001</v>
-      </c>
-      <c r="I118">
-        <v>68.787655000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>11</v>
@@ -8583,14 +9353,8 @@
       <c r="G119" s="5">
         <v>0.63118200000000002</v>
       </c>
-      <c r="H119">
-        <v>8.6349210000000003</v>
-      </c>
-      <c r="I119">
-        <v>1.1338079999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
@@ -8608,14 +9372,8 @@
       <c r="G120" s="5">
         <v>16.525158999999999</v>
       </c>
-      <c r="H120">
-        <v>2332.1746029999999</v>
-      </c>
-      <c r="I120">
-        <v>66.682868999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>12</v>
@@ -8635,14 +9393,8 @@
       <c r="G121" s="5">
         <v>0.336086</v>
       </c>
-      <c r="H121">
-        <v>2.9047619999999998</v>
-      </c>
-      <c r="I121">
-        <v>0.61973199999999995</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
@@ -8660,14 +9412,8 @@
       <c r="G122" s="5">
         <v>18.173718000000001</v>
       </c>
-      <c r="H122">
-        <v>670.50793699999997</v>
-      </c>
-      <c r="I122">
-        <v>38.593429999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>31</v>
       </c>
@@ -8689,14 +9435,8 @@
       <c r="G123" s="5">
         <v>0.93163099999999999</v>
       </c>
-      <c r="H123">
-        <v>14.682539999999999</v>
-      </c>
-      <c r="I123">
-        <v>1.062567</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
@@ -8714,14 +9454,8 @@
       <c r="G124" s="5">
         <v>22.595371</v>
       </c>
-      <c r="H124">
-        <v>5614.3968249999998</v>
-      </c>
-      <c r="I124">
-        <v>73.711911999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>10</v>
@@ -8741,14 +9475,8 @@
       <c r="G125" s="5">
         <v>0.72583399999999998</v>
       </c>
-      <c r="H125">
-        <v>8.4285709999999998</v>
-      </c>
-      <c r="I125">
-        <v>0.64876500000000004</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
@@ -8766,14 +9494,8 @@
       <c r="G126" s="5">
         <v>22.285408</v>
       </c>
-      <c r="H126">
-        <v>3149.746032</v>
-      </c>
-      <c r="I126">
-        <v>51.090497999999997</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>11</v>
@@ -8793,14 +9515,8 @@
       <c r="G127" s="5">
         <v>0.51283100000000004</v>
       </c>
-      <c r="H127">
-        <v>4.8730159999999998</v>
-      </c>
-      <c r="I127">
-        <v>0.60769300000000004</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
@@ -8818,14 +9534,8 @@
       <c r="G128" s="5">
         <v>13.490553999999999</v>
       </c>
-      <c r="H128">
-        <v>1291.746032</v>
-      </c>
-      <c r="I128">
-        <v>37.430990999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>12</v>
@@ -8845,14 +9555,8 @@
       <c r="G129" s="5">
         <v>0.27085900000000002</v>
       </c>
-      <c r="H129">
-        <v>1.6666669999999999</v>
-      </c>
-      <c r="I129">
-        <v>0.32302799999999998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
@@ -8870,14 +9574,8 @@
       <c r="G130" s="5">
         <v>16.075111</v>
       </c>
-      <c r="H130">
-        <v>348.11111099999999</v>
-      </c>
-      <c r="I130">
-        <v>20.614649</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>32</v>
       </c>
@@ -8899,14 +9597,8 @@
       <c r="G131" s="5">
         <v>0.39544299999999999</v>
       </c>
-      <c r="H131">
-        <v>2.4603169999999999</v>
-      </c>
-      <c r="I131">
-        <v>0.416599</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
@@ -8924,14 +9616,8 @@
       <c r="G132" s="5">
         <v>8.9333600000000004</v>
       </c>
-      <c r="H132">
-        <v>838.11111100000005</v>
-      </c>
-      <c r="I132">
-        <v>14.008298999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>10</v>
@@ -8951,14 +9637,8 @@
       <c r="G133" s="5">
         <v>0.30444700000000002</v>
       </c>
-      <c r="H133">
-        <v>4.3174599999999996</v>
-      </c>
-      <c r="I133">
-        <v>0.71207900000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
@@ -8976,14 +9656,8 @@
       <c r="G134" s="5">
         <v>6.7276610000000003</v>
       </c>
-      <c r="H134">
-        <v>1786.5714290000001</v>
-      </c>
-      <c r="I134">
-        <v>28.305664</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>11</v>
@@ -9003,14 +9677,8 @@
       <c r="G135" s="5">
         <v>0.23197799999999999</v>
       </c>
-      <c r="H135">
-        <v>3.7619050000000001</v>
-      </c>
-      <c r="I135">
-        <v>0.74286099999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
@@ -9028,14 +9696,8 @@
       <c r="G136" s="5">
         <v>4.5024170000000003</v>
       </c>
-      <c r="H136">
-        <v>1034.206349</v>
-      </c>
-      <c r="I136">
-        <v>27.914527</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>12</v>
@@ -9055,14 +9717,8 @@
       <c r="G137" s="5">
         <v>0.135459</v>
       </c>
-      <c r="H137">
-        <v>1.2380949999999999</v>
-      </c>
-      <c r="I137">
-        <v>0.38305299999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
@@ -9080,14 +9736,8 @@
       <c r="G138" s="5">
         <v>3.5602049999999998</v>
       </c>
-      <c r="H138">
-        <v>320.952381</v>
-      </c>
-      <c r="I138">
-        <v>19.846079</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>33</v>
       </c>
@@ -9106,7 +9756,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
@@ -9121,7 +9771,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>10</v>
@@ -9138,7 +9788,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
@@ -9153,7 +9803,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>11</v>
@@ -9170,7 +9820,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
@@ -9185,7 +9835,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>12</v>
@@ -9202,7 +9852,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" t="s">
@@ -9217,7 +9867,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>34</v>
       </c>
@@ -9236,42 +9886,42 @@
         <v>1.073E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="26" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="29"/>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="32"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="33"/>
-      <c r="D149" s="30" t="s">
+      <c r="C149" s="26"/>
+      <c r="D149" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="31"/>
-      <c r="F149" s="30" t="s">
+      <c r="E149" s="34"/>
+      <c r="F149" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="31"/>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="G149" s="34"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="35"/>
+      <c r="C150" s="28"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -9285,12 +9935,12 @@
         <v>15.422171000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="36" t="s">
+      <c r="B151" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="37"/>
+      <c r="C151" s="22"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -9304,12 +9954,12 @@
         <v>12.650304</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="36" t="s">
+      <c r="B152" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="37"/>
+      <c r="C152" s="22"/>
       <c r="D152" s="13">
         <v>1290.6349210000001</v>
       </c>
@@ -9323,12 +9973,12 @@
         <v>8.2907840000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="37"/>
+      <c r="C153" s="22"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -9342,14 +9992,14 @@
         <v>5.0334070000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="37"/>
+      <c r="C154" s="22"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -9363,12 +10013,12 @@
         <v>1.4758960000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" s="36" t="s">
+      <c r="B155" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="37"/>
+      <c r="C155" s="22"/>
       <c r="D155" s="13">
         <v>33.063491999999997</v>
       </c>
@@ -9382,12 +10032,12 @@
         <v>1.4253549999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="37"/>
+      <c r="C156" s="22"/>
       <c r="D156" s="13">
         <v>14.253968</v>
       </c>
@@ -9401,12 +10051,12 @@
         <v>0.966669</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="36" t="s">
+      <c r="B157" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="37"/>
+      <c r="C157" s="22"/>
       <c r="D157" s="13">
         <v>16.904762000000002</v>
       </c>
@@ -9420,14 +10070,14 @@
         <v>2.2115619999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="B158" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="37"/>
+      <c r="C158" s="22"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -9441,12 +10091,12 @@
         <v>7.8952650000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="36" t="s">
+      <c r="B159" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="37"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="13">
         <v>744.19047599999999</v>
       </c>
@@ -9460,12 +10110,12 @@
         <v>6.4114829999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="36" t="s">
+      <c r="B160" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="37"/>
+      <c r="C160" s="22"/>
       <c r="D160" s="13">
         <v>334.47618999999997</v>
       </c>
@@ -9479,12 +10129,12 @@
         <v>4.0701729999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="36" t="s">
+      <c r="B161" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="37"/>
+      <c r="C161" s="22"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -9498,14 +10148,14 @@
         <v>2.844706</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="36" t="s">
+      <c r="B162" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="37"/>
+      <c r="C162" s="22"/>
       <c r="D162" s="13">
         <v>3057.3174600000002</v>
       </c>
@@ -9519,12 +10169,12 @@
         <v>14.326404</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="36" t="s">
+      <c r="B163" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="37"/>
+      <c r="C163" s="22"/>
       <c r="D163" s="13">
         <v>2099.333333</v>
       </c>
@@ -9538,12 +10188,12 @@
         <v>10.583126999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="36" t="s">
+      <c r="B164" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="37"/>
+      <c r="C164" s="22"/>
       <c r="D164" s="13">
         <v>941.88888899999995</v>
       </c>
@@ -9557,12 +10207,12 @@
         <v>8.4051539999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="36" t="s">
+      <c r="B165" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="37"/>
+      <c r="C165" s="22"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -9576,7 +10226,7 @@
         <v>4.0803339999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>40</v>
       </c>
@@ -9597,6 +10247,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
@@ -9613,40 +10297,6 @@
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9656,11 +10306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2317ED-57BA-4FAE-A3A8-363C38207229}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -9670,18 +10320,18 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -9691,16 +10341,16 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -9723,7 +10373,7 @@
         <v>1.328694</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
@@ -9742,7 +10392,7 @@
         <v>22.561171999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -9763,7 +10413,7 @@
         <v>0.82579899999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
@@ -9782,7 +10432,7 @@
         <v>22.149958999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -9803,7 +10453,7 @@
         <v>0.76227999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
@@ -9822,7 +10472,7 @@
         <v>16.606826000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -9843,7 +10493,7 @@
         <v>0.39511400000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
@@ -9862,7 +10512,7 @@
         <v>6.7894969999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -9885,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
@@ -9904,7 +10554,7 @@
         <v>8.5734910000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -9925,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
@@ -9944,7 +10594,7 @@
         <v>5.2654750000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -9965,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
@@ -9984,7 +10634,7 @@
         <v>4.1283919999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -10005,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
@@ -10024,7 +10674,7 @@
         <v>1.901743</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -10047,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
@@ -10066,7 +10716,7 @@
         <v>7.2928819999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -10087,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
@@ -10106,7 +10756,7 @@
         <v>7.307785</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -10127,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
@@ -10146,7 +10796,7 @@
         <v>4.9594040000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -10167,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
@@ -10186,7 +10836,7 @@
         <v>2.410771</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -10205,7 +10855,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
@@ -10220,7 +10870,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -10237,7 +10887,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5" t="s">
@@ -10252,7 +10902,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -10269,7 +10919,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="5" t="s">
@@ -10284,7 +10934,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -10301,7 +10951,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="5" t="s">
@@ -10316,7 +10966,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -10339,7 +10989,7 @@
         <v>0.20802499999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="5" t="s">
@@ -10358,7 +11008,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -10379,7 +11029,7 @@
         <v>0.57607299999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="5" t="s">
@@ -10398,7 +11048,7 @@
         <v>5.1E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>11</v>
@@ -10419,7 +11069,7 @@
         <v>10.378797</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="5" t="s">
@@ -10438,7 +11088,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -10459,7 +11109,7 @@
         <v>5.3002200000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="5" t="s">
@@ -10478,7 +11128,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -10501,7 +11151,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="5" t="s">
@@ -10520,7 +11170,7 @@
         <v>414.82783699999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -10541,7 +11191,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="5" t="s">
@@ -10560,7 +11210,7 @@
         <v>394.22851300000002</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>11</v>
@@ -10581,7 +11231,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="5" t="s">
@@ -10600,7 +11250,7 @@
         <v>407.48945400000002</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -10621,7 +11271,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="5" t="s">
@@ -10640,7 +11290,7 @@
         <v>379.05545899999998</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -10663,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="5" t="s">
@@ -10682,7 +11332,7 @@
         <v>414.82780600000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -10703,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="5" t="s">
@@ -10722,7 +11372,7 @@
         <v>394.22853600000002</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -10743,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
@@ -10762,7 +11412,7 @@
         <v>407.48929199999998</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -10783,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="5" t="s">
@@ -10802,7 +11452,7 @@
         <v>379.05642799999998</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -10825,7 +11475,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="5" t="s">
@@ -10844,7 +11494,7 @@
         <v>5.7000000000000003E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>10</v>
@@ -10865,7 +11515,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="5" t="s">
@@ -10884,7 +11534,7 @@
         <v>7.3999999999999996E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>11</v>
@@ -10905,7 +11555,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="5" t="s">
@@ -10924,7 +11574,7 @@
         <v>2.23E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -10945,7 +11595,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
@@ -10964,7 +11614,7 @@
         <v>1.3550000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
@@ -10987,7 +11637,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="5" t="s">
@@ -11006,7 +11656,7 @@
         <v>7720.3676130000003</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>10</v>
@@ -11027,7 +11677,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="5" t="s">
@@ -11046,7 +11696,7 @@
         <v>5274.7955389999997</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>11</v>
@@ -11067,7 +11717,7 @@
         <v>2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="5" t="s">
@@ -11086,7 +11736,7 @@
         <v>2419.7694160000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -11107,7 +11757,7 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="5" t="s">
@@ -11126,7 +11776,7 @@
         <v>640.21970899999997</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -11149,7 +11799,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="5" t="s">
@@ -11168,7 +11818,7 @@
         <v>7720.3675970000004</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>10</v>
@@ -11189,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="5" t="s">
@@ -11208,7 +11858,7 @@
         <v>5274.7955300000003</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>11</v>
@@ -11229,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="5" t="s">
@@ -11248,7 +11898,7 @@
         <v>2419.7693669999999</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -11269,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5" t="s">
@@ -11288,7 +11938,7 @@
         <v>640.21959600000002</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
@@ -11311,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5" t="s">
@@ -11330,7 +11980,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>10</v>
@@ -11351,7 +12001,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5" t="s">
@@ -11370,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>11</v>
@@ -11391,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5" t="s">
@@ -11410,7 +12060,7 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -11431,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="4" t="s">
@@ -11450,42 +12100,42 @@
         <v>4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="26" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="29"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="21" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="21" t="s">
+      <c r="E92" s="36"/>
+      <c r="F92" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G92" s="22"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="G92" s="36"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="43"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -11499,7 +12149,7 @@
         <v>14.233064000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="40" t="s">
         <v>10</v>
@@ -11518,7 +12168,7 @@
         <v>14.342587999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="40" t="s">
         <v>11</v>
@@ -11537,7 +12187,7 @@
         <v>8.5215650000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="40" t="s">
         <v>12</v>
@@ -11556,7 +12206,7 @@
         <v>4.1681080000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>25</v>
       </c>
@@ -11577,7 +12227,7 @@
         <v>15.009328999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="B98" s="40" t="s">
         <v>10</v>
@@ -11596,7 +12246,7 @@
         <v>10.212201</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="B99" s="40" t="s">
         <v>11</v>
@@ -11615,7 +12265,7 @@
         <v>5.2168609999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="40" t="s">
         <v>12</v>
@@ -11634,7 +12284,7 @@
         <v>1.824362</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>26</v>
       </c>
@@ -11655,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="40" t="s">
         <v>10</v>
@@ -11674,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="40" t="s">
         <v>11</v>
@@ -11693,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="40" t="s">
         <v>12</v>
@@ -11712,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>27</v>
       </c>
@@ -11733,7 +12383,7 @@
         <v>4.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="40" t="s">
         <v>10</v>
@@ -11752,7 +12402,7 @@
         <v>8.7000000000000001E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="B107" s="40" t="s">
         <v>11</v>
@@ -11771,7 +12421,7 @@
         <v>3.2600000000000001E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="B108" s="40" t="s">
         <v>12</v>
@@ -11790,7 +12440,7 @@
         <v>2.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>28</v>
       </c>
@@ -11811,7 +12461,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="B110" s="40" t="s">
         <v>10</v>
@@ -11830,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="40" t="s">
         <v>11</v>
@@ -11849,12 +12499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="44" t="s">
+      <c r="B112" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="45"/>
+      <c r="C112" s="43"/>
       <c r="D112" s="15">
         <v>7.9509999999999997E-3</v>
       </c>
@@ -11868,18 +12518,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="26" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="29"/>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -11889,16 +12539,16 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="21" t="s">
+      <c r="E114" s="34"/>
+      <c r="F114" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="22"/>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="G114" s="36"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>42</v>
       </c>
@@ -11921,7 +12571,7 @@
         <v>1.328694</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
@@ -11940,7 +12590,7 @@
         <v>22.902685000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
@@ -11961,7 +12611,7 @@
         <v>0.82579899999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
@@ -11980,7 +12630,7 @@
         <v>22.30499</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>11</v>
@@ -12001,7 +12651,7 @@
         <v>0.76227999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
@@ -12020,7 +12670,7 @@
         <v>16.241876000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>12</v>
@@ -12041,7 +12691,7 @@
         <v>0.39511400000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
@@ -12060,7 +12710,7 @@
         <v>19.312753000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>43</v>
       </c>
@@ -12083,7 +12733,7 @@
         <v>1.0569440000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
@@ -12102,7 +12752,7 @@
         <v>32.346682999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>10</v>
@@ -12123,7 +12773,7 @@
         <v>0.62320699999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
@@ -12142,7 +12792,7 @@
         <v>28.684286</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>11</v>
@@ -12163,7 +12813,7 @@
         <v>0.54381199999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
@@ -12182,7 +12832,7 @@
         <v>15.617444000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>12</v>
@@ -12203,7 +12853,7 @@
         <v>0.29019299999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
@@ -12222,7 +12872,7 @@
         <v>13.306381999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>44</v>
       </c>
@@ -12245,7 +12895,7 @@
         <v>0.42378700000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
@@ -12264,7 +12914,7 @@
         <v>9.0580879999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>10</v>
@@ -12285,7 +12935,7 @@
         <v>0.33738800000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
@@ -12304,7 +12954,7 @@
         <v>9.6735380000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>11</v>
@@ -12325,7 +12975,7 @@
         <v>0.32438299999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
@@ -12344,7 +12994,7 @@
         <v>4.6547879999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>12</v>
@@ -12365,7 +13015,7 @@
         <v>0.151422</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
@@ -12384,7 +13034,7 @@
         <v>4.2264530000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>33</v>
       </c>
@@ -12403,7 +13053,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
@@ -12418,7 +13068,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>10</v>
@@ -12435,7 +13085,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
@@ -12450,7 +13100,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>11</v>
@@ -12467,7 +13117,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
@@ -12482,7 +13132,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>12</v>
@@ -12499,7 +13149,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" t="s">
@@ -12514,7 +13164,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>34</v>
       </c>
@@ -12533,42 +13183,42 @@
         <v>1.093E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="26" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="29"/>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="32"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="33"/>
-      <c r="D149" s="30" t="s">
+      <c r="C149" s="26"/>
+      <c r="D149" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="31"/>
-      <c r="F149" s="21" t="s">
+      <c r="E149" s="34"/>
+      <c r="F149" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G149" s="22"/>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="G149" s="36"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="42" t="s">
+      <c r="B150" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="43"/>
+      <c r="C150" s="45"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -12582,7 +13232,7 @@
         <v>15.413743999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="40" t="s">
         <v>10</v>
@@ -12601,7 +13251,7 @@
         <v>12.653134</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="40" t="s">
         <v>11</v>
@@ -12620,7 +13270,7 @@
         <v>8.2955939999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="40" t="s">
         <v>12</v>
@@ -12639,7 +13289,7 @@
         <v>5.0334070000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>37</v>
       </c>
@@ -12660,7 +13310,7 @@
         <v>1.471732</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="40" t="s">
         <v>10</v>
@@ -12679,7 +13329,7 @@
         <v>1.4248769999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="40" t="s">
         <v>11</v>
@@ -12698,7 +13348,7 @@
         <v>0.96849799999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="40" t="s">
         <v>12</v>
@@ -12717,7 +13367,7 @@
         <v>2.1031439999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>38</v>
       </c>
@@ -12738,7 +13388,7 @@
         <v>7.9043299999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="40" t="s">
         <v>10</v>
@@ -12757,7 +13407,7 @@
         <v>6.4115289999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="40" t="s">
         <v>11</v>
@@ -12776,7 +13426,7 @@
         <v>4.0734389999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="B161" s="40" t="s">
         <v>12</v>
@@ -12795,7 +13445,7 @@
         <v>2.844706</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>39</v>
       </c>
@@ -12816,7 +13466,7 @@
         <v>14.329601</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
       <c r="B163" s="40" t="s">
         <v>10</v>
@@ -12835,7 +13485,7 @@
         <v>10.615931</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
       <c r="B164" s="40" t="s">
         <v>11</v>
@@ -12854,7 +13504,7 @@
         <v>8.4254060000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
       <c r="B165" s="40" t="s">
         <v>12</v>
@@ -12873,7 +13523,7 @@
         <v>4.0875979999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
         <v>40</v>
       </c>
@@ -12894,24 +13544,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="A1:G1"/>
@@ -12928,22 +13576,24 @@
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12953,16 +13603,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9821191-4258-4FB4-B331-453D338A5B6C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
@@ -12973,7 +13623,7 @@
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
         <v>45</v>
       </c>
@@ -12987,7 +13637,7 @@
       </c>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13010,7 +13660,7 @@
         <v>7.0675911889444096</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -13033,7 +13683,7 @@
         <v>5.3965295818111212</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -13056,7 +13706,7 @@
         <v>4.2305619237503134</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -13079,7 +13729,7 @@
         <v>1.6234341812147823</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>18</v>
       </c>
@@ -13090,7 +13740,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="46" t="s">
         <v>45</v>
       </c>
@@ -13104,7 +13754,7 @@
       </c>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -13127,7 +13777,7 @@
         <v>442.54237766580422</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -13150,7 +13800,7 @@
         <v>521.84444679959631</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -13173,7 +13823,7 @@
         <v>526.23655046168426</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -13196,7 +13846,7 @@
         <v>505.77778159122801</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
         <v>21</v>
       </c>
@@ -13207,7 +13857,7 @@
       <c r="F40" s="46"/>
       <c r="G40" s="46"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="46" t="s">
         <v>45</v>
       </c>
@@ -13221,7 +13871,7 @@
       </c>
       <c r="G41" s="46"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -13244,7 +13894,7 @@
         <v>7868.5020065136532</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -13267,7 +13917,7 @@
         <v>7098.4004498524528</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -13290,7 +13940,7 @@
         <v>3361.4829168798046</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -13315,11 +13965,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:G21"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -13327,6 +13972,11 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13335,18 +13985,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB009BC-50CA-4201-85F6-EEF4C2C550C5}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
@@ -13354,15 +14005,18 @@
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13375,8 +14029,12 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="48">
+        <f>D3/(C3+D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -13386,8 +14044,12 @@
       <c r="D4">
         <v>875.42220370955408</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="48">
+        <f t="shared" ref="E4:E14" si="0">D4/(C4+D4)</f>
+        <v>0.13014122106014084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -13397,8 +14059,12 @@
       <c r="D5">
         <v>835.90142845875425</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="48">
+        <f t="shared" si="0"/>
+        <v>0.12988929866741677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -13411,8 +14077,12 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -13422,8 +14092,12 @@
       <c r="D7">
         <v>611.21288792567509</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="48">
+        <f t="shared" si="0"/>
+        <v>0.13052369032152197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -13433,8 +14107,12 @@
       <c r="D8">
         <v>1781.9740657383581</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="48">
+        <f t="shared" si="0"/>
+        <v>0.36192377790820401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -13447,8 +14125,12 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -13458,8 +14140,12 @@
       <c r="D10">
         <v>265.2636298662236</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="48">
+        <f t="shared" si="0"/>
+        <v>0.12917297591522811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -13469,8 +14155,12 @@
       <c r="D11">
         <v>1030.4051826609191</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="48">
+        <f t="shared" si="0"/>
+        <v>0.44463767636856916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -13483,8 +14173,12 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -13494,8 +14188,12 @@
       <c r="D13">
         <v>118.02875741010938</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="48">
+        <f t="shared" si="0"/>
+        <v>0.13080507972822306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>47</v>
       </c>
@@ -13504,6 +14202,10 @@
       </c>
       <c r="D14">
         <v>319.57329517312292</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="0"/>
+        <v>0.47970291598542319</v>
       </c>
     </row>
   </sheetData>

--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1065" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3090908-D658-402E-B829-B45002E73708}"/>
+  <xr:revisionPtr revIDLastSave="1212" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC0B7B1-B671-44F5-94CC-55432BE6FC6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Identical VS Compatible" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Identical VS Compatible'!$A$1:$G$166</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,48 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,10 +423,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,19 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -862,16 +862,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7868.5020065136532</c:v>
+                    <c:v>9123.4876560775519</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7098.4004498524528</c:v>
+                    <c:v>5661.4171048327935</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3361.4829168798046</c:v>
+                    <c:v>2711.8710951705002</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>934.34500360626589</c:v>
+                    <c:v>633.14061183703359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -883,16 +883,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7868.5020065136532</c:v>
+                    <c:v>9123.4876560775519</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7098.4004498524528</c:v>
+                    <c:v>5661.4171048327935</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3361.4829168798046</c:v>
+                    <c:v>2711.8710951705002</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>934.34500360626589</c:v>
+                    <c:v>633.14061183703359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -938,16 +938,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57374.141994532147</c:v>
+                  <c:v>66402.088114415907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50435.896195932219</c:v>
+                  <c:v>40870.609749471114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24083.651502009066</c:v>
+                  <c:v>19662.54106124676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6607.5744041926873</c:v>
+                  <c:v>4375.5882666695334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,16 +1595,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7.0675911889444096</c:v>
+                    <c:v>7.0585068663324284</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3965295818111212</c:v>
+                    <c:v>5.0925377433771457</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.2305619237503134</c:v>
+                    <c:v>3.6673754581149582</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6234341812147823</c:v>
+                    <c:v>1.9188976037230003</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1616,16 +1616,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7.0675911889444096</c:v>
+                    <c:v>7.0585068663324284</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3965295818111212</c:v>
+                    <c:v>5.0925377433771457</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.2305619237503134</c:v>
+                    <c:v>3.6673754581149582</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6234341812147823</c:v>
+                    <c:v>1.9188976037230003</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1671,16 +1671,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>936.23477952188659</c:v>
+                  <c:v>944.32929397655766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>469.89960315248118</c:v>
+                  <c:v>469.23505964415637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280.51656501511553</c:v>
+                  <c:v>285.95457992075774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.344331358462959</c:v>
+                  <c:v>42.714132855098114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,16 +1952,16 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>7.0675911889444096</c:v>
+                        <c:v>7.0585068663324284</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.3965295818111212</c:v>
+                        <c:v>5.0925377433771457</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.2305619237503134</c:v>
+                        <c:v>3.6673754581149582</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.6234341812147823</c:v>
+                        <c:v>1.9188976037230003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2600,16 +2600,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>442.54237766580422</c:v>
+                    <c:v>462.20158659804559</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>521.84444679959631</c:v>
+                    <c:v>450.61457955763677</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>526.23655046168426</c:v>
+                    <c:v>464.10007964254777</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>505.77778159122801</c:v>
+                    <c:v>429.28150677431893</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2621,16 +2621,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>442.54237766580422</c:v>
+                    <c:v>462.20158659804559</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>521.84444679959631</c:v>
+                    <c:v>450.61457955763677</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>526.23655046168426</c:v>
+                    <c:v>464.10007964254777</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>505.77778159122801</c:v>
+                    <c:v>429.28150677431893</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2676,16 +2676,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3227.7138721996207</c:v>
+                  <c:v>3370.0043227310794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3714.2195815564719</c:v>
+                  <c:v>3257.0582027419064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3735.1323484223017</c:v>
+                  <c:v>3339.8480593291247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3585.1015070844855</c:v>
+                  <c:v>2907.1316406144851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,16 +2957,16 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>7.0675911889444096</c:v>
+                        <c:v>7.0585068663324284</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.3965295818111212</c:v>
+                        <c:v>5.0925377433771457</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.2305619237503134</c:v>
+                        <c:v>3.6673754581149582</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.6234341812147823</c:v>
+                        <c:v>1.9188976037230003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3413,7 +3413,7 @@
                   <c:v>5851.2874166420497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5599.5896938629594</c:v>
+                  <c:v>5026.1649668214113</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4772.2861738764987</c:v>
@@ -3422,7 +3422,7 @@
                   <c:v>4071.5606868948071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3141.6429346078485</c:v>
+                  <c:v>3746.4463750679811</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1493.4455990274168</c:v>
@@ -3431,7 +3431,7 @@
                   <c:v>1788.2899713166366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1286.9989362981667</c:v>
+                  <c:v>1564.8848085147335</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>361.02989268425119</c:v>
@@ -3440,7 +3440,7 @@
                   <c:v>784.29673067751412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.61672478254866</c:v>
+                  <c:v>471.69540206272904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,12 +3481,18 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4914243102162564E-3"/>
+                  <c:y val="-2.8301886792452831E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A516283-78CD-4CB2-934E-AF06E018B122}" type="CELLRANGE">
+                    <a:fld id="{722DD511-8046-4494-85DE-A88B693477F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3495,7 +3501,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inBase"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3505,7 +3511,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3517,8 +3522,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.4914243102162564E-3"/>
-                  <c:y val="-7.667731392066561E-2"/>
+                  <c:x val="0"/>
+                  <c:y val="-6.6037735849056603E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3526,7 +3531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFD702F4-A554-47D2-8A10-EBCA27F2520E}" type="CELLRANGE">
+                    <a:fld id="{E7800538-3AA9-4CCF-837E-4F15C1979BF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3556,8 +3561,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7342463158163744E-17"/>
-                  <c:y val="-6.2460258505422729E-2"/>
+                  <c:x val="-1.491424310216284E-3"/>
+                  <c:y val="-0.1006289308176101"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3565,7 +3570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D4134E3-FBFA-45E2-AFF5-00D7738D4427}" type="CELLRANGE">
+                    <a:fld id="{42175EA5-9D4A-4092-8854-F650B8904E67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3593,12 +3598,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4684926316327489E-17"/>
+                  <c:y val="-3.4591194968553514E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{566E9CD7-5C75-4B48-B3B8-498AD622D242}" type="CELLRANGE">
+                    <a:fld id="{6C6F0C21-F9EF-408C-8F63-BC6043AA86C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3607,7 +3618,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inBase"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3617,7 +3628,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3629,8 +3639,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-5.5299856385876353E-2"/>
+                  <c:x val="5.4684926316327489E-17"/>
+                  <c:y val="-5.3459119496855403E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3638,7 +3648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF4DC238-0A71-44DA-8B5B-9D07B6A1688A}" type="CELLRANGE">
+                    <a:fld id="{71978043-74F8-42B8-8686-D269BF323819}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3668,8 +3678,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0936985263265498E-16"/>
-                  <c:y val="-9.5588322686079336E-2"/>
+                  <c:x val="-5.4684926316327489E-17"/>
+                  <c:y val="-6.9182389937106917E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3677,7 +3687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7828858-94EA-40F8-BCFD-BB0985E02FC8}" type="CELLRANGE">
+                    <a:fld id="{F2E059DE-A1C4-4C04-8CA9-6D61E3B68D9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3705,12 +3715,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.1446540880503145E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7999A54-033F-47E7-BD69-C49A0594963B}" type="CELLRANGE">
+                    <a:fld id="{BE41D17C-4D63-4465-8276-211F5901CA6B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3719,7 +3735,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inBase"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3729,7 +3745,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3741,8 +3756,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-3.7037092061605506E-2"/>
+                  <c:x val="-1.0936985263265498E-16"/>
+                  <c:y val="-2.8301886792452945E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3750,7 +3765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F197F32-1992-46DC-A84E-1D1119C3BFEF}" type="CELLRANGE">
+                    <a:fld id="{F65A0A26-05AA-4BBA-91D1-6C22B8A07647}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3781,7 +3796,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-8.0205269152676673E-2"/>
+                  <c:y val="-4.716981132075472E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3789,7 +3804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66918E7F-14E3-488E-9300-FAB0A2272730}" type="CELLRANGE">
+                    <a:fld id="{39E635D8-B8A9-4ADE-841F-12352D7C4F5C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3817,12 +3832,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0936985263265498E-16"/>
+                  <c:y val="-2.20125786163522E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89792137-A602-4D85-83B8-5CAE60652030}" type="CELLRANGE">
+                    <a:fld id="{8981C1F2-5674-4BC7-B965-09700B270C61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3831,7 +3852,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inBase"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3841,7 +3862,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3851,12 +3871,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4914243102162564E-3"/>
+                  <c:y val="-3.7735849056603772E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{533E2A92-4248-44BB-9555-367F882768BB}" type="CELLRANGE">
+                    <a:fld id="{DDDCF3DA-BE99-458B-A966-8E2B42851B80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3865,7 +3891,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inBase"/>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3875,7 +3901,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3888,7 +3913,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.1822908928836727E-2"/>
+                  <c:y val="-3.773584905660389E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3896,7 +3921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42AE4E71-4CDA-453A-A838-03A2E8DEDD21}" type="CELLRANGE">
+                    <a:fld id="{5527CC4B-B3CB-4E63-9AF4-FCFECFEFE9A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3951,7 +3976,7 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inBase"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4039,7 +4064,7 @@
                   <c:v>875.42220370955408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>835.90142845875425</c:v>
+                  <c:v>2114.5011404704774</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4048,7 +4073,7 @@
                   <c:v>611.21288792567509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1781.9740657383581</c:v>
+                  <c:v>802.72456167004907</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4057,7 +4082,7 @@
                   <c:v>265.2636298662236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1030.4051826609191</c:v>
+                  <c:v>552.28330855365016</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4066,7 +4091,7 @@
                   <c:v>118.02875741010938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>319.57329517312292</c:v>
+                  <c:v>68.255438141081001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,7 +4109,7 @@
                     <c:v>13.01%</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>12.99%</c:v>
+                    <c:v>29.61%</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.00%</c:v>
@@ -4093,7 +4118,7 @@
                     <c:v>13.05%</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>36.19%</c:v>
+                    <c:v>17.65%</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>0.00%</c:v>
@@ -4102,7 +4127,7 @@
                     <c:v>12.92%</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>44.46%</c:v>
+                    <c:v>26.09%</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.00%</c:v>
@@ -4111,7 +4136,7 @@
                     <c:v>13.08%</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>47.97%</c:v>
+                    <c:v>12.64%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4122,6 +4147,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -6710,6 +6736,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -7007,10 +7037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BCF3B6-51B1-48FA-984F-EC30D107B6D0}">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7023,18 +7053,18 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -7044,16 +7074,16 @@
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7075,8 +7105,14 @@
       <c r="G3" s="5">
         <v>1.098676</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>21.317460000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.4166129999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -7094,8 +7130,14 @@
       <c r="G4" s="5">
         <v>25.255666000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>13747.126984</v>
+      </c>
+      <c r="I4">
+        <v>27.010034999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -7115,8 +7157,14 @@
       <c r="G5" s="5">
         <v>0.84103499999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>9.4444440000000007</v>
+      </c>
+      <c r="I5">
+        <v>1.072106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -7134,8 +7182,14 @@
       <c r="G6" s="5">
         <v>22.04101</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>8411.6984130000001</v>
+      </c>
+      <c r="I6">
+        <v>24.738596000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -7155,8 +7209,14 @@
       <c r="G7" s="5">
         <v>0.63118200000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>6.7619049999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.80625800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -7174,8 +7234,14 @@
       <c r="G8" s="5">
         <v>17.684505000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>4079.3968249999998</v>
+      </c>
+      <c r="I8">
+        <v>18.665156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -7195,8 +7261,14 @@
       <c r="G9" s="5">
         <v>0.336086</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1.7619050000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.46726899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -7214,8 +7286,14 @@
       <c r="G10" s="5">
         <v>36.226958000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>946.42857100000003</v>
+      </c>
+      <c r="I10">
+        <v>8.9651230000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -7237,8 +7315,14 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -7256,8 +7340,14 @@
       <c r="G12" s="5">
         <v>7.9629149999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>945.79365099999995</v>
+      </c>
+      <c r="I12">
+        <v>7.4287089999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -7277,8 +7367,14 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -7296,8 +7392,14 @@
       <c r="G14" s="5">
         <v>5.9495469999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>469.76190500000001</v>
+      </c>
+      <c r="I14">
+        <v>5.3132349999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -7317,8 +7419,14 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -7336,8 +7444,14 @@
       <c r="G16" s="5">
         <v>3.6116250000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>286.42857099999998</v>
+      </c>
+      <c r="I16">
+        <v>3.8257910000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -7357,8 +7471,14 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -7376,8 +7496,14 @@
       <c r="G18" s="5">
         <v>2.7796419999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>42.793650999999997</v>
+      </c>
+      <c r="I18">
+        <v>2.0189119999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -7399,8 +7525,14 @@
       <c r="G19" s="5">
         <v>3.1730000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -7418,8 +7550,14 @@
       <c r="G20" s="5">
         <v>8.8431239999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1444.5238099999999</v>
+      </c>
+      <c r="I20">
+        <v>8.7714560000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -7439,8 +7577,14 @@
       <c r="G21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -7458,8 +7602,14 @@
       <c r="G22" s="5">
         <v>7.6263870000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>813.63492099999996</v>
+      </c>
+      <c r="I22">
+        <v>7.8652519999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -7479,8 +7629,14 @@
       <c r="G23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -7498,8 +7654,14 @@
       <c r="G24" s="5">
         <v>4.6770370000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>428.44444399999998</v>
+      </c>
+      <c r="I24">
+        <v>5.4624879999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -7519,8 +7681,14 @@
       <c r="G25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -7538,8 +7706,14 @@
       <c r="G26" s="5">
         <v>3.460378</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>75.492063000000002</v>
+      </c>
+      <c r="I26">
+        <v>2.4832360000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -7557,8 +7731,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -7572,8 +7749,11 @@
         <v>215562</v>
       </c>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>267139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -7589,8 +7769,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -7604,8 +7787,11 @@
         <v>142826</v>
       </c>
       <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>163826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -7621,8 +7807,11 @@
         <v>0</v>
       </c>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -7636,8 +7825,11 @@
         <v>65214</v>
       </c>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>78997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -7653,8 +7845,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -7668,8 +7863,11 @@
         <v>4</v>
       </c>
       <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>18337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -7691,8 +7889,14 @@
       <c r="G35" s="5">
         <v>0.28105599999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>17.059543999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.18053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" t="s">
@@ -7710,8 +7914,14 @@
       <c r="G36" s="5">
         <v>7.9999999999999996E-6</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>2.6626E-2</v>
+      </c>
+      <c r="I36">
+        <v>1.4E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -7731,8 +7941,14 @@
       <c r="G37" s="5">
         <v>0.67637599999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>39.932823999999997</v>
+      </c>
+      <c r="I37">
+        <v>0.43654799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" t="s">
@@ -7750,8 +7966,14 @@
       <c r="G38" s="5">
         <v>3.6999999999999998E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>4.3465999999999998E-2</v>
+      </c>
+      <c r="I38">
+        <v>4.1E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>11</v>
@@ -7771,8 +7993,14 @@
       <c r="G39" s="5">
         <v>10.008226000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>53.306192000000003</v>
+      </c>
+      <c r="I39">
+        <v>1.8624240000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
@@ -7790,8 +8018,14 @@
       <c r="G40" s="5">
         <v>9.7E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>8.9174000000000003E-2</v>
+      </c>
+      <c r="I40">
+        <v>1.03E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -7811,8 +8045,14 @@
       <c r="G41" s="5">
         <v>9.2234680000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>181.733722</v>
+      </c>
+      <c r="I41">
+        <v>9.3539189999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" t="s">
@@ -7830,8 +8070,14 @@
       <c r="G42" s="5">
         <v>1.8710000000000001E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>0.38441799999999998</v>
+      </c>
+      <c r="I42">
+        <v>3.9199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -7853,8 +8099,14 @@
       <c r="G43" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I43">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" t="s">
@@ -7872,8 +8124,14 @@
       <c r="G44" s="5">
         <v>419.06182200000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>3375.2809179999999</v>
+      </c>
+      <c r="I44">
+        <v>486.44296200000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -7893,8 +8151,14 @@
       <c r="G45" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I45">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
@@ -7912,8 +8176,14 @@
       <c r="G46" s="5">
         <v>400.27894199999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>3260.7949180000001</v>
+      </c>
+      <c r="I46">
+        <v>470.14299999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>11</v>
@@ -7933,8 +8203,14 @@
       <c r="G47" s="5">
         <v>6.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="I47">
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" t="s">
@@ -7952,8 +8228,14 @@
       <c r="G48" s="5">
         <v>414.77436799999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>3345.553214</v>
+      </c>
+      <c r="I48">
+        <v>484.147626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -7973,8 +8255,14 @@
       <c r="G49" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>9.2E-5</v>
+      </c>
+      <c r="I49">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" t="s">
@@ -7992,8 +8280,14 @@
       <c r="G50" s="5">
         <v>2.553267</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>2913.1986149999998</v>
+      </c>
+      <c r="I50">
+        <v>451.65997399999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -8015,8 +8309,14 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
@@ -8034,8 +8334,14 @@
       <c r="G52" s="5">
         <v>419.06182000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>3375.230137</v>
+      </c>
+      <c r="I52">
+        <v>486.44297599999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -8055,8 +8361,14 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
@@ -8074,8 +8386,14 @@
       <c r="G54" s="5">
         <v>400.278909</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>3260.715146</v>
+      </c>
+      <c r="I54">
+        <v>470.143036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -8095,8 +8413,14 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" t="s">
@@ -8114,8 +8438,14 @@
       <c r="G56" s="5">
         <v>414.77408400000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>3345.3841069999999</v>
+      </c>
+      <c r="I56">
+        <v>484.14729499999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -8135,8 +8465,14 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
@@ -8154,8 +8490,14 @@
       <c r="G58" s="5">
         <v>2.5520930000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>2912.5436599999998</v>
+      </c>
+      <c r="I58">
+        <v>451.65598399999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -8177,8 +8519,14 @@
       <c r="G59" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I59">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
@@ -8196,8 +8544,14 @@
       <c r="G60" s="5">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>5.0781E-2</v>
+      </c>
+      <c r="I60">
+        <v>3.1000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>10</v>
@@ -8217,8 +8571,14 @@
       <c r="G61" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I61">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" t="s">
@@ -8236,8 +8596,14 @@
       <c r="G62" s="5">
         <v>6.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>7.9771999999999996E-2</v>
+      </c>
+      <c r="I62">
+        <v>6.6000000000000005E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>11</v>
@@ -8257,8 +8623,14 @@
       <c r="G63" s="5">
         <v>6.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="I63">
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
@@ -8276,8 +8648,14 @@
       <c r="G64" s="5">
         <v>3.6600000000000001E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>0.16910700000000001</v>
+      </c>
+      <c r="I64">
+        <v>3.77E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -8297,8 +8675,14 @@
       <c r="G65" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>9.2E-5</v>
+      </c>
+      <c r="I65">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" t="s">
@@ -8316,8 +8700,14 @@
       <c r="G66" s="5">
         <v>1.323E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>0.65495400000000004</v>
+      </c>
+      <c r="I66">
+        <v>5.2950000000000002E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
@@ -8339,8 +8729,14 @@
       <c r="G67" s="5">
         <v>3.6999999999999998E-5</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>1.5139999999999999E-3</v>
+      </c>
+      <c r="I67">
+        <v>3.1000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" t="s">
@@ -8358,8 +8754,14 @@
       <c r="G68" s="5">
         <v>7764.3828270000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>66506.056758000006</v>
+      </c>
+      <c r="I68">
+        <v>9601.9932059999992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>10</v>
@@ -8379,8 +8781,14 @@
       <c r="G69" s="5">
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>6.2399999999999999E-4</v>
+      </c>
+      <c r="I69">
+        <v>1.1E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
@@ -8398,8 +8806,14 @@
       <c r="G70" s="5">
         <v>5157.3307860000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>40917.498207999997</v>
+      </c>
+      <c r="I70">
+        <v>5906.7681140000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>11</v>
@@ -8419,8 +8833,14 @@
       <c r="G71" s="5">
         <v>4.1E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="I71">
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" t="s">
@@ -8438,8 +8858,14 @@
       <c r="G72" s="5">
         <v>2346.0454690000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>19696.133007</v>
+      </c>
+      <c r="I72">
+        <v>2829.0128249999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -8459,8 +8885,14 @@
       <c r="G73" s="5">
         <v>1.2999999999999999E-5</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="I73">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" t="s">
@@ -8478,8 +8910,14 @@
       <c r="G74" s="5">
         <v>6.4456610000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>4384.7335359999997</v>
+      </c>
+      <c r="I74">
+        <v>666.14050099999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -8501,8 +8939,14 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
@@ -8520,8 +8964,14 @@
       <c r="G76" s="5">
         <v>7764.3828160000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>66505.056819000005</v>
+      </c>
+      <c r="I76">
+        <v>9601.9931899999992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>10</v>
@@ -8541,8 +8991,14 @@
       <c r="G77" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" t="s">
@@ -8560,8 +9016,14 @@
       <c r="G78" s="5">
         <v>5157.3307830000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>40916.498245000002</v>
+      </c>
+      <c r="I78">
+        <v>5906.7681039999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>11</v>
@@ -8581,8 +9043,14 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" t="s">
@@ -8600,8 +9068,14 @@
       <c r="G80" s="5">
         <v>2346.0454300000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>19695.133192000001</v>
+      </c>
+      <c r="I80">
+        <v>2829.0127769999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -8621,8 +9095,14 @@
       <c r="G81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
@@ -8640,8 +9120,14 @@
       <c r="G82" s="5">
         <v>6.4386219999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>4383.7340169999998</v>
+      </c>
+      <c r="I82">
+        <v>666.14038000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
@@ -8663,8 +9149,14 @@
       <c r="G83" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>1.245E-3</v>
+      </c>
+      <c r="I83">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" t="s">
@@ -8682,8 +9174,14 @@
       <c r="G84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>3.1983999999999999E-2</v>
+      </c>
+      <c r="I84">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>10</v>
@@ -8703,8 +9201,14 @@
       <c r="G85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>7.9799999999999999E-4</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" t="s">
@@ -8722,8 +9226,14 @@
       <c r="G86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>3.1983999999999999E-2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>11</v>
@@ -8743,8 +9253,14 @@
       <c r="G87" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>7.27E-4</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
@@ -8762,8 +9278,14 @@
       <c r="G88" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>3.1981999999999997E-2</v>
+      </c>
+      <c r="I88">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -8783,8 +9305,14 @@
       <c r="G89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
@@ -8802,43 +9330,49 @@
       <c r="G90" s="4">
         <v>5.3584E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="29" t="s">
+      <c r="H90">
+        <v>3.1976999999999998E-2</v>
+      </c>
+      <c r="I90">
+        <v>5.1999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="30"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="33" t="s">
+      <c r="C92" s="34"/>
+      <c r="D92" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="35" t="s">
+      <c r="E92" s="32"/>
+      <c r="F92" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="36"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="23"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="28"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -8852,12 +9386,12 @@
         <v>14.240249</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="22"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="13">
         <v>3166.8571430000002</v>
       </c>
@@ -8871,12 +9405,12 @@
         <v>14.345084</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="22"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -8890,12 +9424,12 @@
         <v>8.5266059999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="22"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -8913,10 +9447,10 @@
       <c r="A97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="22"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="13">
         <v>3736.2698409999998</v>
       </c>
@@ -8932,10 +9466,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="22"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="13">
         <v>1625.1746029999999</v>
       </c>
@@ -8951,10 +9485,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="22"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="13">
         <v>490.31745999999998</v>
       </c>
@@ -8970,10 +9504,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="22"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="13">
         <v>74.539682999999997</v>
       </c>
@@ -8991,10 +9525,10 @@
       <c r="A101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="22"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -9010,10 +9544,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="22"/>
+      <c r="C102" s="38"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -9029,10 +9563,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="22"/>
+      <c r="C103" s="38"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -9048,10 +9582,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="22"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="13">
         <v>0</v>
       </c>
@@ -9069,10 +9603,10 @@
       <c r="A105" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="22"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -9088,10 +9622,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="22"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="13">
         <v>0.114799</v>
       </c>
@@ -9107,10 +9641,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="22"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -9126,10 +9660,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="22"/>
+      <c r="C108" s="38"/>
       <c r="D108" s="13">
         <v>1.258319</v>
       </c>
@@ -9147,10 +9681,10 @@
       <c r="A109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="22"/>
+      <c r="C109" s="38"/>
       <c r="D109" s="13">
         <v>4.1E-5</v>
       </c>
@@ -9166,10 +9700,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="22"/>
+      <c r="C110" s="38"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -9185,10 +9719,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="22"/>
+      <c r="C111" s="38"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -9204,10 +9738,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="24"/>
+      <c r="C112" s="40"/>
       <c r="D112" s="15">
         <v>0</v>
       </c>
@@ -9221,18 +9755,18 @@
         <v>6.0700000000000001E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="32"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="30"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -9242,16 +9776,16 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="34"/>
-      <c r="F114" s="33" t="s">
+      <c r="E114" s="32"/>
+      <c r="F114" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="34"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="32"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
@@ -9273,8 +9807,14 @@
       <c r="G115" s="6">
         <v>1.0993710000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>21.317460000000001</v>
+      </c>
+      <c r="I115">
+        <v>1.4166129999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
@@ -9292,8 +9832,14 @@
       <c r="G116" s="5">
         <v>23.454781000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>7178</v>
+      </c>
+      <c r="I116">
+        <v>40.083644</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
@@ -9313,8 +9859,14 @@
       <c r="G117" s="5">
         <v>0.848302</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>9.4444440000000007</v>
+      </c>
+      <c r="I117">
+        <v>1.072106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
@@ -9332,8 +9884,14 @@
       <c r="G118" s="5">
         <v>24.314059</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>4568.6666670000004</v>
+      </c>
+      <c r="I118">
+        <v>30.999828999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>11</v>
@@ -9353,8 +9911,14 @@
       <c r="G119" s="5">
         <v>0.63118200000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>6.7619049999999996</v>
+      </c>
+      <c r="I119">
+        <v>0.80625800000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
@@ -9372,8 +9936,14 @@
       <c r="G120" s="5">
         <v>16.525158999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>2128.3492059999999</v>
+      </c>
+      <c r="I120">
+        <v>24.449608999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>12</v>
@@ -9393,8 +9963,14 @@
       <c r="G121" s="5">
         <v>0.336086</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>1.7619050000000001</v>
+      </c>
+      <c r="I121">
+        <v>0.46726899999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
@@ -9412,8 +9988,14 @@
       <c r="G122" s="5">
         <v>18.173718000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>542.61904800000002</v>
+      </c>
+      <c r="I122">
+        <v>42.882693000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>31</v>
       </c>
@@ -9435,8 +10017,14 @@
       <c r="G123" s="5">
         <v>0.93163099999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>14.888889000000001</v>
+      </c>
+      <c r="I123">
+        <v>1.0453730000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
@@ -9454,8 +10042,14 @@
       <c r="G124" s="5">
         <v>22.595371</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>5041.0476189999999</v>
+      </c>
+      <c r="I124">
+        <v>37.482349999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>10</v>
@@ -9475,8 +10069,14 @@
       <c r="G125" s="5">
         <v>0.72583399999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>7.984127</v>
+      </c>
+      <c r="I125">
+        <v>0.74667600000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
@@ -9494,8 +10094,14 @@
       <c r="G126" s="5">
         <v>22.285408</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>3754.1746029999999</v>
+      </c>
+      <c r="I126">
+        <v>30.266378</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>11</v>
@@ -9515,8 +10121,14 @@
       <c r="G127" s="5">
         <v>0.51283100000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>4.8095239999999997</v>
+      </c>
+      <c r="I127">
+        <v>0.57190200000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
@@ -9534,8 +10146,14 @@
       <c r="G128" s="5">
         <v>13.490553999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>1569.8412699999999</v>
+      </c>
+      <c r="I128">
+        <v>17.392619</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>12</v>
@@ -9555,8 +10173,14 @@
       <c r="G129" s="5">
         <v>0.27085900000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>1.4761899999999999</v>
+      </c>
+      <c r="I129">
+        <v>0.289128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
@@ -9574,8 +10198,14 @@
       <c r="G130" s="5">
         <v>16.075111</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>473.22222199999999</v>
+      </c>
+      <c r="I130">
+        <v>34.713512000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>32</v>
       </c>
@@ -9597,8 +10227,14 @@
       <c r="G131" s="5">
         <v>0.39544299999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>6.3809519999999997</v>
+      </c>
+      <c r="I131">
+        <v>0.82595600000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
@@ -9616,8 +10252,14 @@
       <c r="G132" s="5">
         <v>8.9333600000000004</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>2120.7619049999998</v>
+      </c>
+      <c r="I132">
+        <v>16.595443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>10</v>
@@ -9637,8 +10279,14 @@
       <c r="G133" s="5">
         <v>0.30444700000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>1.4603170000000001</v>
+      </c>
+      <c r="I133">
+        <v>0.438143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
@@ -9656,8 +10304,14 @@
       <c r="G134" s="5">
         <v>6.7276610000000003</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>804.38095199999998</v>
+      </c>
+      <c r="I134">
+        <v>8.9445259999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>11</v>
@@ -9677,8 +10331,14 @@
       <c r="G135" s="5">
         <v>0.23197799999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>1.9523809999999999</v>
+      </c>
+      <c r="I135">
+        <v>0.45778999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
@@ -9696,8 +10356,14 @@
       <c r="G136" s="5">
         <v>4.5024170000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>554.031746</v>
+      </c>
+      <c r="I136">
+        <v>9.0717809999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>12</v>
@@ -9717,8 +10383,14 @@
       <c r="G137" s="5">
         <v>0.135459</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>0.269841</v>
+      </c>
+      <c r="I137">
+        <v>0.19300400000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
@@ -9736,8 +10408,14 @@
       <c r="G138" s="5">
         <v>3.5602049999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>68.476190000000003</v>
+      </c>
+      <c r="I138">
+        <v>5.5557220000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>33</v>
       </c>
@@ -9755,8 +10433,11 @@
         <v>12.657005</v>
       </c>
       <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>29.970545000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
@@ -9770,8 +10451,11 @@
         <v>13.013605</v>
       </c>
       <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>29.617584000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>10</v>
@@ -9787,8 +10471,11 @@
         <v>14.839798</v>
       </c>
       <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>15.371900999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
@@ -9802,8 +10489,11 @@
         <v>13.050573999999999</v>
       </c>
       <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>17.645303999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>11</v>
@@ -9819,8 +10509,11 @@
         <v>12.130178000000001</v>
       </c>
       <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>28.873239000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
@@ -9834,8 +10527,11 @@
         <v>12.912236</v>
       </c>
       <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>26.084781</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>12</v>
@@ -9851,8 +10547,11 @@
         <v>14.678898999999999</v>
       </c>
       <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>15.044248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" t="s">
@@ -9866,8 +10565,11 @@
         <v>13.118607000000001</v>
       </c>
       <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>12.637568999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>34</v>
       </c>
@@ -9885,43 +10587,49 @@
       <c r="G147" s="4">
         <v>1.073E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
+      <c r="H147">
+        <v>2051.6948819999998</v>
+      </c>
+      <c r="I147">
+        <v>1.093E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="32"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="30"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="25" t="s">
+      <c r="B149" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="26"/>
-      <c r="D149" s="33" t="s">
+      <c r="C149" s="34"/>
+      <c r="D149" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="34"/>
-      <c r="F149" s="33" t="s">
+      <c r="E149" s="32"/>
+      <c r="F149" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="34"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G149" s="32"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="27" t="s">
+      <c r="B150" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="28"/>
+      <c r="C150" s="36"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -9935,12 +10643,12 @@
         <v>15.422171000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="21" t="s">
+      <c r="B151" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="22"/>
+      <c r="C151" s="38"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -9954,12 +10662,12 @@
         <v>12.650304</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="21" t="s">
+      <c r="B152" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="22"/>
+      <c r="C152" s="38"/>
       <c r="D152" s="13">
         <v>1290.6349210000001</v>
       </c>
@@ -9973,12 +10681,12 @@
         <v>8.2907840000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="21" t="s">
+      <c r="B153" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="22"/>
+      <c r="C153" s="38"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -9992,14 +10700,14 @@
         <v>5.0334070000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="22"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -10013,12 +10721,12 @@
         <v>1.4758960000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" s="21" t="s">
+      <c r="B155" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="22"/>
+      <c r="C155" s="38"/>
       <c r="D155" s="13">
         <v>33.063491999999997</v>
       </c>
@@ -10032,12 +10740,12 @@
         <v>1.4253549999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="22"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="13">
         <v>14.253968</v>
       </c>
@@ -10051,12 +10759,12 @@
         <v>0.966669</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="22"/>
+      <c r="C157" s="38"/>
       <c r="D157" s="13">
         <v>16.904762000000002</v>
       </c>
@@ -10070,14 +10778,14 @@
         <v>2.2115619999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="21" t="s">
+      <c r="B158" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="22"/>
+      <c r="C158" s="38"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -10091,12 +10799,12 @@
         <v>7.8952650000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="21" t="s">
+      <c r="B159" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="22"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="13">
         <v>744.19047599999999</v>
       </c>
@@ -10110,12 +10818,12 @@
         <v>6.4114829999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="22"/>
+      <c r="C160" s="38"/>
       <c r="D160" s="13">
         <v>334.47618999999997</v>
       </c>
@@ -10131,10 +10839,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="22"/>
+      <c r="C161" s="38"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -10152,10 +10860,10 @@
       <c r="A162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B162" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="22"/>
+      <c r="C162" s="38"/>
       <c r="D162" s="13">
         <v>3057.3174600000002</v>
       </c>
@@ -10171,10 +10879,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="21" t="s">
+      <c r="B163" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="22"/>
+      <c r="C163" s="38"/>
       <c r="D163" s="13">
         <v>2099.333333</v>
       </c>
@@ -10190,10 +10898,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="21" t="s">
+      <c r="B164" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="22"/>
+      <c r="C164" s="38"/>
       <c r="D164" s="13">
         <v>941.88888899999995</v>
       </c>
@@ -10209,10 +10917,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="21" t="s">
+      <c r="B165" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="22"/>
+      <c r="C165" s="38"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -10247,24 +10955,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
@@ -10281,22 +10987,24 @@
     <mergeCell ref="B155:C155"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10306,8 +11014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2317ED-57BA-4FAE-A3A8-363C38207229}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10321,15 +11029,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -10341,14 +11049,14 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -10367,10 +11075,10 @@
         <v>1.098676</v>
       </c>
       <c r="F3" s="7">
-        <v>17.142856999999999</v>
+        <v>21.317460000000001</v>
       </c>
       <c r="G3" s="6">
-        <v>1.328694</v>
+        <v>1.4166129999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -10386,10 +11094,10 @@
         <v>25.255666000000002</v>
       </c>
       <c r="F4" s="3">
-        <v>12502.158729999999</v>
+        <v>13747.126984</v>
       </c>
       <c r="G4" s="5">
-        <v>22.561171999999999</v>
+        <v>27.010034999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -10407,10 +11115,10 @@
         <v>0.84103499999999998</v>
       </c>
       <c r="F5" s="3">
-        <v>9.9206350000000008</v>
+        <v>9.4444440000000007</v>
       </c>
       <c r="G5" s="5">
-        <v>0.82579899999999995</v>
+        <v>1.072106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -10426,10 +11134,10 @@
         <v>22.04101</v>
       </c>
       <c r="F6" s="3">
-        <v>8442.8888889999998</v>
+        <v>8411.6984130000001</v>
       </c>
       <c r="G6" s="5">
-        <v>22.149958999999999</v>
+        <v>24.738596000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -10447,10 +11155,10 @@
         <v>0.63118200000000002</v>
       </c>
       <c r="F7" s="3">
-        <v>5.6666670000000003</v>
+        <v>6.7619049999999996</v>
       </c>
       <c r="G7" s="5">
-        <v>0.76227999999999996</v>
+        <v>0.80625800000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -10466,10 +11174,10 @@
         <v>17.684505000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>3926.380952</v>
+        <v>4079.3968249999998</v>
       </c>
       <c r="G8" s="5">
-        <v>16.606826000000002</v>
+        <v>18.665156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -10487,10 +11195,10 @@
         <v>0.336086</v>
       </c>
       <c r="F9" s="3">
-        <v>1.9206350000000001</v>
+        <v>1.7619050000000001</v>
       </c>
       <c r="G9" s="5">
-        <v>0.39511400000000002</v>
+        <v>0.46726899999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -10506,10 +11214,10 @@
         <v>36.226958000000003</v>
       </c>
       <c r="F10" s="3">
-        <v>1002.349206</v>
+        <v>946.42857100000003</v>
       </c>
       <c r="G10" s="5">
-        <v>6.7894969999999999</v>
+        <v>8.9651230000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -10548,10 +11256,10 @@
         <v>7.9629149999999997</v>
       </c>
       <c r="F12" s="3">
-        <v>940.69841299999996</v>
+        <v>945.79365099999995</v>
       </c>
       <c r="G12" s="5">
-        <v>8.5734910000000006</v>
+        <v>7.4287089999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -10588,10 +11296,10 @@
         <v>5.9495469999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>468.55555600000002</v>
+        <v>469.76190500000001</v>
       </c>
       <c r="G14" s="5">
-        <v>5.2654750000000003</v>
+        <v>5.3132349999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -10628,10 +11336,10 @@
         <v>3.6116250000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>283.88888900000001</v>
+        <v>286.42857099999998</v>
       </c>
       <c r="G16" s="5">
-        <v>4.1283919999999998</v>
+        <v>3.8257910000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -10668,10 +11376,10 @@
         <v>2.7796419999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>42.412697999999999</v>
+        <v>42.793650999999997</v>
       </c>
       <c r="G18" s="5">
-        <v>1.901743</v>
+        <v>2.0189119999999998</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -10710,10 +11418,10 @@
         <v>8.8431239999999995</v>
       </c>
       <c r="F20" s="3">
-        <v>1437.190476</v>
+        <v>1444.5238099999999</v>
       </c>
       <c r="G20" s="5">
-        <v>7.2928819999999996</v>
+        <v>8.7714560000000006</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -10750,10 +11458,10 @@
         <v>7.6263870000000002</v>
       </c>
       <c r="F22" s="3">
-        <v>816.84127000000001</v>
+        <v>813.63492099999996</v>
       </c>
       <c r="G22" s="5">
-        <v>7.307785</v>
+        <v>7.8652519999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -10790,10 +11498,10 @@
         <v>4.6770370000000003</v>
       </c>
       <c r="F24" s="3">
-        <v>426.26984099999999</v>
+        <v>428.44444399999998</v>
       </c>
       <c r="G24" s="5">
-        <v>4.9594040000000001</v>
+        <v>5.4624879999999996</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -10830,10 +11538,10 @@
         <v>3.460378</v>
       </c>
       <c r="F26" s="3">
-        <v>75.396825000000007</v>
+        <v>75.492063000000002</v>
       </c>
       <c r="G26" s="5">
-        <v>2.410771</v>
+        <v>2.4832360000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -10866,7 +11574,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3">
-        <v>214205</v>
+        <v>267139</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -10898,7 +11606,7 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="3">
-        <v>146213</v>
+        <v>163826</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -10930,7 +11638,7 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="3">
-        <v>67631</v>
+        <v>78997</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -10962,7 +11670,7 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="3">
-        <v>17408</v>
+        <v>18337</v>
       </c>
       <c r="G34" s="5"/>
     </row>
@@ -10983,10 +11691,10 @@
         <v>0.28105599999999997</v>
       </c>
       <c r="F35" s="3">
-        <v>20.758507000000002</v>
+        <v>17.059543999999999</v>
       </c>
       <c r="G35" s="5">
-        <v>0.20802499999999999</v>
+        <v>0.18053</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -11002,10 +11710,10 @@
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="F36" s="3">
-        <v>2.9215000000000001E-2</v>
+        <v>2.6626E-2</v>
       </c>
       <c r="G36" s="5">
-        <v>5.0000000000000004E-6</v>
+        <v>1.4E-5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -11023,10 +11731,10 @@
         <v>0.67637599999999998</v>
       </c>
       <c r="F37" s="3">
-        <v>37.004106</v>
+        <v>39.932823999999997</v>
       </c>
       <c r="G37" s="5">
-        <v>0.57607299999999995</v>
+        <v>0.43654799999999999</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -11042,10 +11750,10 @@
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="F38" s="3">
-        <v>4.3321999999999999E-2</v>
+        <v>4.3465999999999998E-2</v>
       </c>
       <c r="G38" s="5">
-        <v>5.1E-5</v>
+        <v>4.1E-5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -11063,10 +11771,10 @@
         <v>10.008226000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>73.134078000000002</v>
+        <v>53.306192000000003</v>
       </c>
       <c r="G39" s="5">
-        <v>10.378797</v>
+        <v>1.8624240000000001</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -11082,10 +11790,10 @@
         <v>9.7E-5</v>
       </c>
       <c r="F40" s="3">
-        <v>9.2753000000000002E-2</v>
+        <v>8.9174000000000003E-2</v>
       </c>
       <c r="G40" s="5">
-        <v>6.6000000000000005E-5</v>
+        <v>1.03E-4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -11103,10 +11811,10 @@
         <v>9.2234680000000004</v>
       </c>
       <c r="F41" s="3">
-        <v>173.912037</v>
+        <v>181.733722</v>
       </c>
       <c r="G41" s="5">
-        <v>5.3002200000000004</v>
+        <v>9.3539189999999994</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -11122,10 +11830,10 @@
         <v>1.8710000000000001E-3</v>
       </c>
       <c r="F42" s="3">
-        <v>0.36515999999999998</v>
+        <v>0.38441799999999998</v>
       </c>
       <c r="G42" s="5">
-        <v>7.3999999999999999E-4</v>
+        <v>3.9199999999999999E-4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -11145,10 +11853,10 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F43" s="3">
-        <v>6.6000000000000005E-5</v>
+        <v>7.7000000000000001E-5</v>
       </c>
       <c r="G43" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -11164,10 +11872,10 @@
         <v>419.06182200000001</v>
       </c>
       <c r="F44" s="3">
-        <v>2860.8680079999999</v>
+        <v>3375.2809179999999</v>
       </c>
       <c r="G44" s="5">
-        <v>414.82783699999999</v>
+        <v>486.44296200000002</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -11185,10 +11893,10 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F45" s="3">
-        <v>5.3999999999999998E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G45" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -11204,10 +11912,10 @@
         <v>400.27894199999997</v>
       </c>
       <c r="F46" s="3">
-        <v>2723.144875</v>
+        <v>3260.7949180000001</v>
       </c>
       <c r="G46" s="5">
-        <v>394.22851300000002</v>
+        <v>470.14299999999997</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -11225,7 +11933,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="F47" s="3">
-        <v>6.7000000000000002E-5</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="G47" s="5">
         <v>3.0000000000000001E-6</v>
@@ -11244,10 +11952,10 @@
         <v>414.77436799999998</v>
       </c>
       <c r="F48" s="3">
-        <v>2813.8100890000001</v>
+        <v>3345.553214</v>
       </c>
       <c r="G48" s="5">
-        <v>407.48945400000002</v>
+        <v>484.147626</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -11265,10 +11973,10 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="F49" s="3">
-        <v>9.5000000000000005E-5</v>
+        <v>9.2E-5</v>
       </c>
       <c r="G49" s="5">
-        <v>6.0000000000000002E-6</v>
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -11284,10 +11992,10 @@
         <v>2.553267</v>
       </c>
       <c r="F50" s="3">
-        <v>2619.7586940000001</v>
+        <v>2913.1986149999998</v>
       </c>
       <c r="G50" s="5">
-        <v>379.05545899999998</v>
+        <v>451.65997399999998</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -11326,10 +12034,10 @@
         <v>419.06182000000001</v>
       </c>
       <c r="F52" s="3">
-        <v>2860.81439</v>
+        <v>3375.230137</v>
       </c>
       <c r="G52" s="5">
-        <v>414.82780600000001</v>
+        <v>486.44297599999999</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -11366,10 +12074,10 @@
         <v>400.278909</v>
       </c>
       <c r="F54" s="3">
-        <v>2723.0700579999998</v>
+        <v>3260.715146</v>
       </c>
       <c r="G54" s="5">
-        <v>394.22853600000002</v>
+        <v>470.143036</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -11406,10 +12114,10 @@
         <v>414.77408400000002</v>
       </c>
       <c r="F56" s="3">
-        <v>2813.6428860000001</v>
+        <v>3345.3841069999999</v>
       </c>
       <c r="G56" s="5">
-        <v>407.48929199999998</v>
+        <v>484.14729499999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -11446,10 +12154,10 @@
         <v>2.5520930000000002</v>
       </c>
       <c r="F58" s="3">
-        <v>2619.1609010000002</v>
+        <v>2912.5436599999998</v>
       </c>
       <c r="G58" s="5">
-        <v>379.05642799999998</v>
+        <v>451.65598399999999</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -11469,10 +12177,10 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F59" s="3">
-        <v>6.6000000000000005E-5</v>
+        <v>7.7000000000000001E-5</v>
       </c>
       <c r="G59" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -11488,10 +12196,10 @@
         <v>2.3E-5</v>
       </c>
       <c r="F60" s="3">
-        <v>5.3617999999999999E-2</v>
+        <v>5.0781E-2</v>
       </c>
       <c r="G60" s="5">
-        <v>5.7000000000000003E-5</v>
+        <v>3.1000000000000001E-5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -11509,10 +12217,10 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F61" s="3">
-        <v>5.3999999999999998E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G61" s="5">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -11528,10 +12236,10 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F62" s="3">
-        <v>7.4816999999999995E-2</v>
+        <v>7.9771999999999996E-2</v>
       </c>
       <c r="G62" s="5">
-        <v>7.3999999999999996E-5</v>
+        <v>6.6000000000000005E-5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -11549,7 +12257,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="F63" s="3">
-        <v>6.7000000000000002E-5</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="G63" s="5">
         <v>3.0000000000000001E-6</v>
@@ -11568,10 +12276,10 @@
         <v>3.6600000000000001E-4</v>
       </c>
       <c r="F64" s="3">
-        <v>0.16720399999999999</v>
+        <v>0.16910700000000001</v>
       </c>
       <c r="G64" s="5">
-        <v>2.23E-4</v>
+        <v>3.77E-4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -11589,10 +12297,10 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="F65" s="3">
-        <v>9.5000000000000005E-5</v>
+        <v>9.2E-5</v>
       </c>
       <c r="G65" s="5">
-        <v>6.0000000000000002E-6</v>
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -11608,10 +12316,10 @@
         <v>1.323E-3</v>
       </c>
       <c r="F66" s="3">
-        <v>0.59779300000000002</v>
+        <v>0.65495400000000004</v>
       </c>
       <c r="G66" s="5">
-        <v>1.3550000000000001E-3</v>
+        <v>5.2950000000000002E-3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -11631,10 +12339,10 @@
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="F67" s="3">
-        <v>1.23E-3</v>
+        <v>1.5139999999999999E-3</v>
       </c>
       <c r="G67" s="5">
-        <v>1.5E-5</v>
+        <v>3.1000000000000001E-5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -11650,10 +12358,10 @@
         <v>7764.3828270000004</v>
       </c>
       <c r="F68" s="3">
-        <v>53285.205520000003</v>
+        <v>66506.056758000006</v>
       </c>
       <c r="G68" s="5">
-        <v>7720.3676130000003</v>
+        <v>9601.9932059999992</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -11671,10 +12379,10 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F69" s="3">
-        <v>7.2599999999999997E-4</v>
+        <v>6.2399999999999999E-4</v>
       </c>
       <c r="G69" s="5">
-        <v>2.3E-5</v>
+        <v>1.1E-5</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -11690,10 +12398,10 @@
         <v>5157.3307860000004</v>
       </c>
       <c r="F70" s="3">
-        <v>36421.478632999999</v>
+        <v>40917.498207999997</v>
       </c>
       <c r="G70" s="5">
-        <v>5274.7955389999997</v>
+        <v>5906.7681140000004</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -11711,10 +12419,10 @@
         <v>4.1E-5</v>
       </c>
       <c r="F71" s="3">
-        <v>4.0099999999999999E-4</v>
+        <v>5.1599999999999997E-4</v>
       </c>
       <c r="G71" s="5">
-        <v>2.0999999999999999E-5</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -11730,10 +12438,10 @@
         <v>2346.0454690000001</v>
       </c>
       <c r="F72" s="3">
-        <v>16790.861005999999</v>
+        <v>19696.133007</v>
       </c>
       <c r="G72" s="5">
-        <v>2419.7694160000001</v>
+        <v>2829.0128249999998</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -11751,10 +12459,10 @@
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="F73" s="3">
-        <v>1.5899999999999999E-4</v>
+        <v>1.4100000000000001E-4</v>
       </c>
       <c r="G73" s="5">
-        <v>9.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -11770,10 +12478,10 @@
         <v>6.4456610000000003</v>
       </c>
       <c r="F74" s="3">
-        <v>4397.7584969999998</v>
+        <v>4384.7335359999997</v>
       </c>
       <c r="G74" s="5">
-        <v>640.21970899999997</v>
+        <v>666.14050099999997</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -11793,10 +12501,10 @@
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>3.9999999999999998E-6</v>
+        <v>0</v>
       </c>
       <c r="G75" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -11812,10 +12520,10 @@
         <v>7764.3828160000003</v>
       </c>
       <c r="F76" s="3">
-        <v>53284.205581000002</v>
+        <v>66505.056819000005</v>
       </c>
       <c r="G76" s="5">
-        <v>7720.3675970000004</v>
+        <v>9601.9931899999992</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -11852,10 +12560,10 @@
         <v>5157.3307830000003</v>
       </c>
       <c r="F78" s="3">
-        <v>36420.478669999997</v>
+        <v>40916.498245000002</v>
       </c>
       <c r="G78" s="5">
-        <v>5274.7955300000003</v>
+        <v>5906.7681039999998</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -11892,10 +12600,10 @@
         <v>2346.0454300000001</v>
       </c>
       <c r="F80" s="3">
-        <v>16789.861194000001</v>
+        <v>19695.133192000001</v>
       </c>
       <c r="G80" s="5">
-        <v>2419.7693669999999</v>
+        <v>2829.0127769999999</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -11932,10 +12640,10 @@
         <v>6.4386219999999996</v>
       </c>
       <c r="F82" s="3">
-        <v>4396.7589310000003</v>
+        <v>4383.7340169999998</v>
       </c>
       <c r="G82" s="5">
-        <v>640.21959600000002</v>
+        <v>666.14038000000005</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -11955,10 +12663,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F83" s="3">
-        <v>1.1199999999999999E-3</v>
+        <v>1.245E-3</v>
       </c>
       <c r="G83" s="5">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -11995,10 +12703,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>8.6200000000000003E-4</v>
+        <v>7.9799999999999999E-4</v>
       </c>
       <c r="G85" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -12035,7 +12743,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F87" s="3">
-        <v>6.4099999999999997E-4</v>
+        <v>7.27E-4</v>
       </c>
       <c r="G87" s="5">
         <v>0</v>
@@ -12075,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>4.0400000000000001E-4</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
@@ -12094,48 +12802,48 @@
         <v>5.3584E-2</v>
       </c>
       <c r="F90" s="2">
-        <v>3.1977999999999999E-2</v>
+        <v>3.1976999999999998E-2</v>
       </c>
       <c r="G90" s="4">
-        <v>4.3000000000000002E-5</v>
+        <v>5.1999999999999997E-5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="35" t="s">
+      <c r="C92" s="34"/>
+      <c r="D92" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35" t="s">
+      <c r="E92" s="23"/>
+      <c r="F92" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G92" s="36"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="45"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -12151,10 +12859,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="41"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="13">
         <v>3166.8412699999999</v>
       </c>
@@ -12170,10 +12878,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="41"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -12189,10 +12897,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="41"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -12210,10 +12918,10 @@
       <c r="A97" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="41"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="13">
         <v>3736.3650790000002</v>
       </c>
@@ -12229,10 +12937,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="41"/>
+      <c r="C98" s="42"/>
       <c r="D98" s="13">
         <v>1625.1587300000001</v>
       </c>
@@ -12248,10 +12956,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
-      <c r="B99" s="40" t="s">
+      <c r="B99" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="41"/>
+      <c r="C99" s="42"/>
       <c r="D99" s="13">
         <v>490.26984099999999</v>
       </c>
@@ -12267,10 +12975,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="41"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="13">
         <v>80.555555999999996</v>
       </c>
@@ -12288,10 +12996,10 @@
       <c r="A101" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="41"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -12307,10 +13015,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="41"/>
+      <c r="C102" s="42"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -12326,10 +13034,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="41"/>
+      <c r="C103" s="42"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -12345,10 +13053,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="41"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="13">
         <v>10.857143000000001</v>
       </c>
@@ -12366,10 +13074,10 @@
       <c r="A105" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="41"/>
+      <c r="C105" s="42"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -12385,10 +13093,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="41"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="13">
         <v>0.114798</v>
       </c>
@@ -12404,10 +13112,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="41"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -12423,10 +13131,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="41"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="13">
         <v>1.258316</v>
       </c>
@@ -12444,10 +13152,10 @@
       <c r="A109" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="41"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="13">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -12463,10 +13171,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="41"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -12482,10 +13190,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="41"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -12501,10 +13209,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="43"/>
+      <c r="C112" s="46"/>
       <c r="D112" s="15">
         <v>7.9509999999999997E-3</v>
       </c>
@@ -12519,15 +13227,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="32"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="30"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
@@ -12539,14 +13247,14 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="34"/>
-      <c r="F114" s="35" t="s">
+      <c r="E114" s="32"/>
+      <c r="F114" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="36"/>
+      <c r="G114" s="23"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -12565,10 +13273,10 @@
         <v>1.0993710000000001</v>
       </c>
       <c r="F115" s="7">
-        <v>17.142856999999999</v>
+        <v>21.317460000000001</v>
       </c>
       <c r="G115" s="6">
-        <v>1.328694</v>
+        <v>1.4166129999999999</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -12584,10 +13292,10 @@
         <v>23.454781000000001</v>
       </c>
       <c r="F116" s="3">
-        <v>6775.539683</v>
+        <v>7178</v>
       </c>
       <c r="G116" s="5">
-        <v>22.902685000000002</v>
+        <v>40.083644</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -12605,10 +13313,10 @@
         <v>0.848302</v>
       </c>
       <c r="F117" s="3">
-        <v>9.9206350000000008</v>
+        <v>9.4444440000000007</v>
       </c>
       <c r="G117" s="5">
-        <v>0.82579899999999995</v>
+        <v>1.072106</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -12624,10 +13332,10 @@
         <v>24.314059</v>
       </c>
       <c r="F118" s="3">
-        <v>4872.6031750000002</v>
+        <v>4568.6666670000004</v>
       </c>
       <c r="G118" s="5">
-        <v>22.30499</v>
+        <v>30.999828999999998</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -12645,10 +13353,10 @@
         <v>0.63118200000000002</v>
       </c>
       <c r="F119" s="3">
-        <v>5.6666670000000003</v>
+        <v>6.7619049999999996</v>
       </c>
       <c r="G119" s="5">
-        <v>0.76227999999999996</v>
+        <v>0.80625800000000003</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -12664,10 +13372,10 @@
         <v>16.525158999999999</v>
       </c>
       <c r="F120" s="3">
-        <v>2161.2698409999998</v>
+        <v>2128.3492059999999</v>
       </c>
       <c r="G120" s="5">
-        <v>16.241876000000001</v>
+        <v>24.449608999999999</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -12685,10 +13393,10 @@
         <v>0.336086</v>
       </c>
       <c r="F121" s="3">
-        <v>1.9206350000000001</v>
+        <v>1.7619050000000001</v>
       </c>
       <c r="G121" s="5">
-        <v>0.39511400000000002</v>
+        <v>0.46726899999999999</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -12704,10 +13412,10 @@
         <v>18.173718000000001</v>
       </c>
       <c r="F122" s="3">
-        <v>612.88888899999995</v>
+        <v>542.61904800000002</v>
       </c>
       <c r="G122" s="5">
-        <v>19.312753000000001</v>
+        <v>42.882693000000003</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -12727,10 +13435,10 @@
         <v>0.93163099999999999</v>
       </c>
       <c r="F123" s="3">
-        <v>14.666667</v>
+        <v>14.888889000000001</v>
       </c>
       <c r="G123" s="5">
-        <v>1.0569440000000001</v>
+        <v>1.0453730000000001</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -12746,10 +13454,10 @@
         <v>22.595371</v>
       </c>
       <c r="F124" s="3">
-        <v>5878.6984130000001</v>
+        <v>5041.0476189999999</v>
       </c>
       <c r="G124" s="5">
-        <v>32.346682999999999</v>
+        <v>37.482349999999997</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -12767,10 +13475,10 @@
         <v>0.72583399999999998</v>
       </c>
       <c r="F125" s="3">
-        <v>8.3174600000000005</v>
+        <v>7.984127</v>
       </c>
       <c r="G125" s="5">
-        <v>0.62320699999999996</v>
+        <v>0.74667600000000001</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -12786,10 +13494,10 @@
         <v>22.285408</v>
       </c>
       <c r="F126" s="3">
-        <v>4030.1428569999998</v>
+        <v>3754.1746029999999</v>
       </c>
       <c r="G126" s="5">
-        <v>28.684286</v>
+        <v>30.266378</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -12807,10 +13515,10 @@
         <v>0.51283100000000004</v>
       </c>
       <c r="F127" s="3">
-        <v>4.6031750000000002</v>
+        <v>4.8095239999999997</v>
       </c>
       <c r="G127" s="5">
-        <v>0.54381199999999996</v>
+        <v>0.57190200000000002</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -12826,10 +13534,10 @@
         <v>13.490553999999999</v>
       </c>
       <c r="F128" s="3">
-        <v>1755.0317460000001</v>
+        <v>1569.8412699999999</v>
       </c>
       <c r="G128" s="5">
-        <v>15.617444000000001</v>
+        <v>17.392619</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -12847,10 +13555,10 @@
         <v>0.27085900000000002</v>
       </c>
       <c r="F129" s="3">
-        <v>1.6507940000000001</v>
+        <v>1.4761899999999999</v>
       </c>
       <c r="G129" s="5">
-        <v>0.29019299999999998</v>
+        <v>0.289128</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -12866,10 +13574,10 @@
         <v>16.075111</v>
       </c>
       <c r="F130" s="3">
-        <v>491.71428600000002</v>
+        <v>473.22222199999999</v>
       </c>
       <c r="G130" s="5">
-        <v>13.306381999999999</v>
+        <v>34.713512000000001</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -12889,10 +13597,10 @@
         <v>0.39544299999999999</v>
       </c>
       <c r="F131" s="3">
-        <v>2.4444439999999998</v>
+        <v>6.3809519999999997</v>
       </c>
       <c r="G131" s="5">
-        <v>0.42378700000000002</v>
+        <v>0.82595600000000002</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -12908,10 +13616,10 @@
         <v>8.9333600000000004</v>
       </c>
       <c r="F132" s="3">
-        <v>882.41269799999998</v>
+        <v>2120.7619049999998</v>
       </c>
       <c r="G132" s="5">
-        <v>9.0580879999999997</v>
+        <v>16.595443</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -12929,10 +13637,10 @@
         <v>0.30444700000000002</v>
       </c>
       <c r="F133" s="3">
-        <v>1.587302</v>
+        <v>1.4603170000000001</v>
       </c>
       <c r="G133" s="5">
-        <v>0.33738800000000002</v>
+        <v>0.438143</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -12948,10 +13656,10 @@
         <v>6.7276610000000003</v>
       </c>
       <c r="F134" s="3">
-        <v>832.34920599999998</v>
+        <v>804.38095199999998</v>
       </c>
       <c r="G134" s="5">
-        <v>9.6735380000000006</v>
+        <v>8.9445259999999998</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -12969,10 +13677,10 @@
         <v>0.23197799999999999</v>
       </c>
       <c r="F135" s="3">
-        <v>1.0476190000000001</v>
+        <v>1.9523809999999999</v>
       </c>
       <c r="G135" s="5">
-        <v>0.32438299999999998</v>
+        <v>0.45778999999999997</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -12988,10 +13696,10 @@
         <v>4.5024170000000003</v>
       </c>
       <c r="F136" s="3">
-        <v>400.46031699999997</v>
+        <v>554.031746</v>
       </c>
       <c r="G136" s="5">
-        <v>4.6547879999999999</v>
+        <v>9.0717809999999997</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -13012,7 +13720,7 @@
         <v>0.269841</v>
       </c>
       <c r="G137" s="5">
-        <v>0.151422</v>
+        <v>0.19300400000000001</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -13028,10 +13736,10 @@
         <v>3.5602049999999998</v>
       </c>
       <c r="F138" s="3">
-        <v>119.825397</v>
+        <v>68.476190000000003</v>
       </c>
       <c r="G138" s="5">
-        <v>4.2264530000000002</v>
+        <v>5.5557220000000003</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -13049,7 +13757,7 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="3">
-        <v>14.102563999999999</v>
+        <v>29.970545000000001</v>
       </c>
       <c r="G139" s="5"/>
     </row>
@@ -13064,7 +13772,7 @@
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="3">
-        <v>13.052702999999999</v>
+        <v>29.617584000000001</v>
       </c>
       <c r="G140" s="5"/>
     </row>
@@ -13081,7 +13789,7 @@
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="3">
-        <v>16.271722</v>
+        <v>15.371900999999999</v>
       </c>
       <c r="G141" s="5"/>
     </row>
@@ -13096,7 +13804,7 @@
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="3">
-        <v>17.128761000000001</v>
+        <v>17.645303999999999</v>
       </c>
       <c r="G142" s="5"/>
     </row>
@@ -13113,7 +13821,7 @@
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="3">
-        <v>18.384401</v>
+        <v>28.873239000000002</v>
       </c>
       <c r="G143" s="5"/>
     </row>
@@ -13128,7 +13836,7 @@
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="3">
-        <v>18.586051999999999</v>
+        <v>26.084781</v>
       </c>
       <c r="G144" s="5"/>
     </row>
@@ -13145,7 +13853,7 @@
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="3">
-        <v>14.634145999999999</v>
+        <v>15.044248</v>
       </c>
       <c r="G145" s="5"/>
     </row>
@@ -13160,7 +13868,7 @@
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="3">
-        <v>19.563272000000001</v>
+        <v>12.637568999999999</v>
       </c>
       <c r="G146" s="5"/>
     </row>
@@ -13177,48 +13885,48 @@
         <v>1.073E-3</v>
       </c>
       <c r="F147" s="2">
-        <v>2051.702366</v>
+        <v>2051.6948819999998</v>
       </c>
       <c r="G147" s="4">
         <v>1.093E-3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
+      <c r="A148" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="32"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="30"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="25" t="s">
+      <c r="B149" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="26"/>
-      <c r="D149" s="33" t="s">
+      <c r="C149" s="34"/>
+      <c r="D149" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="34"/>
-      <c r="F149" s="35" t="s">
+      <c r="E149" s="32"/>
+      <c r="F149" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G149" s="36"/>
+      <c r="G149" s="23"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="44" t="s">
+      <c r="B150" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="45"/>
+      <c r="C150" s="44"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -13234,10 +13942,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
-      <c r="B151" s="40" t="s">
+      <c r="B151" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="41"/>
+      <c r="C151" s="42"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -13253,10 +13961,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
-      <c r="B152" s="40" t="s">
+      <c r="B152" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="41"/>
+      <c r="C152" s="42"/>
       <c r="D152" s="13">
         <v>1290.619048</v>
       </c>
@@ -13272,10 +13980,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
-      <c r="B153" s="40" t="s">
+      <c r="B153" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="41"/>
+      <c r="C153" s="42"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -13293,10 +14001,10 @@
       <c r="A154" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="40" t="s">
+      <c r="B154" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="41"/>
+      <c r="C154" s="42"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -13312,10 +14020,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
-      <c r="B155" s="40" t="s">
+      <c r="B155" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="41"/>
+      <c r="C155" s="42"/>
       <c r="D155" s="13">
         <v>33.031745999999998</v>
       </c>
@@ -13331,10 +14039,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
-      <c r="B156" s="40" t="s">
+      <c r="B156" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="41"/>
+      <c r="C156" s="42"/>
       <c r="D156" s="13">
         <v>14.238095</v>
       </c>
@@ -13350,10 +14058,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="41"/>
+      <c r="C157" s="42"/>
       <c r="D157" s="13">
         <v>17.015872999999999</v>
       </c>
@@ -13371,10 +14079,10 @@
       <c r="A158" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="40" t="s">
+      <c r="B158" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="41"/>
+      <c r="C158" s="42"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -13390,10 +14098,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
-      <c r="B159" s="40" t="s">
+      <c r="B159" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="41"/>
+      <c r="C159" s="42"/>
       <c r="D159" s="13">
         <v>744.15872999999999</v>
       </c>
@@ -13409,10 +14117,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
-      <c r="B160" s="40" t="s">
+      <c r="B160" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="41"/>
+      <c r="C160" s="42"/>
       <c r="D160" s="13">
         <v>334.46031699999997</v>
       </c>
@@ -13428,10 +14136,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
-      <c r="B161" s="40" t="s">
+      <c r="B161" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="41"/>
+      <c r="C161" s="42"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -13449,10 +14157,10 @@
       <c r="A162" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="40" t="s">
+      <c r="B162" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="41"/>
+      <c r="C162" s="42"/>
       <c r="D162" s="13">
         <v>3057.2857140000001</v>
       </c>
@@ -13468,10 +14176,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
-      <c r="B163" s="40" t="s">
+      <c r="B163" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="41"/>
+      <c r="C163" s="42"/>
       <c r="D163" s="13">
         <v>2099.3968249999998</v>
       </c>
@@ -13487,10 +14195,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
-      <c r="B164" s="40" t="s">
+      <c r="B164" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="41"/>
+      <c r="C164" s="42"/>
       <c r="D164" s="13">
         <v>941.90476200000001</v>
       </c>
@@ -13506,10 +14214,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
-      <c r="B165" s="40" t="s">
+      <c r="B165" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="41"/>
+      <c r="C165" s="42"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -13544,6 +14252,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="F92:G92"/>
     <mergeCell ref="D114:E114"/>
@@ -13560,40 +14302,6 @@
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13601,10 +14309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9821191-4258-4FB4-B331-453D338A5B6C}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13613,29 +14321,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -13654,10 +14362,10 @@
         <v>7.630952107489156</v>
       </c>
       <c r="F3">
-        <v>936.23477952188659</v>
+        <v>944.32929397655766</v>
       </c>
       <c r="G3">
-        <v>7.0675911889444096</v>
+        <v>7.0585068663324284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -13677,10 +14385,10 @@
         <v>5.7308699865973507</v>
       </c>
       <c r="F4">
-        <v>469.89960315248118</v>
+        <v>469.23505964415637</v>
       </c>
       <c r="G4">
-        <v>5.3965295818111212</v>
+        <v>5.0925377433771457</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -13700,10 +14408,10 @@
         <v>3.4871637831889681</v>
       </c>
       <c r="F5">
-        <v>280.51656501511553</v>
+        <v>285.95457992075774</v>
       </c>
       <c r="G5">
-        <v>4.2305619237503134</v>
+        <v>3.6673754581149582</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -13723,36 +14431,244 @@
         <v>2.7540916448049564</v>
       </c>
       <c r="F6">
-        <v>41.344331358462959</v>
+        <v>42.714132855098114</v>
       </c>
       <c r="G6">
-        <v>1.6234341812147823</v>
+        <v>1.9188976037230003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>(('Identical VS Compatible'!D3*'Identical VS Compatible'!D11)+('Identical VS Compatible'!D4*'Identical VS Compatible'!D12))/('Identical VS Compatible'!D3+'Identical VS Compatible'!D4)</f>
+        <v>939.80163600548804</v>
+      </c>
+      <c r="C8">
+        <f>(('Identical VS Compatible'!E3*'Identical VS Compatible'!E11)+('Identical VS Compatible'!E4*'Identical VS Compatible'!E12))/('Identical VS Compatible'!E3+'Identical VS Compatible'!E4)</f>
+        <v>8.0105582707369329</v>
+      </c>
+      <c r="D8">
+        <f>(('Identical VS Compatible'!F3*'Identical VS Compatible'!F11)+('Identical VS Compatible'!F4*'Identical VS Compatible'!F12))/('Identical VS Compatible'!F3+'Identical VS Compatible'!F4)</f>
+        <v>935.3228189774984</v>
+      </c>
+      <c r="E8">
+        <f>(('Identical VS Compatible'!G3*'Identical VS Compatible'!G11)+('Identical VS Compatible'!G4*'Identical VS Compatible'!G12))/('Identical VS Compatible'!G3+'Identical VS Compatible'!G4)</f>
+        <v>7.630952107489156</v>
+      </c>
+      <c r="F8">
+        <f>(('Identical VS Compatible'!H3*'Identical VS Compatible'!H11)+('Identical VS Compatible'!H4*'Identical VS Compatible'!H12))/('Identical VS Compatible'!H3+'Identical VS Compatible'!H4)</f>
+        <v>944.32929397655766</v>
+      </c>
+      <c r="G8">
+        <f>(('Identical VS Compatible'!I3*'Identical VS Compatible'!I11)+('Identical VS Compatible'!I4*'Identical VS Compatible'!I12))/('Identical VS Compatible'!I3+'Identical VS Compatible'!I4)</f>
+        <v>7.0585068663324284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f>(('Identical VS Compatible'!D4*'Identical VS Compatible'!D12)+('Identical VS Compatible'!D5*'Identical VS Compatible'!D13))/('Identical VS Compatible'!D4+'Identical VS Compatible'!D5)</f>
+        <v>940.32015005201038</v>
+      </c>
+      <c r="C9">
+        <f>(('Identical VS Compatible'!E4*'Identical VS Compatible'!E12)+('Identical VS Compatible'!E5*'Identical VS Compatible'!E13))/('Identical VS Compatible'!E4+'Identical VS Compatible'!E5)</f>
+        <v>8.1257648650914636</v>
+      </c>
+      <c r="D9">
+        <f>(('Identical VS Compatible'!F4*'Identical VS Compatible'!F12)+('Identical VS Compatible'!F5*'Identical VS Compatible'!F13))/('Identical VS Compatible'!F4+'Identical VS Compatible'!F5)</f>
+        <v>935.84767882882079</v>
+      </c>
+      <c r="E9">
+        <f>(('Identical VS Compatible'!G4*'Identical VS Compatible'!G12)+('Identical VS Compatible'!G5*'Identical VS Compatible'!G13))/('Identical VS Compatible'!G4+'Identical VS Compatible'!G5)</f>
+        <v>7.7062890679703147</v>
+      </c>
+      <c r="F9">
+        <f>(('Identical VS Compatible'!H4*'Identical VS Compatible'!H12)+('Identical VS Compatible'!H5*'Identical VS Compatible'!H13))/('Identical VS Compatible'!H4+'Identical VS Compatible'!H5)</f>
+        <v>945.14432531451382</v>
+      </c>
+      <c r="G9">
+        <f>(('Identical VS Compatible'!I4*'Identical VS Compatible'!I12)+('Identical VS Compatible'!I5*'Identical VS Compatible'!I13))/('Identical VS Compatible'!I4+'Identical VS Compatible'!I5)</f>
+        <v>7.1450994457586043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>(('Identical VS Compatible'!D5*'Identical VS Compatible'!D13)+('Identical VS Compatible'!D6*'Identical VS Compatible'!D14))/('Identical VS Compatible'!D5+'Identical VS Compatible'!D6)</f>
+        <v>470.50130689965761</v>
+      </c>
+      <c r="C10">
+        <f>(('Identical VS Compatible'!E5*'Identical VS Compatible'!E13)+('Identical VS Compatible'!E6*'Identical VS Compatible'!E14))/('Identical VS Compatible'!E5+'Identical VS Compatible'!E6)</f>
+        <v>5.3684716861451385</v>
+      </c>
+      <c r="D10">
+        <f>(('Identical VS Compatible'!F5*'Identical VS Compatible'!F13)+('Identical VS Compatible'!F6*'Identical VS Compatible'!F14))/('Identical VS Compatible'!F5+'Identical VS Compatible'!F6)</f>
+        <v>474.51426642621828</v>
+      </c>
+      <c r="E10">
+        <f>(('Identical VS Compatible'!G5*'Identical VS Compatible'!G13)+('Identical VS Compatible'!G6*'Identical VS Compatible'!G14))/('Identical VS Compatible'!G5+'Identical VS Compatible'!G6)</f>
+        <v>5.7308699865973507</v>
+      </c>
+      <c r="F10">
+        <f>(('Identical VS Compatible'!H5*'Identical VS Compatible'!H13)+('Identical VS Compatible'!H6*'Identical VS Compatible'!H14))/('Identical VS Compatible'!H5+'Identical VS Compatible'!H6)</f>
+        <v>469.23505964415637</v>
+      </c>
+      <c r="G10">
+        <f>(('Identical VS Compatible'!I5*'Identical VS Compatible'!I13)+('Identical VS Compatible'!I6*'Identical VS Compatible'!I14))/('Identical VS Compatible'!I5+'Identical VS Compatible'!I6)</f>
+        <v>5.0925377433771457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>(('Identical VS Compatible'!D6*'Identical VS Compatible'!D14)+('Identical VS Compatible'!D7*'Identical VS Compatible'!D15))/('Identical VS Compatible'!D6+'Identical VS Compatible'!D7)</f>
+        <v>470.69156891632485</v>
+      </c>
+      <c r="C11">
+        <f>(('Identical VS Compatible'!E6*'Identical VS Compatible'!E14)+('Identical VS Compatible'!E7*'Identical VS Compatible'!E15))/('Identical VS Compatible'!E6+'Identical VS Compatible'!E7)</f>
+        <v>5.386350359065764</v>
+      </c>
+      <c r="D11">
+        <f>(('Identical VS Compatible'!F6*'Identical VS Compatible'!F14)+('Identical VS Compatible'!F7*'Identical VS Compatible'!F15))/('Identical VS Compatible'!F6+'Identical VS Compatible'!F7)</f>
+        <v>474.74505551213849</v>
+      </c>
+      <c r="E11">
+        <f>(('Identical VS Compatible'!G6*'Identical VS Compatible'!G14)+('Identical VS Compatible'!G7*'Identical VS Compatible'!G15))/('Identical VS Compatible'!G6+'Identical VS Compatible'!G7)</f>
+        <v>5.783914714663231</v>
+      </c>
+      <c r="F11">
+        <f>(('Identical VS Compatible'!H6*'Identical VS Compatible'!H14)+('Identical VS Compatible'!H7*'Identical VS Compatible'!H15))/('Identical VS Compatible'!H6+'Identical VS Compatible'!H7)</f>
+        <v>469.38458120749641</v>
+      </c>
+      <c r="G11">
+        <f>(('Identical VS Compatible'!I6*'Identical VS Compatible'!I14)+('Identical VS Compatible'!I7*'Identical VS Compatible'!I15))/('Identical VS Compatible'!I6+'Identical VS Compatible'!I7)</f>
+        <v>5.1455363228171116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>(('Identical VS Compatible'!D7*'Identical VS Compatible'!D15)+('Identical VS Compatible'!D8*'Identical VS Compatible'!D16))/('Identical VS Compatible'!D7+'Identical VS Compatible'!D8)</f>
+        <v>284.77700510229806</v>
+      </c>
+      <c r="C12">
+        <f>(('Identical VS Compatible'!E7*'Identical VS Compatible'!E15)+('Identical VS Compatible'!E8*'Identical VS Compatible'!E16))/('Identical VS Compatible'!E7+'Identical VS Compatible'!E8)</f>
+        <v>4.1226977839983494</v>
+      </c>
+      <c r="D12">
+        <f>(('Identical VS Compatible'!F7*'Identical VS Compatible'!F15)+('Identical VS Compatible'!F8*'Identical VS Compatible'!F16))/('Identical VS Compatible'!F7+'Identical VS Compatible'!F8)</f>
+        <v>282.87897369351282</v>
+      </c>
+      <c r="E12">
+        <f>(('Identical VS Compatible'!G7*'Identical VS Compatible'!G15)+('Identical VS Compatible'!G8*'Identical VS Compatible'!G16))/('Identical VS Compatible'!G7+'Identical VS Compatible'!G8)</f>
+        <v>3.4871637831889681</v>
+      </c>
+      <c r="F12">
+        <f>(('Identical VS Compatible'!H7*'Identical VS Compatible'!H15)+('Identical VS Compatible'!H8*'Identical VS Compatible'!H16))/('Identical VS Compatible'!H7+'Identical VS Compatible'!H8)</f>
+        <v>285.95457992075774</v>
+      </c>
+      <c r="G12">
+        <f>(('Identical VS Compatible'!I7*'Identical VS Compatible'!I15)+('Identical VS Compatible'!I8*'Identical VS Compatible'!I16))/('Identical VS Compatible'!I7+'Identical VS Compatible'!I8)</f>
+        <v>3.6673754581149582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>(('Identical VS Compatible'!D8*'Identical VS Compatible'!D16)+('Identical VS Compatible'!D9*'Identical VS Compatible'!D17))/('Identical VS Compatible'!D8+'Identical VS Compatible'!D9)</f>
+        <v>285.03436494456429</v>
+      </c>
+      <c r="C13">
+        <f>(('Identical VS Compatible'!E8*'Identical VS Compatible'!E16)+('Identical VS Compatible'!E9*'Identical VS Compatible'!E17))/('Identical VS Compatible'!E8+'Identical VS Compatible'!E9)</f>
+        <v>4.1898571358474426</v>
+      </c>
+      <c r="D13">
+        <f>(('Identical VS Compatible'!F8*'Identical VS Compatible'!F16)+('Identical VS Compatible'!F9*'Identical VS Compatible'!F17))/('Identical VS Compatible'!F8+'Identical VS Compatible'!F9)</f>
+        <v>283.14061690544054</v>
+      </c>
+      <c r="E13">
+        <f>(('Identical VS Compatible'!G8*'Identical VS Compatible'!G16)+('Identical VS Compatible'!G9*'Identical VS Compatible'!G17))/('Identical VS Compatible'!G8+'Identical VS Compatible'!G9)</f>
+        <v>3.544267797356091</v>
+      </c>
+      <c r="F13">
+        <f>(('Identical VS Compatible'!H8*'Identical VS Compatible'!H16)+('Identical VS Compatible'!H9*'Identical VS Compatible'!H17))/('Identical VS Compatible'!H8+'Identical VS Compatible'!H9)</f>
+        <v>286.30491495896484</v>
+      </c>
+      <c r="G13">
+        <f>(('Identical VS Compatible'!I8*'Identical VS Compatible'!I16)+('Identical VS Compatible'!I9*'Identical VS Compatible'!I17))/('Identical VS Compatible'!I8+'Identical VS Compatible'!I9)</f>
+        <v>3.7323541494816261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>(('Identical VS Compatible'!D9*'Identical VS Compatible'!D17)+('Identical VS Compatible'!D10*'Identical VS Compatible'!D18))/('Identical VS Compatible'!D9+'Identical VS Compatible'!D10)</f>
+        <v>41.023451379043287</v>
+      </c>
+      <c r="C14">
+        <f>(('Identical VS Compatible'!E9*'Identical VS Compatible'!E17)+('Identical VS Compatible'!E10*'Identical VS Compatible'!E18))/('Identical VS Compatible'!E9+'Identical VS Compatible'!E10)</f>
+        <v>1.4054103919591296</v>
+      </c>
+      <c r="D14">
+        <f>(('Identical VS Compatible'!F9*'Identical VS Compatible'!F17)+('Identical VS Compatible'!F10*'Identical VS Compatible'!F18))/('Identical VS Compatible'!F9+'Identical VS Compatible'!F10)</f>
+        <v>41.009642456273966</v>
+      </c>
+      <c r="E14">
+        <f>(('Identical VS Compatible'!G9*'Identical VS Compatible'!G17)+('Identical VS Compatible'!G10*'Identical VS Compatible'!G18))/('Identical VS Compatible'!G9+'Identical VS Compatible'!G10)</f>
+        <v>2.7540916448049564</v>
+      </c>
+      <c r="F14">
+        <f>(('Identical VS Compatible'!H9*'Identical VS Compatible'!H17)+('Identical VS Compatible'!H10*'Identical VS Compatible'!H18))/('Identical VS Compatible'!H9+'Identical VS Compatible'!H10)</f>
+        <v>42.714132855098114</v>
+      </c>
+      <c r="G14">
+        <f>(('Identical VS Compatible'!I9*'Identical VS Compatible'!I17)+('Identical VS Compatible'!I10*'Identical VS Compatible'!I18))/('Identical VS Compatible'!I9+'Identical VS Compatible'!I10)</f>
+        <v>1.9188976037230003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f>(('Identical VS Compatible'!D10*'Identical VS Compatible'!D18)+('Identical VS Compatible'!D11*'Identical VS Compatible'!D19))/('Identical VS Compatible'!D10+'Identical VS Compatible'!D11)</f>
+        <v>41.095238000000009</v>
+      </c>
+      <c r="C15">
+        <f>(('Identical VS Compatible'!E10*'Identical VS Compatible'!E18)+('Identical VS Compatible'!E11*'Identical VS Compatible'!E19))/('Identical VS Compatible'!E10+'Identical VS Compatible'!E11)</f>
+        <v>1.45852</v>
+      </c>
+      <c r="D15">
+        <f>(('Identical VS Compatible'!F10*'Identical VS Compatible'!F18)+('Identical VS Compatible'!F11*'Identical VS Compatible'!F19))/('Identical VS Compatible'!F10+'Identical VS Compatible'!F11)</f>
+        <v>41.079365000000003</v>
+      </c>
+      <c r="E15">
+        <f>(('Identical VS Compatible'!G10*'Identical VS Compatible'!G18)+('Identical VS Compatible'!G11*'Identical VS Compatible'!G19))/('Identical VS Compatible'!G10+'Identical VS Compatible'!G11)</f>
+        <v>2.7796419999999999</v>
+      </c>
+      <c r="F15">
+        <f>(('Identical VS Compatible'!H10*'Identical VS Compatible'!H18)+('Identical VS Compatible'!H11*'Identical VS Compatible'!H19))/('Identical VS Compatible'!H10+'Identical VS Compatible'!H11)</f>
+        <v>42.793650999999997</v>
+      </c>
+      <c r="G15">
+        <f>(('Identical VS Compatible'!I10*'Identical VS Compatible'!I18)+('Identical VS Compatible'!I11*'Identical VS Compatible'!I19))/('Identical VS Compatible'!I10+'Identical VS Compatible'!I11)</f>
+        <v>2.0189119999999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -13771,10 +14687,10 @@
         <v>401.59171339857852</v>
       </c>
       <c r="F23">
-        <v>3227.7138721996207</v>
+        <v>3370.0043227310794</v>
       </c>
       <c r="G23">
-        <v>442.54237766580422</v>
+        <v>462.20158659804559</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -13794,10 +14710,10 @@
         <v>385.56656260653665</v>
       </c>
       <c r="F24">
-        <v>3714.2195815564719</v>
+        <v>3257.0582027419064</v>
       </c>
       <c r="G24">
-        <v>521.84444679959631</v>
+        <v>450.61457955763677</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -13817,10 +14733,10 @@
         <v>400.48043856440773</v>
       </c>
       <c r="F25">
-        <v>3735.1323484223017</v>
+        <v>3339.8480593291247</v>
       </c>
       <c r="G25">
-        <v>526.23655046168426</v>
+        <v>464.10007964254777</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -13840,36 +14756,244 @@
         <v>2.5286342658749636</v>
       </c>
       <c r="F26">
-        <v>3585.1015070844855</v>
+        <v>2907.1316406144851</v>
       </c>
       <c r="G26">
-        <v>505.77778159122801</v>
+        <v>429.28150677431893</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f>(('Identical VS Compatible'!D3*'Identical VS Compatible'!D51)+('Identical VS Compatible'!D4*'Identical VS Compatible'!D52))/('Identical VS Compatible'!D3+'Identical VS Compatible'!D4)</f>
+        <v>1076.7071832970232</v>
+      </c>
+      <c r="C28">
+        <f>(('Identical VS Compatible'!E3*'Identical VS Compatible'!E51)+('Identical VS Compatible'!E4*'Identical VS Compatible'!E52))/('Identical VS Compatible'!E3+'Identical VS Compatible'!E4)</f>
+        <v>148.59237692274394</v>
+      </c>
+      <c r="D28">
+        <f>(('Identical VS Compatible'!F3*'Identical VS Compatible'!F51)+('Identical VS Compatible'!F4*'Identical VS Compatible'!F52))/('Identical VS Compatible'!F3+'Identical VS Compatible'!F4)</f>
+        <v>2906.1417575008036</v>
+      </c>
+      <c r="E28">
+        <f>(('Identical VS Compatible'!G3*'Identical VS Compatible'!G51)+('Identical VS Compatible'!G4*'Identical VS Compatible'!G52))/('Identical VS Compatible'!G3+'Identical VS Compatible'!G4)</f>
+        <v>401.59171339857852</v>
+      </c>
+      <c r="F28">
+        <f>(('Identical VS Compatible'!H3*'Identical VS Compatible'!H51)+('Identical VS Compatible'!H4*'Identical VS Compatible'!H52))/('Identical VS Compatible'!H3+'Identical VS Compatible'!H4)</f>
+        <v>3370.0043227310794</v>
+      </c>
+      <c r="G28">
+        <f>(('Identical VS Compatible'!I3*'Identical VS Compatible'!I51)+('Identical VS Compatible'!I4*'Identical VS Compatible'!I52))/('Identical VS Compatible'!I3+'Identical VS Compatible'!I4)</f>
+        <v>462.20158659804559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>(('Identical VS Compatible'!D4*'Identical VS Compatible'!D52)+('Identical VS Compatible'!D5*'Identical VS Compatible'!D53))/('Identical VS Compatible'!D4+'Identical VS Compatible'!D5)</f>
+        <v>1077.3012318463575</v>
+      </c>
+      <c r="C29">
+        <f>(('Identical VS Compatible'!E4*'Identical VS Compatible'!E52)+('Identical VS Compatible'!E5*'Identical VS Compatible'!E53))/('Identical VS Compatible'!E4+'Identical VS Compatible'!E5)</f>
+        <v>150.72940921359566</v>
+      </c>
+      <c r="D29">
+        <f>(('Identical VS Compatible'!F4*'Identical VS Compatible'!F52)+('Identical VS Compatible'!F5*'Identical VS Compatible'!F53))/('Identical VS Compatible'!F4+'Identical VS Compatible'!F5)</f>
+        <v>2907.7725496720363</v>
+      </c>
+      <c r="E29">
+        <f>(('Identical VS Compatible'!G4*'Identical VS Compatible'!G52)+('Identical VS Compatible'!G5*'Identical VS Compatible'!G53))/('Identical VS Compatible'!G4+'Identical VS Compatible'!G5)</f>
+        <v>405.55644789247964</v>
+      </c>
+      <c r="F29">
+        <f>(('Identical VS Compatible'!H4*'Identical VS Compatible'!H52)+('Identical VS Compatible'!H5*'Identical VS Compatible'!H53))/('Identical VS Compatible'!H4+'Identical VS Compatible'!H5)</f>
+        <v>3372.9129046734097</v>
+      </c>
+      <c r="G29">
+        <f>(('Identical VS Compatible'!I4*'Identical VS Compatible'!I52)+('Identical VS Compatible'!I5*'Identical VS Compatible'!I53))/('Identical VS Compatible'!I4+'Identical VS Compatible'!I5)</f>
+        <v>467.87179821026325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>(('Identical VS Compatible'!D5*'Identical VS Compatible'!D53)+('Identical VS Compatible'!D6*'Identical VS Compatible'!D54))/('Identical VS Compatible'!D5+'Identical VS Compatible'!D6)</f>
+        <v>1842.9977184130521</v>
+      </c>
+      <c r="C30">
+        <f>(('Identical VS Compatible'!E5*'Identical VS Compatible'!E53)+('Identical VS Compatible'!E6*'Identical VS Compatible'!E54))/('Identical VS Compatible'!E5+'Identical VS Compatible'!E6)</f>
+        <v>260.41029072814138</v>
+      </c>
+      <c r="D30">
+        <f>(('Identical VS Compatible'!F5*'Identical VS Compatible'!F53)+('Identical VS Compatible'!F6*'Identical VS Compatible'!F54))/('Identical VS Compatible'!F5+'Identical VS Compatible'!F6)</f>
+        <v>2752.9467982788406</v>
+      </c>
+      <c r="E30">
+        <f>(('Identical VS Compatible'!G5*'Identical VS Compatible'!G53)+('Identical VS Compatible'!G6*'Identical VS Compatible'!G54))/('Identical VS Compatible'!G5+'Identical VS Compatible'!G6)</f>
+        <v>385.56656260653665</v>
+      </c>
+      <c r="F30">
+        <f>(('Identical VS Compatible'!H5*'Identical VS Compatible'!H53)+('Identical VS Compatible'!H6*'Identical VS Compatible'!H54))/('Identical VS Compatible'!H5+'Identical VS Compatible'!H6)</f>
+        <v>3257.0582027419064</v>
+      </c>
+      <c r="G30">
+        <f>(('Identical VS Compatible'!I5*'Identical VS Compatible'!I53)+('Identical VS Compatible'!I6*'Identical VS Compatible'!I54))/('Identical VS Compatible'!I5+'Identical VS Compatible'!I6)</f>
+        <v>450.61457955763677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>(('Identical VS Compatible'!D6*'Identical VS Compatible'!D54)+('Identical VS Compatible'!D7*'Identical VS Compatible'!D55))/('Identical VS Compatible'!D6+'Identical VS Compatible'!D7)</f>
+        <v>1843.7429925658942</v>
+      </c>
+      <c r="C31">
+        <f>(('Identical VS Compatible'!E6*'Identical VS Compatible'!E54)+('Identical VS Compatible'!E7*'Identical VS Compatible'!E55))/('Identical VS Compatible'!E6+'Identical VS Compatible'!E7)</f>
+        <v>261.27753762544904</v>
+      </c>
+      <c r="D31">
+        <f>(('Identical VS Compatible'!F6*'Identical VS Compatible'!F54)+('Identical VS Compatible'!F7*'Identical VS Compatible'!F55))/('Identical VS Compatible'!F6+'Identical VS Compatible'!F7)</f>
+        <v>2754.2857465889656</v>
+      </c>
+      <c r="E31">
+        <f>(('Identical VS Compatible'!G6*'Identical VS Compatible'!G54)+('Identical VS Compatible'!G7*'Identical VS Compatible'!G55))/('Identical VS Compatible'!G6+'Identical VS Compatible'!G7)</f>
+        <v>389.13535294946735</v>
+      </c>
+      <c r="F31">
+        <f>(('Identical VS Compatible'!H6*'Identical VS Compatible'!H54)+('Identical VS Compatible'!H7*'Identical VS Compatible'!H55))/('Identical VS Compatible'!H6+'Identical VS Compatible'!H7)</f>
+        <v>3258.0960630303784</v>
+      </c>
+      <c r="G31">
+        <f>(('Identical VS Compatible'!I6*'Identical VS Compatible'!I54)+('Identical VS Compatible'!I7*'Identical VS Compatible'!I55))/('Identical VS Compatible'!I6+'Identical VS Compatible'!I7)</f>
+        <v>455.30417319345241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f>(('Identical VS Compatible'!D7*'Identical VS Compatible'!D55)+('Identical VS Compatible'!D8*'Identical VS Compatible'!D56))/('Identical VS Compatible'!D7+'Identical VS Compatible'!D8)</f>
+        <v>5171.480720277139</v>
+      </c>
+      <c r="C32">
+        <f>(('Identical VS Compatible'!E7*'Identical VS Compatible'!E55)+('Identical VS Compatible'!E8*'Identical VS Compatible'!E56))/('Identical VS Compatible'!E7+'Identical VS Compatible'!E8)</f>
+        <v>716.10680790004506</v>
+      </c>
+      <c r="D32">
+        <f>(('Identical VS Compatible'!F7*'Identical VS Compatible'!F55)+('Identical VS Compatible'!F8*'Identical VS Compatible'!F56))/('Identical VS Compatible'!F7+'Identical VS Compatible'!F8)</f>
+        <v>2857.8552886825091</v>
+      </c>
+      <c r="E32">
+        <f>(('Identical VS Compatible'!G7*'Identical VS Compatible'!G55)+('Identical VS Compatible'!G8*'Identical VS Compatible'!G56))/('Identical VS Compatible'!G7+'Identical VS Compatible'!G8)</f>
+        <v>400.48043856440773</v>
+      </c>
+      <c r="F32">
+        <f>(('Identical VS Compatible'!H7*'Identical VS Compatible'!H55)+('Identical VS Compatible'!H8*'Identical VS Compatible'!H56))/('Identical VS Compatible'!H7+'Identical VS Compatible'!H8)</f>
+        <v>3339.8480593291247</v>
+      </c>
+      <c r="G32">
+        <f>(('Identical VS Compatible'!I7*'Identical VS Compatible'!I55)+('Identical VS Compatible'!I8*'Identical VS Compatible'!I56))/('Identical VS Compatible'!I7+'Identical VS Compatible'!I8)</f>
+        <v>464.10007964254777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f>(('Identical VS Compatible'!D8*'Identical VS Compatible'!D56)+('Identical VS Compatible'!D9*'Identical VS Compatible'!D57))/('Identical VS Compatible'!D8+'Identical VS Compatible'!D9)</f>
+        <v>5176.1543120347751</v>
+      </c>
+      <c r="C33">
+        <f>(('Identical VS Compatible'!E8*'Identical VS Compatible'!E56)+('Identical VS Compatible'!E9*'Identical VS Compatible'!E57))/('Identical VS Compatible'!E8+'Identical VS Compatible'!E9)</f>
+        <v>727.77229293178402</v>
+      </c>
+      <c r="D33">
+        <f>(('Identical VS Compatible'!F8*'Identical VS Compatible'!F56)+('Identical VS Compatible'!F9*'Identical VS Compatible'!F57))/('Identical VS Compatible'!F8+'Identical VS Compatible'!F9)</f>
+        <v>2860.498604398741</v>
+      </c>
+      <c r="E33">
+        <f>(('Identical VS Compatible'!G8*'Identical VS Compatible'!G56)+('Identical VS Compatible'!G9*'Identical VS Compatible'!G57))/('Identical VS Compatible'!G8+'Identical VS Compatible'!G9)</f>
+        <v>407.03850180986962</v>
+      </c>
+      <c r="F33">
+        <f>(('Identical VS Compatible'!H8*'Identical VS Compatible'!H56)+('Identical VS Compatible'!H9*'Identical VS Compatible'!H57))/('Identical VS Compatible'!H8+'Identical VS Compatible'!H9)</f>
+        <v>3343.9398483041264</v>
+      </c>
+      <c r="G33">
+        <f>(('Identical VS Compatible'!I8*'Identical VS Compatible'!I56)+('Identical VS Compatible'!I9*'Identical VS Compatible'!I57))/('Identical VS Compatible'!I8+'Identical VS Compatible'!I9)</f>
+        <v>472.32302168454959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f>(('Identical VS Compatible'!D9*'Identical VS Compatible'!D57)+('Identical VS Compatible'!D10*'Identical VS Compatible'!D58))/('Identical VS Compatible'!D9+'Identical VS Compatible'!D10)</f>
+        <v>6347.6195006500739</v>
+      </c>
+      <c r="C34">
+        <f>(('Identical VS Compatible'!E9*'Identical VS Compatible'!E57)+('Identical VS Compatible'!E10*'Identical VS Compatible'!E58))/('Identical VS Compatible'!E9+'Identical VS Compatible'!E10)</f>
+        <v>903.70974967351322</v>
+      </c>
+      <c r="D34">
+        <f>(('Identical VS Compatible'!F9*'Identical VS Compatible'!F57)+('Identical VS Compatible'!F10*'Identical VS Compatible'!F58))/('Identical VS Compatible'!F9+'Identical VS Compatible'!F10)</f>
+        <v>14.04505529919745</v>
+      </c>
+      <c r="E34">
+        <f>(('Identical VS Compatible'!G9*'Identical VS Compatible'!G57)+('Identical VS Compatible'!G10*'Identical VS Compatible'!G58))/('Identical VS Compatible'!G9+'Identical VS Compatible'!G10)</f>
+        <v>2.5286342658749636</v>
+      </c>
+      <c r="F34">
+        <f>(('Identical VS Compatible'!H9*'Identical VS Compatible'!H57)+('Identical VS Compatible'!H10*'Identical VS Compatible'!H58))/('Identical VS Compatible'!H9+'Identical VS Compatible'!H10)</f>
+        <v>2907.1316406144851</v>
+      </c>
+      <c r="G34">
+        <f>(('Identical VS Compatible'!I9*'Identical VS Compatible'!I57)+('Identical VS Compatible'!I10*'Identical VS Compatible'!I58))/('Identical VS Compatible'!I9+'Identical VS Compatible'!I10)</f>
+        <v>429.28150677431893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f>(('Identical VS Compatible'!D10*'Identical VS Compatible'!D58)+('Identical VS Compatible'!D11*'Identical VS Compatible'!D59))/('Identical VS Compatible'!D10+'Identical VS Compatible'!D11)</f>
+        <v>6358.727151000001</v>
+      </c>
+      <c r="C35">
+        <f>(('Identical VS Compatible'!E10*'Identical VS Compatible'!E58)+('Identical VS Compatible'!E11*'Identical VS Compatible'!E59))/('Identical VS Compatible'!E10+'Identical VS Compatible'!E11)</f>
+        <v>937.86039400000004</v>
+      </c>
+      <c r="D35">
+        <f>(('Identical VS Compatible'!F10*'Identical VS Compatible'!F58)+('Identical VS Compatible'!F11*'Identical VS Compatible'!F59))/('Identical VS Compatible'!F10+'Identical VS Compatible'!F11)</f>
+        <v>14.068934</v>
+      </c>
+      <c r="E35">
+        <f>(('Identical VS Compatible'!G10*'Identical VS Compatible'!G58)+('Identical VS Compatible'!G11*'Identical VS Compatible'!G59))/('Identical VS Compatible'!G10+'Identical VS Compatible'!G11)</f>
+        <v>2.5520930000000002</v>
+      </c>
+      <c r="F35">
+        <f>(('Identical VS Compatible'!H10*'Identical VS Compatible'!H58)+('Identical VS Compatible'!H11*'Identical VS Compatible'!H59))/('Identical VS Compatible'!H10+'Identical VS Compatible'!H11)</f>
+        <v>2912.5436599999998</v>
+      </c>
+      <c r="G35">
+        <f>(('Identical VS Compatible'!I10*'Identical VS Compatible'!I58)+('Identical VS Compatible'!I11*'Identical VS Compatible'!I59))/('Identical VS Compatible'!I10+'Identical VS Compatible'!I11)</f>
+        <v>451.65598399999999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46" t="s">
+      <c r="E41" s="47"/>
+      <c r="F41" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="46"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -13888,10 +15012,10 @@
         <v>7440.6964551433484</v>
       </c>
       <c r="F42">
-        <v>57374.141994532147</v>
+        <v>66402.088114415907</v>
       </c>
       <c r="G42">
-        <v>7868.5020065136532</v>
+        <v>9123.4876560775519</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -13911,10 +15035,10 @@
         <v>4967.7718648945865</v>
       </c>
       <c r="F43">
-        <v>50435.896195932219</v>
+        <v>40870.609749471114</v>
       </c>
       <c r="G43">
-        <v>7098.4004498524528</v>
+        <v>5661.4171048327935</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -13934,10 +15058,10 @@
         <v>2265.1977038623859</v>
       </c>
       <c r="F44">
-        <v>24083.651502009066</v>
+        <v>19662.54106124676</v>
       </c>
       <c r="G44">
-        <v>3361.4829168798046</v>
+        <v>2711.8710951705002</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -13957,14 +15081,227 @@
         <v>6.3794384507995554</v>
       </c>
       <c r="F45">
-        <v>6607.5744041926873</v>
+        <v>4375.5882666695334</v>
       </c>
       <c r="G45">
-        <v>934.34500360626589</v>
+        <v>633.14061183703359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>(('Identical VS Compatible'!D3*'Identical VS Compatible'!D75)+('Identical VS Compatible'!D4*'Identical VS Compatible'!D76))/('Identical VS Compatible'!D3+'Identical VS Compatible'!D4)</f>
+        <v>23009.140587302678</v>
+      </c>
+      <c r="C47">
+        <f>(('Identical VS Compatible'!E3*'Identical VS Compatible'!E75)+('Identical VS Compatible'!E4*'Identical VS Compatible'!E76))/('Identical VS Compatible'!E3+'Identical VS Compatible'!E4)</f>
+        <v>3175.7116661723321</v>
+      </c>
+      <c r="D47">
+        <f>(('Identical VS Compatible'!F3*'Identical VS Compatible'!F75)+('Identical VS Compatible'!F4*'Identical VS Compatible'!F76))/('Identical VS Compatible'!F3+'Identical VS Compatible'!F4)</f>
+        <v>53851.940062781767</v>
+      </c>
+      <c r="E47">
+        <f>(('Identical VS Compatible'!G3*'Identical VS Compatible'!G75)+('Identical VS Compatible'!G4*'Identical VS Compatible'!G76))/('Identical VS Compatible'!G3+'Identical VS Compatible'!G4)</f>
+        <v>7440.6964551433484</v>
+      </c>
+      <c r="F47">
+        <f>(('Identical VS Compatible'!H3*'Identical VS Compatible'!H75)+('Identical VS Compatible'!H4*'Identical VS Compatible'!H76))/('Identical VS Compatible'!H3+'Identical VS Compatible'!H4)</f>
+        <v>66402.088114415907</v>
+      </c>
+      <c r="G47">
+        <f>(('Identical VS Compatible'!I3*'Identical VS Compatible'!I75)+('Identical VS Compatible'!I4*'Identical VS Compatible'!I76))/('Identical VS Compatible'!I3+'Identical VS Compatible'!I4)</f>
+        <v>9123.4876560775519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f>(('Identical VS Compatible'!D4*'Identical VS Compatible'!D76)+('Identical VS Compatible'!D5*'Identical VS Compatible'!D77))/('Identical VS Compatible'!D4+'Identical VS Compatible'!D5)</f>
+        <v>23021.835354087019</v>
+      </c>
+      <c r="C48">
+        <f>(('Identical VS Compatible'!E4*'Identical VS Compatible'!E76)+('Identical VS Compatible'!E5*'Identical VS Compatible'!E77))/('Identical VS Compatible'!E4+'Identical VS Compatible'!E5)</f>
+        <v>3221.384253928542</v>
+      </c>
+      <c r="D48">
+        <f>(('Identical VS Compatible'!F4*'Identical VS Compatible'!F76)+('Identical VS Compatible'!F5*'Identical VS Compatible'!F77))/('Identical VS Compatible'!F4+'Identical VS Compatible'!F5)</f>
+        <v>53882.159277671242</v>
+      </c>
+      <c r="E48">
+        <f>(('Identical VS Compatible'!G4*'Identical VS Compatible'!G76)+('Identical VS Compatible'!G5*'Identical VS Compatible'!G77))/('Identical VS Compatible'!G4+'Identical VS Compatible'!G5)</f>
+        <v>7514.1551071101476</v>
+      </c>
+      <c r="F48">
+        <f>(('Identical VS Compatible'!H4*'Identical VS Compatible'!H76)+('Identical VS Compatible'!H5*'Identical VS Compatible'!H77))/('Identical VS Compatible'!H4+'Identical VS Compatible'!H5)</f>
+        <v>66459.398401266924</v>
+      </c>
+      <c r="G48">
+        <f>(('Identical VS Compatible'!I4*'Identical VS Compatible'!I76)+('Identical VS Compatible'!I5*'Identical VS Compatible'!I77))/('Identical VS Compatible'!I4+'Identical VS Compatible'!I5)</f>
+        <v>9235.4130737988107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f>(('Identical VS Compatible'!D5*'Identical VS Compatible'!D77)+('Identical VS Compatible'!D6*'Identical VS Compatible'!D78))/('Identical VS Compatible'!D5+'Identical VS Compatible'!D6)</f>
+        <v>24242.603566984733</v>
+      </c>
+      <c r="C49">
+        <f>(('Identical VS Compatible'!E5*'Identical VS Compatible'!E77)+('Identical VS Compatible'!E6*'Identical VS Compatible'!E78))/('Identical VS Compatible'!E5+'Identical VS Compatible'!E6)</f>
+        <v>3419.7708151332363</v>
+      </c>
+      <c r="D49">
+        <f>(('Identical VS Compatible'!F5*'Identical VS Compatible'!F77)+('Identical VS Compatible'!F6*'Identical VS Compatible'!F78))/('Identical VS Compatible'!F5+'Identical VS Compatible'!F6)</f>
+        <v>35494.52403432857</v>
+      </c>
+      <c r="E49">
+        <f>(('Identical VS Compatible'!G5*'Identical VS Compatible'!G77)+('Identical VS Compatible'!G6*'Identical VS Compatible'!G78))/('Identical VS Compatible'!G5+'Identical VS Compatible'!G6)</f>
+        <v>4967.7718648945865</v>
+      </c>
+      <c r="F49">
+        <f>(('Identical VS Compatible'!H5*'Identical VS Compatible'!H77)+('Identical VS Compatible'!H6*'Identical VS Compatible'!H78))/('Identical VS Compatible'!H5+'Identical VS Compatible'!H6)</f>
+        <v>40870.609749471114</v>
+      </c>
+      <c r="G49">
+        <f>(('Identical VS Compatible'!I5*'Identical VS Compatible'!I77)+('Identical VS Compatible'!I6*'Identical VS Compatible'!I78))/('Identical VS Compatible'!I5+'Identical VS Compatible'!I6)</f>
+        <v>5661.4171048327935</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <f>(('Identical VS Compatible'!D6*'Identical VS Compatible'!D78)+('Identical VS Compatible'!D7*'Identical VS Compatible'!D79))/('Identical VS Compatible'!D6+'Identical VS Compatible'!D7)</f>
+        <v>24252.406826987055</v>
+      </c>
+      <c r="C50">
+        <f>(('Identical VS Compatible'!E6*'Identical VS Compatible'!E78)+('Identical VS Compatible'!E7*'Identical VS Compatible'!E79))/('Identical VS Compatible'!E6+'Identical VS Compatible'!E7)</f>
+        <v>3431.1597108132805</v>
+      </c>
+      <c r="D50">
+        <f>(('Identical VS Compatible'!F6*'Identical VS Compatible'!F78)+('Identical VS Compatible'!F7*'Identical VS Compatible'!F79))/('Identical VS Compatible'!F6+'Identical VS Compatible'!F7)</f>
+        <v>35511.787474721103</v>
+      </c>
+      <c r="E50">
+        <f>(('Identical VS Compatible'!G6*'Identical VS Compatible'!G78)+('Identical VS Compatible'!G7*'Identical VS Compatible'!G79))/('Identical VS Compatible'!G6+'Identical VS Compatible'!G7)</f>
+        <v>5013.7533839432399</v>
+      </c>
+      <c r="F50">
+        <f>(('Identical VS Compatible'!H6*'Identical VS Compatible'!H78)+('Identical VS Compatible'!H7*'Identical VS Compatible'!H79))/('Identical VS Compatible'!H6+'Identical VS Compatible'!H7)</f>
+        <v>40883.633152855575</v>
+      </c>
+      <c r="G50">
+        <f>(('Identical VS Compatible'!I6*'Identical VS Compatible'!I78)+('Identical VS Compatible'!I7*'Identical VS Compatible'!I79))/('Identical VS Compatible'!I6+'Identical VS Compatible'!I7)</f>
+        <v>5720.3360720144256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <f>(('Identical VS Compatible'!D7*'Identical VS Compatible'!D79)+('Identical VS Compatible'!D8*'Identical VS Compatible'!D80))/('Identical VS Compatible'!D7+'Identical VS Compatible'!D8)</f>
+        <v>21316.296577514113</v>
+      </c>
+      <c r="C51">
+        <f>(('Identical VS Compatible'!E7*'Identical VS Compatible'!E79)+('Identical VS Compatible'!E8*'Identical VS Compatible'!E80))/('Identical VS Compatible'!E7+'Identical VS Compatible'!E8)</f>
+        <v>2949.0869611012499</v>
+      </c>
+      <c r="D51">
+        <f>(('Identical VS Compatible'!F7*'Identical VS Compatible'!F79)+('Identical VS Compatible'!F8*'Identical VS Compatible'!F80))/('Identical VS Compatible'!F7+'Identical VS Compatible'!F8)</f>
+        <v>16255.218749602927</v>
+      </c>
+      <c r="E51">
+        <f>(('Identical VS Compatible'!G7*'Identical VS Compatible'!G79)+('Identical VS Compatible'!G8*'Identical VS Compatible'!G80))/('Identical VS Compatible'!G7+'Identical VS Compatible'!G8)</f>
+        <v>2265.1977038623859</v>
+      </c>
+      <c r="F51">
+        <f>(('Identical VS Compatible'!H7*'Identical VS Compatible'!H79)+('Identical VS Compatible'!H8*'Identical VS Compatible'!H80))/('Identical VS Compatible'!H7+'Identical VS Compatible'!H8)</f>
+        <v>19662.54106124676</v>
+      </c>
+      <c r="G51">
+        <f>(('Identical VS Compatible'!I7*'Identical VS Compatible'!I79)+('Identical VS Compatible'!I8*'Identical VS Compatible'!I80))/('Identical VS Compatible'!I7+'Identical VS Compatible'!I8)</f>
+        <v>2711.8710951705002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f>(('Identical VS Compatible'!D8*'Identical VS Compatible'!D80)+('Identical VS Compatible'!D9*'Identical VS Compatible'!D81))/('Identical VS Compatible'!D8+'Identical VS Compatible'!D9)</f>
+        <v>21335.560628425628</v>
+      </c>
+      <c r="C52">
+        <f>(('Identical VS Compatible'!E8*'Identical VS Compatible'!E80)+('Identical VS Compatible'!E9*'Identical VS Compatible'!E81))/('Identical VS Compatible'!E8+'Identical VS Compatible'!E9)</f>
+        <v>2997.1280204194227</v>
+      </c>
+      <c r="D52">
+        <f>(('Identical VS Compatible'!F8*'Identical VS Compatible'!F80)+('Identical VS Compatible'!F9*'Identical VS Compatible'!F81))/('Identical VS Compatible'!F8+'Identical VS Compatible'!F9)</f>
+        <v>16270.253686942746</v>
+      </c>
+      <c r="E52">
+        <f>(('Identical VS Compatible'!G8*'Identical VS Compatible'!G80)+('Identical VS Compatible'!G9*'Identical VS Compatible'!G81))/('Identical VS Compatible'!G8+'Identical VS Compatible'!G9)</f>
+        <v>2302.2914252402793</v>
+      </c>
+      <c r="F52">
+        <f>(('Identical VS Compatible'!H8*'Identical VS Compatible'!H80)+('Identical VS Compatible'!H9*'Identical VS Compatible'!H81))/('Identical VS Compatible'!H8+'Identical VS Compatible'!H9)</f>
+        <v>19686.630471095868</v>
+      </c>
+      <c r="G52">
+        <f>(('Identical VS Compatible'!I8*'Identical VS Compatible'!I80)+('Identical VS Compatible'!I9*'Identical VS Compatible'!I81))/('Identical VS Compatible'!I8+'Identical VS Compatible'!I9)</f>
+        <v>2759.9201255825233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f>(('Identical VS Compatible'!D9*'Identical VS Compatible'!D81)+('Identical VS Compatible'!D10*'Identical VS Compatible'!D82))/('Identical VS Compatible'!D9+'Identical VS Compatible'!D10)</f>
+        <v>6344.6126023981169</v>
+      </c>
+      <c r="C53">
+        <f>(('Identical VS Compatible'!E9*'Identical VS Compatible'!E81)+('Identical VS Compatible'!E10*'Identical VS Compatible'!E82))/('Identical VS Compatible'!E9+'Identical VS Compatible'!E10)</f>
+        <v>900.17723429162277</v>
+      </c>
+      <c r="D53">
+        <f>(('Identical VS Compatible'!F9*'Identical VS Compatible'!F81)+('Identical VS Compatible'!F10*'Identical VS Compatible'!F82))/('Identical VS Compatible'!F9+'Identical VS Compatible'!F10)</f>
+        <v>35.065515363965027</v>
+      </c>
+      <c r="E53">
+        <f>(('Identical VS Compatible'!G9*'Identical VS Compatible'!G81)+('Identical VS Compatible'!G10*'Identical VS Compatible'!G82))/('Identical VS Compatible'!G9+'Identical VS Compatible'!G10)</f>
+        <v>6.3794384507995554</v>
+      </c>
+      <c r="F53">
+        <f>(('Identical VS Compatible'!H9*'Identical VS Compatible'!H81)+('Identical VS Compatible'!H10*'Identical VS Compatible'!H82))/('Identical VS Compatible'!H9+'Identical VS Compatible'!H10)</f>
+        <v>4375.5882666695334</v>
+      </c>
+      <c r="G53">
+        <f>(('Identical VS Compatible'!I9*'Identical VS Compatible'!I81)+('Identical VS Compatible'!I10*'Identical VS Compatible'!I82))/('Identical VS Compatible'!I9+'Identical VS Compatible'!I10)</f>
+        <v>633.14061183703359</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f>(('Identical VS Compatible'!D10*'Identical VS Compatible'!D82)+('Identical VS Compatible'!D11*'Identical VS Compatible'!D83))/('Identical VS Compatible'!D10+'Identical VS Compatible'!D11)</f>
+        <v>6355.7149909999989</v>
+      </c>
+      <c r="C54">
+        <f>(('Identical VS Compatible'!E10*'Identical VS Compatible'!E82)+('Identical VS Compatible'!E11*'Identical VS Compatible'!E83))/('Identical VS Compatible'!E10+'Identical VS Compatible'!E11)</f>
+        <v>934.19438700000001</v>
+      </c>
+      <c r="D54">
+        <f>(('Identical VS Compatible'!F10*'Identical VS Compatible'!F82)+('Identical VS Compatible'!F11*'Identical VS Compatible'!F83))/('Identical VS Compatible'!F10+'Identical VS Compatible'!F11)</f>
+        <v>35.125132000000001</v>
+      </c>
+      <c r="E54">
+        <f>(('Identical VS Compatible'!G10*'Identical VS Compatible'!G82)+('Identical VS Compatible'!G11*'Identical VS Compatible'!G83))/('Identical VS Compatible'!G10+'Identical VS Compatible'!G11)</f>
+        <v>6.4386219999999996</v>
+      </c>
+      <c r="F54">
+        <f>(('Identical VS Compatible'!H10*'Identical VS Compatible'!H82)+('Identical VS Compatible'!H11*'Identical VS Compatible'!H83))/('Identical VS Compatible'!H10+'Identical VS Compatible'!H11)</f>
+        <v>4383.7340169999998</v>
+      </c>
+      <c r="G54">
+        <f>(('Identical VS Compatible'!I10*'Identical VS Compatible'!I82)+('Identical VS Compatible'!I11*'Identical VS Compatible'!I83))/('Identical VS Compatible'!I10+'Identical VS Compatible'!I11)</f>
+        <v>666.14038000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -13972,11 +15309,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13985,10 +15317,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB009BC-50CA-4201-85F6-EEF4C2C550C5}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13998,12 +15330,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="20" t="s">
@@ -14029,7 +15361,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="21">
         <f>D3/(C3+D3)</f>
         <v>0</v>
       </c>
@@ -14044,8 +15376,8 @@
       <c r="D4">
         <v>875.42220370955408</v>
       </c>
-      <c r="E4" s="48">
-        <f t="shared" ref="E4:E14" si="0">D4/(C4+D4)</f>
+      <c r="E4" s="21">
+        <f>D4/(C4+D4)</f>
         <v>0.13014122106014084</v>
       </c>
     </row>
@@ -14054,14 +15386,14 @@
         <v>47</v>
       </c>
       <c r="C5">
-        <v>5599.5896938629594</v>
+        <v>5026.1649668214113</v>
       </c>
       <c r="D5">
-        <v>835.90142845875425</v>
-      </c>
-      <c r="E5" s="48">
-        <f t="shared" si="0"/>
-        <v>0.12988929866741677</v>
+        <v>2114.5011404704774</v>
+      </c>
+      <c r="E5" s="21">
+        <f>D5/(C5+D5)</f>
+        <v>0.29612099329377634</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -14077,8 +15409,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="48">
-        <f t="shared" si="0"/>
+      <c r="E6" s="21">
+        <f>D6/(C6+D6)</f>
         <v>0</v>
       </c>
     </row>
@@ -14092,8 +15424,8 @@
       <c r="D7">
         <v>611.21288792567509</v>
       </c>
-      <c r="E7" s="48">
-        <f t="shared" si="0"/>
+      <c r="E7" s="21">
+        <f>D7/(C7+D7)</f>
         <v>0.13052369032152197</v>
       </c>
     </row>
@@ -14102,14 +15434,14 @@
         <v>47</v>
       </c>
       <c r="C8">
-        <v>3141.6429346078485</v>
+        <v>3746.4463750679811</v>
       </c>
       <c r="D8">
-        <v>1781.9740657383581</v>
-      </c>
-      <c r="E8" s="48">
-        <f t="shared" si="0"/>
-        <v>0.36192377790820401</v>
+        <v>802.72456167004907</v>
+      </c>
+      <c r="E8" s="21">
+        <f>D8/(C8+D8)</f>
+        <v>0.17645513277758704</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -14125,8 +15457,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="48">
-        <f t="shared" si="0"/>
+      <c r="E9" s="21">
+        <f>D9/(C9+D9)</f>
         <v>0</v>
       </c>
     </row>
@@ -14140,8 +15472,8 @@
       <c r="D10">
         <v>265.2636298662236</v>
       </c>
-      <c r="E10" s="48">
-        <f t="shared" si="0"/>
+      <c r="E10" s="21">
+        <f>D10/(C10+D10)</f>
         <v>0.12917297591522811</v>
       </c>
     </row>
@@ -14150,14 +15482,14 @@
         <v>47</v>
       </c>
       <c r="C11">
-        <v>1286.9989362981667</v>
+        <v>1564.8848085147335</v>
       </c>
       <c r="D11">
-        <v>1030.4051826609191</v>
-      </c>
-      <c r="E11" s="48">
-        <f t="shared" si="0"/>
-        <v>0.44463767636856916</v>
+        <v>552.28330855365016</v>
+      </c>
+      <c r="E11" s="21">
+        <f>D11/(C11+D11)</f>
+        <v>0.26085944904478819</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -14173,8 +15505,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="48">
-        <f t="shared" si="0"/>
+      <c r="E12" s="21">
+        <f>D12/(C12+D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -14188,8 +15520,8 @@
       <c r="D13">
         <v>118.02875741010938</v>
       </c>
-      <c r="E13" s="48">
-        <f t="shared" si="0"/>
+      <c r="E13" s="21">
+        <f>D13/(C13+D13)</f>
         <v>0.13080507972822306</v>
       </c>
     </row>
@@ -14198,14 +15530,576 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>346.61672478254866</v>
+        <v>471.69540206272904</v>
       </c>
       <c r="D14">
-        <v>319.57329517312292</v>
-      </c>
-      <c r="E14" s="48">
-        <f t="shared" si="0"/>
-        <v>0.47970291598542319</v>
+        <v>68.255438141081001</v>
+      </c>
+      <c r="E14" s="21">
+        <f>D14/(C14+D14)</f>
+        <v>0.1264104675072221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>(('Identical VS Compatible'!D115*'Identical VS Compatible'!D123)+('Identical VS Compatible'!D116*'Identical VS Compatible'!D124))/('Identical VS Compatible'!D115+'Identical VS Compatible'!D116)</f>
+        <v>7762.4434085042112</v>
+      </c>
+      <c r="B27">
+        <f>(('Identical VS Compatible'!E115*'Identical VS Compatible'!E123)+('Identical VS Compatible'!E116*'Identical VS Compatible'!E124))/('Identical VS Compatible'!E115+'Identical VS Compatible'!E116)</f>
+        <v>22.243428767240069</v>
+      </c>
+      <c r="C27">
+        <f>(('Identical VS Compatible'!F115*'Identical VS Compatible'!F123)+('Identical VS Compatible'!F116*'Identical VS Compatible'!F124))/('Identical VS Compatible'!F115+'Identical VS Compatible'!F116)</f>
+        <v>5851.2874166420497</v>
+      </c>
+      <c r="D27">
+        <f>(('Identical VS Compatible'!G115*'Identical VS Compatible'!G123)+('Identical VS Compatible'!G116*'Identical VS Compatible'!G124))/('Identical VS Compatible'!G115+'Identical VS Compatible'!G116)</f>
+        <v>21.625413352611485</v>
+      </c>
+      <c r="E27">
+        <f>(('Identical VS Compatible'!H115*'Identical VS Compatible'!H123)+('Identical VS Compatible'!H116*'Identical VS Compatible'!H124))/('Identical VS Compatible'!H115+'Identical VS Compatible'!H116)</f>
+        <v>5026.1649668214113</v>
+      </c>
+      <c r="F27">
+        <f>(('Identical VS Compatible'!I115*'Identical VS Compatible'!I123)+('Identical VS Compatible'!I116*'Identical VS Compatible'!I124))/('Identical VS Compatible'!I115+'Identical VS Compatible'!I116)</f>
+        <v>36.238572273541557</v>
+      </c>
+      <c r="H27">
+        <v>7762.4434085042112</v>
+      </c>
+      <c r="I27">
+        <v>5851.2874166420497</v>
+      </c>
+      <c r="J27">
+        <v>5026.1649668214113</v>
+      </c>
+      <c r="L27">
+        <v>7762.4434085042112</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>(('Identical VS Compatible'!D116*'Identical VS Compatible'!D124)+('Identical VS Compatible'!D117*'Identical VS Compatible'!D125))/('Identical VS Compatible'!D116+'Identical VS Compatible'!D117)</f>
+        <v>7768.8151167958267</v>
+      </c>
+      <c r="B28">
+        <f>(('Identical VS Compatible'!E116*'Identical VS Compatible'!E124)+('Identical VS Compatible'!E117*'Identical VS Compatible'!E125))/('Identical VS Compatible'!E116+'Identical VS Compatible'!E117)</f>
+        <v>22.568143243636456</v>
+      </c>
+      <c r="C28">
+        <f>(('Identical VS Compatible'!F116*'Identical VS Compatible'!F124)+('Identical VS Compatible'!F117*'Identical VS Compatible'!F125))/('Identical VS Compatible'!F116+'Identical VS Compatible'!F117)</f>
+        <v>5857.3255300876663</v>
+      </c>
+      <c r="D28">
+        <f>(('Identical VS Compatible'!G116*'Identical VS Compatible'!G124)+('Identical VS Compatible'!G117*'Identical VS Compatible'!G125))/('Identical VS Compatible'!G116+'Identical VS Compatible'!G117)</f>
+        <v>21.832012212303226</v>
+      </c>
+      <c r="E28">
+        <f>(('Identical VS Compatible'!H116*'Identical VS Compatible'!H124)+('Identical VS Compatible'!H117*'Identical VS Compatible'!H125))/('Identical VS Compatible'!H116+'Identical VS Compatible'!H117)</f>
+        <v>5034.4340741345068</v>
+      </c>
+      <c r="F28">
+        <f>(('Identical VS Compatible'!I116*'Identical VS Compatible'!I124)+('Identical VS Compatible'!I117*'Identical VS Compatible'!I125))/('Identical VS Compatible'!I116+'Identical VS Compatible'!I117)</f>
+        <v>36.52538684152411</v>
+      </c>
+      <c r="H28">
+        <v>4772.2861738764987</v>
+      </c>
+      <c r="I28">
+        <v>4071.5606868948071</v>
+      </c>
+      <c r="J28">
+        <v>3746.4463750679811</v>
+      </c>
+      <c r="L28">
+        <v>5851.2874166420497</v>
+      </c>
+      <c r="N28">
+        <v>875.42220370955408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>(('Identical VS Compatible'!D117*'Identical VS Compatible'!D125)+('Identical VS Compatible'!D118*'Identical VS Compatible'!D126))/('Identical VS Compatible'!D117+'Identical VS Compatible'!D118)</f>
+        <v>4772.2861738764987</v>
+      </c>
+      <c r="B29">
+        <f>(('Identical VS Compatible'!E117*'Identical VS Compatible'!E125)+('Identical VS Compatible'!E118*'Identical VS Compatible'!E126))/('Identical VS Compatible'!E117+'Identical VS Compatible'!E118)</f>
+        <v>18.950874051808189</v>
+      </c>
+      <c r="C29">
+        <f>(('Identical VS Compatible'!F117*'Identical VS Compatible'!F125)+('Identical VS Compatible'!F118*'Identical VS Compatible'!F126))/('Identical VS Compatible'!F117+'Identical VS Compatible'!F118)</f>
+        <v>4071.5606868948071</v>
+      </c>
+      <c r="D29">
+        <f>(('Identical VS Compatible'!G117*'Identical VS Compatible'!G125)+('Identical VS Compatible'!G118*'Identical VS Compatible'!G126))/('Identical VS Compatible'!G117+'Identical VS Compatible'!G118)</f>
+        <v>21.558567234010351</v>
+      </c>
+      <c r="E29">
+        <f>(('Identical VS Compatible'!H117*'Identical VS Compatible'!H125)+('Identical VS Compatible'!H118*'Identical VS Compatible'!H126))/('Identical VS Compatible'!H117+'Identical VS Compatible'!H118)</f>
+        <v>3746.4463750679811</v>
+      </c>
+      <c r="F29">
+        <f>(('Identical VS Compatible'!I117*'Identical VS Compatible'!I125)+('Identical VS Compatible'!I118*'Identical VS Compatible'!I126))/('Identical VS Compatible'!I117+'Identical VS Compatible'!I118)</f>
+        <v>29.27958847101112</v>
+      </c>
+      <c r="H29">
+        <v>1493.4455990274168</v>
+      </c>
+      <c r="I29">
+        <v>1788.2899713166366</v>
+      </c>
+      <c r="J29">
+        <v>1564.8848085147335</v>
+      </c>
+      <c r="L29">
+        <v>5026.1649668214113</v>
+      </c>
+      <c r="N29">
+        <v>2114.5011404704774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>(('Identical VS Compatible'!D118*'Identical VS Compatible'!D126)+('Identical VS Compatible'!D119*'Identical VS Compatible'!D127))/('Identical VS Compatible'!D118+'Identical VS Compatible'!D119)</f>
+        <v>4775.3467692150243</v>
+      </c>
+      <c r="B30">
+        <f>(('Identical VS Compatible'!E118*'Identical VS Compatible'!E126)+('Identical VS Compatible'!E119*'Identical VS Compatible'!E127))/('Identical VS Compatible'!E118+'Identical VS Compatible'!E119)</f>
+        <v>19.017741630887084</v>
+      </c>
+      <c r="C30">
+        <f>(('Identical VS Compatible'!F118*'Identical VS Compatible'!F126)+('Identical VS Compatible'!F119*'Identical VS Compatible'!F127))/('Identical VS Compatible'!F118+'Identical VS Compatible'!F119)</f>
+        <v>4075.0148820086501</v>
+      </c>
+      <c r="D30">
+        <f>(('Identical VS Compatible'!G118*'Identical VS Compatible'!G126)+('Identical VS Compatible'!G119*'Identical VS Compatible'!G127))/('Identical VS Compatible'!G118+'Identical VS Compatible'!G119)</f>
+        <v>21.734502971821922</v>
+      </c>
+      <c r="E30">
+        <f>(('Identical VS Compatible'!H118*'Identical VS Compatible'!H126)+('Identical VS Compatible'!H119*'Identical VS Compatible'!H127))/('Identical VS Compatible'!H118+'Identical VS Compatible'!H119)</f>
+        <v>3748.6335154110316</v>
+      </c>
+      <c r="F30">
+        <f>(('Identical VS Compatible'!I118*'Identical VS Compatible'!I126)+('Identical VS Compatible'!I119*'Identical VS Compatible'!I127))/('Identical VS Compatible'!I118+'Identical VS Compatible'!I119)</f>
+        <v>29.513647592427134</v>
+      </c>
+      <c r="H30">
+        <v>361.02989268425119</v>
+      </c>
+      <c r="I30">
+        <v>784.29673067751412</v>
+      </c>
+      <c r="J30">
+        <v>471.69540206272904</v>
+      </c>
+      <c r="L30">
+        <v>4772.2861738764987</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>(('Identical VS Compatible'!D119*'Identical VS Compatible'!D127)+('Identical VS Compatible'!D120*'Identical VS Compatible'!D128))/('Identical VS Compatible'!D119+'Identical VS Compatible'!D120)</f>
+        <v>1493.4455990274168</v>
+      </c>
+      <c r="B31">
+        <f>(('Identical VS Compatible'!E119*'Identical VS Compatible'!E127)+('Identical VS Compatible'!E120*'Identical VS Compatible'!E128))/('Identical VS Compatible'!E119+'Identical VS Compatible'!E120)</f>
+        <v>9.9395966871163566</v>
+      </c>
+      <c r="C31">
+        <f>(('Identical VS Compatible'!F119*'Identical VS Compatible'!F127)+('Identical VS Compatible'!F120*'Identical VS Compatible'!F128))/('Identical VS Compatible'!F119+'Identical VS Compatible'!F120)</f>
+        <v>1788.2899713166366</v>
+      </c>
+      <c r="D31">
+        <f>(('Identical VS Compatible'!G119*'Identical VS Compatible'!G127)+('Identical VS Compatible'!G120*'Identical VS Compatible'!G128))/('Identical VS Compatible'!G119+'Identical VS Compatible'!G120)</f>
+        <v>13.013103408490657</v>
+      </c>
+      <c r="E31">
+        <f>(('Identical VS Compatible'!H119*'Identical VS Compatible'!H127)+('Identical VS Compatible'!H120*'Identical VS Compatible'!H128))/('Identical VS Compatible'!H119+'Identical VS Compatible'!H120)</f>
+        <v>1564.8848085147335</v>
+      </c>
+      <c r="F31">
+        <f>(('Identical VS Compatible'!I119*'Identical VS Compatible'!I127)+('Identical VS Compatible'!I120*'Identical VS Compatible'!I128))/('Identical VS Compatible'!I119+'Identical VS Compatible'!I120)</f>
+        <v>16.855641289158157</v>
+      </c>
+      <c r="L31">
+        <v>4071.5606868948071</v>
+      </c>
+      <c r="N31">
+        <v>611.21288792567509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>(('Identical VS Compatible'!D120*'Identical VS Compatible'!D128)+('Identical VS Compatible'!D121*'Identical VS Compatible'!D129))/('Identical VS Compatible'!D120+'Identical VS Compatible'!D121)</f>
+        <v>1496.6073593825267</v>
+      </c>
+      <c r="B32">
+        <f>(('Identical VS Compatible'!E120*'Identical VS Compatible'!E128)+('Identical VS Compatible'!E121*'Identical VS Compatible'!E129))/('Identical VS Compatible'!E120+'Identical VS Compatible'!E121)</f>
+        <v>10.194135362338152</v>
+      </c>
+      <c r="C32">
+        <f>(('Identical VS Compatible'!F120*'Identical VS Compatible'!F128)+('Identical VS Compatible'!F121*'Identical VS Compatible'!F129))/('Identical VS Compatible'!F120+'Identical VS Compatible'!F121)</f>
+        <v>1791.3221589466059</v>
+      </c>
+      <c r="D32">
+        <f>(('Identical VS Compatible'!G120*'Identical VS Compatible'!G128)+('Identical VS Compatible'!G121*'Identical VS Compatible'!G129))/('Identical VS Compatible'!G120+'Identical VS Compatible'!G121)</f>
+        <v>13.227053029948854</v>
+      </c>
+      <c r="E32">
+        <f>(('Identical VS Compatible'!H120*'Identical VS Compatible'!H128)+('Identical VS Compatible'!H121*'Identical VS Compatible'!H129))/('Identical VS Compatible'!H120+'Identical VS Compatible'!H121)</f>
+        <v>1568.5440089031458</v>
+      </c>
+      <c r="F32">
+        <f>(('Identical VS Compatible'!I120*'Identical VS Compatible'!I128)+('Identical VS Compatible'!I121*'Identical VS Compatible'!I129))/('Identical VS Compatible'!I120+'Identical VS Compatible'!I121)</f>
+        <v>17.071875320311115</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>875.42220370955408</v>
+      </c>
+      <c r="J32">
+        <v>2114.5011404704774</v>
+      </c>
+      <c r="L32">
+        <v>3746.4463750679811</v>
+      </c>
+      <c r="N32">
+        <v>802.72456167004907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>(('Identical VS Compatible'!D121*'Identical VS Compatible'!D129)+('Identical VS Compatible'!D122*'Identical VS Compatible'!D130))/('Identical VS Compatible'!D121+'Identical VS Compatible'!D122)</f>
+        <v>361.02989268425119</v>
+      </c>
+      <c r="B33">
+        <f>(('Identical VS Compatible'!E121*'Identical VS Compatible'!E129)+('Identical VS Compatible'!E122*'Identical VS Compatible'!E130))/('Identical VS Compatible'!E121+'Identical VS Compatible'!E122)</f>
+        <v>4.3458762469811321</v>
+      </c>
+      <c r="C33">
+        <f>(('Identical VS Compatible'!F121*'Identical VS Compatible'!F129)+('Identical VS Compatible'!F122*'Identical VS Compatible'!F130))/('Identical VS Compatible'!F121+'Identical VS Compatible'!F122)</f>
+        <v>784.29673067751412</v>
+      </c>
+      <c r="D33">
+        <f>(('Identical VS Compatible'!G121*'Identical VS Compatible'!G129)+('Identical VS Compatible'!G122*'Identical VS Compatible'!G130))/('Identical VS Compatible'!G121+'Identical VS Compatible'!G122)</f>
+        <v>15.788150217612891</v>
+      </c>
+      <c r="E33">
+        <f>(('Identical VS Compatible'!H121*'Identical VS Compatible'!H129)+('Identical VS Compatible'!H122*'Identical VS Compatible'!H130))/('Identical VS Compatible'!H121+'Identical VS Compatible'!H122)</f>
+        <v>471.69540206272904</v>
+      </c>
+      <c r="F33">
+        <f>(('Identical VS Compatible'!I121*'Identical VS Compatible'!I129)+('Identical VS Compatible'!I122*'Identical VS Compatible'!I130))/('Identical VS Compatible'!I121+'Identical VS Compatible'!I122)</f>
+        <v>34.342451755765047</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>611.21288792567509</v>
+      </c>
+      <c r="J33">
+        <v>802.72456167004907</v>
+      </c>
+      <c r="L33">
+        <v>1493.4455990274168</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>(('Identical VS Compatible'!D122*'Identical VS Compatible'!D130)+('Identical VS Compatible'!D123*'Identical VS Compatible'!D131))/('Identical VS Compatible'!D122+'Identical VS Compatible'!D123)</f>
+        <v>348.87882254117977</v>
+      </c>
+      <c r="B34">
+        <f>(('Identical VS Compatible'!E122*'Identical VS Compatible'!E130)+('Identical VS Compatible'!E123*'Identical VS Compatible'!E131))/('Identical VS Compatible'!E122+'Identical VS Compatible'!E123)</f>
+        <v>3.7959129509897163</v>
+      </c>
+      <c r="C34">
+        <f>(('Identical VS Compatible'!F122*'Identical VS Compatible'!F130)+('Identical VS Compatible'!F123*'Identical VS Compatible'!F131))/('Identical VS Compatible'!F122+'Identical VS Compatible'!F123)</f>
+        <v>773.71810858333663</v>
+      </c>
+      <c r="D34">
+        <f>(('Identical VS Compatible'!G122*'Identical VS Compatible'!G130)+('Identical VS Compatible'!G123*'Identical VS Compatible'!G131))/('Identical VS Compatible'!G122+'Identical VS Compatible'!G123)</f>
+        <v>15.310525920789567</v>
+      </c>
+      <c r="E34">
+        <f>(('Identical VS Compatible'!H122*'Identical VS Compatible'!H130)+('Identical VS Compatible'!H123*'Identical VS Compatible'!H131))/('Identical VS Compatible'!H122+'Identical VS Compatible'!H123)</f>
+        <v>460.75469035004426</v>
+      </c>
+      <c r="F34">
+        <f>(('Identical VS Compatible'!I122*'Identical VS Compatible'!I130)+('Identical VS Compatible'!I123*'Identical VS Compatible'!I131))/('Identical VS Compatible'!I122+'Identical VS Compatible'!I123)</f>
+        <v>33.907076859459373</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>265.2636298662236</v>
+      </c>
+      <c r="J34">
+        <v>552.28330855365016</v>
+      </c>
+      <c r="L34">
+        <v>1788.2899713166366</v>
+      </c>
+      <c r="N34">
+        <v>265.2636298662236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>118.02875741010938</v>
+      </c>
+      <c r="J35">
+        <v>68.255438141081001</v>
+      </c>
+      <c r="L35">
+        <v>1564.8848085147335</v>
+      </c>
+      <c r="N35">
+        <v>552.28330855365016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>(('Identical VS Compatible'!D115*'Identical VS Compatible'!D131)+('Identical VS Compatible'!D116*'Identical VS Compatible'!D132))/('Identical VS Compatible'!D115+'Identical VS Compatible'!D116)</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>(('Identical VS Compatible'!E115*'Identical VS Compatible'!E131)+('Identical VS Compatible'!E116*'Identical VS Compatible'!E132))/('Identical VS Compatible'!E115+'Identical VS Compatible'!E116)</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>(('Identical VS Compatible'!F115*'Identical VS Compatible'!F131)+('Identical VS Compatible'!F116*'Identical VS Compatible'!F132))/('Identical VS Compatible'!F115+'Identical VS Compatible'!F116)</f>
+        <v>875.42220370955408</v>
+      </c>
+      <c r="D36">
+        <f>(('Identical VS Compatible'!G115*'Identical VS Compatible'!G131)+('Identical VS Compatible'!G116*'Identical VS Compatible'!G132))/('Identical VS Compatible'!G115+'Identical VS Compatible'!G116)</f>
+        <v>8.5510890769313885</v>
+      </c>
+      <c r="E36">
+        <f>(('Identical VS Compatible'!H115*'Identical VS Compatible'!H131)+('Identical VS Compatible'!H116*'Identical VS Compatible'!H132))/('Identical VS Compatible'!H115+'Identical VS Compatible'!H116)</f>
+        <v>2114.5011404704774</v>
+      </c>
+      <c r="F36">
+        <f>(('Identical VS Compatible'!I115*'Identical VS Compatible'!I131)+('Identical VS Compatible'!I116*'Identical VS Compatible'!I132))/('Identical VS Compatible'!I115+'Identical VS Compatible'!I116)</f>
+        <v>16.057150904904518</v>
+      </c>
+      <c r="L36">
+        <v>361.02989268425119</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>(('Identical VS Compatible'!D116*'Identical VS Compatible'!D132)+('Identical VS Compatible'!D117*'Identical VS Compatible'!D133))/('Identical VS Compatible'!D116+'Identical VS Compatible'!D117)</f>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>(('Identical VS Compatible'!E116*'Identical VS Compatible'!E132)+('Identical VS Compatible'!E117*'Identical VS Compatible'!E133))/('Identical VS Compatible'!E116+'Identical VS Compatible'!E117)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>(('Identical VS Compatible'!F116*'Identical VS Compatible'!F132)+('Identical VS Compatible'!F117*'Identical VS Compatible'!F133))/('Identical VS Compatible'!F116+'Identical VS Compatible'!F117)</f>
+        <v>876.32600309085103</v>
+      </c>
+      <c r="D37">
+        <f>(('Identical VS Compatible'!G116*'Identical VS Compatible'!G132)+('Identical VS Compatible'!G117*'Identical VS Compatible'!G133))/('Identical VS Compatible'!G116+'Identical VS Compatible'!G117)</f>
+        <v>8.6321667663791466</v>
+      </c>
+      <c r="E37">
+        <f>(('Identical VS Compatible'!H116*'Identical VS Compatible'!H132)+('Identical VS Compatible'!H117*'Identical VS Compatible'!H133))/('Identical VS Compatible'!H116+'Identical VS Compatible'!H117)</f>
+        <v>2117.9771008428443</v>
+      </c>
+      <c r="F37">
+        <f>(('Identical VS Compatible'!I116*'Identical VS Compatible'!I132)+('Identical VS Compatible'!I117*'Identical VS Compatible'!I133))/('Identical VS Compatible'!I116+'Identical VS Compatible'!I117)</f>
+        <v>16.174545840458503</v>
+      </c>
+      <c r="L37">
+        <v>784.29673067751412</v>
+      </c>
+      <c r="N37">
+        <v>118.02875741010938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>(('Identical VS Compatible'!D117*'Identical VS Compatible'!D133)+('Identical VS Compatible'!D118*'Identical VS Compatible'!D134))/('Identical VS Compatible'!D117+'Identical VS Compatible'!D118)</f>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>(('Identical VS Compatible'!E117*'Identical VS Compatible'!E133)+('Identical VS Compatible'!E118*'Identical VS Compatible'!E134))/('Identical VS Compatible'!E117+'Identical VS Compatible'!E118)</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>(('Identical VS Compatible'!F117*'Identical VS Compatible'!F133)+('Identical VS Compatible'!F118*'Identical VS Compatible'!F134))/('Identical VS Compatible'!F117+'Identical VS Compatible'!F118)</f>
+        <v>611.21288792567509</v>
+      </c>
+      <c r="D38">
+        <f>(('Identical VS Compatible'!G117*'Identical VS Compatible'!G133)+('Identical VS Compatible'!G118*'Identical VS Compatible'!G134))/('Identical VS Compatible'!G117+'Identical VS Compatible'!G118)</f>
+        <v>6.5111143379984506</v>
+      </c>
+      <c r="E38">
+        <f>(('Identical VS Compatible'!H117*'Identical VS Compatible'!H133)+('Identical VS Compatible'!H118*'Identical VS Compatible'!H134))/('Identical VS Compatible'!H117+'Identical VS Compatible'!H118)</f>
+        <v>802.72456167004907</v>
+      </c>
+      <c r="F38">
+        <f>(('Identical VS Compatible'!I117*'Identical VS Compatible'!I133)+('Identical VS Compatible'!I118*'Identical VS Compatible'!I134))/('Identical VS Compatible'!I117+'Identical VS Compatible'!I118)</f>
+        <v>8.6601732082960385</v>
+      </c>
+      <c r="L38">
+        <v>471.69540206272904</v>
+      </c>
+      <c r="N38">
+        <v>68.255438141081001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>(('Identical VS Compatible'!D118*'Identical VS Compatible'!D134)+('Identical VS Compatible'!D119*'Identical VS Compatible'!D135))/('Identical VS Compatible'!D118+'Identical VS Compatible'!D119)</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>(('Identical VS Compatible'!E118*'Identical VS Compatible'!E134)+('Identical VS Compatible'!E119*'Identical VS Compatible'!E135))/('Identical VS Compatible'!E118+'Identical VS Compatible'!E119)</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>(('Identical VS Compatible'!F118*'Identical VS Compatible'!F134)+('Identical VS Compatible'!F119*'Identical VS Compatible'!F135))/('Identical VS Compatible'!F118+'Identical VS Compatible'!F119)</f>
+        <v>611.73100084607449</v>
+      </c>
+      <c r="D39">
+        <f>(('Identical VS Compatible'!G118*'Identical VS Compatible'!G134)+('Identical VS Compatible'!G119*'Identical VS Compatible'!G135))/('Identical VS Compatible'!G118+'Identical VS Compatible'!G119)</f>
+        <v>6.5633026685929803</v>
+      </c>
+      <c r="E39">
+        <f>(('Identical VS Compatible'!H118*'Identical VS Compatible'!H134)+('Identical VS Compatible'!H119*'Identical VS Compatible'!H135))/('Identical VS Compatible'!H118+'Identical VS Compatible'!H119)</f>
+        <v>803.1950640157371</v>
+      </c>
+      <c r="F39">
+        <f>(('Identical VS Compatible'!I118*'Identical VS Compatible'!I134)+('Identical VS Compatible'!I119*'Identical VS Compatible'!I135))/('Identical VS Compatible'!I118+'Identical VS Compatible'!I119)</f>
+        <v>8.7293942614152424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>(('Identical VS Compatible'!D119*'Identical VS Compatible'!D135)+('Identical VS Compatible'!D120*'Identical VS Compatible'!D136))/('Identical VS Compatible'!D119+'Identical VS Compatible'!D120)</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>(('Identical VS Compatible'!E119*'Identical VS Compatible'!E135)+('Identical VS Compatible'!E120*'Identical VS Compatible'!E136))/('Identical VS Compatible'!E119+'Identical VS Compatible'!E120)</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>(('Identical VS Compatible'!F119*'Identical VS Compatible'!F135)+('Identical VS Compatible'!F120*'Identical VS Compatible'!F136))/('Identical VS Compatible'!F119+'Identical VS Compatible'!F120)</f>
+        <v>265.2636298662236</v>
+      </c>
+      <c r="D40">
+        <f>(('Identical VS Compatible'!G119*'Identical VS Compatible'!G135)+('Identical VS Compatible'!G120*'Identical VS Compatible'!G136))/('Identical VS Compatible'!G119+'Identical VS Compatible'!G120)</f>
+        <v>4.345307495770748</v>
+      </c>
+      <c r="E40">
+        <f>(('Identical VS Compatible'!H119*'Identical VS Compatible'!H135)+('Identical VS Compatible'!H120*'Identical VS Compatible'!H136))/('Identical VS Compatible'!H119+'Identical VS Compatible'!H120)</f>
+        <v>552.28330855365016</v>
+      </c>
+      <c r="F40">
+        <f>(('Identical VS Compatible'!I119*'Identical VS Compatible'!I135)+('Identical VS Compatible'!I120*'Identical VS Compatible'!I136))/('Identical VS Compatible'!I119+'Identical VS Compatible'!I120)</f>
+        <v>8.7967914636804583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>(('Identical VS Compatible'!D120*'Identical VS Compatible'!D136)+('Identical VS Compatible'!D121*'Identical VS Compatible'!D137))/('Identical VS Compatible'!D120+'Identical VS Compatible'!D121)</f>
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f>(('Identical VS Compatible'!E120*'Identical VS Compatible'!E136)+('Identical VS Compatible'!E121*'Identical VS Compatible'!E137))/('Identical VS Compatible'!E120+'Identical VS Compatible'!E121)</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>(('Identical VS Compatible'!F120*'Identical VS Compatible'!F136)+('Identical VS Compatible'!F121*'Identical VS Compatible'!F137))/('Identical VS Compatible'!F120+'Identical VS Compatible'!F121)</f>
+        <v>265.71355643774194</v>
+      </c>
+      <c r="D41">
+        <f>(('Identical VS Compatible'!G120*'Identical VS Compatible'!G136)+('Identical VS Compatible'!G121*'Identical VS Compatible'!G137))/('Identical VS Compatible'!G120+'Identical VS Compatible'!G121)</f>
+        <v>4.4153728080445429</v>
+      </c>
+      <c r="E41">
+        <f>(('Identical VS Compatible'!H120*'Identical VS Compatible'!H136)+('Identical VS Compatible'!H121*'Identical VS Compatible'!H137))/('Identical VS Compatible'!H120+'Identical VS Compatible'!H121)</f>
+        <v>553.57370610518399</v>
+      </c>
+      <c r="F41">
+        <f>(('Identical VS Compatible'!I120*'Identical VS Compatible'!I136)+('Identical VS Compatible'!I121*'Identical VS Compatible'!I137))/('Identical VS Compatible'!I120+'Identical VS Compatible'!I121)</f>
+        <v>8.9052763018587235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>(('Identical VS Compatible'!D121*'Identical VS Compatible'!D137)+('Identical VS Compatible'!D122*'Identical VS Compatible'!D138))/('Identical VS Compatible'!D121+'Identical VS Compatible'!D122)</f>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f>(('Identical VS Compatible'!E121*'Identical VS Compatible'!E137)+('Identical VS Compatible'!E122*'Identical VS Compatible'!E138))/('Identical VS Compatible'!E121+'Identical VS Compatible'!E122)</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>(('Identical VS Compatible'!F121*'Identical VS Compatible'!F137)+('Identical VS Compatible'!F122*'Identical VS Compatible'!F138))/('Identical VS Compatible'!F121+'Identical VS Compatible'!F122)</f>
+        <v>118.02875741010938</v>
+      </c>
+      <c r="D42">
+        <f>(('Identical VS Compatible'!G121*'Identical VS Compatible'!G137)+('Identical VS Compatible'!G122*'Identical VS Compatible'!G138))/('Identical VS Compatible'!G121+'Identical VS Compatible'!G122)</f>
+        <v>3.4980212413737064</v>
+      </c>
+      <c r="E42">
+        <f>(('Identical VS Compatible'!H121*'Identical VS Compatible'!H137)+('Identical VS Compatible'!H122*'Identical VS Compatible'!H138))/('Identical VS Compatible'!H121+'Identical VS Compatible'!H122)</f>
+        <v>68.255438141081001</v>
+      </c>
+      <c r="F42">
+        <f>(('Identical VS Compatible'!I121*'Identical VS Compatible'!I137)+('Identical VS Compatible'!I122*'Identical VS Compatible'!I138))/('Identical VS Compatible'!I121+'Identical VS Compatible'!I122)</f>
+        <v>5.4979172924170499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>(('Identical VS Compatible'!D122*'Identical VS Compatible'!D138)+('Identical VS Compatible'!D123*'Identical VS Compatible'!D139))/('Identical VS Compatible'!D122+'Identical VS Compatible'!D123)</f>
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>(('Identical VS Compatible'!E122*'Identical VS Compatible'!E138)+('Identical VS Compatible'!E123*'Identical VS Compatible'!E139))/('Identical VS Compatible'!E122+'Identical VS Compatible'!E123)</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>(('Identical VS Compatible'!F122*'Identical VS Compatible'!F138)+('Identical VS Compatible'!F123*'Identical VS Compatible'!F139))/('Identical VS Compatible'!F122+'Identical VS Compatible'!F123)</f>
+        <v>116.62698610316873</v>
+      </c>
+      <c r="D43">
+        <f>(('Identical VS Compatible'!G122*'Identical VS Compatible'!G138)+('Identical VS Compatible'!G123*'Identical VS Compatible'!G139))/('Identical VS Compatible'!G122+'Identical VS Compatible'!G123)</f>
+        <v>3.3865993074604397</v>
+      </c>
+      <c r="E43">
+        <f>(('Identical VS Compatible'!H122*'Identical VS Compatible'!H138)+('Identical VS Compatible'!H123*'Identical VS Compatible'!H139))/('Identical VS Compatible'!H122+'Identical VS Compatible'!H123)</f>
+        <v>67.447852578718752</v>
+      </c>
+      <c r="F43">
+        <f>(('Identical VS Compatible'!I122*'Identical VS Compatible'!I138)+('Identical VS Compatible'!I123*'Identical VS Compatible'!I139))/('Identical VS Compatible'!I122+'Identical VS Compatible'!I123)</f>
+        <v>5.423510357122165</v>
       </c>
     </row>
   </sheetData>

--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1212" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC0B7B1-B671-44F5-94CC-55432BE6FC6D}"/>
+  <xr:revisionPtr revIDLastSave="1214" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F8555D-992A-4C4C-A86E-1430E3605DCE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Identical VS Compatible'!$A$1:$G$166</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,6 +408,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,64 +465,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -720,7 +720,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -843,7 +843,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3492,7 +3494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{722DD511-8046-4494-85DE-A88B693477F2}" type="CELLRANGE">
+                    <a:fld id="{0F480441-6C5B-4F77-978B-A5FDCB2D6E52}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3531,7 +3533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7800538-3AA9-4CCF-837E-4F15C1979BF2}" type="CELLRANGE">
+                    <a:fld id="{995FDF3F-66D6-48BD-BDEC-58D1B411EC9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3570,7 +3572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42175EA5-9D4A-4092-8854-F650B8904E67}" type="CELLRANGE">
+                    <a:fld id="{2A139890-6563-43FC-B1FA-3455445C9605}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3609,7 +3611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C6F0C21-F9EF-408C-8F63-BC6043AA86C8}" type="CELLRANGE">
+                    <a:fld id="{256FE2CF-A487-4448-BD38-454BECC18FBD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3648,7 +3650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71978043-74F8-42B8-8686-D269BF323819}" type="CELLRANGE">
+                    <a:fld id="{42AF4274-D8B1-4184-BEDE-0168A5A6C8CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3687,7 +3689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2E059DE-A1C4-4C04-8CA9-6D61E3B68D9E}" type="CELLRANGE">
+                    <a:fld id="{9A527C99-760C-4D52-A6E3-FED4E16A2D4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3726,7 +3728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE41D17C-4D63-4465-8276-211F5901CA6B}" type="CELLRANGE">
+                    <a:fld id="{C7E627BE-C5E3-432F-BB7A-2E89A227FEA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3765,7 +3767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F65A0A26-05AA-4BBA-91D1-6C22B8A07647}" type="CELLRANGE">
+                    <a:fld id="{2E43CC2E-AAC9-4D98-B744-90A92ED0BA7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3804,7 +3806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39E635D8-B8A9-4ADE-841F-12352D7C4F5C}" type="CELLRANGE">
+                    <a:fld id="{CEAC2B71-DC87-40B5-A4C6-FB81EE232953}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3843,7 +3845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8981C1F2-5674-4BC7-B965-09700B270C61}" type="CELLRANGE">
+                    <a:fld id="{9D81039A-7BF6-4BF9-863F-81B4826605B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3882,7 +3884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDDCF3DA-BE99-458B-A966-8E2B42851B80}" type="CELLRANGE">
+                    <a:fld id="{720587D1-9810-458F-B200-DEF3D3B076BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3921,7 +3923,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5527CC4B-B3CB-4E63-9AF4-FCFECFEFE9A4}" type="CELLRANGE">
+                    <a:fld id="{99A389B4-415C-4EA3-A9E2-DD459837D3DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7054,15 +7056,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -7074,14 +7076,14 @@
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9338,41 +9340,41 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="30"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="31" t="s">
+      <c r="C92" s="27"/>
+      <c r="D92" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="32"/>
-      <c r="F92" s="22" t="s">
+      <c r="E92" s="35"/>
+      <c r="F92" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="23"/>
+      <c r="G92" s="37"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="36"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -9388,10 +9390,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="38"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="13">
         <v>3166.8571430000002</v>
       </c>
@@ -9407,10 +9409,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="38"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -9426,10 +9428,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="38"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -9447,10 +9449,10 @@
       <c r="A97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="38"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="13">
         <v>3736.2698409999998</v>
       </c>
@@ -9466,10 +9468,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="38"/>
+      <c r="C98" s="23"/>
       <c r="D98" s="13">
         <v>1625.1746029999999</v>
       </c>
@@ -9485,10 +9487,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="38"/>
+      <c r="C99" s="23"/>
       <c r="D99" s="13">
         <v>490.31745999999998</v>
       </c>
@@ -9504,10 +9506,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="38"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="13">
         <v>74.539682999999997</v>
       </c>
@@ -9525,10 +9527,10 @@
       <c r="A101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="38"/>
+      <c r="C101" s="23"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -9544,10 +9546,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="38"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -9563,10 +9565,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="38"/>
+      <c r="C103" s="23"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -9582,10 +9584,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="38"/>
+      <c r="C104" s="23"/>
       <c r="D104" s="13">
         <v>0</v>
       </c>
@@ -9603,10 +9605,10 @@
       <c r="A105" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="38"/>
+      <c r="C105" s="23"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -9622,10 +9624,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="38"/>
+      <c r="C106" s="23"/>
       <c r="D106" s="13">
         <v>0.114799</v>
       </c>
@@ -9641,10 +9643,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="38"/>
+      <c r="C107" s="23"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -9660,10 +9662,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="38"/>
+      <c r="C108" s="23"/>
       <c r="D108" s="13">
         <v>1.258319</v>
       </c>
@@ -9681,10 +9683,10 @@
       <c r="A109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="38"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="13">
         <v>4.1E-5</v>
       </c>
@@ -9700,10 +9702,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="38"/>
+      <c r="C110" s="23"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -9719,10 +9721,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="38"/>
+      <c r="C111" s="23"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -9738,10 +9740,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="40"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="15">
         <v>0</v>
       </c>
@@ -9756,15 +9758,15 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="30"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="33"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
@@ -9776,14 +9778,14 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="31" t="s">
+      <c r="E114" s="35"/>
+      <c r="F114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="32"/>
+      <c r="G114" s="35"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -10595,41 +10597,41 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="30"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="33"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="31" t="s">
+      <c r="C149" s="27"/>
+      <c r="D149" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="32"/>
-      <c r="F149" s="31" t="s">
+      <c r="E149" s="35"/>
+      <c r="F149" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="32"/>
+      <c r="G149" s="35"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="36"/>
+      <c r="C150" s="29"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -10645,10 +10647,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="38"/>
+      <c r="C151" s="23"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -10664,10 +10666,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="37" t="s">
+      <c r="B152" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="38"/>
+      <c r="C152" s="23"/>
       <c r="D152" s="13">
         <v>1290.6349210000001</v>
       </c>
@@ -10683,10 +10685,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="38"/>
+      <c r="C153" s="23"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -10704,10 +10706,10 @@
       <c r="A154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="38"/>
+      <c r="C154" s="23"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -10723,10 +10725,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" s="37" t="s">
+      <c r="B155" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="38"/>
+      <c r="C155" s="23"/>
       <c r="D155" s="13">
         <v>33.063491999999997</v>
       </c>
@@ -10742,10 +10744,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="37" t="s">
+      <c r="B156" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="38"/>
+      <c r="C156" s="23"/>
       <c r="D156" s="13">
         <v>14.253968</v>
       </c>
@@ -10761,10 +10763,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="37" t="s">
+      <c r="B157" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="38"/>
+      <c r="C157" s="23"/>
       <c r="D157" s="13">
         <v>16.904762000000002</v>
       </c>
@@ -10782,10 +10784,10 @@
       <c r="A158" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="37" t="s">
+      <c r="B158" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="38"/>
+      <c r="C158" s="23"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -10801,10 +10803,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="37" t="s">
+      <c r="B159" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="38"/>
+      <c r="C159" s="23"/>
       <c r="D159" s="13">
         <v>744.19047599999999</v>
       </c>
@@ -10820,10 +10822,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="38"/>
+      <c r="C160" s="23"/>
       <c r="D160" s="13">
         <v>334.47618999999997</v>
       </c>
@@ -10839,10 +10841,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="37" t="s">
+      <c r="B161" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="38"/>
+      <c r="C161" s="23"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -10860,10 +10862,10 @@
       <c r="A162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="38"/>
+      <c r="C162" s="23"/>
       <c r="D162" s="13">
         <v>3057.3174600000002</v>
       </c>
@@ -10879,10 +10881,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="37" t="s">
+      <c r="B163" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="38"/>
+      <c r="C163" s="23"/>
       <c r="D163" s="13">
         <v>2099.333333</v>
       </c>
@@ -10898,10 +10900,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="38"/>
+      <c r="C164" s="23"/>
       <c r="D164" s="13">
         <v>941.88888899999995</v>
       </c>
@@ -10917,10 +10919,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="38"/>
+      <c r="C165" s="23"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -10955,6 +10957,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
@@ -10971,40 +11007,6 @@
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11029,15 +11031,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -11049,14 +11051,14 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -12809,41 +12811,41 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="30"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="22" t="s">
+      <c r="C92" s="27"/>
+      <c r="D92" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="22" t="s">
+      <c r="E92" s="37"/>
+      <c r="F92" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G92" s="23"/>
+      <c r="G92" s="37"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="44"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -13209,10 +13211,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="46"/>
+      <c r="C112" s="44"/>
       <c r="D112" s="15">
         <v>7.9509999999999997E-3</v>
       </c>
@@ -13227,15 +13229,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="30"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="33"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
@@ -13247,14 +13249,14 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="22" t="s">
+      <c r="E114" s="35"/>
+      <c r="F114" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="23"/>
+      <c r="G114" s="37"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -13892,41 +13894,41 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="30"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="33"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="31" t="s">
+      <c r="C149" s="27"/>
+      <c r="D149" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="32"/>
-      <c r="F149" s="22" t="s">
+      <c r="E149" s="35"/>
+      <c r="F149" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G149" s="23"/>
+      <c r="G149" s="37"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="44"/>
+      <c r="C150" s="46"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -14252,24 +14254,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="A1:G1"/>
@@ -14286,22 +14286,24 @@
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14311,8 +14313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9821191-4258-4FB4-B331-453D338A5B6C}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15297,11 +15299,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:G21"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -15309,6 +15306,11 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15320,7 +15322,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E3" sqref="E3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15362,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="21">
-        <f>D3/(C3+D3)</f>
+        <f t="shared" ref="E3:E14" si="0">D3/(C3+D3)</f>
         <v>0</v>
       </c>
     </row>
@@ -15377,7 +15379,7 @@
         <v>875.42220370955408</v>
       </c>
       <c r="E4" s="21">
-        <f>D4/(C4+D4)</f>
+        <f t="shared" si="0"/>
         <v>0.13014122106014084</v>
       </c>
     </row>
@@ -15392,7 +15394,7 @@
         <v>2114.5011404704774</v>
       </c>
       <c r="E5" s="21">
-        <f>D5/(C5+D5)</f>
+        <f t="shared" si="0"/>
         <v>0.29612099329377634</v>
       </c>
     </row>
@@ -15410,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="21">
-        <f>D6/(C6+D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -15425,7 +15427,7 @@
         <v>611.21288792567509</v>
       </c>
       <c r="E7" s="21">
-        <f>D7/(C7+D7)</f>
+        <f t="shared" si="0"/>
         <v>0.13052369032152197</v>
       </c>
     </row>
@@ -15440,7 +15442,7 @@
         <v>802.72456167004907</v>
       </c>
       <c r="E8" s="21">
-        <f>D8/(C8+D8)</f>
+        <f t="shared" si="0"/>
         <v>0.17645513277758704</v>
       </c>
     </row>
@@ -15458,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="21">
-        <f>D9/(C9+D9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -15473,7 +15475,7 @@
         <v>265.2636298662236</v>
       </c>
       <c r="E10" s="21">
-        <f>D10/(C10+D10)</f>
+        <f t="shared" si="0"/>
         <v>0.12917297591522811</v>
       </c>
     </row>
@@ -15488,7 +15490,7 @@
         <v>552.28330855365016</v>
       </c>
       <c r="E11" s="21">
-        <f>D11/(C11+D11)</f>
+        <f t="shared" si="0"/>
         <v>0.26085944904478819</v>
       </c>
     </row>
@@ -15506,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="21">
-        <f>D12/(C12+D12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -15521,7 +15523,7 @@
         <v>118.02875741010938</v>
       </c>
       <c r="E13" s="21">
-        <f>D13/(C13+D13)</f>
+        <f t="shared" si="0"/>
         <v>0.13080507972822306</v>
       </c>
     </row>
@@ -15536,7 +15538,7 @@
         <v>68.255438141081001</v>
       </c>
       <c r="E14" s="21">
-        <f>D14/(C14+D14)</f>
+        <f t="shared" si="0"/>
         <v>0.1264104675072221</v>
       </c>
     </row>

--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1214" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F8555D-992A-4C4C-A86E-1430E3605DCE}"/>
+  <xr:revisionPtr revIDLastSave="1230" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95423257-3DDC-49B5-824A-25B44F5D2368}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Identical VS Compatible" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Identical VS Compatible'!$A$1:$G$166</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="136">
   <si>
     <t>Waiting list</t>
   </si>
@@ -198,6 +198,258 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>21.333333,+/-1.445334</t>
+  </si>
+  <si>
+    <t>13741.920635,+/-25.360164</t>
+  </si>
+  <si>
+    <t>9.460317,+/-0.899927</t>
+  </si>
+  <si>
+    <t>8420.619048,+/-20.558014</t>
+  </si>
+  <si>
+    <t>5.904762,+/-0.786995</t>
+  </si>
+  <si>
+    <t>4078.698413,+/-19.389964</t>
+  </si>
+  <si>
+    <t>1.682540,+/-0.369765</t>
+  </si>
+  <si>
+    <t>950.158730,+/-9.881027</t>
+  </si>
+  <si>
+    <t>0.000000,+/-0.000000</t>
+  </si>
+  <si>
+    <t>939.634921,+/-8.399747</t>
+  </si>
+  <si>
+    <t>473.714286,+/-5.280153</t>
+  </si>
+  <si>
+    <t>280.968254,+/-3.737946</t>
+  </si>
+  <si>
+    <t>43.206349,+/-1.700399</t>
+  </si>
+  <si>
+    <t>1447.158730,+/-10.557350</t>
+  </si>
+  <si>
+    <t>817.809524,+/-8.626453</t>
+  </si>
+  <si>
+    <t>429.984127,+/-4.878143</t>
+  </si>
+  <si>
+    <t>75.238095,+/-1.961108</t>
+  </si>
+  <si>
+    <t>17.154793,+/-0.156215</t>
+  </si>
+  <si>
+    <t>0.026574,+/-0.000008</t>
+  </si>
+  <si>
+    <t>38.001513,+/-0.685964</t>
+  </si>
+  <si>
+    <t>0.043398,+/-0.000032</t>
+  </si>
+  <si>
+    <t>62.975079,+/-2.592059</t>
+  </si>
+  <si>
+    <t>0.089410,+/-0.000072</t>
+  </si>
+  <si>
+    <t>200.987811,+/-7.349107</t>
+  </si>
+  <si>
+    <t>0.383144,+/-0.000662</t>
+  </si>
+  <si>
+    <t>0.000074,+/-0.000001</t>
+  </si>
+  <si>
+    <t>3386.664035,+/-486.835014</t>
+  </si>
+  <si>
+    <t>0.000058,+/-0.000001</t>
+  </si>
+  <si>
+    <t>3278.725563,+/-472.648085</t>
+  </si>
+  <si>
+    <t>0.000078,+/-0.000001</t>
+  </si>
+  <si>
+    <t>3358.482666,+/-485.651360</t>
+  </si>
+  <si>
+    <t>0.000074,+/-0.000004</t>
+  </si>
+  <si>
+    <t>2892.136089,+/-448.087672</t>
+  </si>
+  <si>
+    <t>3386.613322,+/-486.835022</t>
+  </si>
+  <si>
+    <t>0.000001,+/-0.000000</t>
+  </si>
+  <si>
+    <t>3278.645704,+/-472.648100</t>
+  </si>
+  <si>
+    <t>3358.312834,+/-485.651168</t>
+  </si>
+  <si>
+    <t>2891.486406,+/-448.084060</t>
+  </si>
+  <si>
+    <t>0.050713,+/-0.000033</t>
+  </si>
+  <si>
+    <t>0.079859,+/-0.000045</t>
+  </si>
+  <si>
+    <t>0.169833,+/-0.000344</t>
+  </si>
+  <si>
+    <t>0.649683,+/-0.005627</t>
+  </si>
+  <si>
+    <t>0.001463,+/-0.000015</t>
+  </si>
+  <si>
+    <t>66802.378689,+/-9609.592641</t>
+  </si>
+  <si>
+    <t>0.000731,+/-0.000017</t>
+  </si>
+  <si>
+    <t>41072.989126,+/-5924.119097</t>
+  </si>
+  <si>
+    <t>0.000462,+/-0.000008</t>
+  </si>
+  <si>
+    <t>19723.780907,+/-2841.985091</t>
+  </si>
+  <si>
+    <t>0.000114,+/-0.000007</t>
+  </si>
+  <si>
+    <t>4394.216966,+/-670.551003</t>
+  </si>
+  <si>
+    <t>66801.378750,+/-9609.592625</t>
+  </si>
+  <si>
+    <t>0.000006,+/-0.000001</t>
+  </si>
+  <si>
+    <t>41071.989163,+/-5924.119088</t>
+  </si>
+  <si>
+    <t>19722.781089,+/-2841.985043</t>
+  </si>
+  <si>
+    <t>4393.217460,+/-670.550878</t>
+  </si>
+  <si>
+    <t>0.001223,+/-0.000000</t>
+  </si>
+  <si>
+    <t>0.031984,+/-0.000001</t>
+  </si>
+  <si>
+    <t>0.000861,+/-0.000000</t>
+  </si>
+  <si>
+    <t>0.031984,+/-0.000000</t>
+  </si>
+  <si>
+    <t>0.000687,+/-0.000000</t>
+  </si>
+  <si>
+    <t>0.031982,+/-0.000008</t>
+  </si>
+  <si>
+    <t>0.000342,+/-0.000000</t>
+  </si>
+  <si>
+    <t>0.031977,+/-0.000055</t>
+  </si>
+  <si>
+    <t>7178.968254,+/-36.423078</t>
+  </si>
+  <si>
+    <t>4562.412698,+/-27.825458</t>
+  </si>
+  <si>
+    <t>2131.603175,+/-22.465398</t>
+  </si>
+  <si>
+    <t>545.587302,+/-44.020774</t>
+  </si>
+  <si>
+    <t>14.730159,+/-1.051321</t>
+  </si>
+  <si>
+    <t>5045.619048,+/-29.434229</t>
+  </si>
+  <si>
+    <t>7.857143,+/-0.753991</t>
+  </si>
+  <si>
+    <t>3751.761905,+/-25.929158</t>
+  </si>
+  <si>
+    <t>4.333333,+/-0.517715</t>
+  </si>
+  <si>
+    <t>1581.634921,+/-17.356178</t>
+  </si>
+  <si>
+    <t>1.444444,+/-0.319134</t>
+  </si>
+  <si>
+    <t>475.746032,+/-38.338517</t>
+  </si>
+  <si>
+    <t>6.587302,+/-0.790782</t>
+  </si>
+  <si>
+    <t>2121.222222,+/-14.775447</t>
+  </si>
+  <si>
+    <t>1.587302,+/-0.363655</t>
+  </si>
+  <si>
+    <t>807.571429,+/-10.500560</t>
+  </si>
+  <si>
+    <t>1.571429,+/-0.442531</t>
+  </si>
+  <si>
+    <t>546.793651,+/-7.729970</t>
+  </si>
+  <si>
+    <t>0.238095,+/-0.133528</t>
+  </si>
+  <si>
+    <t>69.841270,+/-5.671326</t>
+  </si>
+  <si>
+    <t>1145.651809,+/-0.001085</t>
   </si>
 </sst>
 </file>
@@ -408,48 +660,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,22 +675,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3494,7 +3746,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F480441-6C5B-4F77-978B-A5FDCB2D6E52}" type="CELLRANGE">
+                    <a:fld id="{E370AD63-D70A-4A8F-AC5D-97077607FC44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3533,7 +3785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{995FDF3F-66D6-48BD-BDEC-58D1B411EC9F}" type="CELLRANGE">
+                    <a:fld id="{27B511AF-90A8-4B28-AD75-D5111CC43778}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3572,7 +3824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A139890-6563-43FC-B1FA-3455445C9605}" type="CELLRANGE">
+                    <a:fld id="{766BE3B0-C93E-4117-A551-AA5BB32A5580}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3611,7 +3863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{256FE2CF-A487-4448-BD38-454BECC18FBD}" type="CELLRANGE">
+                    <a:fld id="{2333C7AD-26DE-41EB-A5E5-C08A21156650}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3650,7 +3902,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42AF4274-D8B1-4184-BEDE-0168A5A6C8CD}" type="CELLRANGE">
+                    <a:fld id="{7BB8B896-057B-4F9C-A9FF-7B9D692C6EC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3689,7 +3941,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A527C99-760C-4D52-A6E3-FED4E16A2D4B}" type="CELLRANGE">
+                    <a:fld id="{46161D51-71DC-4125-9BA4-7FFC17CEBB4D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3728,7 +3980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7E627BE-C5E3-432F-BB7A-2E89A227FEA5}" type="CELLRANGE">
+                    <a:fld id="{CA27DB66-A2AB-46D3-A1CC-266BAE23D6B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3767,7 +4019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E43CC2E-AAC9-4D98-B744-90A92ED0BA7B}" type="CELLRANGE">
+                    <a:fld id="{99DB8F4C-F5D9-4540-8455-35E5840A6C96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3806,7 +4058,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEAC2B71-DC87-40B5-A4C6-FB81EE232953}" type="CELLRANGE">
+                    <a:fld id="{F209BCCE-9E59-4B70-B853-1733FE4D3544}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3845,7 +4097,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D81039A-7BF6-4BF9-863F-81B4826605B5}" type="CELLRANGE">
+                    <a:fld id="{45D88631-ADC9-40DF-8D86-B306682F9AD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3884,7 +4136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{720587D1-9810-458F-B200-DEF3D3B076BF}" type="CELLRANGE">
+                    <a:fld id="{B28BC0CD-4094-488B-A013-07D45249C3AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3923,7 +4175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99A389B4-415C-4EA3-A9E2-DD459837D3DE}" type="CELLRANGE">
+                    <a:fld id="{88ADF719-6DBD-4C2D-9670-637F4ED60EFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7056,15 +7308,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -7076,14 +7328,14 @@
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9340,41 +9592,41 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="33"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="34" t="s">
+      <c r="C92" s="34"/>
+      <c r="D92" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="35"/>
-      <c r="F92" s="36" t="s">
+      <c r="E92" s="32"/>
+      <c r="F92" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="37"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="29"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -9390,10 +9642,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="23"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="13">
         <v>3166.8571430000002</v>
       </c>
@@ -9409,10 +9661,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="23"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -9428,10 +9680,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="23"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -9449,10 +9701,10 @@
       <c r="A97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="23"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="13">
         <v>3736.2698409999998</v>
       </c>
@@ -9468,10 +9720,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="23"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="13">
         <v>1625.1746029999999</v>
       </c>
@@ -9487,10 +9739,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="23"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="13">
         <v>490.31745999999998</v>
       </c>
@@ -9506,10 +9758,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="23"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="13">
         <v>74.539682999999997</v>
       </c>
@@ -9527,10 +9779,10 @@
       <c r="A101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="23"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -9546,10 +9798,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="23"/>
+      <c r="C102" s="38"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -9565,10 +9817,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="23"/>
+      <c r="C103" s="38"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -9584,10 +9836,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="23"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="13">
         <v>0</v>
       </c>
@@ -9605,10 +9857,10 @@
       <c r="A105" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="23"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -9624,10 +9876,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="23"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="13">
         <v>0.114799</v>
       </c>
@@ -9643,10 +9895,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="23"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -9662,10 +9914,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="23"/>
+      <c r="C108" s="38"/>
       <c r="D108" s="13">
         <v>1.258319</v>
       </c>
@@ -9683,10 +9935,10 @@
       <c r="A109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="23"/>
+      <c r="C109" s="38"/>
       <c r="D109" s="13">
         <v>4.1E-5</v>
       </c>
@@ -9702,10 +9954,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" s="38"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -9721,10 +9973,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="23"/>
+      <c r="C111" s="38"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -9740,10 +9992,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="25"/>
+      <c r="C112" s="40"/>
       <c r="D112" s="15">
         <v>0</v>
       </c>
@@ -9758,15 +10010,15 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="33"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="30"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
@@ -9778,14 +10030,14 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="35"/>
-      <c r="F114" s="34" t="s">
+      <c r="E114" s="32"/>
+      <c r="F114" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="35"/>
+      <c r="G114" s="32"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -10597,41 +10849,41 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="33"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="30"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="27"/>
-      <c r="D149" s="34" t="s">
+      <c r="C149" s="34"/>
+      <c r="D149" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="35"/>
-      <c r="F149" s="34" t="s">
+      <c r="E149" s="32"/>
+      <c r="F149" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="35"/>
+      <c r="G149" s="32"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="28" t="s">
+      <c r="B150" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="29"/>
+      <c r="C150" s="36"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -10647,10 +10899,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="23"/>
+      <c r="C151" s="38"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -10666,10 +10918,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="23"/>
+      <c r="C152" s="38"/>
       <c r="D152" s="13">
         <v>1290.6349210000001</v>
       </c>
@@ -10685,10 +10937,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="23"/>
+      <c r="C153" s="38"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -10706,10 +10958,10 @@
       <c r="A154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="23"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -10725,10 +10977,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="23"/>
+      <c r="C155" s="38"/>
       <c r="D155" s="13">
         <v>33.063491999999997</v>
       </c>
@@ -10744,10 +10996,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="23"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="13">
         <v>14.253968</v>
       </c>
@@ -10763,10 +11015,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="22" t="s">
+      <c r="B157" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="23"/>
+      <c r="C157" s="38"/>
       <c r="D157" s="13">
         <v>16.904762000000002</v>
       </c>
@@ -10784,10 +11036,10 @@
       <c r="A158" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="23"/>
+      <c r="C158" s="38"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -10803,10 +11055,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="23"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="13">
         <v>744.19047599999999</v>
       </c>
@@ -10822,10 +11074,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="22" t="s">
+      <c r="B160" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="23"/>
+      <c r="C160" s="38"/>
       <c r="D160" s="13">
         <v>334.47618999999997</v>
       </c>
@@ -10841,10 +11093,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="23"/>
+      <c r="C161" s="38"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -10862,10 +11114,10 @@
       <c r="A162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="23"/>
+      <c r="C162" s="38"/>
       <c r="D162" s="13">
         <v>3057.3174600000002</v>
       </c>
@@ -10881,10 +11133,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="23"/>
+      <c r="C163" s="38"/>
       <c r="D163" s="13">
         <v>2099.333333</v>
       </c>
@@ -10900,10 +11152,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="23"/>
+      <c r="C164" s="38"/>
       <c r="D164" s="13">
         <v>941.88888899999995</v>
       </c>
@@ -10919,10 +11171,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="23"/>
+      <c r="C165" s="38"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -10957,24 +11209,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
@@ -10991,22 +11241,24 @@
     <mergeCell ref="B155:C155"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11014,10 +11266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2317ED-57BA-4FAE-A3A8-363C38207229}">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11030,18 +11282,18 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11051,16 +11303,16 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -11082,8 +11334,11 @@
       <c r="G3" s="6">
         <v>1.4166129999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
@@ -11101,8 +11356,11 @@
       <c r="G4" s="5">
         <v>27.010034999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -11122,8 +11380,11 @@
       <c r="G5" s="5">
         <v>1.072106</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
@@ -11141,8 +11402,11 @@
       <c r="G6" s="5">
         <v>24.738596000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -11162,8 +11426,11 @@
       <c r="G7" s="5">
         <v>0.80625800000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
@@ -11181,8 +11448,11 @@
       <c r="G8" s="5">
         <v>18.665156</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -11202,8 +11472,11 @@
       <c r="G9" s="5">
         <v>0.46726899999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
@@ -11221,8 +11494,11 @@
       <c r="G10" s="5">
         <v>8.9651230000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -11244,8 +11520,11 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
@@ -11263,8 +11542,11 @@
       <c r="G12" s="5">
         <v>7.4287089999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -11284,8 +11566,11 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
@@ -11303,8 +11588,11 @@
       <c r="G14" s="5">
         <v>5.3132349999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -11324,8 +11612,11 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
@@ -11343,8 +11634,11 @@
       <c r="G16" s="5">
         <v>3.8257910000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -11364,8 +11658,11 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
@@ -11383,8 +11680,11 @@
       <c r="G18" s="5">
         <v>2.0189119999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -11406,8 +11706,11 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
@@ -11425,8 +11728,11 @@
       <c r="G20" s="5">
         <v>8.7714560000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -11446,8 +11752,11 @@
       <c r="G21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
@@ -11465,8 +11774,11 @@
       <c r="G22" s="5">
         <v>7.8652519999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -11486,8 +11798,11 @@
       <c r="G23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
@@ -11505,8 +11820,11 @@
       <c r="G24" s="5">
         <v>5.4624879999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -11526,8 +11844,11 @@
       <c r="G25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
@@ -11545,8 +11866,11 @@
       <c r="G26" s="5">
         <v>2.4832360000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -11564,8 +11888,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
@@ -11579,8 +11906,11 @@
         <v>267139</v>
       </c>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>267080</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -11596,8 +11926,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5" t="s">
@@ -11611,8 +11944,11 @@
         <v>163826</v>
       </c>
       <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>164213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -11628,8 +11964,11 @@
         <v>0</v>
       </c>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="5" t="s">
@@ -11643,8 +11982,11 @@
         <v>78997</v>
       </c>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>79103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -11660,8 +12002,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="5" t="s">
@@ -11675,8 +12020,11 @@
         <v>18337</v>
       </c>
       <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>18431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -11698,8 +12046,11 @@
       <c r="G35" s="5">
         <v>0.18053</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="5" t="s">
@@ -11717,8 +12068,11 @@
       <c r="G36" s="5">
         <v>1.4E-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -11738,8 +12092,11 @@
       <c r="G37" s="5">
         <v>0.43654799999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="5" t="s">
@@ -11757,8 +12114,11 @@
       <c r="G38" s="5">
         <v>4.1E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>11</v>
@@ -11778,8 +12138,11 @@
       <c r="G39" s="5">
         <v>1.8624240000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="5" t="s">
@@ -11797,8 +12160,11 @@
       <c r="G40" s="5">
         <v>1.03E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -11818,8 +12184,11 @@
       <c r="G41" s="5">
         <v>9.3539189999999994</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="5" t="s">
@@ -11837,8 +12206,11 @@
       <c r="G42" s="5">
         <v>3.9199999999999999E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -11860,8 +12232,11 @@
       <c r="G43" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="5" t="s">
@@ -11879,8 +12254,11 @@
       <c r="G44" s="5">
         <v>486.44296200000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -11900,8 +12278,11 @@
       <c r="G45" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="5" t="s">
@@ -11919,8 +12300,11 @@
       <c r="G46" s="5">
         <v>470.14299999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>11</v>
@@ -11940,8 +12324,11 @@
       <c r="G47" s="5">
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="5" t="s">
@@ -11959,8 +12346,11 @@
       <c r="G48" s="5">
         <v>484.147626</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -11980,8 +12370,11 @@
       <c r="G49" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="5" t="s">
@@ -11999,8 +12392,11 @@
       <c r="G50" s="5">
         <v>451.65997399999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -12022,8 +12418,11 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="5" t="s">
@@ -12041,8 +12440,11 @@
       <c r="G52" s="5">
         <v>486.44297599999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -12062,8 +12464,11 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="5" t="s">
@@ -12081,8 +12486,11 @@
       <c r="G54" s="5">
         <v>470.143036</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -12102,8 +12510,11 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
@@ -12121,8 +12532,11 @@
       <c r="G56" s="5">
         <v>484.14729499999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -12142,8 +12556,11 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="5" t="s">
@@ -12161,8 +12578,11 @@
       <c r="G58" s="5">
         <v>451.65598399999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -12184,8 +12604,11 @@
       <c r="G59" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="5" t="s">
@@ -12203,8 +12626,11 @@
       <c r="G60" s="5">
         <v>3.1000000000000001E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>10</v>
@@ -12224,8 +12650,11 @@
       <c r="G61" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="5" t="s">
@@ -12243,8 +12672,11 @@
       <c r="G62" s="5">
         <v>6.6000000000000005E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>11</v>
@@ -12264,8 +12696,11 @@
       <c r="G63" s="5">
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="5" t="s">
@@ -12283,8 +12718,11 @@
       <c r="G64" s="5">
         <v>3.77E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -12304,8 +12742,11 @@
       <c r="G65" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
@@ -12323,8 +12764,11 @@
       <c r="G66" s="5">
         <v>5.2950000000000002E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
@@ -12346,8 +12790,11 @@
       <c r="G67" s="5">
         <v>3.1000000000000001E-5</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="5" t="s">
@@ -12365,8 +12812,11 @@
       <c r="G68" s="5">
         <v>9601.9932059999992</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>10</v>
@@ -12386,8 +12836,11 @@
       <c r="G69" s="5">
         <v>1.1E-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="5" t="s">
@@ -12405,8 +12858,11 @@
       <c r="G70" s="5">
         <v>5906.7681140000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>11</v>
@@ -12426,8 +12882,11 @@
       <c r="G71" s="5">
         <v>1.8E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="5" t="s">
@@ -12445,8 +12904,11 @@
       <c r="G72" s="5">
         <v>2829.0128249999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -12466,8 +12928,11 @@
       <c r="G73" s="5">
         <v>7.9999999999999996E-6</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="5" t="s">
@@ -12485,8 +12950,11 @@
       <c r="G74" s="5">
         <v>666.14050099999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -12508,8 +12976,11 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="5" t="s">
@@ -12527,8 +12998,11 @@
       <c r="G76" s="5">
         <v>9601.9931899999992</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>10</v>
@@ -12548,8 +13022,11 @@
       <c r="G77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="5" t="s">
@@ -12567,8 +13044,11 @@
       <c r="G78" s="5">
         <v>5906.7681039999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>11</v>
@@ -12588,8 +13068,11 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="5" t="s">
@@ -12607,8 +13090,11 @@
       <c r="G80" s="5">
         <v>2829.0127769999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -12628,8 +13114,11 @@
       <c r="G81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5" t="s">
@@ -12647,8 +13136,11 @@
       <c r="G82" s="5">
         <v>666.14038000000005</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
@@ -12670,8 +13162,11 @@
       <c r="G83" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5" t="s">
@@ -12689,8 +13184,11 @@
       <c r="G84" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>10</v>
@@ -12710,8 +13208,11 @@
       <c r="G85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5" t="s">
@@ -12729,8 +13230,11 @@
       <c r="G86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>11</v>
@@ -12750,8 +13254,11 @@
       <c r="G87" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5" t="s">
@@ -12769,8 +13276,11 @@
       <c r="G88" s="5">
         <v>7.9999999999999996E-6</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -12790,8 +13300,11 @@
       <c r="G89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="4" t="s">
@@ -12809,43 +13322,46 @@
       <c r="G90" s="4">
         <v>5.1999999999999997E-5</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="30" t="s">
+      <c r="H90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="33"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="30"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="36" t="s">
+      <c r="C92" s="34"/>
+      <c r="D92" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="37"/>
-      <c r="F92" s="36" t="s">
+      <c r="E92" s="23"/>
+      <c r="F92" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G92" s="37"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="23"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="46"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -12859,7 +13375,7 @@
         <v>14.233064000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="41" t="s">
         <v>10</v>
@@ -12878,7 +13394,7 @@
         <v>14.342587999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="41" t="s">
         <v>11</v>
@@ -12897,7 +13413,7 @@
         <v>8.5215650000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="41" t="s">
         <v>12</v>
@@ -13211,10 +13727,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="44"/>
+      <c r="C112" s="46"/>
       <c r="D112" s="15">
         <v>7.9509999999999997E-3</v>
       </c>
@@ -13228,18 +13744,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="33"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="30"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -13249,16 +13765,16 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="35"/>
-      <c r="F114" s="36" t="s">
+      <c r="E114" s="32"/>
+      <c r="F114" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="37"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>42</v>
       </c>
@@ -13280,8 +13796,11 @@
       <c r="G115" s="6">
         <v>1.4166129999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
@@ -13299,8 +13818,11 @@
       <c r="G116" s="5">
         <v>40.083644</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
@@ -13320,8 +13842,11 @@
       <c r="G117" s="5">
         <v>1.072106</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
@@ -13339,8 +13864,11 @@
       <c r="G118" s="5">
         <v>30.999828999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>11</v>
@@ -13360,8 +13888,11 @@
       <c r="G119" s="5">
         <v>0.80625800000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
@@ -13379,8 +13910,11 @@
       <c r="G120" s="5">
         <v>24.449608999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>12</v>
@@ -13400,8 +13934,11 @@
       <c r="G121" s="5">
         <v>0.46726899999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
@@ -13419,8 +13956,11 @@
       <c r="G122" s="5">
         <v>42.882693000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>43</v>
       </c>
@@ -13442,8 +13982,11 @@
       <c r="G123" s="5">
         <v>1.0453730000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
@@ -13461,8 +14004,11 @@
       <c r="G124" s="5">
         <v>37.482349999999997</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>10</v>
@@ -13482,8 +14028,11 @@
       <c r="G125" s="5">
         <v>0.74667600000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
@@ -13501,8 +14050,11 @@
       <c r="G126" s="5">
         <v>30.266378</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>11</v>
@@ -13522,8 +14074,11 @@
       <c r="G127" s="5">
         <v>0.57190200000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
@@ -13541,8 +14096,11 @@
       <c r="G128" s="5">
         <v>17.392619</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>12</v>
@@ -13562,8 +14120,11 @@
       <c r="G129" s="5">
         <v>0.289128</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
@@ -13581,8 +14142,11 @@
       <c r="G130" s="5">
         <v>34.713512000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>44</v>
       </c>
@@ -13604,8 +14168,11 @@
       <c r="G131" s="5">
         <v>0.82595600000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
@@ -13623,8 +14190,11 @@
       <c r="G132" s="5">
         <v>16.595443</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>10</v>
@@ -13644,8 +14214,11 @@
       <c r="G133" s="5">
         <v>0.438143</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
@@ -13663,8 +14236,11 @@
       <c r="G134" s="5">
         <v>8.9445259999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>11</v>
@@ -13684,8 +14260,11 @@
       <c r="G135" s="5">
         <v>0.45778999999999997</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
@@ -13703,8 +14282,11 @@
       <c r="G136" s="5">
         <v>9.0717809999999997</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>12</v>
@@ -13724,8 +14306,11 @@
       <c r="G137" s="5">
         <v>0.19300400000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
@@ -13743,8 +14328,11 @@
       <c r="G138" s="5">
         <v>5.5557220000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>33</v>
       </c>
@@ -13762,8 +14350,11 @@
         <v>29.970545000000001</v>
       </c>
       <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>30.955881999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
@@ -13777,8 +14368,11 @@
         <v>29.617584000000001</v>
       </c>
       <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>29.592106000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>10</v>
@@ -13794,8 +14388,11 @@
         <v>15.371900999999999</v>
       </c>
       <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>16.721854</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
@@ -13809,8 +14406,11 @@
         <v>17.645303999999999</v>
       </c>
       <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>17.721119999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>11</v>
@@ -13826,8 +14426,11 @@
         <v>28.873239000000002</v>
       </c>
       <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>26.470587999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
@@ -13841,8 +14444,11 @@
         <v>26.084781</v>
       </c>
       <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>25.698036999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>12</v>
@@ -13858,8 +14464,11 @@
         <v>15.044248</v>
       </c>
       <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>14.018692</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" t="s">
@@ -13873,8 +14482,11 @@
         <v>12.637568999999999</v>
       </c>
       <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>12.795745</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>34</v>
       </c>
@@ -13892,43 +14504,46 @@
       <c r="G147" s="4">
         <v>1.093E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="30" t="s">
+      <c r="H147" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="33"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="30"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="27"/>
-      <c r="D149" s="34" t="s">
+      <c r="C149" s="34"/>
+      <c r="D149" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="35"/>
-      <c r="F149" s="36" t="s">
+      <c r="E149" s="32"/>
+      <c r="F149" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G149" s="37"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G149" s="23"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="45" t="s">
+      <c r="B150" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="46"/>
+      <c r="C150" s="44"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -13942,7 +14557,7 @@
         <v>15.413743999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="41" t="s">
         <v>10</v>
@@ -13961,7 +14576,7 @@
         <v>12.653134</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="41" t="s">
         <v>11</v>
@@ -13980,7 +14595,7 @@
         <v>8.2955939999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="41" t="s">
         <v>12</v>
@@ -13999,7 +14614,7 @@
         <v>5.0334070000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>37</v>
       </c>
@@ -14020,7 +14635,7 @@
         <v>1.471732</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="41" t="s">
         <v>10</v>
@@ -14039,7 +14654,7 @@
         <v>1.4248769999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="41" t="s">
         <v>11</v>
@@ -14058,7 +14673,7 @@
         <v>0.96849799999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="41" t="s">
         <v>12</v>
@@ -14077,7 +14692,7 @@
         <v>2.1031439999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>38</v>
       </c>
@@ -14098,7 +14713,7 @@
         <v>7.9043299999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="41" t="s">
         <v>10</v>
@@ -14117,7 +14732,7 @@
         <v>6.4115289999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="41" t="s">
         <v>11</v>
@@ -14254,6 +14869,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="F92:G92"/>
     <mergeCell ref="D114:E114"/>
@@ -14270,40 +14919,6 @@
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15299,6 +15914,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -15306,11 +15926,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15321,8 +15936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB009BC-50CA-4201-85F6-EEF4C2C550C5}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/comparazioni.xlsx
+++ b/data/comparazioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1230" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95423257-3DDC-49B5-824A-25B44F5D2368}"/>
+  <xr:revisionPtr revIDLastSave="1283" documentId="8_{E9DA16B5-D2F2-4171-AC27-5E17BCEA9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96001BF2-9B51-4EDA-AD58-4ADD5EDF58EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA442C77-0058-4E5D-AB51-BAFF26F9EAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Identical VS Compatible" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Identical VS Compatible'!$A$1:$G$166</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="52">
   <si>
     <t>Waiting list</t>
   </si>
@@ -198,258 +198,6 @@
   </si>
   <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t>21.333333,+/-1.445334</t>
-  </si>
-  <si>
-    <t>13741.920635,+/-25.360164</t>
-  </si>
-  <si>
-    <t>9.460317,+/-0.899927</t>
-  </si>
-  <si>
-    <t>8420.619048,+/-20.558014</t>
-  </si>
-  <si>
-    <t>5.904762,+/-0.786995</t>
-  </si>
-  <si>
-    <t>4078.698413,+/-19.389964</t>
-  </si>
-  <si>
-    <t>1.682540,+/-0.369765</t>
-  </si>
-  <si>
-    <t>950.158730,+/-9.881027</t>
-  </si>
-  <si>
-    <t>0.000000,+/-0.000000</t>
-  </si>
-  <si>
-    <t>939.634921,+/-8.399747</t>
-  </si>
-  <si>
-    <t>473.714286,+/-5.280153</t>
-  </si>
-  <si>
-    <t>280.968254,+/-3.737946</t>
-  </si>
-  <si>
-    <t>43.206349,+/-1.700399</t>
-  </si>
-  <si>
-    <t>1447.158730,+/-10.557350</t>
-  </si>
-  <si>
-    <t>817.809524,+/-8.626453</t>
-  </si>
-  <si>
-    <t>429.984127,+/-4.878143</t>
-  </si>
-  <si>
-    <t>75.238095,+/-1.961108</t>
-  </si>
-  <si>
-    <t>17.154793,+/-0.156215</t>
-  </si>
-  <si>
-    <t>0.026574,+/-0.000008</t>
-  </si>
-  <si>
-    <t>38.001513,+/-0.685964</t>
-  </si>
-  <si>
-    <t>0.043398,+/-0.000032</t>
-  </si>
-  <si>
-    <t>62.975079,+/-2.592059</t>
-  </si>
-  <si>
-    <t>0.089410,+/-0.000072</t>
-  </si>
-  <si>
-    <t>200.987811,+/-7.349107</t>
-  </si>
-  <si>
-    <t>0.383144,+/-0.000662</t>
-  </si>
-  <si>
-    <t>0.000074,+/-0.000001</t>
-  </si>
-  <si>
-    <t>3386.664035,+/-486.835014</t>
-  </si>
-  <si>
-    <t>0.000058,+/-0.000001</t>
-  </si>
-  <si>
-    <t>3278.725563,+/-472.648085</t>
-  </si>
-  <si>
-    <t>0.000078,+/-0.000001</t>
-  </si>
-  <si>
-    <t>3358.482666,+/-485.651360</t>
-  </si>
-  <si>
-    <t>0.000074,+/-0.000004</t>
-  </si>
-  <si>
-    <t>2892.136089,+/-448.087672</t>
-  </si>
-  <si>
-    <t>3386.613322,+/-486.835022</t>
-  </si>
-  <si>
-    <t>0.000001,+/-0.000000</t>
-  </si>
-  <si>
-    <t>3278.645704,+/-472.648100</t>
-  </si>
-  <si>
-    <t>3358.312834,+/-485.651168</t>
-  </si>
-  <si>
-    <t>2891.486406,+/-448.084060</t>
-  </si>
-  <si>
-    <t>0.050713,+/-0.000033</t>
-  </si>
-  <si>
-    <t>0.079859,+/-0.000045</t>
-  </si>
-  <si>
-    <t>0.169833,+/-0.000344</t>
-  </si>
-  <si>
-    <t>0.649683,+/-0.005627</t>
-  </si>
-  <si>
-    <t>0.001463,+/-0.000015</t>
-  </si>
-  <si>
-    <t>66802.378689,+/-9609.592641</t>
-  </si>
-  <si>
-    <t>0.000731,+/-0.000017</t>
-  </si>
-  <si>
-    <t>41072.989126,+/-5924.119097</t>
-  </si>
-  <si>
-    <t>0.000462,+/-0.000008</t>
-  </si>
-  <si>
-    <t>19723.780907,+/-2841.985091</t>
-  </si>
-  <si>
-    <t>0.000114,+/-0.000007</t>
-  </si>
-  <si>
-    <t>4394.216966,+/-670.551003</t>
-  </si>
-  <si>
-    <t>66801.378750,+/-9609.592625</t>
-  </si>
-  <si>
-    <t>0.000006,+/-0.000001</t>
-  </si>
-  <si>
-    <t>41071.989163,+/-5924.119088</t>
-  </si>
-  <si>
-    <t>19722.781089,+/-2841.985043</t>
-  </si>
-  <si>
-    <t>4393.217460,+/-670.550878</t>
-  </si>
-  <si>
-    <t>0.001223,+/-0.000000</t>
-  </si>
-  <si>
-    <t>0.031984,+/-0.000001</t>
-  </si>
-  <si>
-    <t>0.000861,+/-0.000000</t>
-  </si>
-  <si>
-    <t>0.031984,+/-0.000000</t>
-  </si>
-  <si>
-    <t>0.000687,+/-0.000000</t>
-  </si>
-  <si>
-    <t>0.031982,+/-0.000008</t>
-  </si>
-  <si>
-    <t>0.000342,+/-0.000000</t>
-  </si>
-  <si>
-    <t>0.031977,+/-0.000055</t>
-  </si>
-  <si>
-    <t>7178.968254,+/-36.423078</t>
-  </si>
-  <si>
-    <t>4562.412698,+/-27.825458</t>
-  </si>
-  <si>
-    <t>2131.603175,+/-22.465398</t>
-  </si>
-  <si>
-    <t>545.587302,+/-44.020774</t>
-  </si>
-  <si>
-    <t>14.730159,+/-1.051321</t>
-  </si>
-  <si>
-    <t>5045.619048,+/-29.434229</t>
-  </si>
-  <si>
-    <t>7.857143,+/-0.753991</t>
-  </si>
-  <si>
-    <t>3751.761905,+/-25.929158</t>
-  </si>
-  <si>
-    <t>4.333333,+/-0.517715</t>
-  </si>
-  <si>
-    <t>1581.634921,+/-17.356178</t>
-  </si>
-  <si>
-    <t>1.444444,+/-0.319134</t>
-  </si>
-  <si>
-    <t>475.746032,+/-38.338517</t>
-  </si>
-  <si>
-    <t>6.587302,+/-0.790782</t>
-  </si>
-  <si>
-    <t>2121.222222,+/-14.775447</t>
-  </si>
-  <si>
-    <t>1.587302,+/-0.363655</t>
-  </si>
-  <si>
-    <t>807.571429,+/-10.500560</t>
-  </si>
-  <si>
-    <t>1.571429,+/-0.442531</t>
-  </si>
-  <si>
-    <t>546.793651,+/-7.729970</t>
-  </si>
-  <si>
-    <t>0.238095,+/-0.133528</t>
-  </si>
-  <si>
-    <t>69.841270,+/-5.671326</t>
-  </si>
-  <si>
-    <t>1145.651809,+/-0.001085</t>
   </si>
 </sst>
 </file>
@@ -660,6 +408,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,64 +465,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1116,16 +864,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9123.4876560775519</c:v>
+                    <c:v>9091.4500056365487</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5661.4171048327935</c:v>
+                    <c:v>5675.6667915934322</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2711.8710951705002</c:v>
+                    <c:v>2731.1344426238093</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>633.14061183703359</c:v>
+                    <c:v>646.36286936577267</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1137,16 +885,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9123.4876560775519</c:v>
+                    <c:v>9091.4500056365487</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5661.4171048327935</c:v>
+                    <c:v>5675.6667915934322</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2711.8710951705002</c:v>
+                    <c:v>2731.1344426238093</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>633.14061183703359</c:v>
+                    <c:v>646.36286936577267</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1192,16 +940,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66402.088114415907</c:v>
+                  <c:v>66697.835208550794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40870.609749471114</c:v>
+                  <c:v>41025.897777566672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19662.54106124676</c:v>
+                  <c:v>19694.269548632645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4375.5882666695334</c:v>
+                  <c:v>4385.4517070975771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,16 +1597,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7.0585068663324284</c:v>
+                    <c:v>7.9468384239124381</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0925377433771457</c:v>
+                    <c:v>5.0587080697137718</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6673754581149582</c:v>
+                    <c:v>3.5921487660228677</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9188976037230003</c:v>
+                    <c:v>1.6390624675413372</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1870,16 +1618,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>7.0585068663324284</c:v>
+                    <c:v>7.9468384239124381</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0925377433771457</c:v>
+                    <c:v>5.0587080697137718</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6673754581149582</c:v>
+                    <c:v>3.5921487660228677</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9188976037230003</c:v>
+                    <c:v>1.6390624675413372</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1925,16 +1673,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>944.32929397655766</c:v>
+                  <c:v>938.17846711818333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>469.23505964415637</c:v>
+                  <c:v>473.18267922396012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>285.95457992075774</c:v>
+                  <c:v>280.56208218884836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.714132855098114</c:v>
+                  <c:v>43.129974490155035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,16 +1954,16 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>7.0585068663324284</c:v>
+                        <c:v>7.9468384239124381</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.0925377433771457</c:v>
+                        <c:v>5.0587080697137718</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.6673754581149582</c:v>
+                        <c:v>3.5921487660228677</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.9188976037230003</c:v>
+                        <c:v>1.6390624675413372</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2854,16 +2602,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>462.20158659804559</c:v>
+                    <c:v>460.58521273746186</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>450.61457955763677</c:v>
+                    <c:v>452.82565819681389</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>464.10007964254777</c:v>
+                    <c:v>466.70851955827197</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>429.28150677431893</c:v>
+                    <c:v>431.92084037307757</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2875,16 +2623,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>462.20158659804559</c:v>
+                    <c:v>460.58521273746186</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>450.61457955763677</c:v>
+                    <c:v>452.82565819681389</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>464.10007964254777</c:v>
+                    <c:v>466.70851955827197</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>429.28150677431893</c:v>
+                    <c:v>431.92084037307757</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2930,16 +2678,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3370.0043227310794</c:v>
+                  <c:v>3381.3640001529684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3257.0582027419064</c:v>
+                  <c:v>3274.9663759251252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3339.8480593291247</c:v>
+                  <c:v>3353.4580079234579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2907.1316406144851</c:v>
+                  <c:v>2886.3752160454487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3211,16 +2959,16 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>7.0585068663324284</c:v>
+                        <c:v>7.9468384239124381</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.0925377433771457</c:v>
+                        <c:v>5.0587080697137718</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.6673754581149582</c:v>
+                        <c:v>3.5921487660228677</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.9188976037230003</c:v>
+                        <c:v>1.6390624675413372</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3667,7 +3415,7 @@
                   <c:v>5851.2874166420497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5026.1649668214113</c:v>
+                  <c:v>5030.7133351408584</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4772.2861738764987</c:v>
@@ -3676,7 +3424,7 @@
                   <c:v>4071.5606868948071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3746.4463750679811</c:v>
+                  <c:v>3744.0148556506147</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1493.4455990274168</c:v>
@@ -3685,7 +3433,7 @@
                   <c:v>1788.2899713166366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1564.8848085147335</c:v>
+                  <c:v>1577.2777018673153</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>361.02989268425119</c:v>
@@ -3694,7 +3442,7 @@
                   <c:v>784.29673067751412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>471.69540206272904</c:v>
+                  <c:v>474.28782741310528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3746,7 +3494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E370AD63-D70A-4A8F-AC5D-97077607FC44}" type="CELLRANGE">
+                    <a:fld id="{EAE69BAC-FA44-4A54-8682-45F6FE03AF61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3785,7 +3533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27B511AF-90A8-4B28-AD75-D5111CC43778}" type="CELLRANGE">
+                    <a:fld id="{476DB757-F397-4A2D-B93A-F096122D3116}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3824,7 +3572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{766BE3B0-C93E-4117-A551-AA5BB32A5580}" type="CELLRANGE">
+                    <a:fld id="{7948470A-3650-4ABE-AF54-31211D286ECC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3863,7 +3611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2333C7AD-26DE-41EB-A5E5-C08A21156650}" type="CELLRANGE">
+                    <a:fld id="{ED9368BA-6ECD-4C1F-9CBB-14C48C1FC2D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3902,7 +3650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BB8B896-057B-4F9C-A9FF-7B9D692C6EC7}" type="CELLRANGE">
+                    <a:fld id="{93B3A254-6C0B-4A46-8A63-F114B4879919}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3941,7 +3689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46161D51-71DC-4125-9BA4-7FFC17CEBB4D}" type="CELLRANGE">
+                    <a:fld id="{85D1AD79-49A2-400C-8BD7-59CC30876254}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3980,7 +3728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA27DB66-A2AB-46D3-A1CC-266BAE23D6B8}" type="CELLRANGE">
+                    <a:fld id="{0055F112-0388-4DC3-B73B-52157CCDDB7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4019,7 +3767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99DB8F4C-F5D9-4540-8455-35E5840A6C96}" type="CELLRANGE">
+                    <a:fld id="{1B028C7E-EA23-45B8-8F57-B482CD1F4F27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4058,7 +3806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F209BCCE-9E59-4B70-B853-1733FE4D3544}" type="CELLRANGE">
+                    <a:fld id="{32FD3E46-03F6-4B6F-B73B-FA132539B80C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4097,7 +3845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45D88631-ADC9-40DF-8D86-B306682F9AD0}" type="CELLRANGE">
+                    <a:fld id="{A7CE72E6-9EC5-4DE0-ABEA-33BEBA93D1F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4136,7 +3884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B28BC0CD-4094-488B-A013-07D45249C3AD}" type="CELLRANGE">
+                    <a:fld id="{5B69AFFE-608B-453C-B1A6-48639399CAA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4175,7 +3923,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88ADF719-6DBD-4C2D-9670-637F4ED60EFD}" type="CELLRANGE">
+                    <a:fld id="{230D62AD-3FE3-4A6C-BD71-5E8B564DF7E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4318,7 +4066,7 @@
                   <c:v>875.42220370955408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2114.5011404704774</c:v>
+                  <c:v>2114.9568995858335</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4327,7 +4075,7 @@
                   <c:v>611.21288792567509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>802.72456167004907</c:v>
+                  <c:v>805.90365185190956</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4336,7 +4084,7 @@
                   <c:v>265.2636298662236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>552.28330855365016</c:v>
+                  <c:v>545.28750105674419</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4345,7 +4093,7 @@
                   <c:v>118.02875741010938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.255438141081001</c:v>
+                  <c:v>69.62728026938278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4363,7 +4111,7 @@
                     <c:v>13.01%</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>29.61%</c:v>
+                    <c:v>29.60%</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.00%</c:v>
@@ -4372,7 +4120,7 @@
                     <c:v>13.05%</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>17.65%</c:v>
+                    <c:v>17.71%</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>0.00%</c:v>
@@ -4381,7 +4129,7 @@
                     <c:v>12.92%</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>26.09%</c:v>
+                    <c:v>25.69%</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.00%</c:v>
@@ -4390,7 +4138,7 @@
                     <c:v>13.08%</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>12.64%</c:v>
+                    <c:v>12.80%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7293,8 +7041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BCF3B6-51B1-48FA-984F-EC30D107B6D0}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="L121" sqref="L121"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7308,15 +7056,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -7328,14 +7076,14 @@
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7360,10 +7108,10 @@
         <v>1.098676</v>
       </c>
       <c r="H3">
-        <v>21.317460000000001</v>
+        <v>21.333333</v>
       </c>
       <c r="I3">
-        <v>1.4166129999999999</v>
+        <v>1.4453339999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -7385,10 +7133,10 @@
         <v>25.255666000000002</v>
       </c>
       <c r="H4">
-        <v>13747.126984</v>
+        <v>13741.920635</v>
       </c>
       <c r="I4">
-        <v>27.010034999999998</v>
+        <v>25.360164000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7412,10 +7160,10 @@
         <v>0.84103499999999998</v>
       </c>
       <c r="H5">
-        <v>9.4444440000000007</v>
+        <v>9.4603169999999999</v>
       </c>
       <c r="I5">
-        <v>1.072106</v>
+        <v>0.89992700000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7437,10 +7185,10 @@
         <v>22.04101</v>
       </c>
       <c r="H6">
-        <v>8411.6984130000001</v>
+        <v>8420.6190480000005</v>
       </c>
       <c r="I6">
-        <v>24.738596000000001</v>
+        <v>20.558014</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -7464,10 +7212,10 @@
         <v>0.63118200000000002</v>
       </c>
       <c r="H7">
-        <v>6.7619049999999996</v>
+        <v>5.9047619999999998</v>
       </c>
       <c r="I7">
-        <v>0.80625800000000003</v>
+        <v>0.786995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -7489,10 +7237,10 @@
         <v>17.684505000000001</v>
       </c>
       <c r="H8">
-        <v>4079.3968249999998</v>
+        <v>4078.6984130000001</v>
       </c>
       <c r="I8">
-        <v>18.665156</v>
+        <v>19.389963999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -7516,10 +7264,10 @@
         <v>0.336086</v>
       </c>
       <c r="H9">
-        <v>1.7619050000000001</v>
+        <v>1.6825399999999999</v>
       </c>
       <c r="I9">
-        <v>0.46726899999999999</v>
+        <v>0.36976500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -7541,10 +7289,10 @@
         <v>36.226958000000003</v>
       </c>
       <c r="H10">
-        <v>946.42857100000003</v>
+        <v>950.15872999999999</v>
       </c>
       <c r="I10">
-        <v>8.9651230000000002</v>
+        <v>9.8810269999999996</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -7595,10 +7343,10 @@
         <v>7.9629149999999997</v>
       </c>
       <c r="H12">
-        <v>945.79365099999995</v>
+        <v>939.63492099999996</v>
       </c>
       <c r="I12">
-        <v>7.4287089999999996</v>
+        <v>8.3997469999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -7647,10 +7395,10 @@
         <v>5.9495469999999999</v>
       </c>
       <c r="H14">
-        <v>469.76190500000001</v>
+        <v>473.71428600000002</v>
       </c>
       <c r="I14">
-        <v>5.3132349999999997</v>
+        <v>5.2801530000000003</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -7699,10 +7447,10 @@
         <v>3.6116250000000001</v>
       </c>
       <c r="H16">
-        <v>286.42857099999998</v>
+        <v>280.968254</v>
       </c>
       <c r="I16">
-        <v>3.8257910000000002</v>
+        <v>3.737946</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -7751,10 +7499,10 @@
         <v>2.7796419999999999</v>
       </c>
       <c r="H18">
-        <v>42.793650999999997</v>
+        <v>43.206349000000003</v>
       </c>
       <c r="I18">
-        <v>2.0189119999999998</v>
+        <v>1.700399</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -7805,10 +7553,10 @@
         <v>8.8431239999999995</v>
       </c>
       <c r="H20">
-        <v>1444.5238099999999</v>
+        <v>1447.1587300000001</v>
       </c>
       <c r="I20">
-        <v>8.7714560000000006</v>
+        <v>10.55735</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -7857,10 +7605,10 @@
         <v>7.6263870000000002</v>
       </c>
       <c r="H22">
-        <v>813.63492099999996</v>
+        <v>817.80952400000001</v>
       </c>
       <c r="I22">
-        <v>7.8652519999999999</v>
+        <v>8.6264529999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -7909,10 +7657,10 @@
         <v>4.6770370000000003</v>
       </c>
       <c r="H24">
-        <v>428.44444399999998</v>
+        <v>429.984127</v>
       </c>
       <c r="I24">
-        <v>5.4624879999999996</v>
+        <v>4.8781429999999997</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -7961,10 +7709,10 @@
         <v>3.460378</v>
       </c>
       <c r="H26">
-        <v>75.492063000000002</v>
+        <v>75.238095000000001</v>
       </c>
       <c r="I26">
-        <v>2.4832360000000002</v>
+        <v>1.9611080000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -8004,7 +7752,7 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28">
-        <v>267139</v>
+        <v>267080</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -8042,7 +7790,7 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30">
-        <v>163826</v>
+        <v>164213</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -8080,7 +7828,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32">
-        <v>78997</v>
+        <v>79103</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -8118,7 +7866,7 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34">
-        <v>18337</v>
+        <v>18431</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -8144,10 +7892,10 @@
         <v>0.28105599999999997</v>
       </c>
       <c r="H35">
-        <v>17.059543999999999</v>
+        <v>17.154793000000002</v>
       </c>
       <c r="I35">
-        <v>0.18053</v>
+        <v>0.15621499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -8169,10 +7917,10 @@
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="H36">
-        <v>2.6626E-2</v>
+        <v>2.6574E-2</v>
       </c>
       <c r="I36">
-        <v>1.4E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -8196,10 +7944,10 @@
         <v>0.67637599999999998</v>
       </c>
       <c r="H37">
-        <v>39.932823999999997</v>
+        <v>38.001513000000003</v>
       </c>
       <c r="I37">
-        <v>0.43654799999999999</v>
+        <v>0.68596400000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -8221,10 +7969,10 @@
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="H38">
-        <v>4.3465999999999998E-2</v>
+        <v>4.3397999999999999E-2</v>
       </c>
       <c r="I38">
-        <v>4.1E-5</v>
+        <v>3.1999999999999999E-5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -8248,10 +7996,10 @@
         <v>10.008226000000001</v>
       </c>
       <c r="H39">
-        <v>53.306192000000003</v>
+        <v>62.975079000000001</v>
       </c>
       <c r="I39">
-        <v>1.8624240000000001</v>
+        <v>2.5920589999999999</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -8273,10 +8021,10 @@
         <v>9.7E-5</v>
       </c>
       <c r="H40">
-        <v>8.9174000000000003E-2</v>
+        <v>8.9410000000000003E-2</v>
       </c>
       <c r="I40">
-        <v>1.03E-4</v>
+        <v>7.2000000000000002E-5</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -8300,10 +8048,10 @@
         <v>9.2234680000000004</v>
       </c>
       <c r="H41">
-        <v>181.733722</v>
+        <v>200.98781099999999</v>
       </c>
       <c r="I41">
-        <v>9.3539189999999994</v>
+        <v>7.3491070000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -8325,10 +8073,10 @@
         <v>1.8710000000000001E-3</v>
       </c>
       <c r="H42">
-        <v>0.38441799999999998</v>
+        <v>0.38314399999999998</v>
       </c>
       <c r="I42">
-        <v>3.9199999999999999E-4</v>
+        <v>6.6200000000000005E-4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -8354,10 +8102,10 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="H43">
-        <v>7.7000000000000001E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="I43">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -8379,10 +8127,10 @@
         <v>419.06182200000001</v>
       </c>
       <c r="H44">
-        <v>3375.2809179999999</v>
+        <v>3386.6640349999998</v>
       </c>
       <c r="I44">
-        <v>486.44296200000002</v>
+        <v>486.835014</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -8406,7 +8154,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="H45">
-        <v>5.0000000000000002E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="I45">
         <v>9.9999999999999995E-7</v>
@@ -8431,10 +8179,10 @@
         <v>400.27894199999997</v>
       </c>
       <c r="H46">
-        <v>3260.7949180000001</v>
+        <v>3278.725563</v>
       </c>
       <c r="I46">
-        <v>470.14299999999997</v>
+        <v>472.64808499999998</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -8458,10 +8206,10 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="H47">
-        <v>8.7000000000000001E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="I47">
-        <v>3.0000000000000001E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -8483,10 +8231,10 @@
         <v>414.77436799999998</v>
       </c>
       <c r="H48">
-        <v>3345.553214</v>
+        <v>3358.4826659999999</v>
       </c>
       <c r="I48">
-        <v>484.147626</v>
+        <v>485.65136000000001</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -8510,10 +8258,10 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="H49">
-        <v>9.2E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="I49">
-        <v>5.0000000000000004E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -8535,10 +8283,10 @@
         <v>2.553267</v>
       </c>
       <c r="H50">
-        <v>2913.1986149999998</v>
+        <v>2892.1360890000001</v>
       </c>
       <c r="I50">
-        <v>451.65997399999998</v>
+        <v>448.087672</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -8589,10 +8337,10 @@
         <v>419.06182000000001</v>
       </c>
       <c r="H52">
-        <v>3375.230137</v>
+        <v>3386.6133220000002</v>
       </c>
       <c r="I52">
-        <v>486.44297599999999</v>
+        <v>486.83502199999998</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -8616,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -8641,10 +8389,10 @@
         <v>400.278909</v>
       </c>
       <c r="H54">
-        <v>3260.715146</v>
+        <v>3278.645704</v>
       </c>
       <c r="I54">
-        <v>470.143036</v>
+        <v>472.6481</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -8693,10 +8441,10 @@
         <v>414.77408400000002</v>
       </c>
       <c r="H56">
-        <v>3345.3841069999999</v>
+        <v>3358.3128339999998</v>
       </c>
       <c r="I56">
-        <v>484.14729499999999</v>
+        <v>485.65116799999998</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -8745,10 +8493,10 @@
         <v>2.5520930000000002</v>
       </c>
       <c r="H58">
-        <v>2912.5436599999998</v>
+        <v>2891.486406</v>
       </c>
       <c r="I58">
-        <v>451.65598399999999</v>
+        <v>448.08406000000002</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -8774,10 +8522,10 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="H59">
-        <v>7.7000000000000001E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="I59">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -8799,10 +8547,10 @@
         <v>2.3E-5</v>
       </c>
       <c r="H60">
-        <v>5.0781E-2</v>
+        <v>5.0713000000000001E-2</v>
       </c>
       <c r="I60">
-        <v>3.1000000000000001E-5</v>
+        <v>3.3000000000000003E-5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -8826,7 +8574,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="H61">
-        <v>5.0000000000000002E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="I61">
         <v>9.9999999999999995E-7</v>
@@ -8851,10 +8599,10 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="H62">
-        <v>7.9771999999999996E-2</v>
+        <v>7.9858999999999999E-2</v>
       </c>
       <c r="I62">
-        <v>6.6000000000000005E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -8878,10 +8626,10 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="H63">
-        <v>8.7000000000000001E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="I63">
-        <v>3.0000000000000001E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -8903,10 +8651,10 @@
         <v>3.6600000000000001E-4</v>
       </c>
       <c r="H64">
-        <v>0.16910700000000001</v>
+        <v>0.16983300000000001</v>
       </c>
       <c r="I64">
-        <v>3.77E-4</v>
+        <v>3.4400000000000001E-4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -8930,10 +8678,10 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="H65">
-        <v>9.2E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="I65">
-        <v>5.0000000000000004E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -8955,10 +8703,10 @@
         <v>1.323E-3</v>
       </c>
       <c r="H66">
-        <v>0.65495400000000004</v>
+        <v>0.64968300000000001</v>
       </c>
       <c r="I66">
-        <v>5.2950000000000002E-3</v>
+        <v>5.6270000000000001E-3</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -8984,10 +8732,10 @@
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="H67">
-        <v>1.5139999999999999E-3</v>
+        <v>1.4630000000000001E-3</v>
       </c>
       <c r="I67">
-        <v>3.1000000000000001E-5</v>
+        <v>1.5E-5</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -9009,10 +8757,10 @@
         <v>7764.3828270000004</v>
       </c>
       <c r="H68">
-        <v>66506.056758000006</v>
+        <v>66802.378689000005</v>
       </c>
       <c r="I68">
-        <v>9601.9932059999992</v>
+        <v>9609.5926409999993</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -9036,10 +8784,10 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H69">
-        <v>6.2399999999999999E-4</v>
+        <v>7.3099999999999999E-4</v>
       </c>
       <c r="I69">
-        <v>1.1E-5</v>
+        <v>1.7E-5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -9061,10 +8809,10 @@
         <v>5157.3307860000004</v>
       </c>
       <c r="H70">
-        <v>40917.498207999997</v>
+        <v>41072.989126</v>
       </c>
       <c r="I70">
-        <v>5906.7681140000004</v>
+        <v>5924.1190969999998</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -9088,10 +8836,10 @@
         <v>4.1E-5</v>
       </c>
       <c r="H71">
-        <v>5.1599999999999997E-4</v>
+        <v>4.6200000000000001E-4</v>
       </c>
       <c r="I71">
-        <v>1.8E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -9113,10 +8861,10 @@
         <v>2346.0454690000001</v>
       </c>
       <c r="H72">
-        <v>19696.133007</v>
+        <v>19723.780907</v>
       </c>
       <c r="I72">
-        <v>2829.0128249999998</v>
+        <v>2841.985091</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -9140,10 +8888,10 @@
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="H73">
-        <v>1.4100000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="I73">
-        <v>7.9999999999999996E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -9165,10 +8913,10 @@
         <v>6.4456610000000003</v>
       </c>
       <c r="H74">
-        <v>4384.7335359999997</v>
+        <v>4394.216966</v>
       </c>
       <c r="I74">
-        <v>666.14050099999997</v>
+        <v>670.55100300000004</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -9194,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -9219,10 +8967,10 @@
         <v>7764.3828160000003</v>
       </c>
       <c r="H76">
-        <v>66505.056819000005</v>
+        <v>66801.378750000003</v>
       </c>
       <c r="I76">
-        <v>9601.9931899999992</v>
+        <v>9609.5926249999993</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -9246,10 +8994,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="H77">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="I77">
         <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -9271,10 +9019,10 @@
         <v>5157.3307830000003</v>
       </c>
       <c r="H78">
-        <v>40916.498245000002</v>
+        <v>41071.989162999998</v>
       </c>
       <c r="I78">
-        <v>5906.7681039999998</v>
+        <v>5924.1190880000004</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -9323,10 +9071,10 @@
         <v>2346.0454300000001</v>
       </c>
       <c r="H80">
-        <v>19695.133192000001</v>
+        <v>19722.781089</v>
       </c>
       <c r="I80">
-        <v>2829.0127769999999</v>
+        <v>2841.9850430000001</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -9375,10 +9123,10 @@
         <v>6.4386219999999996</v>
       </c>
       <c r="H82">
-        <v>4383.7340169999998</v>
+        <v>4393.2174599999998</v>
       </c>
       <c r="I82">
-        <v>666.14038000000005</v>
+        <v>670.55087800000001</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -9404,10 +9152,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="H83">
-        <v>1.245E-3</v>
+        <v>1.2229999999999999E-3</v>
       </c>
       <c r="I83">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -9456,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>7.9799999999999999E-4</v>
+        <v>8.61E-4</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -9508,7 +9256,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="H87">
-        <v>7.27E-4</v>
+        <v>6.87E-4</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -9560,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>3.8000000000000002E-4</v>
+        <v>3.4200000000000002E-4</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -9588,45 +9336,45 @@
         <v>3.1976999999999998E-2</v>
       </c>
       <c r="I90">
-        <v>5.1999999999999997E-5</v>
+        <v>5.5000000000000002E-5</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="30"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="31" t="s">
+      <c r="C92" s="27"/>
+      <c r="D92" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="32"/>
-      <c r="F92" s="22" t="s">
+      <c r="E92" s="35"/>
+      <c r="F92" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="23"/>
+      <c r="G92" s="37"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="36"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -9642,10 +9390,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="38"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="13">
         <v>3166.8571430000002</v>
       </c>
@@ -9661,10 +9409,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="38"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="13">
         <v>1013.555556</v>
       </c>
@@ -9680,10 +9428,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="38"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="13">
         <v>289.79365100000001</v>
       </c>
@@ -9701,10 +9449,10 @@
       <c r="A97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="38"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="13">
         <v>3736.2698409999998</v>
       </c>
@@ -9720,10 +9468,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="38"/>
+      <c r="C98" s="23"/>
       <c r="D98" s="13">
         <v>1625.1746029999999</v>
       </c>
@@ -9739,10 +9487,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="38"/>
+      <c r="C99" s="23"/>
       <c r="D99" s="13">
         <v>490.31745999999998</v>
       </c>
@@ -9758,10 +9506,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="38"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="13">
         <v>74.539682999999997</v>
       </c>
@@ -9779,10 +9527,10 @@
       <c r="A101" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="38"/>
+      <c r="C101" s="23"/>
       <c r="D101" s="13">
         <v>0</v>
       </c>
@@ -9798,10 +9546,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="38"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="13">
         <v>0</v>
       </c>
@@ -9817,10 +9565,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="38"/>
+      <c r="C103" s="23"/>
       <c r="D103" s="13">
         <v>0</v>
       </c>
@@ -9836,10 +9584,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="38"/>
+      <c r="C104" s="23"/>
       <c r="D104" s="13">
         <v>0</v>
       </c>
@@ -9857,10 +9605,10 @@
       <c r="A105" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="38"/>
+      <c r="C105" s="23"/>
       <c r="D105" s="13">
         <v>9.0015999999999999E-2</v>
       </c>
@@ -9876,10 +9624,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="38"/>
+      <c r="C106" s="23"/>
       <c r="D106" s="13">
         <v>0.114799</v>
       </c>
@@ -9895,10 +9643,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="38"/>
+      <c r="C107" s="23"/>
       <c r="D107" s="13">
         <v>0.36002800000000001</v>
       </c>
@@ -9914,10 +9662,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="38"/>
+      <c r="C108" s="23"/>
       <c r="D108" s="13">
         <v>1.258319</v>
       </c>
@@ -9935,10 +9683,10 @@
       <c r="A109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="38"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="13">
         <v>4.1E-5</v>
       </c>
@@ -9954,10 +9702,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="38"/>
+      <c r="C110" s="23"/>
       <c r="D110" s="13">
         <v>0</v>
       </c>
@@ -9973,10 +9721,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="38"/>
+      <c r="C111" s="23"/>
       <c r="D111" s="13">
         <v>0</v>
       </c>
@@ -9992,10 +9740,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="40"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="15">
         <v>0</v>
       </c>
@@ -10010,15 +9758,15 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="30"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="33"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
@@ -10030,14 +9778,14 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="31" t="s">
+      <c r="E114" s="35"/>
+      <c r="F114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="32"/>
+      <c r="G114" s="35"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -10062,10 +9810,10 @@
         <v>1.0993710000000001</v>
       </c>
       <c r="H115">
-        <v>21.317460000000001</v>
+        <v>21.333333</v>
       </c>
       <c r="I115">
-        <v>1.4166129999999999</v>
+        <v>1.4453339999999999</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -10087,10 +9835,10 @@
         <v>23.454781000000001</v>
       </c>
       <c r="H116">
-        <v>7178</v>
+        <v>7178.9682540000003</v>
       </c>
       <c r="I116">
-        <v>40.083644</v>
+        <v>36.423077999999997</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -10114,10 +9862,10 @@
         <v>0.848302</v>
       </c>
       <c r="H117">
-        <v>9.4444440000000007</v>
+        <v>9.4603169999999999</v>
       </c>
       <c r="I117">
-        <v>1.072106</v>
+        <v>0.89992700000000003</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -10139,10 +9887,10 @@
         <v>24.314059</v>
       </c>
       <c r="H118">
-        <v>4568.6666670000004</v>
+        <v>4562.4126980000001</v>
       </c>
       <c r="I118">
-        <v>30.999828999999998</v>
+        <v>27.825458000000001</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -10166,10 +9914,10 @@
         <v>0.63118200000000002</v>
       </c>
       <c r="H119">
-        <v>6.7619049999999996</v>
+        <v>5.9047619999999998</v>
       </c>
       <c r="I119">
-        <v>0.80625800000000003</v>
+        <v>0.786995</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -10191,10 +9939,10 @@
         <v>16.525158999999999</v>
       </c>
       <c r="H120">
-        <v>2128.3492059999999</v>
+        <v>2131.6031750000002</v>
       </c>
       <c r="I120">
-        <v>24.449608999999999</v>
+        <v>22.465398</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -10218,10 +9966,10 @@
         <v>0.336086</v>
       </c>
       <c r="H121">
-        <v>1.7619050000000001</v>
+        <v>1.6825399999999999</v>
       </c>
       <c r="I121">
-        <v>0.46726899999999999</v>
+        <v>0.36976500000000001</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -10243,10 +9991,10 @@
         <v>18.173718000000001</v>
       </c>
       <c r="H122">
-        <v>542.61904800000002</v>
+        <v>545.58730200000002</v>
       </c>
       <c r="I122">
-        <v>42.882693000000003</v>
+        <v>44.020774000000003</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -10272,10 +10020,10 @@
         <v>0.93163099999999999</v>
       </c>
       <c r="H123">
-        <v>14.888889000000001</v>
+        <v>14.730159</v>
       </c>
       <c r="I123">
-        <v>1.0453730000000001</v>
+        <v>1.0513209999999999</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -10297,10 +10045,10 @@
         <v>22.595371</v>
       </c>
       <c r="H124">
-        <v>5041.0476189999999</v>
+        <v>5045.6190479999996</v>
       </c>
       <c r="I124">
-        <v>37.482349999999997</v>
+        <v>29.434228999999998</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -10324,10 +10072,10 @@
         <v>0.72583399999999998</v>
       </c>
       <c r="H125">
-        <v>7.984127</v>
+        <v>7.8571429999999998</v>
       </c>
       <c r="I125">
-        <v>0.74667600000000001</v>
+        <v>0.75399099999999997</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -10349,10 +10097,10 @@
         <v>22.285408</v>
       </c>
       <c r="H126">
-        <v>3754.1746029999999</v>
+        <v>3751.7619049999998</v>
       </c>
       <c r="I126">
-        <v>30.266378</v>
+        <v>25.929158000000001</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -10376,10 +10124,10 @@
         <v>0.51283100000000004</v>
       </c>
       <c r="H127">
-        <v>4.8095239999999997</v>
+        <v>4.3333329999999997</v>
       </c>
       <c r="I127">
-        <v>0.57190200000000002</v>
+        <v>0.51771500000000004</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -10401,10 +10149,10 @@
         <v>13.490553999999999</v>
       </c>
       <c r="H128">
-        <v>1569.8412699999999</v>
+        <v>1581.6349210000001</v>
       </c>
       <c r="I128">
-        <v>17.392619</v>
+        <v>17.356178</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -10428,10 +10176,10 @@
         <v>0.27085900000000002</v>
       </c>
       <c r="H129">
-        <v>1.4761899999999999</v>
+        <v>1.4444440000000001</v>
       </c>
       <c r="I129">
-        <v>0.289128</v>
+        <v>0.31913399999999997</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -10453,10 +10201,10 @@
         <v>16.075111</v>
       </c>
       <c r="H130">
-        <v>473.22222199999999</v>
+        <v>475.74603200000001</v>
       </c>
       <c r="I130">
-        <v>34.713512000000001</v>
+        <v>38.338517000000003</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -10482,10 +10230,10 @@
         <v>0.39544299999999999</v>
       </c>
       <c r="H131">
-        <v>6.3809519999999997</v>
+        <v>6.5873020000000002</v>
       </c>
       <c r="I131">
-        <v>0.82595600000000002</v>
+        <v>0.79078199999999998</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -10507,10 +10255,10 @@
         <v>8.9333600000000004</v>
       </c>
       <c r="H132">
-        <v>2120.7619049999998</v>
+        <v>2121.2222219999999</v>
       </c>
       <c r="I132">
-        <v>16.595443</v>
+        <v>14.775447</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -10534,10 +10282,10 @@
         <v>0.30444700000000002</v>
       </c>
       <c r="H133">
-        <v>1.4603170000000001</v>
+        <v>1.587302</v>
       </c>
       <c r="I133">
-        <v>0.438143</v>
+        <v>0.36365500000000001</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -10559,10 +10307,10 @@
         <v>6.7276610000000003</v>
       </c>
       <c r="H134">
-        <v>804.38095199999998</v>
+        <v>807.57142899999997</v>
       </c>
       <c r="I134">
-        <v>8.9445259999999998</v>
+        <v>10.50056</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -10586,10 +10334,10 @@
         <v>0.23197799999999999</v>
       </c>
       <c r="H135">
-        <v>1.9523809999999999</v>
+        <v>1.571429</v>
       </c>
       <c r="I135">
-        <v>0.45778999999999997</v>
+        <v>0.44253100000000001</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -10611,10 +10359,10 @@
         <v>4.5024170000000003</v>
       </c>
       <c r="H136">
-        <v>554.031746</v>
+        <v>546.79365099999995</v>
       </c>
       <c r="I136">
-        <v>9.0717809999999997</v>
+        <v>7.7299699999999998</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -10638,10 +10386,10 @@
         <v>0.135459</v>
       </c>
       <c r="H137">
-        <v>0.269841</v>
+        <v>0.238095</v>
       </c>
       <c r="I137">
-        <v>0.19300400000000001</v>
+        <v>0.13352800000000001</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -10663,10 +10411,10 @@
         <v>3.5602049999999998</v>
       </c>
       <c r="H138">
-        <v>68.476190000000003</v>
+        <v>69.841269999999994</v>
       </c>
       <c r="I138">
-        <v>5.5557220000000003</v>
+        <v>5.6713259999999996</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -10688,7 +10436,7 @@
       </c>
       <c r="G139" s="5"/>
       <c r="H139">
-        <v>29.970545000000001</v>
+        <v>30.955881999999999</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -10706,7 +10454,7 @@
       </c>
       <c r="G140" s="5"/>
       <c r="H140">
-        <v>29.617584000000001</v>
+        <v>29.592106000000001</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -10726,7 +10474,7 @@
       </c>
       <c r="G141" s="5"/>
       <c r="H141">
-        <v>15.371900999999999</v>
+        <v>16.721854</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -10744,7 +10492,7 @@
       </c>
       <c r="G142" s="5"/>
       <c r="H142">
-        <v>17.645303999999999</v>
+        <v>17.721119999999999</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -10764,7 +10512,7 @@
       </c>
       <c r="G143" s="5"/>
       <c r="H143">
-        <v>28.873239000000002</v>
+        <v>26.470587999999999</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -10782,7 +10530,7 @@
       </c>
       <c r="G144" s="5"/>
       <c r="H144">
-        <v>26.084781</v>
+        <v>25.698036999999999</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -10802,7 +10550,7 @@
       </c>
       <c r="G145" s="5"/>
       <c r="H145">
-        <v>15.044248</v>
+        <v>14.018692</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -10820,7 +10568,7 @@
       </c>
       <c r="G146" s="5"/>
       <c r="H146">
-        <v>12.637568999999999</v>
+        <v>12.795745</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -10842,48 +10590,48 @@
         <v>1.073E-3</v>
       </c>
       <c r="H147">
-        <v>2051.6948819999998</v>
+        <v>1145.651809</v>
       </c>
       <c r="I147">
-        <v>1.093E-3</v>
+        <v>1.085E-3</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="30"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="33"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="31" t="s">
+      <c r="C149" s="27"/>
+      <c r="D149" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="32"/>
-      <c r="F149" s="31" t="s">
+      <c r="E149" s="35"/>
+      <c r="F149" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="32"/>
+      <c r="G149" s="35"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="36"/>
+      <c r="C150" s="29"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -10899,10 +10647,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="38"/>
+      <c r="C151" s="23"/>
       <c r="D151" s="13">
         <v>2876.6507940000001</v>
       </c>
@@ -10918,10 +10666,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="37" t="s">
+      <c r="B152" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="38"/>
+      <c r="C152" s="23"/>
       <c r="D152" s="13">
         <v>1290.6349210000001</v>
       </c>
@@ -10937,10 +10685,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="38"/>
+      <c r="C153" s="23"/>
       <c r="D153" s="13">
         <v>345.69841300000002</v>
       </c>
@@ -10958,10 +10706,10 @@
       <c r="A154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="38"/>
+      <c r="C154" s="23"/>
       <c r="D154" s="13">
         <v>47.301586999999998</v>
       </c>
@@ -10977,10 +10725,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" s="37" t="s">
+      <c r="B155" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="38"/>
+      <c r="C155" s="23"/>
       <c r="D155" s="13">
         <v>33.063491999999997</v>
       </c>
@@ -10996,10 +10744,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="37" t="s">
+      <c r="B156" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="38"/>
+      <c r="C156" s="23"/>
       <c r="D156" s="13">
         <v>14.253968</v>
       </c>
@@ -11015,10 +10763,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="37" t="s">
+      <c r="B157" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="38"/>
+      <c r="C157" s="23"/>
       <c r="D157" s="13">
         <v>16.904762000000002</v>
       </c>
@@ -11036,10 +10784,10 @@
       <c r="A158" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="37" t="s">
+      <c r="B158" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="38"/>
+      <c r="C158" s="23"/>
       <c r="D158" s="13">
         <v>1092.9841269999999</v>
       </c>
@@ -11055,10 +10803,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="37" t="s">
+      <c r="B159" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="38"/>
+      <c r="C159" s="23"/>
       <c r="D159" s="13">
         <v>744.19047599999999</v>
       </c>
@@ -11074,10 +10822,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="38"/>
+      <c r="C160" s="23"/>
       <c r="D160" s="13">
         <v>334.47618999999997</v>
       </c>
@@ -11093,10 +10841,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="37" t="s">
+      <c r="B161" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="38"/>
+      <c r="C161" s="23"/>
       <c r="D161" s="13">
         <v>86.349205999999995</v>
       </c>
@@ -11114,10 +10862,10 @@
       <c r="A162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="38"/>
+      <c r="C162" s="23"/>
       <c r="D162" s="13">
         <v>3057.3174600000002</v>
       </c>
@@ -11133,10 +10881,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="37" t="s">
+      <c r="B163" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="38"/>
+      <c r="C163" s="23"/>
       <c r="D163" s="13">
         <v>2099.333333</v>
       </c>
@@ -11152,10 +10900,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="38"/>
+      <c r="C164" s="23"/>
       <c r="D164" s="13">
         <v>941.88888899999995</v>
       </c>
@@ -11171,10 +10919,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="38"/>
+      <c r="C165" s="23"/>
       <c r="D165" s="13">
         <v>239.079365</v>
       </c>
@@ -11209,6 +10957,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
@@ -11225,40 +11007,6 @@
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11266,10 +11014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2317ED-57BA-4FAE-A3A8-363C38207229}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L138" sqref="L138"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11282,18 +11030,18 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11303,16 +11051,16 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -11329,16 +11077,13 @@
         <v>1.098676</v>
       </c>
       <c r="F3" s="7">
-        <v>21.317460000000001</v>
+        <v>21.333333</v>
       </c>
       <c r="G3" s="6">
-        <v>1.4166129999999999</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.4453339999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
@@ -11351,16 +11096,13 @@
         <v>25.255666000000002</v>
       </c>
       <c r="F4" s="3">
-        <v>13747.126984</v>
+        <v>13741.920635</v>
       </c>
       <c r="G4" s="5">
-        <v>27.010034999999998</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25.360164000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -11375,16 +11117,13 @@
         <v>0.84103499999999998</v>
       </c>
       <c r="F5" s="3">
-        <v>9.4444440000000007</v>
+        <v>9.4603169999999999</v>
       </c>
       <c r="G5" s="5">
-        <v>1.072106</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.89992700000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
@@ -11397,16 +11136,13 @@
         <v>22.04101</v>
       </c>
       <c r="F6" s="3">
-        <v>8411.6984130000001</v>
+        <v>8420.6190480000005</v>
       </c>
       <c r="G6" s="5">
-        <v>24.738596000000001</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20.558014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -11421,16 +11157,13 @@
         <v>0.63118200000000002</v>
       </c>
       <c r="F7" s="3">
-        <v>6.7619049999999996</v>
+        <v>5.9047619999999998</v>
       </c>
       <c r="G7" s="5">
-        <v>0.80625800000000003</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.786995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
@@ -11443,16 +11176,13 @@
         <v>17.684505000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>4079.3968249999998</v>
+        <v>4078.6984130000001</v>
       </c>
       <c r="G8" s="5">
-        <v>18.665156</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19.389963999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -11467,16 +11197,13 @@
         <v>0.336086</v>
       </c>
       <c r="F9" s="3">
-        <v>1.7619050000000001</v>
+        <v>1.6825399999999999</v>
       </c>
       <c r="G9" s="5">
-        <v>0.46726899999999999</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.36976500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
@@ -11489,16 +11216,13 @@
         <v>36.226958000000003</v>
       </c>
       <c r="F10" s="3">
-        <v>946.42857100000003</v>
+        <v>950.15872999999999</v>
       </c>
       <c r="G10" s="5">
-        <v>8.9651230000000002</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.8810269999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -11520,11 +11244,8 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
@@ -11537,16 +11258,13 @@
         <v>7.9629149999999997</v>
       </c>
       <c r="F12" s="3">
-        <v>945.79365099999995</v>
+        <v>939.63492099999996</v>
       </c>
       <c r="G12" s="5">
-        <v>7.4287089999999996</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.3997469999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -11566,11 +11284,8 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
@@ -11583,16 +11298,13 @@
         <v>5.9495469999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>469.76190500000001</v>
+        <v>473.71428600000002</v>
       </c>
       <c r="G14" s="5">
-        <v>5.3132349999999997</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.2801530000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -11612,11 +11324,8 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
@@ -11629,16 +11338,13 @@
         <v>3.6116250000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>286.42857099999998</v>
+        <v>280.968254</v>
       </c>
       <c r="G16" s="5">
-        <v>3.8257910000000002</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.737946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -11658,11 +11364,8 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
@@ -11675,16 +11378,13 @@
         <v>2.7796419999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>42.793650999999997</v>
+        <v>43.206349000000003</v>
       </c>
       <c r="G18" s="5">
-        <v>2.0189119999999998</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.700399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -11706,11 +11406,8 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
@@ -11723,16 +11420,13 @@
         <v>8.8431239999999995</v>
       </c>
       <c r="F20" s="3">
-        <v>1444.5238099999999</v>
+        <v>1447.1587300000001</v>
       </c>
       <c r="G20" s="5">
-        <v>8.7714560000000006</v>
-      </c>
-      <c r="H20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.55735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -11752,11 +11446,8 @@
       <c r="G21" s="5">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
@@ -11769,16 +11460,13 @@
         <v>7.6263870000000002</v>
       </c>
       <c r="F22" s="3">
-        <v>813.63492099999996</v>
+        <v>817.80952400000001</v>
       </c>
       <c r="G22" s="5">
-        <v>7.8652519999999999</v>
-      </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.6264529999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -11798,11 +11486,8 @@
       <c r="G23" s="5">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
@@ -11815,16 +11500,13 @@
         <v>4.6770370000000003</v>
       </c>
       <c r="F24" s="3">
-        <v>428.44444399999998</v>
+        <v>429.984127</v>
       </c>
       <c r="G24" s="5">
-        <v>5.4624879999999996</v>
-      </c>
-      <c r="H24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.8781429999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -11844,11 +11526,8 @@
       <c r="G25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
@@ -11861,16 +11540,13 @@
         <v>3.460378</v>
       </c>
       <c r="F26" s="3">
-        <v>75.492063000000002</v>
+        <v>75.238095000000001</v>
       </c>
       <c r="G26" s="5">
-        <v>2.4832360000000002</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.9611080000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -11888,11 +11564,8 @@
         <v>0</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
@@ -11903,14 +11576,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3">
-        <v>267139</v>
+        <v>267080</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28">
-        <v>267080</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -11926,11 +11596,8 @@
         <v>0</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5" t="s">
@@ -11941,14 +11608,11 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="3">
-        <v>163826</v>
+        <v>164213</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30">
-        <v>164213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -11964,11 +11628,8 @@
         <v>0</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="5" t="s">
@@ -11979,14 +11640,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="3">
-        <v>78997</v>
+        <v>79103</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32">
-        <v>79103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -12002,11 +11660,8 @@
         <v>0</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="5" t="s">
@@ -12017,14 +11672,11 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="3">
-        <v>18337</v>
+        <v>18431</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34">
-        <v>18431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -12041,16 +11693,13 @@
         <v>0.28105599999999997</v>
       </c>
       <c r="F35" s="3">
-        <v>17.059543999999999</v>
+        <v>17.154793000000002</v>
       </c>
       <c r="G35" s="5">
-        <v>0.18053</v>
-      </c>
-      <c r="H35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.15621499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="5" t="s">
@@ -12063,16 +11712,13 @@
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="F36" s="3">
-        <v>2.6626E-2</v>
+        <v>2.6574E-2</v>
       </c>
       <c r="G36" s="5">
-        <v>1.4E-5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -12087,16 +11733,13 @@
         <v>0.67637599999999998</v>
       </c>
       <c r="F37" s="3">
-        <v>39.932823999999997</v>
+        <v>38.001513000000003</v>
       </c>
       <c r="G37" s="5">
-        <v>0.43654799999999999</v>
-      </c>
-      <c r="H37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.68596400000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="5" t="s">
@@ -12109,16 +11752,13 @@
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="F38" s="3">
-        <v>4.3465999999999998E-2</v>
+        <v>4.3397999999999999E-2</v>
       </c>
       <c r="G38" s="5">
-        <v>4.1E-5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.1999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>11</v>
@@ -12133,16 +11773,13 @@
         <v>10.008226000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>53.306192000000003</v>
+        <v>62.975079000000001</v>
       </c>
       <c r="G39" s="5">
-        <v>1.8624240000000001</v>
-      </c>
-      <c r="H39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.5920589999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="5" t="s">
@@ -12155,16 +11792,13 @@
         <v>9.7E-5</v>
       </c>
       <c r="F40" s="3">
-        <v>8.9174000000000003E-2</v>
+        <v>8.9410000000000003E-2</v>
       </c>
       <c r="G40" s="5">
-        <v>1.03E-4</v>
-      </c>
-      <c r="H40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.2000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -12179,16 +11813,13 @@
         <v>9.2234680000000004</v>
       </c>
       <c r="F41" s="3">
-        <v>181.733722</v>
+        <v>200.98781099999999</v>
       </c>
       <c r="G41" s="5">
-        <v>9.3539189999999994</v>
-      </c>
-      <c r="H41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.3491070000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="5" t="s">
@@ -12201,16 +11832,13 @@
         <v>1.8710000000000001E-3</v>
       </c>
       <c r="F42" s="3">
-        <v>0.38441799999999998</v>
+        <v>0.38314399999999998</v>
       </c>
       <c r="G42" s="5">
-        <v>3.9199999999999999E-4</v>
-      </c>
-      <c r="H42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.6200000000000005E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -12227,16 +11855,13 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F43" s="3">
-        <v>7.7000000000000001E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="G43" s="5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="H43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="5" t="s">
@@ -12249,16 +11874,13 @@
         <v>419.06182200000001</v>
       </c>
       <c r="F44" s="3">
-        <v>3375.2809179999999</v>
+        <v>3386.6640349999998</v>
       </c>
       <c r="G44" s="5">
-        <v>486.44296200000002</v>
-      </c>
-      <c r="H44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>486.835014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -12273,16 +11895,13 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F45" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="G45" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="5" t="s">
@@ -12295,16 +11914,13 @@
         <v>400.27894199999997</v>
       </c>
       <c r="F46" s="3">
-        <v>3260.7949180000001</v>
+        <v>3278.725563</v>
       </c>
       <c r="G46" s="5">
-        <v>470.14299999999997</v>
-      </c>
-      <c r="H46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>472.64808499999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>11</v>
@@ -12319,16 +11935,13 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="F47" s="3">
-        <v>8.7000000000000001E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="G47" s="5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="H47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="5" t="s">
@@ -12341,16 +11954,13 @@
         <v>414.77436799999998</v>
       </c>
       <c r="F48" s="3">
-        <v>3345.553214</v>
+        <v>3358.4826659999999</v>
       </c>
       <c r="G48" s="5">
-        <v>484.147626</v>
-      </c>
-      <c r="H48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>485.65136000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -12365,16 +11975,13 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="F49" s="3">
-        <v>9.2E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="G49" s="5">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="5" t="s">
@@ -12387,16 +11994,13 @@
         <v>2.553267</v>
       </c>
       <c r="F50" s="3">
-        <v>2913.1986149999998</v>
+        <v>2892.1360890000001</v>
       </c>
       <c r="G50" s="5">
-        <v>451.65997399999998</v>
-      </c>
-      <c r="H50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>448.087672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -12418,11 +12022,8 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-      <c r="H51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="5" t="s">
@@ -12435,16 +12036,13 @@
         <v>419.06182000000001</v>
       </c>
       <c r="F52" s="3">
-        <v>3375.230137</v>
+        <v>3386.6133220000002</v>
       </c>
       <c r="G52" s="5">
-        <v>486.44297599999999</v>
-      </c>
-      <c r="H52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>486.83502199999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -12459,16 +12057,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="5" t="s">
@@ -12481,16 +12076,13 @@
         <v>400.278909</v>
       </c>
       <c r="F54" s="3">
-        <v>3260.715146</v>
+        <v>3278.645704</v>
       </c>
       <c r="G54" s="5">
-        <v>470.143036</v>
-      </c>
-      <c r="H54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>472.6481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -12510,11 +12102,8 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
@@ -12527,16 +12116,13 @@
         <v>414.77408400000002</v>
       </c>
       <c r="F56" s="3">
-        <v>3345.3841069999999</v>
+        <v>3358.3128339999998</v>
       </c>
       <c r="G56" s="5">
-        <v>484.14729499999999</v>
-      </c>
-      <c r="H56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>485.65116799999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -12556,11 +12142,8 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-      <c r="H57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="5" t="s">
@@ -12573,16 +12156,13 @@
         <v>2.5520930000000002</v>
       </c>
       <c r="F58" s="3">
-        <v>2912.5436599999998</v>
+        <v>2891.486406</v>
       </c>
       <c r="G58" s="5">
-        <v>451.65598399999999</v>
-      </c>
-      <c r="H58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>448.08406000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -12599,16 +12179,13 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F59" s="3">
-        <v>7.7000000000000001E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="G59" s="5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="5" t="s">
@@ -12621,16 +12198,13 @@
         <v>2.3E-5</v>
       </c>
       <c r="F60" s="3">
-        <v>5.0781E-2</v>
+        <v>5.0713000000000001E-2</v>
       </c>
       <c r="G60" s="5">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="H60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.3000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>10</v>
@@ -12645,16 +12219,13 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F61" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="G61" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="5" t="s">
@@ -12667,16 +12238,13 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F62" s="3">
-        <v>7.9771999999999996E-2</v>
+        <v>7.9858999999999999E-2</v>
       </c>
       <c r="G62" s="5">
-        <v>6.6000000000000005E-5</v>
-      </c>
-      <c r="H62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>11</v>
@@ -12691,16 +12259,13 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="F63" s="3">
-        <v>8.7000000000000001E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="G63" s="5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="5" t="s">
@@ -12713,16 +12278,13 @@
         <v>3.6600000000000001E-4</v>
       </c>
       <c r="F64" s="3">
-        <v>0.16910700000000001</v>
+        <v>0.16983300000000001</v>
       </c>
       <c r="G64" s="5">
-        <v>3.77E-4</v>
-      </c>
-      <c r="H64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.4400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -12737,16 +12299,13 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="F65" s="3">
-        <v>9.2E-5</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="G65" s="5">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
@@ -12759,16 +12318,13 @@
         <v>1.323E-3</v>
       </c>
       <c r="F66" s="3">
-        <v>0.65495400000000004</v>
+        <v>0.64968300000000001</v>
       </c>
       <c r="G66" s="5">
-        <v>5.2950000000000002E-3</v>
-      </c>
-      <c r="H66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.6270000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>20</v>
       </c>
@@ -12785,16 +12341,13 @@
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="F67" s="3">
-        <v>1.5139999999999999E-3</v>
+        <v>1.4630000000000001E-3</v>
       </c>
       <c r="G67" s="5">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="H67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="5" t="s">
@@ -12807,16 +12360,13 @@
         <v>7764.3828270000004</v>
       </c>
       <c r="F68" s="3">
-        <v>66506.056758000006</v>
+        <v>66802.378689000005</v>
       </c>
       <c r="G68" s="5">
-        <v>9601.9932059999992</v>
-      </c>
-      <c r="H68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9609.5926409999993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>10</v>
@@ -12831,16 +12381,13 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F69" s="3">
-        <v>6.2399999999999999E-4</v>
+        <v>7.3099999999999999E-4</v>
       </c>
       <c r="G69" s="5">
-        <v>1.1E-5</v>
-      </c>
-      <c r="H69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.7E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="5" t="s">
@@ -12853,16 +12400,13 @@
         <v>5157.3307860000004</v>
       </c>
       <c r="F70" s="3">
-        <v>40917.498207999997</v>
+        <v>41072.989126</v>
       </c>
       <c r="G70" s="5">
-        <v>5906.7681140000004</v>
-      </c>
-      <c r="H70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5924.1190969999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>11</v>
@@ -12877,16 +12421,13 @@
         <v>4.1E-5</v>
       </c>
       <c r="F71" s="3">
-        <v>5.1599999999999997E-4</v>
+        <v>4.6200000000000001E-4</v>
       </c>
       <c r="G71" s="5">
-        <v>1.8E-5</v>
-      </c>
-      <c r="H71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="5" t="s">
@@ -12899,16 +12440,13 @@
         <v>2346.0454690000001</v>
       </c>
       <c r="F72" s="3">
-        <v>19696.133007</v>
+        <v>19723.780907</v>
       </c>
       <c r="G72" s="5">
-        <v>2829.0128249999998</v>
-      </c>
-      <c r="H72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2841.985091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -12923,16 +12461,13 @@
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="F73" s="3">
-        <v>1.4100000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="G73" s="5">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="5" t="s">
@@ -12945,16 +12480,13 @@
         <v>6.4456610000000003</v>
       </c>
       <c r="F74" s="3">
-        <v>4384.7335359999997</v>
+        <v>4394.216966</v>
       </c>
       <c r="G74" s="5">
-        <v>666.14050099999997</v>
-      </c>
-      <c r="H74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>670.55100300000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -12971,16 +12503,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G75" s="5">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="5" t="s">
@@ -12993,16 +12522,13 @@
         <v>7764.3828160000003</v>
       </c>
       <c r="F76" s="3">
-        <v>66505.056819000005</v>
+        <v>66801.378750000003</v>
       </c>
       <c r="G76" s="5">
-        <v>9601.9931899999992</v>
-      </c>
-      <c r="H76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9609.5926249999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>10</v>
@@ -13017,16 +12543,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F77" s="3">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="G77" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="5" t="s">
@@ -13039,16 +12562,13 @@
         <v>5157.3307830000003</v>
       </c>
       <c r="F78" s="3">
-        <v>40916.498245000002</v>
+        <v>41071.989162999998</v>
       </c>
       <c r="G78" s="5">
-        <v>5906.7681039999998</v>
-      </c>
-      <c r="H78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5924.1190880000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>11</v>
@@ -13068,11 +12588,8 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-      <c r="H79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="5" t="s">
@@ -13085,16 +12602,13 @@
         <v>2346.0454300000001</v>
       </c>
       <c r="F80" s="3">
-        <v>19695.133192000001</v>
+        <v>19722.781089</v>
       </c>
       <c r="G80" s="5">
-        <v>2829.0127769999999</v>
-      </c>
-      <c r="H80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2841.9850430000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -13114,11 +12628,8 @@
       <c r="G81" s="5">
         <v>0</v>
       </c>
-      <c r="H81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5" t="s">
@@ -13131,16 +12642,13 @@
         <v>6.4386219999999996</v>
       </c>
       <c r="F82" s="3">
-        <v>4383.7340169999998</v>
+        <v>4393.2174599999998</v>
       </c>
       <c r="G82" s="5">
-        <v>666.14038000000005</v>
-      </c>
-      <c r="H82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>670.55087800000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
@@ -13157,16 +12665,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F83" s="3">
-        <v>1.245E-3</v>
+        <v>1.2229999999999999E-3</v>
       </c>
       <c r="G83" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5" t="s">
@@ -13184,11 +12689,8 @@
       <c r="G84" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>10</v>
@@ -13203,16 +12705,13 @@
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>7.9799999999999999E-4</v>
+        <v>8.61E-4</v>
       </c>
       <c r="G85" s="5">
         <v>0</v>
       </c>
-      <c r="H85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5" t="s">
@@ -13230,11 +12729,8 @@
       <c r="G86" s="5">
         <v>0</v>
       </c>
-      <c r="H86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>11</v>
@@ -13249,16 +12745,13 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F87" s="3">
-        <v>7.27E-4</v>
+        <v>6.87E-4</v>
       </c>
       <c r="G87" s="5">
         <v>0</v>
       </c>
-      <c r="H87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5" t="s">
@@ -13276,11 +12769,8 @@
       <c r="G88" s="5">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -13295,16 +12785,13 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>3.8000000000000002E-4</v>
+        <v>3.4200000000000002E-4</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
       </c>
-      <c r="H89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="4" t="s">
@@ -13320,48 +12807,45 @@
         <v>3.1976999999999998E-2</v>
       </c>
       <c r="G90" s="4">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="H90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="30"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="22" t="s">
+      <c r="C92" s="27"/>
+      <c r="D92" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="22" t="s">
+      <c r="E92" s="37"/>
+      <c r="F92" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G92" s="23"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G92" s="37"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="44"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="11">
         <v>4060.3968249999998</v>
       </c>
@@ -13375,7 +12859,7 @@
         <v>14.233064000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="41" t="s">
         <v>10</v>
@@ -13394,7 +12878,7 @@
         <v>14.342587999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="41" t="s">
         <v>11</v>
@@ -13413,7 +12897,7 @@
         <v>8.5215650000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="41" t="s">
         <v>12</v>
@@ -13727,10 +13211,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="46"/>
+      <c r="C112" s="44"/>
       <c r="D112" s="15">
         <v>7.9509999999999997E-3</v>
       </c>
@@ -13744,18 +13228,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="27" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="30"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="33"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -13765,16 +13249,16 @@
       <c r="C114" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="22" t="s">
+      <c r="E114" s="35"/>
+      <c r="F114" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="23"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G114" s="37"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>42</v>
       </c>
@@ -13791,16 +13275,13 @@
         <v>1.0993710000000001</v>
       </c>
       <c r="F115" s="7">
-        <v>21.317460000000001</v>
+        <v>21.333333</v>
       </c>
       <c r="G115" s="6">
-        <v>1.4166129999999999</v>
-      </c>
-      <c r="H115" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.4453339999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" t="s">
@@ -13813,16 +13294,13 @@
         <v>23.454781000000001</v>
       </c>
       <c r="F116" s="3">
-        <v>7178</v>
+        <v>7178.9682540000003</v>
       </c>
       <c r="G116" s="5">
-        <v>40.083644</v>
-      </c>
-      <c r="H116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36.423077999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
@@ -13837,16 +13315,13 @@
         <v>0.848302</v>
       </c>
       <c r="F117" s="3">
-        <v>9.4444440000000007</v>
+        <v>9.4603169999999999</v>
       </c>
       <c r="G117" s="5">
-        <v>1.072106</v>
-      </c>
-      <c r="H117" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.89992700000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" t="s">
@@ -13859,16 +13334,13 @@
         <v>24.314059</v>
       </c>
       <c r="F118" s="3">
-        <v>4568.6666670000004</v>
+        <v>4562.4126980000001</v>
       </c>
       <c r="G118" s="5">
-        <v>30.999828999999998</v>
-      </c>
-      <c r="H118" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27.825458000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>11</v>
@@ -13883,16 +13355,13 @@
         <v>0.63118200000000002</v>
       </c>
       <c r="F119" s="3">
-        <v>6.7619049999999996</v>
+        <v>5.9047619999999998</v>
       </c>
       <c r="G119" s="5">
-        <v>0.80625800000000003</v>
-      </c>
-      <c r="H119" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.786995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" t="s">
@@ -13905,16 +13374,13 @@
         <v>16.525158999999999</v>
       </c>
       <c r="F120" s="3">
-        <v>2128.3492059999999</v>
+        <v>2131.6031750000002</v>
       </c>
       <c r="G120" s="5">
-        <v>24.449608999999999</v>
-      </c>
-      <c r="H120" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22.465398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>12</v>
@@ -13929,16 +13395,13 @@
         <v>0.336086</v>
       </c>
       <c r="F121" s="3">
-        <v>1.7619050000000001</v>
+        <v>1.6825399999999999</v>
       </c>
       <c r="G121" s="5">
-        <v>0.46726899999999999</v>
-      </c>
-      <c r="H121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.36976500000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" t="s">
@@ -13951,16 +13414,13 @@
         <v>18.173718000000001</v>
       </c>
       <c r="F122" s="3">
-        <v>542.61904800000002</v>
+        <v>545.58730200000002</v>
       </c>
       <c r="G122" s="5">
-        <v>42.882693000000003</v>
-      </c>
-      <c r="H122" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44.020774000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>43</v>
       </c>
@@ -13977,16 +13437,13 @@
         <v>0.93163099999999999</v>
       </c>
       <c r="F123" s="3">
-        <v>14.888889000000001</v>
+        <v>14.730159</v>
       </c>
       <c r="G123" s="5">
-        <v>1.0453730000000001</v>
-      </c>
-      <c r="H123" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.0513209999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
@@ -13999,16 +13456,13 @@
         <v>22.595371</v>
       </c>
       <c r="F124" s="3">
-        <v>5041.0476189999999</v>
+        <v>5045.6190479999996</v>
       </c>
       <c r="G124" s="5">
-        <v>37.482349999999997</v>
-      </c>
-      <c r="H124" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29.434228999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>10</v>
@@ -14023,16 +13477,13 @@
         <v>0.72583399999999998</v>
       </c>
       <c r="F125" s="3">
-        <v>7.984127</v>
+        <v>7.8571429999999998</v>
       </c>
       <c r="G125" s="5">
-        <v>0.74667600000000001</v>
-      </c>
-      <c r="H125" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.75399099999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" t="s">
@@ -14045,16 +13496,13 @@
         <v>22.285408</v>
       </c>
       <c r="F126" s="3">
-        <v>3754.1746029999999</v>
+        <v>3751.7619049999998</v>
       </c>
       <c r="G126" s="5">
-        <v>30.266378</v>
-      </c>
-      <c r="H126" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25.929158000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>11</v>
@@ -14069,16 +13517,13 @@
         <v>0.51283100000000004</v>
       </c>
       <c r="F127" s="3">
-        <v>4.8095239999999997</v>
+        <v>4.3333329999999997</v>
       </c>
       <c r="G127" s="5">
-        <v>0.57190200000000002</v>
-      </c>
-      <c r="H127" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.51771500000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" t="s">
@@ -14091,16 +13536,13 @@
         <v>13.490553999999999</v>
       </c>
       <c r="F128" s="3">
-        <v>1569.8412699999999</v>
+        <v>1581.6349210000001</v>
       </c>
       <c r="G128" s="5">
-        <v>17.392619</v>
-      </c>
-      <c r="H128" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17.356178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>12</v>
@@ -14115,16 +13557,13 @@
         <v>0.27085900000000002</v>
       </c>
       <c r="F129" s="3">
-        <v>1.4761899999999999</v>
+        <v>1.4444440000000001</v>
       </c>
       <c r="G129" s="5">
-        <v>0.289128</v>
-      </c>
-      <c r="H129" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.31913399999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" t="s">
@@ -14137,16 +13576,13 @@
         <v>16.075111</v>
       </c>
       <c r="F130" s="3">
-        <v>473.22222199999999</v>
+        <v>475.74603200000001</v>
       </c>
       <c r="G130" s="5">
-        <v>34.713512000000001</v>
-      </c>
-      <c r="H130" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38.338517000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>44</v>
       </c>
@@ -14163,16 +13599,13 @@
         <v>0.39544299999999999</v>
       </c>
       <c r="F131" s="3">
-        <v>6.3809519999999997</v>
+        <v>6.5873020000000002</v>
       </c>
       <c r="G131" s="5">
-        <v>0.82595600000000002</v>
-      </c>
-      <c r="H131" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.79078199999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" t="s">
@@ -14185,16 +13618,13 @@
         <v>8.9333600000000004</v>
       </c>
       <c r="F132" s="3">
-        <v>2120.7619049999998</v>
+        <v>2121.2222219999999</v>
       </c>
       <c r="G132" s="5">
-        <v>16.595443</v>
-      </c>
-      <c r="H132" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.775447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>10</v>
@@ -14209,16 +13639,13 @@
         <v>0.30444700000000002</v>
       </c>
       <c r="F133" s="3">
-        <v>1.4603170000000001</v>
+        <v>1.587302</v>
       </c>
       <c r="G133" s="5">
-        <v>0.438143</v>
-      </c>
-      <c r="H133" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.36365500000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" t="s">
@@ -14231,16 +13658,13 @@
         <v>6.7276610000000003</v>
       </c>
       <c r="F134" s="3">
-        <v>804.38095199999998</v>
+        <v>807.57142899999997</v>
       </c>
       <c r="G134" s="5">
-        <v>8.9445259999999998</v>
-      </c>
-      <c r="H134" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.50056</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>11</v>
@@ -14255,16 +13679,13 @@
         <v>0.23197799999999999</v>
       </c>
       <c r="F135" s="3">
-        <v>1.9523809999999999</v>
+        <v>1.571429</v>
       </c>
       <c r="G135" s="5">
-        <v>0.45778999999999997</v>
-      </c>
-      <c r="H135" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.44253100000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" t="s">
@@ -14277,16 +13698,13 @@
         <v>4.5024170000000003</v>
       </c>
       <c r="F136" s="3">
-        <v>554.031746</v>
+        <v>546.79365099999995</v>
       </c>
       <c r="G136" s="5">
-        <v>9.0717809999999997</v>
-      </c>
-      <c r="H136" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.7299699999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>12</v>
@@ -14301,16 +13719,13 @@
         <v>0.135459</v>
       </c>
       <c r="F137" s="3">
-        <v>0.269841</v>
+        <v>0.238095</v>
       </c>
       <c r="G137" s="5">
-        <v>0.19300400000000001</v>
-      </c>
-      <c r="H137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.13352800000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" t="s">
@@ -14323,16 +13738,13 @@
         <v>3.5602049999999998</v>
       </c>
       <c r="F138" s="3">
-        <v>68.476190000000003</v>
+        <v>69.841269999999994</v>
       </c>
       <c r="G138" s="5">
-        <v>5.5557220000000003</v>
-      </c>
-      <c r="H138" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.6713259999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>33</v>
       </c>
@@ -14346,15 +13758,12 @@
         <v>12.657005</v>
       </c>
       <c r="E139" s="5"/>
-      <c r="F139" s="3">
-        <v>29.970545000000001</v>
+      <c r="F139">
+        <v>30.955881999999999</v>
       </c>
       <c r="G139" s="5"/>
-      <c r="H139">
-        <v>30.955881999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
@@ -14364,15 +13773,12 @@
         <v>13.013605</v>
       </c>
       <c r="E140" s="5"/>
-      <c r="F140" s="3">
-        <v>29.617584000000001</v>
+      <c r="F140">
+        <v>29.592106000000001</v>
       </c>
       <c r="G140" s="5"/>
-      <c r="H140">
-        <v>29.592106000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>10</v>
@@ -14384,15 +13790,12 @@
         <v>14.839798</v>
       </c>
       <c r="E141" s="5"/>
-      <c r="F141" s="3">
-        <v>15.371900999999999</v>
+      <c r="F141">
+        <v>16.721854</v>
       </c>
       <c r="G141" s="5"/>
-      <c r="H141">
-        <v>16.721854</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" t="s">
@@ -14402,15 +13805,12 @@
         <v>13.050573999999999</v>
       </c>
       <c r="E142" s="5"/>
-      <c r="F142" s="3">
-        <v>17.645303999999999</v>
+      <c r="F142">
+        <v>17.721119999999999</v>
       </c>
       <c r="G142" s="5"/>
-      <c r="H142">
-        <v>17.721119999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>11</v>
@@ -14422,15 +13822,12 @@
         <v>12.130178000000001</v>
       </c>
       <c r="E143" s="5"/>
-      <c r="F143" s="3">
-        <v>28.873239000000002</v>
+      <c r="F143">
+        <v>26.470587999999999</v>
       </c>
       <c r="G143" s="5"/>
-      <c r="H143">
-        <v>26.470587999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" t="s">
@@ -14440,15 +13837,12 @@
         <v>12.912236</v>
       </c>
       <c r="E144" s="5"/>
-      <c r="F144" s="3">
-        <v>26.084781</v>
+      <c r="F144">
+        <v>25.698036999999999</v>
       </c>
       <c r="G144" s="5"/>
-      <c r="H144">
-        <v>25.698036999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>12</v>
@@ -14460,15 +13854,12 @@
         <v>14.678898999999999</v>
       </c>
       <c r="E145" s="5"/>
-      <c r="F145" s="3">
-        <v>15.044248</v>
+      <c r="F145">
+        <v>14.018692</v>
       </c>
       <c r="G145" s="5"/>
-      <c r="H145">
-        <v>14.018692</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" t="s">
@@ -14478,15 +13869,12 @@
         <v>13.118607000000001</v>
       </c>
       <c r="E146" s="5"/>
-      <c r="F146" s="3">
-        <v>12.637568999999999</v>
+      <c r="F146">
+        <v>12.795745</v>
       </c>
       <c r="G146" s="5"/>
-      <c r="H146">
-        <v>12.795745</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>34</v>
       </c>
@@ -14499,51 +13887,48 @@
         <v>1.073E-3</v>
       </c>
       <c r="F147" s="2">
-        <v>2051.6948819999998</v>
+        <v>1145.651809</v>
       </c>
       <c r="G147" s="4">
-        <v>1.093E-3</v>
-      </c>
-      <c r="H147" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="27" t="s">
+        <v>1.085E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="30"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="33"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="31" t="s">
+      <c r="C149" s="27"/>
+      <c r="D149" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="32"/>
-      <c r="F149" s="22" t="s">
+      <c r="E149" s="35"/>
+      <c r="F149" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G149" s="23"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G149" s="37"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="44"/>
+      <c r="C150" s="46"/>
       <c r="D150" s="11">
         <v>4197.6031750000002</v>
       </c>
@@ -14557,7 +13942,7 @@
         <v>15.413743999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="41" t="s">
         <v>10</v>
@@ -14576,7 +13961,7 @@
         <v>12.653134</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="41" t="s">
         <v>11</v>
@@ -14595,7 +13980,7 @@
         <v>8.2955939999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="41" t="s">
         <v>12</v>
@@ -14614,7 +13999,7 @@
         <v>5.0334070000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>37</v>
       </c>
@@ -14635,7 +14020,7 @@
         <v>1.471732</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="41" t="s">
         <v>10</v>
@@ -14654,7 +14039,7 @@
         <v>1.4248769999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="41" t="s">
         <v>11</v>
@@ -14673,7 +14058,7 @@
         <v>0.96849799999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="41" t="s">
         <v>12</v>
@@ -14692,7 +14077,7 @@
         <v>2.1031439999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>38</v>
       </c>
@@ -14713,7 +14098,7 @@
         <v>7.9043299999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="41" t="s">
         <v>10</v>
@@ -14732,7 +14117,7 @@
         <v>6.4115289999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="41" t="s">
         <v>11</v>
@@ -14861,32 +14246,30 @@
         <v>17.765027</v>
       </c>
       <c r="F166" s="15">
-        <v>117.746285</v>
+        <v>115.290505</v>
       </c>
       <c r="G166" s="16">
-        <v>18.325963999999999</v>
+        <v>17.892112999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="A1:G1"/>
@@ -14903,22 +14286,24 @@
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14928,8 +14313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9821191-4258-4FB4-B331-453D338A5B6C}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14979,10 +14364,10 @@
         <v>7.630952107489156</v>
       </c>
       <c r="F3">
-        <v>944.32929397655766</v>
+        <v>938.17846711818333</v>
       </c>
       <c r="G3">
-        <v>7.0585068663324284</v>
+        <v>7.9468384239124381</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -15002,10 +14387,10 @@
         <v>5.7308699865973507</v>
       </c>
       <c r="F4">
-        <v>469.23505964415637</v>
+        <v>473.18267922396012</v>
       </c>
       <c r="G4">
-        <v>5.0925377433771457</v>
+        <v>5.0587080697137718</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -15025,10 +14410,10 @@
         <v>3.4871637831889681</v>
       </c>
       <c r="F5">
-        <v>285.95457992075774</v>
+        <v>280.56208218884836</v>
       </c>
       <c r="G5">
-        <v>3.6673754581149582</v>
+        <v>3.5921487660228677</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -15048,10 +14433,10 @@
         <v>2.7540916448049564</v>
       </c>
       <c r="F6">
-        <v>42.714132855098114</v>
+        <v>43.129974490155035</v>
       </c>
       <c r="G6">
-        <v>1.9188976037230003</v>
+        <v>1.6390624675413372</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -15073,11 +14458,11 @@
       </c>
       <c r="F8">
         <f>(('Identical VS Compatible'!H3*'Identical VS Compatible'!H11)+('Identical VS Compatible'!H4*'Identical VS Compatible'!H12))/('Identical VS Compatible'!H3+'Identical VS Compatible'!H4)</f>
-        <v>944.32929397655766</v>
+        <v>938.17846711818333</v>
       </c>
       <c r="G8">
         <f>(('Identical VS Compatible'!I3*'Identical VS Compatible'!I11)+('Identical VS Compatible'!I4*'Identical VS Compatible'!I12))/('Identical VS Compatible'!I3+'Identical VS Compatible'!I4)</f>
-        <v>7.0585068663324284</v>
+        <v>7.9468384239124381</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -15099,11 +14484,11 @@
       </c>
       <c r="F9">
         <f>(('Identical VS Compatible'!H4*'Identical VS Compatible'!H12)+('Identical VS Compatible'!H5*'Identical VS Compatible'!H13))/('Identical VS Compatible'!H4+'Identical VS Compatible'!H5)</f>
-        <v>945.14432531451382</v>
+        <v>938.98849543387269</v>
       </c>
       <c r="G9">
         <f>(('Identical VS Compatible'!I4*'Identical VS Compatible'!I12)+('Identical VS Compatible'!I5*'Identical VS Compatible'!I13))/('Identical VS Compatible'!I4+'Identical VS Compatible'!I5)</f>
-        <v>7.1450994457586043</v>
+        <v>8.1118896914145484</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -15125,11 +14510,11 @@
       </c>
       <c r="F10">
         <f>(('Identical VS Compatible'!H5*'Identical VS Compatible'!H13)+('Identical VS Compatible'!H6*'Identical VS Compatible'!H14))/('Identical VS Compatible'!H5+'Identical VS Compatible'!H6)</f>
-        <v>469.23505964415637</v>
+        <v>473.18267922396012</v>
       </c>
       <c r="G10">
         <f>(('Identical VS Compatible'!I5*'Identical VS Compatible'!I13)+('Identical VS Compatible'!I6*'Identical VS Compatible'!I14))/('Identical VS Compatible'!I5+'Identical VS Compatible'!I6)</f>
-        <v>5.0925377433771457</v>
+        <v>5.0587080697137718</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -15151,11 +14536,11 @@
       </c>
       <c r="F11">
         <f>(('Identical VS Compatible'!H6*'Identical VS Compatible'!H14)+('Identical VS Compatible'!H7*'Identical VS Compatible'!H15))/('Identical VS Compatible'!H6+'Identical VS Compatible'!H7)</f>
-        <v>469.38458120749641</v>
+        <v>473.38233771647288</v>
       </c>
       <c r="G11">
         <f>(('Identical VS Compatible'!I6*'Identical VS Compatible'!I14)+('Identical VS Compatible'!I7*'Identical VS Compatible'!I15))/('Identical VS Compatible'!I6+'Identical VS Compatible'!I7)</f>
-        <v>5.1455363228171116</v>
+        <v>5.0854726412222169</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -15177,11 +14562,11 @@
       </c>
       <c r="F12">
         <f>(('Identical VS Compatible'!H7*'Identical VS Compatible'!H15)+('Identical VS Compatible'!H8*'Identical VS Compatible'!H16))/('Identical VS Compatible'!H7+'Identical VS Compatible'!H8)</f>
-        <v>285.95457992075774</v>
+        <v>280.56208218884836</v>
       </c>
       <c r="G12">
         <f>(('Identical VS Compatible'!I7*'Identical VS Compatible'!I15)+('Identical VS Compatible'!I8*'Identical VS Compatible'!I16))/('Identical VS Compatible'!I7+'Identical VS Compatible'!I8)</f>
-        <v>3.6673754581149582</v>
+        <v>3.5921487660228677</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -15203,11 +14588,11 @@
       </c>
       <c r="F13">
         <f>(('Identical VS Compatible'!H8*'Identical VS Compatible'!H16)+('Identical VS Compatible'!H9*'Identical VS Compatible'!H17))/('Identical VS Compatible'!H8+'Identical VS Compatible'!H9)</f>
-        <v>286.30491495896484</v>
+        <v>280.85239709067457</v>
       </c>
       <c r="G13">
         <f>(('Identical VS Compatible'!I8*'Identical VS Compatible'!I16)+('Identical VS Compatible'!I9*'Identical VS Compatible'!I17))/('Identical VS Compatible'!I8+'Identical VS Compatible'!I9)</f>
-        <v>3.7323541494816261</v>
+        <v>3.6679975911584615</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -15229,11 +14614,11 @@
       </c>
       <c r="F14">
         <f>(('Identical VS Compatible'!H9*'Identical VS Compatible'!H17)+('Identical VS Compatible'!H10*'Identical VS Compatible'!H18))/('Identical VS Compatible'!H9+'Identical VS Compatible'!H10)</f>
-        <v>42.714132855098114</v>
+        <v>43.129974490155035</v>
       </c>
       <c r="G14">
         <f>(('Identical VS Compatible'!I9*'Identical VS Compatible'!I17)+('Identical VS Compatible'!I10*'Identical VS Compatible'!I18))/('Identical VS Compatible'!I9+'Identical VS Compatible'!I10)</f>
-        <v>1.9188976037230003</v>
+        <v>1.6390624675413372</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -15255,11 +14640,11 @@
       </c>
       <c r="F15">
         <f>(('Identical VS Compatible'!H10*'Identical VS Compatible'!H18)+('Identical VS Compatible'!H11*'Identical VS Compatible'!H19))/('Identical VS Compatible'!H10+'Identical VS Compatible'!H11)</f>
-        <v>42.793650999999997</v>
+        <v>43.206349000000003</v>
       </c>
       <c r="G15">
         <f>(('Identical VS Compatible'!I10*'Identical VS Compatible'!I18)+('Identical VS Compatible'!I11*'Identical VS Compatible'!I19))/('Identical VS Compatible'!I10+'Identical VS Compatible'!I11)</f>
-        <v>2.0189119999999998</v>
+        <v>1.7003989999999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -15304,10 +14689,10 @@
         <v>401.59171339857852</v>
       </c>
       <c r="F23">
-        <v>3370.0043227310794</v>
+        <v>3381.3640001529684</v>
       </c>
       <c r="G23">
-        <v>462.20158659804559</v>
+        <v>460.58521273746186</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -15327,10 +14712,10 @@
         <v>385.56656260653665</v>
       </c>
       <c r="F24">
-        <v>3257.0582027419064</v>
+        <v>3274.9663759251252</v>
       </c>
       <c r="G24">
-        <v>450.61457955763677</v>
+        <v>452.82565819681389</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -15350,10 +14735,10 @@
         <v>400.48043856440773</v>
       </c>
       <c r="F25">
-        <v>3339.8480593291247</v>
+        <v>3353.4580079234579</v>
       </c>
       <c r="G25">
-        <v>464.10007964254777</v>
+        <v>466.70851955827197</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -15373,10 +14758,10 @@
         <v>2.5286342658749636</v>
       </c>
       <c r="F26">
-        <v>2907.1316406144851</v>
+        <v>2886.3752160454487</v>
       </c>
       <c r="G26">
-        <v>429.28150677431893</v>
+        <v>431.92084037307757</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -15398,11 +14783,11 @@
       </c>
       <c r="F28">
         <f>(('Identical VS Compatible'!H3*'Identical VS Compatible'!H51)+('Identical VS Compatible'!H4*'Identical VS Compatible'!H52))/('Identical VS Compatible'!H3+'Identical VS Compatible'!H4)</f>
-        <v>3370.0043227310794</v>
+        <v>3381.3640001529684</v>
       </c>
       <c r="G28">
         <f>(('Identical VS Compatible'!I3*'Identical VS Compatible'!I51)+('Identical VS Compatible'!I4*'Identical VS Compatible'!I52))/('Identical VS Compatible'!I3+'Identical VS Compatible'!I4)</f>
-        <v>462.20158659804559</v>
+        <v>460.58521273746186</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -15424,11 +14809,11 @@
       </c>
       <c r="F29">
         <f>(('Identical VS Compatible'!H4*'Identical VS Compatible'!H52)+('Identical VS Compatible'!H5*'Identical VS Compatible'!H53))/('Identical VS Compatible'!H4+'Identical VS Compatible'!H5)</f>
-        <v>3372.9129046734097</v>
+        <v>3384.2834879502484</v>
       </c>
       <c r="G29">
         <f>(('Identical VS Compatible'!I4*'Identical VS Compatible'!I52)+('Identical VS Compatible'!I5*'Identical VS Compatible'!I53))/('Identical VS Compatible'!I4+'Identical VS Compatible'!I5)</f>
-        <v>467.87179821026325</v>
+        <v>470.15130293583547</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -15450,11 +14835,11 @@
       </c>
       <c r="F30">
         <f>(('Identical VS Compatible'!H5*'Identical VS Compatible'!H53)+('Identical VS Compatible'!H6*'Identical VS Compatible'!H54))/('Identical VS Compatible'!H5+'Identical VS Compatible'!H6)</f>
-        <v>3257.0582027419064</v>
+        <v>3274.9663759251252</v>
       </c>
       <c r="G30">
         <f>(('Identical VS Compatible'!I5*'Identical VS Compatible'!I53)+('Identical VS Compatible'!I6*'Identical VS Compatible'!I54))/('Identical VS Compatible'!I5+'Identical VS Compatible'!I6)</f>
-        <v>450.61457955763677</v>
+        <v>452.82565819681389</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -15476,11 +14861,11 @@
       </c>
       <c r="F31">
         <f>(('Identical VS Compatible'!H6*'Identical VS Compatible'!H54)+('Identical VS Compatible'!H7*'Identical VS Compatible'!H55))/('Identical VS Compatible'!H6+'Identical VS Compatible'!H7)</f>
-        <v>3258.0960630303784</v>
+        <v>3276.348241487467</v>
       </c>
       <c r="G31">
         <f>(('Identical VS Compatible'!I6*'Identical VS Compatible'!I54)+('Identical VS Compatible'!I7*'Identical VS Compatible'!I55))/('Identical VS Compatible'!I6+'Identical VS Compatible'!I7)</f>
-        <v>455.30417319345241</v>
+        <v>455.22146450598353</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -15502,11 +14887,11 @@
       </c>
       <c r="F32">
         <f>(('Identical VS Compatible'!H7*'Identical VS Compatible'!H55)+('Identical VS Compatible'!H8*'Identical VS Compatible'!H56))/('Identical VS Compatible'!H7+'Identical VS Compatible'!H8)</f>
-        <v>3339.8480593291247</v>
+        <v>3353.4580079234579</v>
       </c>
       <c r="G32">
         <f>(('Identical VS Compatible'!I7*'Identical VS Compatible'!I55)+('Identical VS Compatible'!I8*'Identical VS Compatible'!I56))/('Identical VS Compatible'!I7+'Identical VS Compatible'!I8)</f>
-        <v>464.10007964254777</v>
+        <v>466.70851955827197</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -15528,11 +14913,11 @@
       </c>
       <c r="F33">
         <f>(('Identical VS Compatible'!H8*'Identical VS Compatible'!H56)+('Identical VS Compatible'!H9*'Identical VS Compatible'!H57))/('Identical VS Compatible'!H8+'Identical VS Compatible'!H9)</f>
-        <v>3343.9398483041264</v>
+        <v>3356.9280378888516</v>
       </c>
       <c r="G33">
         <f>(('Identical VS Compatible'!I8*'Identical VS Compatible'!I56)+('Identical VS Compatible'!I9*'Identical VS Compatible'!I57))/('Identical VS Compatible'!I8+'Identical VS Compatible'!I9)</f>
-        <v>472.32302168454959</v>
+        <v>476.56314841554519</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -15554,11 +14939,11 @@
       </c>
       <c r="F34">
         <f>(('Identical VS Compatible'!H9*'Identical VS Compatible'!H57)+('Identical VS Compatible'!H10*'Identical VS Compatible'!H58))/('Identical VS Compatible'!H9+'Identical VS Compatible'!H10)</f>
-        <v>2907.1316406144851</v>
+        <v>2886.3752160454487</v>
       </c>
       <c r="G34">
         <f>(('Identical VS Compatible'!I9*'Identical VS Compatible'!I57)+('Identical VS Compatible'!I10*'Identical VS Compatible'!I58))/('Identical VS Compatible'!I9+'Identical VS Compatible'!I10)</f>
-        <v>429.28150677431893</v>
+        <v>431.92084037307757</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -15580,11 +14965,11 @@
       </c>
       <c r="F35">
         <f>(('Identical VS Compatible'!H10*'Identical VS Compatible'!H58)+('Identical VS Compatible'!H11*'Identical VS Compatible'!H59))/('Identical VS Compatible'!H10+'Identical VS Compatible'!H11)</f>
-        <v>2912.5436599999998</v>
+        <v>2891.486406</v>
       </c>
       <c r="G35">
         <f>(('Identical VS Compatible'!I10*'Identical VS Compatible'!I58)+('Identical VS Compatible'!I11*'Identical VS Compatible'!I59))/('Identical VS Compatible'!I10+'Identical VS Compatible'!I11)</f>
-        <v>451.65598399999999</v>
+        <v>448.08406000000002</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -15629,10 +15014,10 @@
         <v>7440.6964551433484</v>
       </c>
       <c r="F42">
-        <v>66402.088114415907</v>
+        <v>66697.835208550794</v>
       </c>
       <c r="G42">
-        <v>9123.4876560775519</v>
+        <v>9091.4500056365487</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -15652,10 +15037,10 @@
         <v>4967.7718648945865</v>
       </c>
       <c r="F43">
-        <v>40870.609749471114</v>
+        <v>41025.897777566672</v>
       </c>
       <c r="G43">
-        <v>5661.4171048327935</v>
+        <v>5675.6667915934322</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -15675,10 +15060,10 @@
         <v>2265.1977038623859</v>
       </c>
       <c r="F44">
-        <v>19662.54106124676</v>
+        <v>19694.269548632645</v>
       </c>
       <c r="G44">
-        <v>2711.8710951705002</v>
+        <v>2731.1344426238093</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -15698,10 +15083,10 @@
         <v>6.3794384507995554</v>
       </c>
       <c r="F45">
-        <v>4375.5882666695334</v>
+        <v>4385.4517070975771</v>
       </c>
       <c r="G45">
-        <v>633.14061183703359</v>
+        <v>646.36286936577267</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -15723,11 +15108,11 @@
       </c>
       <c r="F47">
         <f>(('Identical VS Compatible'!H3*'Identical VS Compatible'!H75)+('Identical VS Compatible'!H4*'Identical VS Compatible'!H76))/('Identical VS Compatible'!H3+'Identical VS Compatible'!H4)</f>
-        <v>66402.088114415907</v>
+        <v>66697.835208550794</v>
       </c>
       <c r="G47">
         <f>(('Identical VS Compatible'!I3*'Identical VS Compatible'!I75)+('Identical VS Compatible'!I4*'Identical VS Compatible'!I76))/('Identical VS Compatible'!I3+'Identical VS Compatible'!I4)</f>
-        <v>9123.4876560775519</v>
+        <v>9091.4500056365487</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -15749,11 +15134,11 @@
       </c>
       <c r="F48">
         <f>(('Identical VS Compatible'!H4*'Identical VS Compatible'!H76)+('Identical VS Compatible'!H5*'Identical VS Compatible'!H77))/('Identical VS Compatible'!H4+'Identical VS Compatible'!H5)</f>
-        <v>66459.398401266924</v>
+        <v>66755.422476869237</v>
       </c>
       <c r="G48">
         <f>(('Identical VS Compatible'!I4*'Identical VS Compatible'!I76)+('Identical VS Compatible'!I5*'Identical VS Compatible'!I77))/('Identical VS Compatible'!I4+'Identical VS Compatible'!I5)</f>
-        <v>9235.4130737988107</v>
+        <v>9280.2741979869897</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
@@ -15775,11 +15160,11 @@
       </c>
       <c r="F49">
         <f>(('Identical VS Compatible'!H5*'Identical VS Compatible'!H77)+('Identical VS Compatible'!H6*'Identical VS Compatible'!H78))/('Identical VS Compatible'!H5+'Identical VS Compatible'!H6)</f>
-        <v>40870.609749471114</v>
+        <v>41025.897777566672</v>
       </c>
       <c r="G49">
         <f>(('Identical VS Compatible'!I5*'Identical VS Compatible'!I77)+('Identical VS Compatible'!I6*'Identical VS Compatible'!I78))/('Identical VS Compatible'!I5+'Identical VS Compatible'!I6)</f>
-        <v>5661.4171048327935</v>
+        <v>5675.6667915934322</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
@@ -15801,11 +15186,11 @@
       </c>
       <c r="F50">
         <f>(('Identical VS Compatible'!H6*'Identical VS Compatible'!H78)+('Identical VS Compatible'!H7*'Identical VS Compatible'!H79))/('Identical VS Compatible'!H6+'Identical VS Compatible'!H7)</f>
-        <v>40883.633152855575</v>
+        <v>41043.208573715208</v>
       </c>
       <c r="G50">
         <f>(('Identical VS Compatible'!I6*'Identical VS Compatible'!I78)+('Identical VS Compatible'!I7*'Identical VS Compatible'!I79))/('Identical VS Compatible'!I6+'Identical VS Compatible'!I7)</f>
-        <v>5720.3360720144256</v>
+        <v>5705.6955632471845</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
@@ -15827,11 +15212,11 @@
       </c>
       <c r="F51">
         <f>(('Identical VS Compatible'!H7*'Identical VS Compatible'!H79)+('Identical VS Compatible'!H8*'Identical VS Compatible'!H80))/('Identical VS Compatible'!H7+'Identical VS Compatible'!H8)</f>
-        <v>19662.54106124676</v>
+        <v>19694.269548632645</v>
       </c>
       <c r="G51">
         <f>(('Identical VS Compatible'!I7*'Identical VS Compatible'!I79)+('Identical VS Compatible'!I8*'Identical VS Compatible'!I80))/('Identical VS Compatible'!I7+'Identical VS Compatible'!I8)</f>
-        <v>2711.8710951705002</v>
+        <v>2731.1344426238093</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
@@ -15853,11 +15238,11 @@
       </c>
       <c r="F52">
         <f>(('Identical VS Compatible'!H8*'Identical VS Compatible'!H80)+('Identical VS Compatible'!H9*'Identical VS Compatible'!H81))/('Identical VS Compatible'!H8+'Identical VS Compatible'!H9)</f>
-        <v>19686.630471095868</v>
+        <v>19714.648424801311</v>
       </c>
       <c r="G52">
         <f>(('Identical VS Compatible'!I8*'Identical VS Compatible'!I80)+('Identical VS Compatible'!I9*'Identical VS Compatible'!I81))/('Identical VS Compatible'!I8+'Identical VS Compatible'!I9)</f>
-        <v>2759.9201255825233</v>
+        <v>2788.8028055601599</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
@@ -15879,11 +15264,11 @@
       </c>
       <c r="F53">
         <f>(('Identical VS Compatible'!H9*'Identical VS Compatible'!H81)+('Identical VS Compatible'!H10*'Identical VS Compatible'!H82))/('Identical VS Compatible'!H9+'Identical VS Compatible'!H10)</f>
-        <v>4375.5882666695334</v>
+        <v>4385.4517070975771</v>
       </c>
       <c r="G53">
         <f>(('Identical VS Compatible'!I9*'Identical VS Compatible'!I81)+('Identical VS Compatible'!I10*'Identical VS Compatible'!I82))/('Identical VS Compatible'!I9+'Identical VS Compatible'!I10)</f>
-        <v>633.14061183703359</v>
+        <v>646.36286936577267</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
@@ -15905,20 +15290,15 @@
       </c>
       <c r="F54">
         <f>(('Identical VS Compatible'!H10*'Identical VS Compatible'!H82)+('Identical VS Compatible'!H11*'Identical VS Compatible'!H83))/('Identical VS Compatible'!H10+'Identical VS Compatible'!H11)</f>
-        <v>4383.7340169999998</v>
+        <v>4393.2174599999998</v>
       </c>
       <c r="G54">
         <f>(('Identical VS Compatible'!I10*'Identical VS Compatible'!I82)+('Identical VS Compatible'!I11*'Identical VS Compatible'!I83))/('Identical VS Compatible'!I10+'Identical VS Compatible'!I11)</f>
-        <v>666.14038000000005</v>
+        <v>670.55087800000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:G21"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -15926,6 +15306,11 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15936,8 +15321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB009BC-50CA-4201-85F6-EEF4C2C550C5}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16003,14 +15388,14 @@
         <v>47</v>
       </c>
       <c r="C5">
-        <v>5026.1649668214113</v>
+        <v>5030.7133351408584</v>
       </c>
       <c r="D5">
-        <v>2114.5011404704774</v>
+        <v>2114.9568995858335</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>0.29612099329377634</v>
+        <v>0.29597740031544101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -16051,14 +15436,14 @@
         <v>47</v>
       </c>
       <c r="C8">
-        <v>3746.4463750679811</v>
+        <v>3744.0148556506147</v>
       </c>
       <c r="D8">
-        <v>802.72456167004907</v>
+        <v>805.90365185190956</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>0.17645513277758704</v>
+        <v>0.17712485410959031</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -16099,14 +15484,14 @@
         <v>47</v>
       </c>
       <c r="C11">
-        <v>1564.8848085147335</v>
+        <v>1577.2777018673153</v>
       </c>
       <c r="D11">
-        <v>552.28330855365016</v>
+        <v>545.28750105674419</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>0.26085944904478819</v>
+        <v>0.25690023576451387</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -16147,14 +15532,14 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>471.69540206272904</v>
+        <v>474.28782741310528</v>
       </c>
       <c r="D14">
-        <v>68.255438141081001</v>
+        <v>69.62728026938278</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
-        <v>0.1264104675072221</v>
+        <v>0.12801130045100328</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -16176,11 +15561,11 @@
       </c>
       <c r="E27">
         <f>(('Identical VS Compatible'!H115*'Identical VS Compatible'!H123)+('Identical VS Compatible'!H116*'Identical VS Compatible'!H124))/('Identical VS Compatible'!H115+'Identical VS Compatible'!H116)</f>
-        <v>5026.1649668214113</v>
+        <v>5030.7133351408584</v>
       </c>
       <c r="F27">
         <f>(('Identical VS Compatible'!I115*'Identical VS Compatible'!I123)+('Identical VS Compatible'!I116*'Identical VS Compatible'!I124))/('Identical VS Compatible'!I115+'Identical VS Compatible'!I116)</f>
-        <v>36.238572273541557</v>
+        <v>28.350930815981293</v>
       </c>
       <c r="H27">
         <v>7762.4434085042112</v>
@@ -16189,7 +15574,7 @@
         <v>5851.2874166420497</v>
       </c>
       <c r="J27">
-        <v>5026.1649668214113</v>
+        <v>5030.7133351408584</v>
       </c>
       <c r="L27">
         <v>7762.4434085042112</v>
@@ -16217,11 +15602,11 @@
       </c>
       <c r="E28">
         <f>(('Identical VS Compatible'!H116*'Identical VS Compatible'!H124)+('Identical VS Compatible'!H117*'Identical VS Compatible'!H125))/('Identical VS Compatible'!H116+'Identical VS Compatible'!H117)</f>
-        <v>5034.4340741345068</v>
+        <v>5038.9891115512892</v>
       </c>
       <c r="F28">
         <f>(('Identical VS Compatible'!I116*'Identical VS Compatible'!I124)+('Identical VS Compatible'!I117*'Identical VS Compatible'!I125))/('Identical VS Compatible'!I116+'Identical VS Compatible'!I117)</f>
-        <v>36.52538684152411</v>
+        <v>28.742695171396811</v>
       </c>
       <c r="H28">
         <v>4772.2861738764987</v>
@@ -16230,7 +15615,7 @@
         <v>4071.5606868948071</v>
       </c>
       <c r="J28">
-        <v>3746.4463750679811</v>
+        <v>3744.0148556506147</v>
       </c>
       <c r="L28">
         <v>5851.2874166420497</v>
@@ -16258,11 +15643,11 @@
       </c>
       <c r="E29">
         <f>(('Identical VS Compatible'!H117*'Identical VS Compatible'!H125)+('Identical VS Compatible'!H118*'Identical VS Compatible'!H126))/('Identical VS Compatible'!H117+'Identical VS Compatible'!H118)</f>
-        <v>3746.4463750679811</v>
+        <v>3744.0148556506147</v>
       </c>
       <c r="F29">
         <f>(('Identical VS Compatible'!I117*'Identical VS Compatible'!I125)+('Identical VS Compatible'!I118*'Identical VS Compatible'!I126))/('Identical VS Compatible'!I117+'Identical VS Compatible'!I118)</f>
-        <v>29.27958847101112</v>
+        <v>25.140454471298508</v>
       </c>
       <c r="H29">
         <v>1493.4455990274168</v>
@@ -16271,13 +15656,13 @@
         <v>1788.2899713166366</v>
       </c>
       <c r="J29">
-        <v>1564.8848085147335</v>
+        <v>1577.2777018673153</v>
       </c>
       <c r="L29">
-        <v>5026.1649668214113</v>
+        <v>5030.7133351408584</v>
       </c>
       <c r="N29">
-        <v>2114.5011404704774</v>
+        <v>2114.9568995858335</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -16299,11 +15684,11 @@
       </c>
       <c r="E30">
         <f>(('Identical VS Compatible'!H118*'Identical VS Compatible'!H126)+('Identical VS Compatible'!H119*'Identical VS Compatible'!H127))/('Identical VS Compatible'!H118+'Identical VS Compatible'!H119)</f>
-        <v>3748.6335154110316</v>
+        <v>3746.9181799254166</v>
       </c>
       <c r="F30">
         <f>(('Identical VS Compatible'!I118*'Identical VS Compatible'!I126)+('Identical VS Compatible'!I119*'Identical VS Compatible'!I127))/('Identical VS Compatible'!I118+'Identical VS Compatible'!I119)</f>
-        <v>29.513647592427134</v>
+        <v>25.230207840648582</v>
       </c>
       <c r="H30">
         <v>361.02989268425119</v>
@@ -16312,7 +15697,7 @@
         <v>784.29673067751412</v>
       </c>
       <c r="J30">
-        <v>471.69540206272904</v>
+        <v>474.28782741310528</v>
       </c>
       <c r="L30">
         <v>4772.2861738764987</v>
@@ -16340,11 +15725,11 @@
       </c>
       <c r="E31">
         <f>(('Identical VS Compatible'!H119*'Identical VS Compatible'!H127)+('Identical VS Compatible'!H120*'Identical VS Compatible'!H128))/('Identical VS Compatible'!H119+'Identical VS Compatible'!H120)</f>
-        <v>1564.8848085147335</v>
+        <v>1577.2777018673153</v>
       </c>
       <c r="F31">
         <f>(('Identical VS Compatible'!I119*'Identical VS Compatible'!I127)+('Identical VS Compatible'!I120*'Identical VS Compatible'!I128))/('Identical VS Compatible'!I119+'Identical VS Compatible'!I120)</f>
-        <v>16.855641289158157</v>
+        <v>16.786267359461412</v>
       </c>
       <c r="L31">
         <v>4071.5606868948071</v>
@@ -16372,11 +15757,11 @@
       </c>
       <c r="E32">
         <f>(('Identical VS Compatible'!H120*'Identical VS Compatible'!H128)+('Identical VS Compatible'!H121*'Identical VS Compatible'!H129))/('Identical VS Compatible'!H120+'Identical VS Compatible'!H121)</f>
-        <v>1568.5440089031458</v>
+        <v>1580.3886117660909</v>
       </c>
       <c r="F32">
         <f>(('Identical VS Compatible'!I120*'Identical VS Compatible'!I128)+('Identical VS Compatible'!I121*'Identical VS Compatible'!I129))/('Identical VS Compatible'!I120+'Identical VS Compatible'!I121)</f>
-        <v>17.071875320311115</v>
+        <v>17.080300723596938</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -16385,13 +15770,13 @@
         <v>875.42220370955408</v>
       </c>
       <c r="J32">
-        <v>2114.5011404704774</v>
+        <v>2114.9568995858335</v>
       </c>
       <c r="L32">
-        <v>3746.4463750679811</v>
+        <v>3744.0148556506147</v>
       </c>
       <c r="N32">
-        <v>802.72456167004907</v>
+        <v>805.90365185190956</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -16413,11 +15798,11 @@
       </c>
       <c r="E33">
         <f>(('Identical VS Compatible'!H121*'Identical VS Compatible'!H129)+('Identical VS Compatible'!H122*'Identical VS Compatible'!H130))/('Identical VS Compatible'!H121+'Identical VS Compatible'!H122)</f>
-        <v>471.69540206272904</v>
+        <v>474.28782741310528</v>
       </c>
       <c r="F33">
         <f>(('Identical VS Compatible'!I121*'Identical VS Compatible'!I129)+('Identical VS Compatible'!I122*'Identical VS Compatible'!I130))/('Identical VS Compatible'!I121+'Identical VS Compatible'!I122)</f>
-        <v>34.342451755765047</v>
+        <v>38.021822554028191</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -16426,7 +15811,7 @@
         <v>611.21288792567509</v>
       </c>
       <c r="J33">
-        <v>802.72456167004907</v>
+        <v>805.90365185190956</v>
       </c>
       <c r="L33">
         <v>1493.4455990274168</v>
@@ -16454,11 +15839,11 @@
       </c>
       <c r="E34">
         <f>(('Identical VS Compatible'!H122*'Identical VS Compatible'!H130)+('Identical VS Compatible'!H123*'Identical VS Compatible'!H131))/('Identical VS Compatible'!H122+'Identical VS Compatible'!H123)</f>
-        <v>460.75469035004426</v>
+        <v>463.41234053016012</v>
       </c>
       <c r="F34">
         <f>(('Identical VS Compatible'!I122*'Identical VS Compatible'!I130)+('Identical VS Compatible'!I123*'Identical VS Compatible'!I131))/('Identical VS Compatible'!I122+'Identical VS Compatible'!I123)</f>
-        <v>33.907076859459373</v>
+        <v>37.462704098293635</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -16467,7 +15852,7 @@
         <v>265.2636298662236</v>
       </c>
       <c r="J34">
-        <v>552.28330855365016</v>
+        <v>545.28750105674419</v>
       </c>
       <c r="L34">
         <v>1788.2899713166366</v>
@@ -16484,13 +15869,13 @@
         <v>118.02875741010938</v>
       </c>
       <c r="J35">
-        <v>68.255438141081001</v>
+        <v>69.62728026938278</v>
       </c>
       <c r="L35">
-        <v>1564.8848085147335</v>
+        <v>1577.2777018673153</v>
       </c>
       <c r="N35">
-        <v>552.28330855365016</v>
+        <v>545.28750105674419</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -16512,11 +15897,11 @@
       </c>
       <c r="E36">
         <f>(('Identical VS Compatible'!H115*'Identical VS Compatible'!H131)+('Identical VS Compatible'!H116*'Identical VS Compatible'!H132))/('Identical VS Compatible'!H115+'Identical VS Compatible'!H116)</f>
-        <v>2114.5011404704774</v>
+        <v>2114.9568995858335</v>
       </c>
       <c r="F36">
         <f>(('Identical VS Compatible'!I115*'Identical VS Compatible'!I131)+('Identical VS Compatible'!I116*'Identical VS Compatible'!I132))/('Identical VS Compatible'!I115+'Identical VS Compatible'!I116)</f>
-        <v>16.057150904904518</v>
+        <v>14.241690480103943</v>
       </c>
       <c r="L36">
         <v>361.02989268425119</v>
@@ -16544,11 +15929,11 @@
       </c>
       <c r="E37">
         <f>(('Identical VS Compatible'!H116*'Identical VS Compatible'!H132)+('Identical VS Compatible'!H117*'Identical VS Compatible'!H133))/('Identical VS Compatible'!H116+'Identical VS Compatible'!H117)</f>
-        <v>2117.9771008428443</v>
+        <v>2118.43268071578</v>
       </c>
       <c r="F37">
         <f>(('Identical VS Compatible'!I116*'Identical VS Compatible'!I132)+('Identical VS Compatible'!I117*'Identical VS Compatible'!I133))/('Identical VS Compatible'!I116+'Identical VS Compatible'!I117)</f>
-        <v>16.174545840458503</v>
+        <v>14.427951916493623</v>
       </c>
       <c r="L37">
         <v>784.29673067751412</v>
@@ -16576,17 +15961,17 @@
       </c>
       <c r="E38">
         <f>(('Identical VS Compatible'!H117*'Identical VS Compatible'!H133)+('Identical VS Compatible'!H118*'Identical VS Compatible'!H134))/('Identical VS Compatible'!H117+'Identical VS Compatible'!H118)</f>
-        <v>802.72456167004907</v>
+        <v>805.90365185190956</v>
       </c>
       <c r="F38">
         <f>(('Identical VS Compatible'!I117*'Identical VS Compatible'!I133)+('Identical VS Compatible'!I118*'Identical VS Compatible'!I134))/('Identical VS Compatible'!I117+'Identical VS Compatible'!I118)</f>
-        <v>8.6601732082960385</v>
+        <v>10.182984639184644</v>
       </c>
       <c r="L38">
-        <v>471.69540206272904</v>
+        <v>474.28782741310528</v>
       </c>
       <c r="N38">
-        <v>68.255438141081001</v>
+        <v>69.62728026938278</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -16608,11 +15993,11 @@
       </c>
       <c r="E39">
         <f>(('Identical VS Compatible'!H118*'Identical VS Compatible'!H134)+('Identical VS Compatible'!H119*'Identical VS Compatible'!H135))/('Identical VS Compatible'!H118+'Identical VS Compatible'!H119)</f>
-        <v>803.1950640157371</v>
+        <v>806.52963665223263</v>
       </c>
       <c r="F39">
         <f>(('Identical VS Compatible'!I118*'Identical VS Compatible'!I134)+('Identical VS Compatible'!I119*'Identical VS Compatible'!I135))/('Identical VS Compatible'!I118+'Identical VS Compatible'!I119)</f>
-        <v>8.7293942614152424</v>
+        <v>10.223910579803309</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -16634,11 +16019,11 @@
       </c>
       <c r="E40">
         <f>(('Identical VS Compatible'!H119*'Identical VS Compatible'!H135)+('Identical VS Compatible'!H120*'Identical VS Compatible'!H136))/('Identical VS Compatible'!H119+'Identical VS Compatible'!H120)</f>
-        <v>552.28330855365016</v>
+        <v>545.28750105674419</v>
       </c>
       <c r="F40">
         <f>(('Identical VS Compatible'!I119*'Identical VS Compatible'!I135)+('Identical VS Compatible'!I120*'Identical VS Compatible'!I136))/('Identical VS Compatible'!I119+'Identical VS Compatible'!I120)</f>
-        <v>8.7967914636804583</v>
+        <v>7.4833210612948529</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -16660,11 +16045,11 @@
       </c>
       <c r="E41">
         <f>(('Identical VS Compatible'!H120*'Identical VS Compatible'!H136)+('Identical VS Compatible'!H121*'Identical VS Compatible'!H137))/('Identical VS Compatible'!H120+'Identical VS Compatible'!H121)</f>
-        <v>553.57370610518399</v>
+        <v>546.3625781349233</v>
       </c>
       <c r="F41">
         <f>(('Identical VS Compatible'!I120*'Identical VS Compatible'!I136)+('Identical VS Compatible'!I121*'Identical VS Compatible'!I137))/('Identical VS Compatible'!I120+'Identical VS Compatible'!I121)</f>
-        <v>8.9052763018587235</v>
+        <v>7.6069624096390287</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -16686,11 +16071,11 @@
       </c>
       <c r="E42">
         <f>(('Identical VS Compatible'!H121*'Identical VS Compatible'!H137)+('Identical VS Compatible'!H122*'Identical VS Compatible'!H138))/('Identical VS Compatible'!H121+'Identical VS Compatible'!H122)</f>
-        <v>68.255438141081001</v>
+        <v>69.62728026938278</v>
       </c>
       <c r="F42">
         <f>(('Identical VS Compatible'!I121*'Identical VS Compatible'!I137)+('Identical VS Compatible'!I122*'Identical VS Compatible'!I138))/('Identical VS Compatible'!I121+'Identical VS Compatible'!I122)</f>
-        <v>5.4979172924170499</v>
+        <v>5.6251971643607206</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -16712,11 +16097,11 @@
       </c>
       <c r="E43">
         <f>(('Identical VS Compatible'!H122*'Identical VS Compatible'!H138)+('Identical VS Compatible'!H123*'Identical VS Compatible'!H139))/('Identical VS Compatible'!H122+'Identical VS Compatible'!H123)</f>
-        <v>67.447852578718752</v>
+        <v>68.819013890053981</v>
       </c>
       <c r="F43">
         <f>(('Identical VS Compatible'!I122*'Identical VS Compatible'!I138)+('Identical VS Compatible'!I123*'Identical VS Compatible'!I139))/('Identical VS Compatible'!I122+'Identical VS Compatible'!I123)</f>
-        <v>5.423510357122165</v>
+        <v>5.539040511126097</v>
       </c>
     </row>
   </sheetData>
